--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D9855-6334-4BAC-AEDD-2F0AE5B6AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B4A8B-C249-4D2F-91CA-A54EFB4B127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="267">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -299,9 +299,6 @@
     <t>The character reacts when completing a layer</t>
   </si>
   <si>
-    <t>The player can press a button to flatten the character</t>
-  </si>
-  <si>
     <t>The player is notified when an enemy is dodged narrowly</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
     <t>Add a short cooldown to flattening</t>
   </si>
   <si>
-    <t>Flatten player in response to down input (ensure collider flattens as well)</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
@@ -837,6 +831,15 @@
   </si>
   <si>
     <t>Dodge popups change appearance based on multiplier</t>
+  </si>
+  <si>
+    <t>The player can press a button to shrink the character</t>
+  </si>
+  <si>
+    <t>Shrink player in response to down input (ensure collider flattens as well)</t>
+  </si>
+  <si>
+    <t>The character animates when shrinking</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1646,6 +1649,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1698,12 +1713,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,316 +2047,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="122"/>
-      <c r="B1" s="124" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="125" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="127"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="125" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="123"/>
+      <c r="D8" s="127"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="123"/>
+      <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="125" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="123"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="125" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="125" t="s">
+      <c r="A15" s="127"/>
+      <c r="B15" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="123"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="123"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="123"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="123"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="123"/>
+      <c r="D40" s="127"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="123"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="123"/>
+      <c r="D41" s="127"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="123"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="123"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="123"/>
+      <c r="A44" s="127"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="123"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="123"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="123"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="123"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="123"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2413,15 +2422,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2464,14 +2473,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2490,14 +2499,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="133" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2516,14 +2525,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="133" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2542,14 +2551,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="128"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4963,11 +4972,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5313,104 +5322,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6080,15 +6089,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="123"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="127"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="123"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="127"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7660,9 +7669,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7682,14 +7691,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="138" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="134"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7708,14 +7717,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="133" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7734,14 +7743,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="134"/>
+      <c r="F3" s="138"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7760,14 +7769,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7823,7 +7832,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="65"/>
       <c r="I6" s="64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7853,7 +7862,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="66"/>
       <c r="I7" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7954,7 +7963,7 @@
     <row r="11" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="47">
         <v>2</v>
@@ -7982,7 +7991,7 @@
     <row r="12" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="49">
         <v>2</v>
@@ -8010,7 +8019,7 @@
     <row r="13" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="47">
         <v>2</v>
@@ -8063,70 +8072,66 @@
       <c r="S14" s="47"/>
       <c r="T14" s="47"/>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="123" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
-      <c r="B15" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="47">
+      <c r="B15" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+    </row>
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="47">
         <v>2</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>3</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+    </row>
+    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="18"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -8143,13 +8148,13 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
-      <c r="B18" s="62" t="s">
-        <v>81</v>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -8174,14 +8179,14 @@
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="62" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="1"/>
@@ -8199,154 +8204,154 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="47">
+    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="47">
         <v>2</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47">
         <v>2</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-    </row>
-    <row r="21" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="49">
+      <c r="F21" s="18"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+    </row>
+    <row r="22" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="49">
         <v>2</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49">
         <v>3</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-    </row>
-    <row r="22" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="60">
+      <c r="F22" s="18"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="60">
         <v>1</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60">
         <v>3</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-    </row>
-    <row r="23" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="47">
+      <c r="F23" s="18"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+    </row>
+    <row r="24" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="47">
         <v>3</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47">
         <v>2</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+    </row>
+    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="1"/>
@@ -8365,15 +8370,15 @@
     </row>
     <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
+      <c r="B26" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="20"/>
@@ -8391,70 +8396,70 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="47">
-        <v>2</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47">
+    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>3</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="47">
+        <v>2</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47">
+        <v>3</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
     </row>
     <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
+      <c r="A29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="18"/>
       <c r="G29" s="20"/>
       <c r="H29" s="1"/>
@@ -8471,17 +8476,17 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
+    <row r="30" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="20"/>
@@ -8499,98 +8504,98 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="76">
-        <v>2</v>
-      </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76">
+    <row r="31" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-    </row>
-    <row r="32" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="51" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="51">
-        <v>3</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51">
-        <v>3</v>
+      <c r="C32" s="76">
+        <v>2</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76">
+        <v>2</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-    </row>
-    <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+    </row>
+    <row r="33" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="51">
+        <v>3</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51">
+        <v>3</v>
+      </c>
       <c r="F33" s="18"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+    </row>
+    <row r="34" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="18"/>
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
@@ -8608,9 +8613,9 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -8635,45 +8640,45 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-    </row>
-    <row r="37" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
-      <c r="B37" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="78">
-        <v>3</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78">
-        <v>3</v>
+      <c r="B37" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>1</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
@@ -8691,17 +8696,17 @@
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
     </row>
-    <row r="38" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="44"/>
-      <c r="B38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="78">
         <v>3</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>2</v>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78">
+        <v>3</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
@@ -8719,42 +8724,42 @@
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
     </row>
-    <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="44"/>
+      <c r="B39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+    </row>
+    <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="18"/>
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
@@ -8771,13 +8776,13 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -8802,14 +8807,14 @@
     <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="20"/>
@@ -8830,14 +8835,14 @@
     <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="20"/>
@@ -8857,10 +8862,16 @@
     </row>
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
       <c r="F44" s="18"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
@@ -10350,6 +10361,28 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10374,8 +10407,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10481,11 +10514,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10831,104 +10864,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="55"/>
       <c r="H18" s="53"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="141" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
+      <c r="J18" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -10976,7 +11009,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -10991,7 +11024,7 @@
       <c r="A20" s="53"/>
       <c r="B20" s="55"/>
       <c r="C20" s="99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="100">
         <v>2</v>
@@ -11003,21 +11036,21 @@
       <c r="G20" s="55"/>
       <c r="H20" s="53"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="81">
+      <c r="J20" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="100">
         <v>2</v>
       </c>
-      <c r="L20" s="81">
+      <c r="L20" s="100">
         <v>3</v>
       </c>
-      <c r="M20" s="83"/>
+      <c r="M20" s="101"/>
       <c r="N20" s="29"/>
       <c r="O20" s="1"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -11032,7 +11065,7 @@
       <c r="A21" s="53"/>
       <c r="B21" s="55"/>
       <c r="C21" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
@@ -11042,19 +11075,19 @@
       <c r="G21" s="55"/>
       <c r="H21" s="53"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="83">
+      <c r="J21" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101">
         <v>0.5</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="1"/>
       <c r="P21" s="66"/>
       <c r="Q21" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -11069,7 +11102,7 @@
       <c r="A22" s="53"/>
       <c r="B22" s="55"/>
       <c r="C22" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="100"/>
@@ -11079,12 +11112,12 @@
       <c r="G22" s="55"/>
       <c r="H22" s="53"/>
       <c r="I22" s="55"/>
-      <c r="J22" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="83">
+      <c r="J22" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101">
         <v>0.5</v>
       </c>
       <c r="N22" s="29"/>
@@ -11104,7 +11137,7 @@
       <c r="A23" s="53"/>
       <c r="B23" s="55"/>
       <c r="C23" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
@@ -11114,12 +11147,12 @@
       <c r="G23" s="55"/>
       <c r="H23" s="53"/>
       <c r="I23" s="55"/>
-      <c r="J23" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="83">
+      <c r="J23" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="101">
         <v>0.5</v>
       </c>
       <c r="N23" s="29"/>
@@ -11139,7 +11172,7 @@
       <c r="A24" s="53"/>
       <c r="B24" s="55"/>
       <c r="C24" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
@@ -11149,12 +11182,12 @@
       <c r="G24" s="55"/>
       <c r="H24" s="53"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="83">
+      <c r="J24" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101">
         <v>0.5</v>
       </c>
       <c r="N24" s="29"/>
@@ -11180,12 +11213,12 @@
       <c r="G25" s="55"/>
       <c r="H25" s="53"/>
       <c r="I25" s="55"/>
-      <c r="J25" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="83">
+      <c r="J25" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101">
         <v>2</v>
       </c>
       <c r="N25" s="29"/>
@@ -11205,7 +11238,7 @@
       <c r="A26" s="53"/>
       <c r="B26" s="55"/>
       <c r="C26" s="99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="100">
         <v>2</v>
@@ -11238,7 +11271,7 @@
       <c r="A27" s="53"/>
       <c r="B27" s="55"/>
       <c r="C27" s="101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
@@ -11249,7 +11282,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="55"/>
       <c r="J27" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="81">
         <v>2</v>
@@ -11275,7 +11308,7 @@
       <c r="A28" s="53"/>
       <c r="B28" s="55"/>
       <c r="C28" s="101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="100"/>
@@ -11286,7 +11319,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="55"/>
       <c r="J28" s="96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
@@ -11310,7 +11343,7 @@
       <c r="A29" s="53"/>
       <c r="B29" s="55"/>
       <c r="C29" s="101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D29" s="100"/>
       <c r="E29" s="100"/>
@@ -11321,7 +11354,7 @@
       <c r="H29" s="53"/>
       <c r="I29" s="55"/>
       <c r="J29" s="53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
@@ -11352,7 +11385,7 @@
       <c r="H30" s="53"/>
       <c r="I30" s="55"/>
       <c r="J30" s="53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="87"/>
       <c r="L30" s="87"/>
@@ -11376,7 +11409,7 @@
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
       <c r="C31" s="99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="100">
         <v>2</v>
@@ -11409,7 +11442,7 @@
       <c r="A32" s="53"/>
       <c r="B32" s="55"/>
       <c r="C32" s="101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="100"/>
@@ -11440,7 +11473,7 @@
       <c r="A33" s="53"/>
       <c r="B33" s="55"/>
       <c r="C33" s="101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
@@ -11471,7 +11504,7 @@
       <c r="A34" s="53"/>
       <c r="B34" s="55"/>
       <c r="C34" s="101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="100"/>
       <c r="E34" s="100"/>
@@ -11502,7 +11535,7 @@
       <c r="A35" s="53"/>
       <c r="B35" s="55"/>
       <c r="C35" s="101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="100"/>
       <c r="E35" s="100"/>
@@ -11533,7 +11566,7 @@
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
       <c r="C36" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D36" s="100"/>
       <c r="E36" s="100"/>
@@ -11628,15 +11661,15 @@
       <c r="A39" s="53"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="140"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="144"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="144"/>
       <c r="M39" s="55"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13281,11 +13314,11 @@
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
       <c r="F5" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
@@ -13297,11 +13330,11 @@
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -13313,11 +13346,11 @@
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="67"/>
       <c r="H7" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
@@ -13329,11 +13362,11 @@
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" s="67"/>
       <c r="J8" s="67"/>
@@ -13345,11 +13378,11 @@
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="67"/>
       <c r="H9" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="67"/>
@@ -13363,7 +13396,7 @@
       <c r="F10" s="71"/>
       <c r="G10" s="67"/>
       <c r="H10" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
@@ -13383,80 +13416,80 @@
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
       <c r="B12" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G12" s="67"/>
       <c r="H12" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="67"/>
       <c r="B13" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="67"/>
       <c r="H13" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
       <c r="B14" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="67"/>
       <c r="H14" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="B15" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="67"/>
       <c r="H15" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="67"/>
       <c r="H16" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="67"/>
     </row>
@@ -13466,7 +13499,7 @@
       <c r="C17" s="67"/>
       <c r="E17" s="67"/>
       <c r="F17" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
@@ -13479,7 +13512,7 @@
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
       <c r="F18" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
@@ -13493,11 +13526,11 @@
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
       <c r="F19" s="74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
@@ -13513,7 +13546,7 @@
       </c>
       <c r="G20" s="67"/>
       <c r="H20" s="74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
@@ -13525,11 +13558,11 @@
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
       <c r="F21" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="67"/>
       <c r="H21" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
@@ -13540,11 +13573,11 @@
       <c r="C22" s="67"/>
       <c r="E22" s="67"/>
       <c r="F22" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="67"/>
       <c r="H22" s="74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
@@ -13555,11 +13588,11 @@
       <c r="C23" s="67"/>
       <c r="E23" s="67"/>
       <c r="F23" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="67"/>
       <c r="H23" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
@@ -13572,7 +13605,7 @@
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
       <c r="H24" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
@@ -13598,7 +13631,7 @@
       <c r="C26" s="67"/>
       <c r="E26" s="67"/>
       <c r="F26" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="67"/>
       <c r="I26" s="67"/>
@@ -13610,11 +13643,11 @@
       <c r="C27" s="67"/>
       <c r="E27" s="67"/>
       <c r="F27" s="69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
@@ -13625,11 +13658,11 @@
       <c r="C28" s="67"/>
       <c r="E28" s="67"/>
       <c r="F28" s="69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
@@ -13641,11 +13674,11 @@
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
@@ -13657,11 +13690,11 @@
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="67"/>
       <c r="J30" s="67"/>
@@ -13669,10 +13702,10 @@
     <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D31" s="67"/>
       <c r="F31" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -13706,45 +13739,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="65"/>
       <c r="B4" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -13752,29 +13785,29 @@
         <v>73</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D8" s="88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="D9" s="79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -13782,7 +13815,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -13790,23 +13823,23 @@
         <v>72</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D12" s="88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="D13" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -13833,37 +13866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
+      <c r="A1" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="D2" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="E2" s="109" t="s">
         <v>192</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -13871,28 +13904,28 @@
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
       <c r="D4" s="115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="110"/>
       <c r="C5" s="111"/>
@@ -13901,10 +13934,10 @@
     </row>
     <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="111"/>
       <c r="D6" s="110"/>
@@ -13912,46 +13945,46 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="111" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>204</v>
       </c>
       <c r="D7" s="110"/>
       <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="110"/>
       <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="110"/>
       <c r="E9" s="110"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
@@ -13960,26 +13993,26 @@
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="111" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>212</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="111" t="s">
         <v>213</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>215</v>
       </c>
       <c r="D12" s="110"/>
       <c r="E12" s="110"/>
@@ -13993,7 +14026,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="110"/>
       <c r="C14" s="111"/>
@@ -14002,7 +14035,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
@@ -14011,10 +14044,10 @@
     </row>
     <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="111"/>
       <c r="D16" s="110"/>
@@ -14022,10 +14055,10 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" s="111"/>
       <c r="D17" s="110"/>
@@ -14033,65 +14066,65 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="111" t="s">
         <v>222</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>224</v>
       </c>
       <c r="D18" s="110"/>
       <c r="E18" s="110"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="111" t="s">
         <v>228</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>230</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
@@ -14105,7 +14138,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" s="110"/>
       <c r="C24" s="111"/>
@@ -14114,13 +14147,13 @@
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
@@ -14134,7 +14167,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="110"/>
       <c r="C27" s="111"/>
@@ -14143,7 +14176,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B28" s="110" t="s">
         <v>25</v>
@@ -14154,10 +14187,10 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="118" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="111"/>
       <c r="D29" s="110"/>
@@ -14165,10 +14198,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="118" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C30" s="111"/>
       <c r="D30" s="110"/>
@@ -14176,10 +14209,10 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="111"/>
       <c r="D31" s="110"/>
@@ -14194,7 +14227,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="111"/>
@@ -14203,91 +14236,91 @@
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
     </row>
     <row r="36" spans="1:5" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="118" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
     </row>
     <row r="37" spans="1:5" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="118" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" s="110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C37" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D37" s="110"/>
       <c r="E37" s="110"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="111" t="s">
         <v>248</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>250</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C39" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B40" s="110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C40" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" s="110"/>
       <c r="E40" s="110"/>
@@ -14301,7 +14334,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="111"/>
@@ -14310,13 +14343,13 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="111" t="s">
         <v>256</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>258</v>
       </c>
       <c r="D43" s="110"/>
       <c r="E43" s="110"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B4A8B-C249-4D2F-91CA-A54EFB4B127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EB19D-089F-4E54-A438-2B6837F12F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="277">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -464,18 +464,6 @@
     <t>Background music speeds up with the layers</t>
   </si>
   <si>
-    <t>Define a set interval for layers to increase</t>
-  </si>
-  <si>
-    <t>When a layer increases, change how score is calculated</t>
-  </si>
-  <si>
-    <t>When a layer increases, change the rate at which enemies spawn</t>
-  </si>
-  <si>
-    <t>When a layer increases, change the speed at which the planet rotates</t>
-  </si>
-  <si>
     <t>Refactoring Notes</t>
   </si>
   <si>
@@ -503,57 +491,12 @@
     <t>The Main Menu has a background image</t>
   </si>
   <si>
-    <t>There is a main Menu Screen with a rudimentary background image, music, and settings</t>
-  </si>
-  <si>
-    <t>Detect 'down' input on the player</t>
-  </si>
-  <si>
-    <t>Make the player strafe slower while flattened</t>
-  </si>
-  <si>
-    <t>Add a short cooldown to flattening</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
     <t>Make the Player asset an actual slime</t>
   </si>
   <si>
-    <t>Add an animation when unflattening</t>
-  </si>
-  <si>
-    <t>Add Narrow Dodge function to UI manager</t>
-  </si>
-  <si>
-    <t>Make the function causes a temporary popup to appear near the bottom of the screen saying 'narrow dodge'</t>
-  </si>
-  <si>
-    <t>The popup changes appearance based on the current multiplier</t>
-  </si>
-  <si>
-    <t>Add a sound effects that celebrates when the popup occurs</t>
-  </si>
-  <si>
-    <t>Make the popup appear in random places</t>
-  </si>
-  <si>
-    <t>There are Three different enemies</t>
-  </si>
-  <si>
-    <t>Enemy spawn locations are randomized</t>
-  </si>
-  <si>
-    <t>Define left/right transform limit for spawn location in SpawnManager</t>
-  </si>
-  <si>
-    <t>Define an offset for the rectangle between its' middle and its edge to prevent it from spawning off the road</t>
-  </si>
-  <si>
-    <t>Generate a random left/right movement within boundaries, offset by rectangles limitations</t>
-  </si>
-  <si>
     <t>On the Schedule</t>
   </si>
   <si>
@@ -563,15 +506,6 @@
     <t>Remove scorekeeping responsibilities from GameManager into a new script</t>
   </si>
   <si>
-    <t>Attach Background music to camera and give SoundControl control of it</t>
-  </si>
-  <si>
-    <t>When the game ends, have GameManager tell sound control to stop the music.</t>
-  </si>
-  <si>
-    <t>Make Background music volume adjustable in SoundControl</t>
-  </si>
-  <si>
     <t>SoundControl</t>
   </si>
   <si>
@@ -836,10 +770,106 @@
     <t>The player can press a button to shrink the character</t>
   </si>
   <si>
-    <t>Shrink player in response to down input (ensure collider flattens as well)</t>
-  </si>
-  <si>
     <t>The character animates when shrinking</t>
+  </si>
+  <si>
+    <t>Add some variance to spawn timing</t>
+  </si>
+  <si>
+    <t>Eyes look in the direction of movement</t>
+  </si>
+  <si>
+    <t>Add SFX to shrinking</t>
+  </si>
+  <si>
+    <t>EvilRectangles spawn locations are randomized</t>
+  </si>
+  <si>
+    <t>Implement Big Red</t>
+  </si>
+  <si>
+    <t>Implement Flying Pink</t>
+  </si>
+  <si>
+    <t>There is a main Menu Screen</t>
+  </si>
+  <si>
+    <t>Settings can be accessed from the pause menu</t>
+  </si>
+  <si>
+    <t>Turn the Main Game into a scene</t>
+  </si>
+  <si>
+    <t>Make another scene for the menu</t>
+  </si>
+  <si>
+    <t>Ensure Start button can go to the game scene</t>
+  </si>
+  <si>
+    <t>When the player dies, Let them return to the main menu or quit.</t>
+  </si>
+  <si>
+    <t>Add generic background, settings button, highscore placeholder, and Start/Quit game button</t>
+  </si>
+  <si>
+    <t>Ensure Quit Button Works as intended</t>
+  </si>
+  <si>
+    <t>Remake the character</t>
+  </si>
+  <si>
+    <t>In GameManager, pause the game time when 'Escape' is pressed. Ensure other elements are paused as well.</t>
+  </si>
+  <si>
+    <t>Create a pause Screen that fades the background and shows 'paused' when the game is paused. This should be controlled by UI manager.</t>
+  </si>
+  <si>
+    <t>Reduce music volume by 90% while the game is paused, returning to prior values afterward.</t>
+  </si>
+  <si>
+    <t>The pause menu should have a button to return to main menu.</t>
+  </si>
+  <si>
+    <t>Choose a particle affect to show when the player moves. Load into game, add to list, then make it a child of object the graphic is attached to (not the character!)</t>
+  </si>
+  <si>
+    <t>If the character moves left or right and the opposing horizontal axis is maxed, let it should trigger the particle in that direction.</t>
+  </si>
+  <si>
+    <t>The character should look in the direction their moving</t>
+  </si>
+  <si>
+    <t>The particle size should be based on the character's current size, but not change if the char acter resizes afterwards.</t>
+  </si>
+  <si>
+    <t>Add Big Red sleep mode</t>
+  </si>
+  <si>
+    <t>Make him spawn on either the left or right side.</t>
+  </si>
+  <si>
+    <t>Make him run at the player directly</t>
+  </si>
+  <si>
+    <t>Make him run in zigzags, randomly chosen whether he does zig zags or runs straight</t>
+  </si>
+  <si>
+    <t>Bring Big Red(Teeth Mode) into the scene, give him his own child script. Set his offset so that he fits when facing the player on the left and right sides of the road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have her move between 6 positions in a 2x3 grid. </t>
+  </si>
+  <si>
+    <t>Bring Flying pink into the scene, with her own child script. Have her spawn in the center, offset above the ground above the player collider.</t>
+  </si>
+  <si>
+    <t>Have her move her eyes in the direction she's moving</t>
+  </si>
+  <si>
+    <t>Evil Rectangle should occasionally fall over</t>
+  </si>
+  <si>
+    <t>Have her eyes move in two separate directions, with one of the directions being the place she will move</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1567,30 +1603,15 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1661,6 +1682,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1713,6 +1740,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2047,316 +2080,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="126"/>
-      <c r="B1" s="128" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="129" t="s">
+      <c r="A5" s="124"/>
+      <c r="B5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="124"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="129" t="s">
+      <c r="A7" s="124"/>
+      <c r="B7" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="127"/>
+      <c r="D8" s="124"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="129" t="s">
+      <c r="A9" s="124"/>
+      <c r="B9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="124"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="127"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="124"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="129" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="127"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="129" t="s">
+      <c r="A15" s="124"/>
+      <c r="B15" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="127"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="127"/>
+      <c r="D40" s="124"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="127"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="127"/>
+      <c r="D41" s="124"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="127"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="127"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="127"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="127"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="127"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="127"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="127"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="127"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2422,15 +2455,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2473,14 +2506,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2499,14 +2532,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="138"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2525,14 +2558,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2551,14 +2584,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="130" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4972,11 +5005,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5322,104 +5355,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="140" t="s">
+      <c r="J18" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6089,15 +6122,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="127"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="124"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7669,10 +7702,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7691,14 +7724,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="138"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7717,14 +7750,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="137" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="138"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7743,14 +7776,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="137" t="s">
+      <c r="D3" s="124"/>
+      <c r="E3" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="138"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7769,14 +7802,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7802,7 +7835,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="105"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -7832,7 +7865,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="65"/>
       <c r="I6" s="64" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7904,45 +7937,45 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="121">
+        <v>2</v>
+      </c>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+    </row>
+    <row r="10" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="47">
-        <v>3</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47">
+      <c r="C10" s="47">
         <v>2</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-    </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="47">
-        <v>3</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="47"/>
@@ -7960,13 +7993,13 @@
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
-      <c r="B11" s="62" t="s">
-        <v>98</v>
+      <c r="B11" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47">
@@ -7988,69 +8021,69 @@
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
     </row>
-    <row r="12" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="49">
+        <v>98</v>
+      </c>
+      <c r="C12" s="47">
         <v>2</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49">
-        <v>3</v>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47">
+        <v>1</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-    </row>
-    <row r="13" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+    </row>
+    <row r="13" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="47">
+        <v>99</v>
+      </c>
+      <c r="C13" s="49">
         <v>2</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47">
-        <v>2</v>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49">
+        <v>3</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
-      <c r="B14" s="47" t="s">
-        <v>85</v>
+      <c r="B14" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47">
@@ -8072,94 +8105,98 @@
       <c r="S14" s="47"/>
       <c r="T14" s="47"/>
     </row>
-    <row r="15" spans="1:20" s="123" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
-      <c r="B15" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="B15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="47">
+        <v>3</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47">
+        <v>2</v>
+      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-    </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+    </row>
+    <row r="16" spans="1:20" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
-      <c r="B16" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="47">
+      <c r="B16" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="117">
+        <v>3</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117">
         <v>2</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
+      <c r="F16" s="18"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+    </row>
+    <row r="17" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="47">
+        <v>2</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47">
         <v>3</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+    </row>
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="18"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -8176,13 +8213,13 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
-      <c r="B19" s="62" t="s">
-        <v>81</v>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -8207,14 +8244,14 @@
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="62" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="1"/>
@@ -8232,182 +8269,182 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="47">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="47">
         <v>2</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47">
         <v>2</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-    </row>
-    <row r="22" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="49">
+      <c r="F22" s="18"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+    </row>
+    <row r="23" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="121">
         <v>2</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49">
+      <c r="D23" s="121"/>
+      <c r="E23" s="121">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+    </row>
+    <row r="24" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="49">
+        <v>2</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="60">
+        <v>1</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60">
         <v>3</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-    </row>
-    <row r="23" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="60">
-        <v>1</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60">
+      <c r="F25" s="18"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+    </row>
+    <row r="26" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-    </row>
-    <row r="24" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="47">
-        <v>3</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47">
         <v>2</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-    </row>
-    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+    </row>
+    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
       <c r="H27" s="1"/>
@@ -8424,42 +8461,46 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="47">
-        <v>2</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47">
-        <v>3</v>
+    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-    </row>
-    <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="20"/>
       <c r="H29" s="1"/>
@@ -8476,46 +8517,42 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>1</v>
+    <row r="30" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="47">
+        <v>2</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47">
+        <v>3</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+    </row>
+    <row r="31" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="18"/>
       <c r="G31" s="20"/>
       <c r="H31" s="1"/>
@@ -8532,126 +8569,126 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
       <c r="B32" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="76">
-        <v>2</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-    </row>
-    <row r="33" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="51">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51">
-        <v>3</v>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>2</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-    </row>
-    <row r="34" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="76">
+        <v>2</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76">
+        <v>2</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+    </row>
+    <row r="35" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="51">
         <v>3</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
-        <v>1</v>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51">
+        <v>3</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+    </row>
+    <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="18"/>
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
@@ -8668,73 +8705,73 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="62" t="s">
-        <v>94</v>
+    <row r="37" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="41"/>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-    </row>
-    <row r="38" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="78">
+      <c r="F37" s="18"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1">
         <v>3</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78">
-        <v>3</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-    </row>
-    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="44"/>
-      <c r="B39" s="1" t="s">
-        <v>140</v>
+      <c r="B39" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
@@ -8752,70 +8789,70 @@
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
     </row>
-    <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
+    <row r="40" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="44"/>
+      <c r="B40" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="78">
+        <v>3</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78">
+        <v>3</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+    </row>
+    <row r="41" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
     </row>
     <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
+      <c r="A42" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>3</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="18"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
@@ -8833,16 +8870,16 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>153</v>
+      <c r="A43" s="41"/>
+      <c r="B43" s="86" t="s">
+        <v>250</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="20"/>
@@ -8863,10 +8900,10 @@
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -8890,10 +8927,16 @@
     </row>
     <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
       <c r="F45" s="18"/>
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
@@ -8912,10 +8955,16 @@
     </row>
     <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
       <c r="F46" s="18"/>
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
@@ -8932,9 +8981,11 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -10383,6 +10434,50 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10407,8 +10502,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10514,11 +10609,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10864,104 +10959,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="55"/>
       <c r="H18" s="53"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="145" t="s">
+      <c r="J18" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11023,29 +11118,29 @@
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="100">
+      <c r="C20" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="81">
         <v>2</v>
       </c>
-      <c r="E20" s="100">
-        <v>2</v>
-      </c>
-      <c r="F20" s="101"/>
+      <c r="E20" s="81">
+        <v>3</v>
+      </c>
+      <c r="F20" s="83"/>
       <c r="G20" s="55"/>
       <c r="H20" s="53"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="K20" s="100">
+      <c r="J20" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="81">
         <v>2</v>
       </c>
-      <c r="L20" s="100">
-        <v>3</v>
-      </c>
-      <c r="M20" s="101"/>
+      <c r="L20" s="81">
+        <v>2</v>
+      </c>
+      <c r="M20" s="83"/>
       <c r="N20" s="29"/>
       <c r="O20" s="1"/>
       <c r="P20" s="65"/>
@@ -11061,27 +11156,27 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101">
+      <c r="C21" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="83">
         <v>0.5</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="53"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101">
-        <v>0.5</v>
+      <c r="J21" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="83">
+        <v>1</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="1"/>
@@ -11098,27 +11193,27 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101">
+      <c r="C22" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="83">
         <v>0.5</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="53"/>
       <c r="I22" s="55"/>
-      <c r="J22" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101">
-        <v>0.5</v>
+      <c r="J22" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="83">
+        <v>1</v>
       </c>
       <c r="N22" s="29"/>
       <c r="O22" s="1"/>
@@ -11133,27 +11228,27 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" s="48" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="48" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101">
+      <c r="C23" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="83">
         <v>0.5</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="53"/>
       <c r="I23" s="55"/>
-      <c r="J23" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101">
-        <v>0.5</v>
+      <c r="J23" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="83">
+        <v>1</v>
       </c>
       <c r="N23" s="29"/>
       <c r="O23" s="49"/>
@@ -11171,24 +11266,24 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101">
-        <v>0.5</v>
+      <c r="C24" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="83">
+        <v>1</v>
       </c>
       <c r="G24" s="55"/>
       <c r="H24" s="53"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101">
-        <v>0.5</v>
+      <c r="J24" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="83">
+        <v>1</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="49"/>
@@ -11206,21 +11301,21 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="83" t="s">
+        <v>255</v>
+      </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
-      <c r="F25" s="83"/>
+      <c r="F25" s="83">
+        <v>1</v>
+      </c>
       <c r="G25" s="55"/>
       <c r="H25" s="53"/>
       <c r="I25" s="55"/>
-      <c r="J25" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101">
-        <v>2</v>
-      </c>
+      <c r="J25" s="83"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="83"/>
       <c r="N25" s="29"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -11237,22 +11332,26 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="100">
-        <v>2</v>
-      </c>
-      <c r="E26" s="100">
+      <c r="C26" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82">
         <v>1</v>
       </c>
-      <c r="F26" s="104"/>
       <c r="G26" s="55"/>
       <c r="H26" s="53"/>
       <c r="I26" s="55"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
+      <c r="J26" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" s="81">
+        <v>2</v>
+      </c>
+      <c r="L26" s="81">
+        <v>2</v>
+      </c>
       <c r="M26" s="82"/>
       <c r="N26" s="29"/>
       <c r="O26" s="1"/>
@@ -11267,30 +11366,24 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="55"/>
-      <c r="C27" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="104">
-        <v>0.5</v>
-      </c>
+      <c r="C27" s="83"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="55"/>
       <c r="H27" s="53"/>
       <c r="I27" s="55"/>
-      <c r="J27" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="81">
-        <v>2</v>
-      </c>
-      <c r="L27" s="81">
-        <v>2</v>
-      </c>
-      <c r="M27" s="83"/>
+      <c r="J27" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="83">
+        <v>0.5</v>
+      </c>
       <c r="N27" s="29"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -11304,27 +11397,29 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="104">
-        <v>1</v>
-      </c>
+      <c r="C28" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="81">
+        <v>2</v>
+      </c>
+      <c r="E28" s="81">
+        <v>3</v>
+      </c>
+      <c r="F28" s="82"/>
       <c r="G28" s="55"/>
       <c r="H28" s="53"/>
       <c r="I28" s="55"/>
-      <c r="J28" s="96" t="s">
-        <v>168</v>
+      <c r="J28" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
       <c r="M28" s="85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="1"/>
@@ -11342,19 +11437,19 @@
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="55"/>
-      <c r="C29" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="104">
-        <v>0.5</v>
+      <c r="C29" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82">
+        <v>1</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="53"/>
       <c r="I29" s="55"/>
-      <c r="J29" s="53" t="s">
-        <v>169</v>
+      <c r="J29" s="83" t="s">
+        <v>269</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
@@ -11374,23 +11469,27 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" s="48" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="83"/>
+      <c r="C30" s="83" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
+      <c r="F30" s="82">
+        <v>1</v>
+      </c>
       <c r="G30" s="55"/>
       <c r="H30" s="53"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="53" t="s">
-        <v>170</v>
+      <c r="J30" s="83" t="s">
+        <v>270</v>
       </c>
       <c r="K30" s="87"/>
       <c r="L30" s="87"/>
       <c r="M30" s="83">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N30" s="29"/>
       <c r="O30" s="49"/>
@@ -11405,26 +11504,24 @@
       <c r="X30" s="49"/>
       <c r="Y30" s="49"/>
     </row>
-    <row r="31" spans="1:25" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="100">
-        <v>2</v>
-      </c>
-      <c r="E31" s="100">
-        <v>2</v>
-      </c>
-      <c r="F31" s="104"/>
+      <c r="C31" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82">
+        <v>0.5</v>
+      </c>
       <c r="G31" s="55"/>
       <c r="H31" s="53"/>
       <c r="I31" s="55"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="53"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="83"/>
       <c r="N31" s="29"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
@@ -11441,21 +11538,27 @@
     <row r="32" spans="1:25" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="104">
+      <c r="C32" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82">
         <v>0.5</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="53"/>
       <c r="I32" s="55"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="53"/>
+      <c r="J32" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" s="81">
+        <v>2</v>
+      </c>
+      <c r="L32" s="81">
+        <v>2</v>
+      </c>
+      <c r="M32" s="83"/>
       <c r="N32" s="29"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
@@ -11472,21 +11575,21 @@
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="55"/>
-      <c r="C33" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="104">
-        <v>1</v>
-      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="55"/>
       <c r="H33" s="53"/>
       <c r="I33" s="55"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="53"/>
+      <c r="J33" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="83">
+        <v>0.5</v>
+      </c>
       <c r="N33" s="29"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -11503,21 +11606,21 @@
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="104">
-        <v>1</v>
-      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="55"/>
       <c r="H34" s="53"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="53"/>
+      <c r="J34" s="53" t="s">
+        <v>272</v>
+      </c>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
-      <c r="M34" s="53"/>
+      <c r="M34" s="53">
+        <v>1</v>
+      </c>
       <c r="N34" s="29"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -11534,21 +11637,21 @@
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="55"/>
-      <c r="C35" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="104">
-        <v>1</v>
-      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="55"/>
       <c r="H35" s="53"/>
       <c r="I35" s="55"/>
-      <c r="J35" s="53"/>
+      <c r="J35" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="53"/>
+      <c r="M35" s="53">
+        <v>1</v>
+      </c>
       <c r="N35" s="29"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -11562,24 +11665,24 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" s="48" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" s="48" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
-      <c r="C36" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="104">
-        <v>1</v>
-      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="55"/>
       <c r="H36" s="53"/>
       <c r="I36" s="55"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="53" t="s">
+        <v>276</v>
+      </c>
       <c r="K36" s="58"/>
       <c r="L36" s="58"/>
-      <c r="M36" s="53"/>
+      <c r="M36" s="53">
+        <v>1</v>
+      </c>
       <c r="N36" s="29"/>
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
@@ -11630,7 +11733,7 @@
       <c r="E38" s="56"/>
       <c r="F38" s="56">
         <f>SUM(F20:F37)</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="53"/>
@@ -11642,7 +11745,7 @@
       <c r="L38" s="56"/>
       <c r="M38" s="56">
         <f>SUM(M20:M37)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="1"/>
@@ -11661,15 +11764,15 @@
       <c r="A39" s="53"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="141"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="144"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="141"/>
       <c r="M39" s="55"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13421,7 +13524,7 @@
       <c r="C12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="68" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G12" s="67"/>
       <c r="H12" s="68" t="s">
@@ -13526,11 +13629,11 @@
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
       <c r="F19" s="74" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="68" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
@@ -13546,7 +13649,7 @@
       </c>
       <c r="G20" s="67"/>
       <c r="H20" s="74" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
@@ -13561,8 +13664,8 @@
         <v>109</v>
       </c>
       <c r="G21" s="67"/>
-      <c r="H21" s="102" t="s">
-        <v>179</v>
+      <c r="H21" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
@@ -13577,7 +13680,7 @@
       </c>
       <c r="G22" s="67"/>
       <c r="H22" s="74" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
@@ -13724,7 +13827,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13739,45 +13842,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="93" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="65"/>
       <c r="B4" s="64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="89" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -13785,61 +13888,91 @@
         <v>73</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D8" s="88" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="143" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="D9" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="144" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="D10" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="106" t="s">
-        <v>184</v>
+      <c r="E10" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D11" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="106" t="s">
-        <v>185</v>
+      <c r="E11" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="144" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D12" s="88" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>187</v>
+        <v>165</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="D13" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -13866,493 +13999,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="A1" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="D11" s="111"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="B12" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="C12" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="109" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+    </row>
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="112" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="114" t="s">
+      <c r="B16" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="115" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="B17" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="110"/>
-    </row>
-    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B18" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="C18" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="B19" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B20" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="s">
+      <c r="B21" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="C21" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="s">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="118" t="s">
+      <c r="B22" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="C22" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="113"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="110"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="118" t="s">
+      <c r="B25" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="C25" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="114"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="114" t="s">
+      <c r="B28" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="B29" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-    </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B30" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+      <c r="C30" s="106"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B31" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="118" t="s">
+      <c r="C31" s="106"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="B34" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
+      <c r="C34" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="111" t="s">
+      <c r="C35" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+    </row>
+    <row r="37" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="B38" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="s">
+      <c r="C38" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="B39" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="118" t="s">
+      <c r="C39" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B40" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="119" t="s">
+      <c r="C40" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
+      <c r="B42" s="105"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B43" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="C43" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="118" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="118" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="110" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="110" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="110"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="118" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="110" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-    </row>
-    <row r="36" spans="1:5" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-    </row>
-    <row r="37" spans="1:5" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="110"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="118" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EB19D-089F-4E54-A438-2B6837F12F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79ED48-CF1D-4556-860B-07F4A9D436AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="281">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -870,6 +870,18 @@
   </si>
   <si>
     <t>Have her eyes move in two separate directions, with one of the directions being the place she will move</t>
+  </si>
+  <si>
+    <t>icon_07.png</t>
+  </si>
+  <si>
+    <t>Settings Button</t>
+  </si>
+  <si>
+    <t>check terrains</t>
+  </si>
+  <si>
+    <t>Earth Extensive Decoration</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1682,6 +1694,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1742,11 +1763,26 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,316 +2116,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="123"/>
-      <c r="B1" s="125" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
-      <c r="B5" s="126" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="127"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
-      <c r="B7" s="126" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="124"/>
+      <c r="D8" s="127"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="126" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="126" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="124"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="124"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
-      <c r="B13" s="126" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="124"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
-      <c r="B15" s="126" t="s">
+      <c r="A15" s="127"/>
+      <c r="B15" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="124"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="124"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="124"/>
+      <c r="D40" s="127"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="124"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="124"/>
+      <c r="D41" s="127"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="124"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="124"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="124"/>
+      <c r="A44" s="127"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="124"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="124"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2455,15 +2491,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2506,14 +2542,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="131" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2532,14 +2568,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2558,14 +2594,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="134" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2584,14 +2620,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5005,11 +5041,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5355,104 +5391,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6122,15 +6158,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="124"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="127"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="124"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="127"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7704,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7724,14 +7760,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="139" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="135"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7750,14 +7786,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="134" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="135"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7776,14 +7812,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="134" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="138"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7802,14 +7838,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10502,8 +10538,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10609,11 +10645,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10959,104 +10995,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="55"/>
       <c r="H18" s="53"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="142" t="s">
+      <c r="J18" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11118,16 +11154,16 @@
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="147">
         <v>2</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="147">
         <v>3</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="148"/>
       <c r="G20" s="55"/>
       <c r="H20" s="53"/>
       <c r="I20" s="55"/>
@@ -11159,12 +11195,12 @@
     <row r="21" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="83">
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="151">
         <v>0.5</v>
       </c>
       <c r="G21" s="55"/>
@@ -11196,12 +11232,12 @@
     <row r="22" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="83">
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="151">
         <v>0.5</v>
       </c>
       <c r="G22" s="55"/>
@@ -11231,12 +11267,12 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="83">
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="151">
         <v>0.5</v>
       </c>
       <c r="G23" s="55"/>
@@ -11266,12 +11302,12 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="148" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="83">
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148">
         <v>1</v>
       </c>
       <c r="G24" s="55"/>
@@ -11301,12 +11337,12 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="83">
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148">
         <v>1</v>
       </c>
       <c r="G25" s="55"/>
@@ -11332,12 +11368,12 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82">
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="149">
         <v>1</v>
       </c>
       <c r="G26" s="55"/>
@@ -11764,15 +11800,15 @@
       <c r="A39" s="53"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="141"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="144"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="141"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="144"/>
       <c r="M39" s="55"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13824,7 +13860,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -13838,38 +13874,40 @@
     <col min="5" max="5" width="18.5703125" style="79" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="65"/>
       <c r="B4" s="64" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="89" t="s">
         <v>147</v>
       </c>
@@ -13882,8 +13920,14 @@
       <c r="H6" s="89" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I6" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="D7" s="88" t="s">
         <v>73</v>
       </c>
@@ -13896,8 +13940,14 @@
       <c r="H7" s="91" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D8" s="88" t="s">
         <v>150</v>
       </c>
@@ -13907,11 +13957,17 @@
       <c r="G8" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="124" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="150" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="D9" s="79" t="s">
         <v>153</v>
       </c>
@@ -13921,11 +13977,11 @@
       <c r="G9" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="144" t="s">
+      <c r="H9" s="125" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="D10" s="88" t="s">
         <v>72</v>
       </c>
@@ -13939,7 +13995,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D11" s="88" t="s">
         <v>72</v>
       </c>
@@ -13949,11 +14005,11 @@
       <c r="G11" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="144" t="s">
+      <c r="H11" s="125" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D12" s="88" t="s">
         <v>164</v>
       </c>
@@ -13967,7 +14023,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="D13" s="88" t="s">
         <v>239</v>
       </c>
@@ -13983,10 +14039,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14115,117 +14171,115 @@
       <c r="D9" s="105"/>
       <c r="E9" s="105"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="105"/>
+    <row r="10" spans="1:13" s="123" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>278</v>
+      </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105"/>
       <c r="E10" s="105"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="111"/>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B13" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C13" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
       <c r="D13" s="105"/>
       <c r="E13" s="105"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="109" t="s">
-        <v>192</v>
-      </c>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="105"/>
       <c r="B14" s="105"/>
       <c r="C14" s="106"/>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="115" t="s">
-        <v>193</v>
+      <c r="A15" s="109" t="s">
+        <v>192</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="106"/>
       <c r="D15" s="105"/>
       <c r="E15" s="105"/>
     </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>195</v>
-      </c>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="105"/>
       <c r="C16" s="106"/>
       <c r="D16" s="105"/>
       <c r="E16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="104" t="s">
-        <v>196</v>
+      <c r="A17" s="112" t="s">
+        <v>194</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="105"/>
       <c r="E17" s="105"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="113" t="s">
-        <v>198</v>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="104" t="s">
+        <v>196</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>200</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C18" s="106"/>
       <c r="D18" s="105"/>
       <c r="E18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="105" t="s">
         <v>199</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="105" t="s">
         <v>199</v>
@@ -14238,92 +14292,94 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D21" s="105"/>
       <c r="E21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D22" s="105"/>
       <c r="E22" s="105"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" s="105"/>
       <c r="E23" s="105"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="114" t="s">
-        <v>209</v>
-      </c>
+      <c r="A24" s="113"/>
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
       <c r="D24" s="105"/>
       <c r="E24" s="105"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="113" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>180</v>
-      </c>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="105"/>
       <c r="E25" s="105"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>180</v>
+      </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="115" t="s">
-        <v>212</v>
-      </c>
+      <c r="A27" s="114"/>
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
       <c r="D27" s="105"/>
       <c r="E27" s="105"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="105" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="105"/>
       <c r="C28" s="106"/>
       <c r="D28" s="105"/>
       <c r="E28" s="105"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="105"/>
@@ -14331,10 +14387,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="105"/>
@@ -14342,60 +14398,58 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="105"/>
       <c r="E31" s="105"/>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>219</v>
+      </c>
       <c r="C32" s="106"/>
       <c r="D32" s="105"/>
       <c r="E32" s="105"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="114" t="s">
-        <v>220</v>
-      </c>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="105"/>
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
       <c r="D33" s="105"/>
       <c r="E33" s="105"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="106" t="s">
-        <v>188</v>
-      </c>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="105"/>
       <c r="E34" s="105"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="113" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
     </row>
-    <row r="36" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="105" t="s">
         <v>223</v>
@@ -14408,7 +14462,7 @@
     </row>
     <row r="37" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="105" t="s">
         <v>223</v>
@@ -14419,38 +14473,38 @@
       <c r="D37" s="105"/>
       <c r="E37" s="105"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="113" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C38" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C39" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" s="106" t="s">
         <v>226</v>
@@ -14458,34 +14512,47 @@
       <c r="D40" s="105"/>
       <c r="E40" s="105"/>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="106" t="s">
+        <v>226</v>
+      </c>
       <c r="D41" s="105"/>
       <c r="E41" s="105"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="114" t="s">
-        <v>231</v>
-      </c>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
       <c r="B42" s="105"/>
       <c r="C42" s="106"/>
       <c r="D42" s="105"/>
       <c r="E42" s="105"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="106" t="s">
-        <v>234</v>
-      </c>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="105"/>
       <c r="E43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79ED48-CF1D-4556-860B-07F4A9D436AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03CA6E-78DE-4D38-90D9-96F88D378716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="283">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Change Texture</t>
   </si>
   <si>
-    <t>Track Multipler</t>
-  </si>
-  <si>
     <t>Destroy self when leaving aggro</t>
   </si>
   <si>
@@ -882,6 +879,15 @@
   </si>
   <si>
     <t>Earth Extensive Decoration</t>
+  </si>
+  <si>
+    <t>Replace Fonts</t>
+  </si>
+  <si>
+    <t>Little Animation on home screen</t>
+  </si>
+  <si>
+    <t>Buttons highlight when the mouse is over them</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1703,6 +1709,15 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1763,26 +1778,11 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2116,316 +2116,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="126"/>
-      <c r="B1" s="128" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="129" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="129" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="127"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="129" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="130"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="130"/>
+      <c r="B11" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="127"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="130"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="129" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="127"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="129" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="130"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="127"/>
+      <c r="A40" s="130"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="127"/>
+      <c r="D40" s="130"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="127"/>
+      <c r="A41" s="130"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="127"/>
+      <c r="D41" s="130"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="127"/>
+      <c r="A42" s="130"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="127"/>
+      <c r="A43" s="130"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="127"/>
+      <c r="A44" s="130"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="127"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="127"/>
+      <c r="A46" s="130"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="127"/>
+      <c r="A47" s="130"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="127"/>
+      <c r="A48" s="130"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="127"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2491,15 +2491,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2542,14 +2542,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2568,14 +2568,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="130"/>
+      <c r="E5" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="138"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2594,14 +2594,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2620,14 +2620,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="130" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5041,11 +5041,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5391,104 +5391,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="140" t="s">
+      <c r="J18" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6158,15 +6158,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="127"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="127"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="130"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7740,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7760,14 +7760,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="138"/>
+      <c r="F1" s="141"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7786,14 +7786,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="137" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="138"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7812,14 +7812,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="137" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="138"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7838,14 +7838,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="134"/>
+      <c r="E4" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7901,7 +7901,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="65"/>
       <c r="I6" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7976,7 +7976,7 @@
     <row r="9" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="121">
         <v>2</v>
@@ -8172,7 +8172,7 @@
     <row r="16" spans="1:20" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
@@ -8200,7 +8200,7 @@
     <row r="17" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="47">
         <v>2</v>
@@ -8336,7 +8336,7 @@
     <row r="22" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="42"/>
       <c r="B22" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="47">
         <v>2</v>
@@ -8364,7 +8364,7 @@
     <row r="23" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="121">
         <v>2</v>
@@ -8392,7 +8392,7 @@
     <row r="24" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="49">
         <v>2</v>
@@ -8420,7 +8420,7 @@
     <row r="25" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
       <c r="B25" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="60">
         <v>1</v>
@@ -8664,7 +8664,7 @@
     <row r="34" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
       <c r="B34" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="76">
         <v>2</v>
@@ -8692,7 +8692,7 @@
     <row r="35" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
       <c r="B35" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="51">
         <v>3</v>
@@ -8828,7 +8828,7 @@
     <row r="40" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
       <c r="B40" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="78">
         <v>3</v>
@@ -8856,7 +8856,7 @@
     <row r="41" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="44"/>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -8907,8 +8907,8 @@
     </row>
     <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
-      <c r="B43" s="86" t="s">
-        <v>250</v>
+      <c r="B43" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -8936,7 +8936,7 @@
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -8964,7 +8964,7 @@
     <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -8991,8 +8991,8 @@
     </row>
     <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="86" t="s">
-        <v>160</v>
+      <c r="B46" s="62" t="s">
+        <v>159</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -9020,7 +9020,7 @@
     <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -10538,8 +10538,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10645,11 +10645,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10995,104 +10995,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
       <c r="G18" s="55"/>
       <c r="H18" s="53"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="145" t="s">
+      <c r="J18" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11154,16 +11154,16 @@
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="147">
+      <c r="C20" s="149" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="128">
         <v>2</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="128">
         <v>3</v>
       </c>
-      <c r="F20" s="148"/>
+      <c r="F20" s="127"/>
       <c r="G20" s="55"/>
       <c r="H20" s="53"/>
       <c r="I20" s="55"/>
@@ -11195,19 +11195,19 @@
     <row r="21" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="151">
+      <c r="C21" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="127">
         <v>0.5</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="53"/>
       <c r="I21" s="55"/>
       <c r="J21" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
@@ -11232,19 +11232,19 @@
     <row r="22" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="151">
+      <c r="C22" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="127">
         <v>0.5</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="53"/>
       <c r="I22" s="55"/>
       <c r="J22" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
@@ -11267,19 +11267,19 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="151" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="151">
+      <c r="C23" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="127">
         <v>0.5</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="53"/>
       <c r="I23" s="55"/>
       <c r="J23" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -11302,19 +11302,19 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148">
+      <c r="C24" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="127">
         <v>1</v>
       </c>
       <c r="G24" s="55"/>
       <c r="H24" s="53"/>
       <c r="I24" s="55"/>
       <c r="J24" s="53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K24" s="81"/>
       <c r="L24" s="81"/>
@@ -11337,12 +11337,12 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148">
+      <c r="C25" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="127">
         <v>1</v>
       </c>
       <c r="G25" s="55"/>
@@ -11368,19 +11368,19 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="148" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="149">
+      <c r="C26" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="150">
         <v>1</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="53"/>
       <c r="I26" s="55"/>
       <c r="J26" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K26" s="81">
         <v>2</v>
@@ -11413,7 +11413,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="55"/>
       <c r="J27" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
@@ -11436,21 +11436,21 @@
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="81">
+      <c r="C28" s="149" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="128">
         <v>2</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="128">
         <v>3</v>
       </c>
-      <c r="F28" s="82"/>
+      <c r="F28" s="150"/>
       <c r="G28" s="55"/>
       <c r="H28" s="53"/>
       <c r="I28" s="55"/>
       <c r="J28" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
@@ -11473,19 +11473,19 @@
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="55"/>
-      <c r="C29" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82">
+      <c r="C29" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="150">
         <v>1</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="53"/>
       <c r="I29" s="55"/>
       <c r="J29" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
@@ -11508,19 +11508,19 @@
     <row r="30" spans="1:25" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82">
+      <c r="C30" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="150">
         <v>1</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="53"/>
       <c r="I30" s="55"/>
       <c r="J30" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K30" s="87"/>
       <c r="L30" s="87"/>
@@ -11543,12 +11543,12 @@
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82">
+      <c r="C31" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="150">
         <v>0.5</v>
       </c>
       <c r="G31" s="55"/>
@@ -11574,19 +11574,19 @@
     <row r="32" spans="1:25" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82">
+      <c r="C32" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="150">
         <v>0.5</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="53"/>
       <c r="I32" s="55"/>
       <c r="J32" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K32" s="81">
         <v>2</v>
@@ -11619,7 +11619,7 @@
       <c r="H33" s="53"/>
       <c r="I33" s="55"/>
       <c r="J33" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
@@ -11650,7 +11650,7 @@
       <c r="H34" s="53"/>
       <c r="I34" s="55"/>
       <c r="J34" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
@@ -11681,7 +11681,7 @@
       <c r="H35" s="53"/>
       <c r="I35" s="55"/>
       <c r="J35" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
@@ -11712,7 +11712,7 @@
       <c r="H36" s="53"/>
       <c r="I36" s="55"/>
       <c r="J36" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K36" s="58"/>
       <c r="L36" s="58"/>
@@ -11800,15 +11800,15 @@
       <c r="A39" s="53"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="144"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="147"/>
       <c r="M39" s="55"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13378,10 +13378,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8D8907-0AAF-43DC-974C-6E5C5191C407}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="G9" s="67"/>
       <c r="H9" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="67"/>
@@ -13534,9 +13534,7 @@
       <c r="E10" s="67"/>
       <c r="F10" s="71"/>
       <c r="G10" s="67"/>
-      <c r="H10" s="71" t="s">
-        <v>110</v>
-      </c>
+      <c r="H10" s="71"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
@@ -13560,11 +13558,11 @@
       <c r="C12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="67"/>
       <c r="H12" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -13608,7 +13606,7 @@
       <c r="C15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="69" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G15" s="67"/>
       <c r="H15" s="69" t="s">
@@ -13619,12 +13617,12 @@
     <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="67"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="69" t="s">
-        <v>128</v>
+      <c r="F16" s="74" t="s">
+        <v>135</v>
       </c>
       <c r="G16" s="67"/>
       <c r="H16" s="71" t="s">
@@ -13632,26 +13630,26 @@
       </c>
       <c r="I16" s="67"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="B17" s="71"/>
       <c r="C17" s="67"/>
       <c r="E17" s="67"/>
-      <c r="F17" s="74" t="s">
-        <v>136</v>
+      <c r="F17" s="70" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
     </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
-      <c r="F18" s="70" t="s">
-        <v>129</v>
+      <c r="F18" s="74" t="s">
+        <v>154</v>
       </c>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
@@ -13664,12 +13662,12 @@
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
-      <c r="F19" s="74" t="s">
-        <v>155</v>
+      <c r="F19" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
@@ -13681,11 +13679,11 @@
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
       <c r="F20" s="69" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G20" s="67"/>
       <c r="H20" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
@@ -13697,11 +13695,11 @@
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
       <c r="F21" s="69" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G21" s="67"/>
       <c r="H21" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
@@ -13711,13 +13709,11 @@
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="E22" s="67"/>
-      <c r="F22" s="69" t="s">
-        <v>103</v>
+      <c r="F22" s="73" t="s">
+        <v>134</v>
       </c>
       <c r="G22" s="67"/>
-      <c r="H22" s="74" t="s">
-        <v>158</v>
-      </c>
+      <c r="H22" s="73"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
     </row>
@@ -13726,40 +13722,37 @@
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="E23" s="67"/>
-      <c r="F23" s="73" t="s">
-        <v>135</v>
-      </c>
+      <c r="F23" s="67"/>
       <c r="G23" s="67"/>
-      <c r="H23" s="74" t="s">
-        <v>135</v>
-      </c>
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="68" t="s">
+        <v>25</v>
+      </c>
       <c r="G24" s="67"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="68" t="s">
         <v>111</v>
       </c>
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="67"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="E25" s="67"/>
-      <c r="F25" s="68" t="s">
-        <v>25</v>
+      <c r="F25" s="72" t="s">
+        <v>96</v>
       </c>
       <c r="G25" s="67"/>
-      <c r="H25" s="73" t="s">
-        <v>25</v>
+      <c r="H25" s="72" t="s">
+        <v>116</v>
       </c>
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
@@ -13769,14 +13762,17 @@
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="E26" s="67"/>
-      <c r="F26" s="72" t="s">
-        <v>96</v>
+      <c r="F26" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="G26" s="67"/>
+      <c r="H26" s="69" t="s">
+        <v>121</v>
+      </c>
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="67"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
@@ -13785,13 +13781,13 @@
         <v>130</v>
       </c>
       <c r="G27" s="67"/>
-      <c r="H27" s="68" t="s">
-        <v>111</v>
+      <c r="H27" s="69" t="s">
+        <v>124</v>
       </c>
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
@@ -13800,57 +13796,43 @@
         <v>131</v>
       </c>
       <c r="G28" s="67"/>
-      <c r="H28" s="72" t="s">
-        <v>116</v>
+      <c r="H28" s="70" t="s">
+        <v>136</v>
       </c>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="70" t="s">
         <v>132</v>
       </c>
       <c r="G29" s="67"/>
-      <c r="H29" s="69" t="s">
-        <v>121</v>
+      <c r="H29" s="73" t="s">
+        <v>25</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="67"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
-      <c r="F30" s="70" t="s">
-        <v>133</v>
+      <c r="F30" s="71" t="s">
+        <v>110</v>
       </c>
       <c r="G30" s="67"/>
-      <c r="H30" s="69" t="s">
-        <v>125</v>
-      </c>
       <c r="I30" s="67"/>
       <c r="J30" s="67"/>
     </row>
-    <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D31" s="67"/>
-      <c r="F31" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="73" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13863,7 +13845,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13880,51 +13862,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="65"/>
       <c r="B4" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
@@ -13932,53 +13914,59 @@
         <v>73</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D8" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>151</v>
-      </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="150" t="s">
-        <v>280</v>
+        <v>149</v>
+      </c>
+      <c r="J8" s="126" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="D9" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>154</v>
-      </c>
       <c r="G9" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -13986,13 +13974,19 @@
         <v>72</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="97" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="126" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -14000,35 +13994,41 @@
         <v>72</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H11" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="126" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D12" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="91" t="s">
-        <v>165</v>
-      </c>
       <c r="G12" s="122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="D13" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>239</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -14056,7 +14056,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A1" s="119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -14073,19 +14073,19 @@
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="C2" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="D2" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="E2" s="104" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -14093,20 +14093,20 @@
       <c r="B3" s="105"/>
       <c r="C3" s="106"/>
       <c r="D3" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="108" t="s">
         <v>171</v>
-      </c>
-      <c r="E3" s="108" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="105"/>
       <c r="C4" s="106"/>
       <c r="D4" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="111" t="s">
         <v>101</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="106"/>
@@ -14123,10 +14123,10 @@
     </row>
     <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="105" t="s">
         <v>176</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>177</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105"/>
@@ -14134,49 +14134,49 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="C7" s="106" t="s">
         <v>179</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>180</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="105"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="105" t="s">
-        <v>182</v>
-      </c>
       <c r="C8" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>184</v>
-      </c>
       <c r="C9" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="105"/>
       <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:13" s="123" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="105" t="s">
         <v>277</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>278</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105"/>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="106"/>
@@ -14193,26 +14193,26 @@
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="C12" s="106" t="s">
         <v>187</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>188</v>
       </c>
       <c r="D12" s="111"/>
       <c r="E12" s="105"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="C13" s="106" t="s">
         <v>190</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>191</v>
       </c>
       <c r="D13" s="105"/>
       <c r="E13" s="105"/>
@@ -14226,7 +14226,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="106"/>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="106"/>
@@ -14244,10 +14244,10 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="105" t="s">
         <v>194</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>195</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="105"/>
@@ -14255,10 +14255,10 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="105" t="s">
         <v>196</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>197</v>
       </c>
       <c r="C18" s="106"/>
       <c r="D18" s="105"/>
@@ -14266,65 +14266,65 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="113" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="C19" s="106" t="s">
         <v>199</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>200</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="106" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>202</v>
       </c>
       <c r="D20" s="105"/>
       <c r="E20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="105"/>
       <c r="E21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="C22" s="106" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>206</v>
       </c>
       <c r="D22" s="105"/>
       <c r="E22" s="105"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>208</v>
-      </c>
       <c r="C23" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="105"/>
       <c r="E23" s="105"/>
@@ -14338,7 +14338,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
@@ -14347,13 +14347,13 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="105" t="s">
-        <v>211</v>
-      </c>
       <c r="C26" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="106"/>
@@ -14376,7 +14376,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="105" t="s">
         <v>25</v>
@@ -14387,10 +14387,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="105" t="s">
         <v>214</v>
-      </c>
-      <c r="B30" s="105" t="s">
-        <v>215</v>
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="105"/>
@@ -14398,10 +14398,10 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="105" t="s">
         <v>216</v>
-      </c>
-      <c r="B31" s="105" t="s">
-        <v>217</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="105"/>
@@ -14409,10 +14409,10 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="105" t="s">
         <v>218</v>
-      </c>
-      <c r="B32" s="105" t="s">
-        <v>219</v>
       </c>
       <c r="C32" s="106"/>
       <c r="D32" s="105"/>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
@@ -14436,91 +14436,91 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="105" t="s">
-        <v>222</v>
-      </c>
       <c r="C35" s="106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="105"/>
     </row>
     <row r="37" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="105"/>
       <c r="E37" s="105"/>
     </row>
     <row r="38" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="C39" s="106" t="s">
         <v>225</v>
-      </c>
-      <c r="C39" s="106" t="s">
-        <v>226</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="B40" s="105" t="s">
-        <v>228</v>
-      </c>
       <c r="C40" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D40" s="105"/>
       <c r="E40" s="105"/>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="105" t="s">
-        <v>230</v>
-      </c>
       <c r="C41" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="105"/>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="106"/>
@@ -14543,13 +14543,13 @@
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="C44" s="106" t="s">
         <v>233</v>
-      </c>
-      <c r="C44" s="106" t="s">
-        <v>234</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03CA6E-78DE-4D38-90D9-96F88D378716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A733A39-A25E-4154-BDDE-2137D8F2B07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="286">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -827,18 +827,6 @@
     <t>The pause menu should have a button to return to main menu.</t>
   </si>
   <si>
-    <t>Choose a particle affect to show when the player moves. Load into game, add to list, then make it a child of object the graphic is attached to (not the character!)</t>
-  </si>
-  <si>
-    <t>If the character moves left or right and the opposing horizontal axis is maxed, let it should trigger the particle in that direction.</t>
-  </si>
-  <si>
-    <t>The character should look in the direction their moving</t>
-  </si>
-  <si>
-    <t>The particle size should be based on the character's current size, but not change if the char acter resizes afterwards.</t>
-  </si>
-  <si>
     <t>Add Big Red sleep mode</t>
   </si>
   <si>
@@ -888,6 +876,27 @@
   </si>
   <si>
     <t>Buttons highlight when the mouse is over them</t>
+  </si>
+  <si>
+    <t>The Player's best score is saved and viewable on the menu</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Give character dust-kickup effect</t>
+  </si>
+  <si>
+    <t>Make a cave entrance asset</t>
+  </si>
+  <si>
+    <t>The cave asset should spawn when the layer is done, and the layer should increase when the player enters it. The screen shouldn't be visible when entering the cave</t>
+  </si>
+  <si>
+    <t>When the player enters the cave, the sky and terrain should change. Make a List in Planet Controller to iterate, with a series of skies and terrains to apply.</t>
+  </si>
+  <si>
+    <t>The Player Character has a cooldown on shrinking</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1718,12 +1727,24 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1778,11 +1799,14 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2116,316 +2140,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="129"/>
-      <c r="B1" s="131" t="s">
+      <c r="A1" s="133"/>
+      <c r="B1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="130"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="132" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="130"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="130"/>
+      <c r="D8" s="134"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="132" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="130"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="134"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="132" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="130"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="130"/>
+      <c r="D12" s="134"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="132" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="130"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="130"/>
+      <c r="D14" s="134"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132" t="s">
+      <c r="A15" s="134"/>
+      <c r="B15" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="130"/>
+      <c r="D16" s="134"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="130"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="130"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="130"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="130"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="130"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="130"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="130"/>
+      <c r="D40" s="134"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="130"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="130"/>
+      <c r="D41" s="134"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="130"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="130"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="130"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="130"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="130"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="130"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="130"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2491,15 +2515,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2542,14 +2566,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="137" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2568,14 +2592,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="140" t="s">
+      <c r="D5" s="134"/>
+      <c r="E5" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2594,14 +2618,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="140" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2620,14 +2644,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="133" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5041,11 +5065,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5391,104 +5415,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="143" t="s">
+      <c r="J18" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6158,15 +6182,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="130"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="130"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="134"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7738,10 +7762,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7760,14 +7784,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="145" t="s">
+      <c r="D1" s="134"/>
+      <c r="E1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="141"/>
+      <c r="F1" s="145"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7786,14 +7810,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="140" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7812,14 +7836,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="140" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="141"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7838,14 +7862,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="133" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="135"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -8003,7 +8027,7 @@
     </row>
     <row r="10" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="99" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="47">
@@ -8141,126 +8165,122 @@
       <c r="S14" s="47"/>
       <c r="T14" s="47"/>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="132" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+    </row>
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C16" s="47">
         <v>3</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>2</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-    </row>
-    <row r="16" spans="1:20" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="117" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+    </row>
+    <row r="17" spans="1:20" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C17" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117">
+      <c r="D17" s="117"/>
+      <c r="E17" s="117">
         <v>2</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-    </row>
-    <row r="17" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="62" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+    </row>
+    <row r="18" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C18" s="47">
         <v>2</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47">
         <v>3</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+    </row>
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="18"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -8277,13 +8297,13 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
-      <c r="B20" s="62" t="s">
-        <v>81</v>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -8308,14 +8328,14 @@
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="62" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="1"/>
@@ -8333,182 +8353,182 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
       <c r="B22" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C23" s="47">
         <v>2</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47">
         <v>2</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-    </row>
-    <row r="23" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="86" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="121">
-        <v>2</v>
-      </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121">
-        <v>2</v>
-      </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-    </row>
-    <row r="24" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+    </row>
+    <row r="24" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="121">
+        <v>2</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+    </row>
+    <row r="25" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C25" s="49">
         <v>2</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49">
         <v>2</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-    </row>
-    <row r="25" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="75" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C26" s="60">
         <v>1</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60">
         <v>3</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-    </row>
-    <row r="26" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="47" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+    </row>
+    <row r="27" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C27" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47">
         <v>2</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-    </row>
-    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+    </row>
+    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
       <c r="H28" s="1"/>
@@ -8527,15 +8547,15 @@
     </row>
     <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="1" t="s">
-        <v>90</v>
+      <c r="B29" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="20"/>
@@ -8553,70 +8573,70 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="47">
-        <v>2</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47">
+    <row r="30" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-    </row>
-    <row r="31" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="47">
+        <v>2</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47">
+        <v>3</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
     </row>
     <row r="32" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
+      <c r="A32" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="18"/>
       <c r="G32" s="20"/>
       <c r="H32" s="1"/>
@@ -8633,17 +8653,17 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
+    <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="20"/>
@@ -8661,98 +8681,98 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="76">
-        <v>2</v>
-      </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76">
+    <row r="34" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-    </row>
-    <row r="35" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="51">
-        <v>3</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51">
-        <v>3</v>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="76">
+        <v>2</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76">
+        <v>2</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-    </row>
-    <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+    </row>
+    <row r="36" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="51">
+        <v>2</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51">
+        <v>3</v>
+      </c>
       <c r="F36" s="18"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+    </row>
+    <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="18"/>
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
@@ -8770,9 +8790,9 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -8797,45 +8817,45 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="62" t="s">
-        <v>94</v>
+    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-    </row>
-    <row r="40" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
-      <c r="B40" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="78">
-        <v>3</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78">
-        <v>3</v>
+      <c r="B40" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>1</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
@@ -8853,17 +8873,17 @@
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
     </row>
-    <row r="41" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="44"/>
-      <c r="B41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="78">
         <v>3</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>2</v>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78">
+        <v>3</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
@@ -8881,42 +8901,42 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
     </row>
-    <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+    <row r="42" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+    </row>
+    <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="18"/>
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
@@ -8934,12 +8954,12 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>147</v>
+      <c r="A44" s="41"/>
+      <c r="B44" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -8964,14 +8984,14 @@
     <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="20"/>
@@ -8991,15 +9011,15 @@
     </row>
     <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="62" t="s">
-        <v>159</v>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="20"/>
@@ -9017,14 +9037,18 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="1"/>
+      <c r="B47" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
       <c r="F47" s="18"/>
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
@@ -9041,9 +9065,11 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9063,12 +9089,18 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
       <c r="F49" s="18"/>
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
@@ -10514,6 +10546,28 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10538,8 +10592,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10645,11 +10699,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10995,104 +11049,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="55"/>
       <c r="H18" s="53"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11154,7 +11208,7 @@
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="129" t="s">
         <v>249</v>
       </c>
       <c r="D20" s="128">
@@ -11168,13 +11222,13 @@
       <c r="H20" s="53"/>
       <c r="I20" s="55"/>
       <c r="J20" s="54" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="K20" s="81">
         <v>2</v>
       </c>
       <c r="L20" s="81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="83"/>
       <c r="N20" s="29"/>
@@ -11192,7 +11246,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="55"/>
       <c r="C21" s="127" t="s">
@@ -11207,12 +11261,12 @@
       <c r="H21" s="53"/>
       <c r="I21" s="55"/>
       <c r="J21" s="83" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
       <c r="M21" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="1"/>
@@ -11229,7 +11283,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="55"/>
       <c r="C22" s="127" t="s">
@@ -11244,7 +11298,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="55"/>
       <c r="J22" s="83" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
@@ -11264,7 +11318,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" s="48" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="48" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="55"/>
       <c r="C23" s="127" t="s">
@@ -11279,12 +11333,12 @@
       <c r="H23" s="53"/>
       <c r="I23" s="55"/>
       <c r="J23" s="83" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
       <c r="M23" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="29"/>
       <c r="O23" s="49"/>
@@ -11313,14 +11367,10 @@
       <c r="G24" s="55"/>
       <c r="H24" s="53"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="53" t="s">
-        <v>264</v>
-      </c>
+      <c r="J24" s="53"/>
       <c r="K24" s="81"/>
       <c r="L24" s="81"/>
-      <c r="M24" s="83">
-        <v>1</v>
-      </c>
+      <c r="M24" s="83"/>
       <c r="N24" s="29"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
@@ -11373,7 +11423,7 @@
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="128"/>
-      <c r="F26" s="150">
+      <c r="F26" s="130">
         <v>1</v>
       </c>
       <c r="G26" s="55"/>
@@ -11413,7 +11463,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="55"/>
       <c r="J27" s="83" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
@@ -11436,7 +11486,7 @@
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="149" t="s">
+      <c r="C28" s="129" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="128">
@@ -11445,12 +11495,12 @@
       <c r="E28" s="128">
         <v>3</v>
       </c>
-      <c r="F28" s="150"/>
+      <c r="F28" s="130"/>
       <c r="G28" s="55"/>
       <c r="H28" s="53"/>
       <c r="I28" s="55"/>
       <c r="J28" s="83" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
@@ -11478,14 +11528,14 @@
       </c>
       <c r="D29" s="128"/>
       <c r="E29" s="128"/>
-      <c r="F29" s="150">
+      <c r="F29" s="130">
         <v>1</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="53"/>
       <c r="I29" s="55"/>
       <c r="J29" s="83" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
@@ -11513,14 +11563,14 @@
       </c>
       <c r="D30" s="128"/>
       <c r="E30" s="128"/>
-      <c r="F30" s="150">
+      <c r="F30" s="130">
         <v>1</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="53"/>
       <c r="I30" s="55"/>
       <c r="J30" s="83" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K30" s="87"/>
       <c r="L30" s="87"/>
@@ -11548,7 +11598,7 @@
       </c>
       <c r="D31" s="128"/>
       <c r="E31" s="128"/>
-      <c r="F31" s="150">
+      <c r="F31" s="130">
         <v>0.5</v>
       </c>
       <c r="G31" s="55"/>
@@ -11579,22 +11629,22 @@
       </c>
       <c r="D32" s="128"/>
       <c r="E32" s="128"/>
-      <c r="F32" s="150">
+      <c r="F32" s="130">
         <v>0.5</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="53"/>
       <c r="I32" s="55"/>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="K32" s="81">
+      <c r="K32" s="154">
         <v>2</v>
       </c>
-      <c r="L32" s="81">
+      <c r="L32" s="154">
         <v>2</v>
       </c>
-      <c r="M32" s="83"/>
+      <c r="M32" s="155"/>
       <c r="N32" s="29"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
@@ -11618,12 +11668,12 @@
       <c r="G33" s="55"/>
       <c r="H33" s="53"/>
       <c r="I33" s="55"/>
-      <c r="J33" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="83">
+      <c r="J33" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="127">
         <v>0.5</v>
       </c>
       <c r="N33" s="29"/>
@@ -11649,12 +11699,12 @@
       <c r="G34" s="55"/>
       <c r="H34" s="53"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="53">
+      <c r="J34" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="155">
         <v>1</v>
       </c>
       <c r="N34" s="29"/>
@@ -11680,12 +11730,12 @@
       <c r="G35" s="55"/>
       <c r="H35" s="53"/>
       <c r="I35" s="55"/>
-      <c r="J35" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="53">
+      <c r="J35" s="155" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="155">
         <v>1</v>
       </c>
       <c r="N35" s="29"/>
@@ -11711,12 +11761,12 @@
       <c r="G36" s="55"/>
       <c r="H36" s="53"/>
       <c r="I36" s="55"/>
-      <c r="J36" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="53">
+      <c r="J36" s="155" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="155">
         <v>1</v>
       </c>
       <c r="N36" s="29"/>
@@ -11781,7 +11831,7 @@
       <c r="L38" s="56"/>
       <c r="M38" s="56">
         <f>SUM(M20:M37)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="1"/>
@@ -11800,15 +11850,15 @@
       <c r="A39" s="53"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="147"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
       <c r="M39" s="55"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13845,7 +13895,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13926,7 +13976,7 @@
         <v>149</v>
       </c>
       <c r="J7" s="97" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -13946,7 +13996,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="126" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -13966,7 +14016,7 @@
         <v>72</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -13986,7 +14036,7 @@
         <v>163</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -14000,13 +14050,13 @@
         <v>191</v>
       </c>
       <c r="H11" s="125" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I11" t="s">
         <v>72</v>
       </c>
       <c r="J11" s="126" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -14020,7 +14070,13 @@
         <v>191</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="I12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -14041,8 +14097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14173,10 +14229,10 @@
     </row>
     <row r="10" spans="1:13" s="123" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="113" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A733A39-A25E-4154-BDDE-2137D8F2B07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B345654-C434-41A9-B722-32E9D1010889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="290">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -897,6 +897,18 @@
   </si>
   <si>
     <t>The Player Character has a cooldown on shrinking</t>
+  </si>
+  <si>
+    <t>Cave.Prefab</t>
+  </si>
+  <si>
+    <t>Cave for layer transitions</t>
+  </si>
+  <si>
+    <t>DirtGround.png</t>
+  </si>
+  <si>
+    <t>Cave Texture</t>
   </si>
 </sst>
 </file>
@@ -1518,9 +1530,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1739,6 +1748,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1797,15 +1818,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2140,316 +2152,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="133"/>
-      <c r="B1" s="135" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="134"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="134"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="134"/>
+      <c r="D6" s="137"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
-      <c r="B7" s="136" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="D8" s="137"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="134"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="134"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="137"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="134"/>
-      <c r="B11" s="136" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="134"/>
+      <c r="D12" s="137"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
-      <c r="B13" s="136" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="134"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="137"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
-      <c r="B15" s="136" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="137"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="134"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="134"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="134"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="134"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="134"/>
+      <c r="D40" s="137"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="134"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="134"/>
+      <c r="D41" s="137"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="134"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="134"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="134"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="134"/>
+      <c r="A46" s="137"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="134"/>
+      <c r="A47" s="137"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="134"/>
+      <c r="A48" s="137"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="134"/>
+      <c r="A49" s="137"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2515,15 +2527,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2566,14 +2578,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="141" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="143"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2592,14 +2604,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="144" t="s">
+      <c r="D5" s="137"/>
+      <c r="E5" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="145"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2618,14 +2630,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="144" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="145"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2644,14 +2656,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="137" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="139"/>
+      <c r="F7" s="142"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5065,11 +5077,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5415,104 +5427,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="147" t="s">
+      <c r="J18" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6182,15 +6194,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="134"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="137"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="134"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="137"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7784,14 +7796,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="137"/>
+      <c r="E1" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="145"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7810,14 +7822,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="144" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="145"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7836,14 +7848,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="144" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="145"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7862,14 +7874,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="137" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7895,8 +7907,8 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7911,7 +7923,7 @@
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="1">
@@ -7923,8 +7935,8 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="63" t="s">
         <v>151</v>
       </c>
       <c r="J6" s="1"/>
@@ -7941,7 +7953,7 @@
     </row>
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="1">
@@ -7953,8 +7965,8 @@
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="63" t="s">
         <v>101</v>
       </c>
       <c r="J7" s="1"/>
@@ -7997,37 +8009,37 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="120">
         <v>2</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121">
+      <c r="D9" s="120"/>
+      <c r="E9" s="120">
         <v>2</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
     </row>
     <row r="10" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="47">
@@ -8083,7 +8095,7 @@
     </row>
     <row r="12" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="47">
@@ -8111,7 +8123,7 @@
     </row>
     <row r="13" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="49">
@@ -8139,7 +8151,7 @@
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="47">
@@ -8165,29 +8177,29 @@
       <c r="S14" s="47"/>
       <c r="T14" s="47"/>
     </row>
-    <row r="15" spans="1:20" s="132" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="131" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
     </row>
     <row r="16" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
@@ -8217,37 +8229,37 @@
       <c r="S16" s="47"/>
       <c r="T16" s="47"/>
     </row>
-    <row r="17" spans="1:20" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="117" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="116">
         <v>3</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117">
+      <c r="D17" s="116"/>
+      <c r="E17" s="116">
         <v>2</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="42"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>241</v>
       </c>
       <c r="C18" s="47">
@@ -8327,7 +8339,7 @@
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="1">
@@ -8355,7 +8367,7 @@
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="1">
@@ -8383,7 +8395,7 @@
     </row>
     <row r="23" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="47">
@@ -8409,37 +8421,37 @@
       <c r="S23" s="47"/>
       <c r="T23" s="47"/>
     </row>
-    <row r="24" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="120">
         <v>2</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121">
+      <c r="D24" s="120"/>
+      <c r="E24" s="120">
         <v>2</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="85" t="s">
         <v>248</v>
       </c>
       <c r="C25" s="49">
@@ -8465,33 +8477,33 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
     </row>
-    <row r="26" spans="1:20" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="59">
         <v>1</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59">
         <v>3</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
     </row>
     <row r="27" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
@@ -8547,7 +8559,7 @@
     </row>
     <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="1">
@@ -8655,7 +8667,7 @@
     </row>
     <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="1">
@@ -8709,33 +8721,33 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="75">
         <v>2</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76">
+      <c r="D35" s="75"/>
+      <c r="E35" s="75">
         <v>2</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
     </row>
     <row r="36" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="42"/>
@@ -8847,7 +8859,7 @@
     </row>
     <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="61" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="1">
@@ -8873,16 +8885,16 @@
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
     </row>
-    <row r="41" spans="1:20" s="79" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="44"/>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="77">
         <v>3</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78">
+      <c r="D41" s="77"/>
+      <c r="E41" s="77">
         <v>3</v>
       </c>
       <c r="F41" s="22"/>
@@ -8955,7 +8967,7 @@
     </row>
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>249</v>
       </c>
       <c r="C44" s="1">
@@ -9039,7 +9051,7 @@
     </row>
     <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="61" t="s">
         <v>159</v>
       </c>
       <c r="C47" s="1">
@@ -10592,8 +10604,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10699,11 +10711,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11049,104 +11061,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="152" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="152" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11162,38 +11174,38 @@
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="55" t="s">
         <v>56</v>
       </c>
       <c r="N19" s="32"/>
       <c r="O19" s="33"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="64" t="s">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="63" t="s">
         <v>102</v>
       </c>
       <c r="R19" s="33"/>
@@ -11207,34 +11219,34 @@
     </row>
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="129" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="127">
         <v>2</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="127">
         <v>3</v>
       </c>
-      <c r="F20" s="127"/>
-      <c r="G20" s="55"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="54" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="81">
+      <c r="K20" s="134">
         <v>2</v>
       </c>
-      <c r="L20" s="81">
+      <c r="L20" s="134">
         <v>3</v>
       </c>
-      <c r="M20" s="83"/>
+      <c r="M20" s="135"/>
       <c r="N20" s="29"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="64" t="s">
+      <c r="P20" s="64"/>
+      <c r="Q20" s="63" t="s">
         <v>100</v>
       </c>
       <c r="R20" s="1"/>
@@ -11248,30 +11260,30 @@
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="127">
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="126">
         <v>0.5</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="83" t="s">
+      <c r="I21" s="54"/>
+      <c r="J21" s="135" t="s">
         <v>282</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="83">
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135">
         <v>3</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="64" t="s">
+      <c r="P21" s="65"/>
+      <c r="Q21" s="63" t="s">
         <v>101</v>
       </c>
       <c r="R21" s="1"/>
@@ -11285,24 +11297,24 @@
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="127">
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="126">
         <v>0.5</v>
       </c>
-      <c r="G22" s="55"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="83" t="s">
+      <c r="I22" s="54"/>
+      <c r="J22" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="83">
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="135">
         <v>1</v>
       </c>
       <c r="N22" s="29"/>
@@ -11320,24 +11332,24 @@
     </row>
     <row r="23" spans="1:25" s="48" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="127" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="127">
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="126">
         <v>0.5</v>
       </c>
-      <c r="G23" s="55"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="83" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="83">
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135">
         <v>2</v>
       </c>
       <c r="N23" s="29"/>
@@ -11355,22 +11367,22 @@
     </row>
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="127" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="127">
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="126">
         <v>1</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="53"/>
-      <c r="I24" s="55"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="53"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="83"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="29"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
@@ -11386,22 +11398,22 @@
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="127" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="127">
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="126">
         <v>1</v>
       </c>
-      <c r="G25" s="55"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="53"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="83"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="29"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -11417,28 +11429,28 @@
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="127" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="130">
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="129">
         <v>1</v>
       </c>
-      <c r="G26" s="55"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="53"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="80" t="s">
+      <c r="I26" s="54"/>
+      <c r="J26" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="K26" s="81">
+      <c r="K26" s="80">
         <v>2</v>
       </c>
-      <c r="L26" s="81">
+      <c r="L26" s="80">
         <v>2</v>
       </c>
-      <c r="M26" s="82"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="29"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -11454,20 +11466,20 @@
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="55"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="53"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="83" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="83">
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="82">
         <v>0.5</v>
       </c>
       <c r="N27" s="29"/>
@@ -11485,26 +11497,26 @@
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="129" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="128">
+      <c r="D28" s="127">
         <v>2</v>
       </c>
-      <c r="E28" s="128">
+      <c r="E28" s="127">
         <v>3</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="83" t="s">
+      <c r="I28" s="54"/>
+      <c r="J28" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85">
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84">
         <v>0.5</v>
       </c>
       <c r="N28" s="29"/>
@@ -11522,24 +11534,24 @@
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="127" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="130">
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="129">
         <v>1</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="53"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="83" t="s">
+      <c r="I29" s="54"/>
+      <c r="J29" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85">
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="84">
         <v>1</v>
       </c>
       <c r="N29" s="29"/>
@@ -11557,24 +11569,24 @@
     </row>
     <row r="30" spans="1:25" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="127" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="130">
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="129">
         <v>1</v>
       </c>
-      <c r="G30" s="55"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="53"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="83" t="s">
+      <c r="I30" s="54"/>
+      <c r="J30" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="83">
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="82">
         <v>1.5</v>
       </c>
       <c r="N30" s="29"/>
@@ -11592,22 +11604,22 @@
     </row>
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="127" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="130">
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="129">
         <v>0.5</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="53"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="83"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="82"/>
       <c r="N31" s="29"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
@@ -11623,28 +11635,28 @@
     </row>
     <row r="32" spans="1:25" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="127" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="130">
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="129">
         <v>0.5</v>
       </c>
-      <c r="G32" s="55"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="53"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="153" t="s">
+      <c r="I32" s="54"/>
+      <c r="J32" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="K32" s="154">
+      <c r="K32" s="134">
         <v>2</v>
       </c>
-      <c r="L32" s="154">
+      <c r="L32" s="134">
         <v>2</v>
       </c>
-      <c r="M32" s="155"/>
+      <c r="M32" s="135"/>
       <c r="N32" s="29"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
@@ -11660,20 +11672,20 @@
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="55"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="53"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="127" t="s">
+      <c r="I33" s="54"/>
+      <c r="J33" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="127">
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="126">
         <v>0.5</v>
       </c>
       <c r="N33" s="29"/>
@@ -11691,20 +11703,20 @@
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="55"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="53"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="155" t="s">
+      <c r="I34" s="54"/>
+      <c r="J34" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="155">
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="135">
         <v>1</v>
       </c>
       <c r="N34" s="29"/>
@@ -11722,20 +11734,20 @@
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="55"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="53"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="155" t="s">
+      <c r="I35" s="54"/>
+      <c r="J35" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="155">
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="135">
         <v>1</v>
       </c>
       <c r="N35" s="29"/>
@@ -11753,20 +11765,20 @@
     </row>
     <row r="36" spans="1:25" s="48" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="55"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="53"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="155" t="s">
+      <c r="I36" s="54"/>
+      <c r="J36" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="155">
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="135">
         <v>1</v>
       </c>
       <c r="N36" s="29"/>
@@ -11784,16 +11796,16 @@
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="53"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="55"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="53"/>
-      <c r="I37" s="55"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="58"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="53"/>
       <c r="M37" s="53"/>
       <c r="N37" s="29"/>
@@ -11811,25 +11823,25 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56" t="s">
+      <c r="B38" s="54"/>
+      <c r="C38" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56">
+      <c r="D38" s="56"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55">
         <f>SUM(F20:F37)</f>
         <v>7.5</v>
       </c>
-      <c r="G38" s="55"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="53"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56" t="s">
+      <c r="I38" s="54"/>
+      <c r="J38" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56">
+      <c r="K38" s="56"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55">
         <f>SUM(M20:M37)</f>
         <v>13</v>
       </c>
@@ -11848,18 +11860,18 @@
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="53"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="55"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -13431,7 +13443,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13449,440 +13461,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="69" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="69" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="69" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="69" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="69" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="70" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="70" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68" t="s">
+      <c r="C12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="69" t="s">
+      <c r="C13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="69" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="69" t="s">
+      <c r="C14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="70" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="69" t="s">
+      <c r="C15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="69" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="74" t="s">
+      <c r="C16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="71" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="70" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="74" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="69" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="69" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="74" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="69" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="98" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="73" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="72" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="72" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="69" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="69" t="s">
+      <c r="G26" s="66"/>
+      <c r="H26" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="69" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="69" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="69" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="70" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="70" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="73" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="71" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="67"/>
+      <c r="D31" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13901,9 +13913,9 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" style="77" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="13" style="76" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="78" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
@@ -13911,179 +13923,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="92" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="63" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="63" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="88" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="90" t="s">
         <v>240</v>
       </c>
       <c r="I7" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="96" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94" t="s">
         <v>150</v>
       </c>
       <c r="G8" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="123" t="s">
         <v>243</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="125" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="124" t="s">
         <v>244</v>
       </c>
       <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="91" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>161</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="96" t="s">
         <v>245</v>
       </c>
       <c r="I10" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="126" t="s">
+      <c r="J10" s="125" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="124" t="s">
         <v>262</v>
       </c>
       <c r="I11" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="126" t="s">
+      <c r="J11" s="125" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="91" t="s">
+      <c r="H12" s="90" t="s">
         <v>270</v>
       </c>
       <c r="I12" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="100" t="s">
         <v>239</v>
       </c>
     </row>
@@ -14095,10 +14107,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14111,504 +14123,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="107" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="110" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="110" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-    </row>
-    <row r="10" spans="1:13" s="123" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="1:13" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="105"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+    </row>
+    <row r="22" spans="1:5" s="132" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="112" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B23" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C23" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="113" t="s">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B24" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C24" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="114" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+    </row>
+    <row r="25" spans="1:5" s="132" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="112"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="113" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B28" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C28" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="115" t="s">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="113"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="113" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B31" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="113" t="s">
+      <c r="C31" s="105"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B32" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="113" t="s">
+      <c r="C32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B33" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="113" t="s">
+      <c r="C33" s="105"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B34" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="114" t="s">
+      <c r="C34" s="105"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="113" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B37" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C37" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="113" t="s">
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B38" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C38" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-    </row>
-    <row r="37" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="113" t="s">
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+    </row>
+    <row r="39" spans="1:5" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B39" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C39" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-    </row>
-    <row r="38" spans="1:5" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="113" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+    </row>
+    <row r="40" spans="1:5" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B40" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C40" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="113" t="s">
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B41" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C41" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="113" t="s">
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B42" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C42" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="113" t="s">
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B43" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="106" t="s">
+      <c r="C43" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="114" t="s">
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A44" s="113" t="s">
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B46" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C46" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B345654-C434-41A9-B722-32E9D1010889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D587088-231A-40EC-BF25-B709CFF5D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
     <sheet name="Example Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Example Week" sheetId="3" r:id="rId3"/>
     <sheet name="Backlog" sheetId="4" r:id="rId4"/>
-    <sheet name="Week 1" sheetId="5" r:id="rId5"/>
-    <sheet name="CRCCards" sheetId="7" r:id="rId6"/>
-    <sheet name="RefactoringNotes" sheetId="8" r:id="rId7"/>
-    <sheet name="AssetInventory" sheetId="9" r:id="rId8"/>
+    <sheet name="Week 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 3" sheetId="10" r:id="rId6"/>
+    <sheet name="CRCCards" sheetId="7" r:id="rId7"/>
+    <sheet name="RefactoringNotes" sheetId="8" r:id="rId8"/>
+    <sheet name="AssetInventory" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="283">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -269,12 +270,6 @@
     <t>Enemy Movement</t>
   </si>
   <si>
-    <t>The player can move left and right smoothly</t>
-  </si>
-  <si>
-    <t>The player can't leave the road</t>
-  </si>
-  <si>
     <t>The player animates while autorunning</t>
   </si>
   <si>
@@ -284,9 +279,6 @@
     <t>The player explodes when he dies</t>
   </si>
   <si>
-    <t>Enemies kill the player on impact</t>
-  </si>
-  <si>
     <t>Enemies animate in response to the players presence</t>
   </si>
   <si>
@@ -299,33 +291,12 @@
     <t>The character reacts when completing a layer</t>
   </si>
   <si>
-    <t>The player is notified when an enemy is dodged narrowly</t>
-  </si>
-  <si>
     <t>Enemies animate when idle</t>
   </si>
   <si>
-    <t>The layer and score are displayed to the player</t>
-  </si>
-  <si>
-    <t>The planet rotates automatically</t>
-  </si>
-  <si>
-    <t>The player's best score is shown on the screen</t>
-  </si>
-  <si>
-    <t>Enemies spawn periodically on the road</t>
-  </si>
-  <si>
-    <t>The player can choose to restart after they die</t>
-  </si>
-  <si>
     <t>Enemies makes sounds when the player passes them</t>
   </si>
   <si>
-    <t>Background music plays constantly</t>
-  </si>
-  <si>
     <t>The player character makes a sound when they die</t>
   </si>
   <si>
@@ -335,12 +306,6 @@
     <t>Student 1 Tasks (continued)</t>
   </si>
   <si>
-    <t>The player receives points when passing an enemy</t>
-  </si>
-  <si>
-    <t>The player can avoid enemies by a narrow margin for a score multiplier</t>
-  </si>
-  <si>
     <t>Working on</t>
   </si>
   <si>
@@ -440,9 +405,6 @@
     <t>Report death</t>
   </si>
   <si>
-    <t>Add Player detection to enemies</t>
-  </si>
-  <si>
     <t>SpawnManager</t>
   </si>
   <si>
@@ -455,9 +417,6 @@
     <t>There is an environmental animation when the layer changes</t>
   </si>
   <si>
-    <t>The Game changes layers at an interval</t>
-  </si>
-  <si>
     <t>Background music speeds up with the layers</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t>Dodge popups change appearance based on multiplier</t>
   </si>
   <si>
-    <t>The player can press a button to shrink the character</t>
-  </si>
-  <si>
     <t>The character animates when shrinking</t>
   </si>
   <si>
@@ -779,9 +735,6 @@
     <t>Add SFX to shrinking</t>
   </si>
   <si>
-    <t>EvilRectangles spawn locations are randomized</t>
-  </si>
-  <si>
     <t>Implement Big Red</t>
   </si>
   <si>
@@ -893,9 +846,6 @@
     <t>The cave asset should spawn when the layer is done, and the layer should increase when the player enters it. The screen shouldn't be visible when entering the cave</t>
   </si>
   <si>
-    <t>When the player enters the cave, the sky and terrain should change. Make a List in Planet Controller to iterate, with a series of skies and terrains to apply.</t>
-  </si>
-  <si>
     <t>The Player Character has a cooldown on shrinking</t>
   </si>
   <si>
@@ -909,13 +859,43 @@
   </si>
   <si>
     <t>Cave Texture</t>
+  </si>
+  <si>
+    <t>OtherEnemySubclasses</t>
+  </si>
+  <si>
+    <t>Cave(Enemy Subclass)</t>
+  </si>
+  <si>
+    <t>NOTE: Week 1 was deleted</t>
+  </si>
+  <si>
+    <t>Make Big Red Run forward</t>
+  </si>
+  <si>
+    <t>Make Flying Pink Follow the 6 pattern</t>
+  </si>
+  <si>
+    <t>Make EvilRectangle Fall</t>
+  </si>
+  <si>
+    <t>The player's best score is shown on the Gameplay screen</t>
+  </si>
+  <si>
+    <t>Gameplay UI</t>
+  </si>
+  <si>
+    <t>AnimationMaker</t>
+  </si>
+  <si>
+    <t>Make it darker near the cave entrance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1131,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1232,7 +1231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1363,11 +1362,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1521,12 +1535,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1544,12 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1576,12 +1578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1769,6 +1765,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1819,6 +1824,24 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2152,316 +2175,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="136"/>
-      <c r="B1" s="138" t="s">
+      <c r="A1" s="133"/>
+      <c r="B1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="139" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="137"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="137"/>
-      <c r="B7" s="139" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="137"/>
+      <c r="D8" s="134"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
-      <c r="B9" s="139" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="137"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="134"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
-      <c r="B11" s="139" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="137"/>
+      <c r="D12" s="134"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
-      <c r="B13" s="139" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="134"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139" t="s">
+      <c r="A15" s="134"/>
+      <c r="B15" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="137"/>
+      <c r="D16" s="134"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="137"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="137"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="137"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="137"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="137"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="137"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="137"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="137"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="137"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="137"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="137"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="137"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="137"/>
+      <c r="D40" s="134"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="137"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="137"/>
+      <c r="D41" s="134"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="137"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="137"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="137"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="137"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="137"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="137"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="137"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="137"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2527,15 +2550,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2578,14 +2601,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="144" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="146"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2604,14 +2627,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="147" t="s">
+      <c r="D5" s="134"/>
+      <c r="E5" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2630,14 +2653,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2656,14 +2679,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="140" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="142"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5077,11 +5100,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5427,104 +5450,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="150" t="s">
+      <c r="J18" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6194,15 +6217,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="137"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="137"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="134"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7774,10 +7797,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7796,14 +7819,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="152" t="s">
+      <c r="D1" s="134"/>
+      <c r="E1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="148"/>
+      <c r="F1" s="145"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7822,16 +7845,18 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59" t="s">
+        <v>137</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7848,16 +7873,16 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7874,14 +7899,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="140" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7907,8 +7932,8 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7921,24 +7946,22 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63" t="s">
-        <v>151</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7951,131 +7974,125 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="61" t="s">
+    <row r="7" spans="1:20" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="114">
+        <v>2</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+    </row>
+    <row r="8" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="47">
+        <v>2</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+    </row>
+    <row r="9" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="47">
+        <v>3</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="120">
-        <v>2</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120">
-        <v>2</v>
-      </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-    </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+    </row>
+    <row r="10" spans="1:20" s="125" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
-      <c r="B10" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="47">
-        <v>2</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47">
-        <v>2</v>
-      </c>
+      <c r="B10" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-    </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+    </row>
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="47">
         <v>3</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="47"/>
@@ -8093,264 +8110,264 @@
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
     </row>
-    <row r="12" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="111" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
-      <c r="B12" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="B12" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="110">
+        <v>3</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110">
         <v>2</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47">
-        <v>1</v>
-      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-    </row>
-    <row r="13" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="49">
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49">
+      <c r="F14" s="18"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="114">
+        <v>2</v>
+      </c>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+    </row>
+    <row r="16" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="49">
+        <v>2</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="1:20" s="131" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="130">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-    </row>
-    <row r="14" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="47">
+      <c r="D17" s="130"/>
+      <c r="E17" s="130">
+        <v>3</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+    </row>
+    <row r="18" spans="1:20" s="131" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="130">
+        <v>3</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130">
+        <v>3</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+    </row>
+    <row r="19" spans="1:20" s="131" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="130">
+        <v>3</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+    </row>
+    <row r="20" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="47">
+        <v>3</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47">
         <v>2</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47">
-        <v>2</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-    </row>
-    <row r="15" spans="1:20" s="131" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-    </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="47">
-        <v>3</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
-        <v>2</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-    </row>
-    <row r="17" spans="1:20" s="117" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="116">
-        <v>3</v>
-      </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116">
-        <v>2</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-    </row>
-    <row r="18" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="47">
-        <v>2</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47">
-        <v>3</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
+      <c r="A21" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -8365,20 +8382,20 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
-      <c r="B22" s="61" t="s">
-        <v>91</v>
+      <c r="B22" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -8393,210 +8410,202 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="47">
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47">
-        <v>2</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-    </row>
-    <row r="24" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="120">
-        <v>2</v>
-      </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120">
-        <v>2</v>
-      </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-    </row>
-    <row r="25" spans="1:20" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="49">
-        <v>2</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49">
-        <v>2</v>
-      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-    </row>
-    <row r="26" spans="1:20" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="59">
+      <c r="G25" s="20"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59">
+      <c r="F26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-    </row>
-    <row r="27" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="47">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" s="72" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="71">
         <v>3</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47">
-        <v>2</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71">
+        <v>3</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="61" t="s">
-        <v>88</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="18"/>
       <c r="G30" s="20"/>
       <c r="H30" s="1"/>
@@ -8613,42 +8622,46 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="47">
-        <v>2</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47">
+    <row r="31" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
       <c r="F32" s="18"/>
       <c r="G32" s="20"/>
       <c r="H32" s="1"/>
@@ -8665,18 +8678,14 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
+    <row r="33" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="18"/>
       <c r="G33" s="20"/>
       <c r="H33" s="1"/>
@@ -8694,9 +8703,9 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -8721,66 +8730,52 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="75">
-        <v>2</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75">
-        <v>2</v>
-      </c>
+    <row r="35" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="18"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-    </row>
-    <row r="36" spans="1:20" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="51">
-        <v>2</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51">
-        <v>3</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="18"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
-        <v>73</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8801,18 +8796,12 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
+    <row r="38" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="18"/>
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
@@ -8829,18 +8818,12 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="18"/>
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
@@ -8858,93 +8841,73 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-    </row>
-    <row r="41" spans="1:20" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="77">
-        <v>3</v>
-      </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77">
-        <v>3</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-    </row>
-    <row r="42" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>108</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8966,17 +8929,11 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1">
-        <v>3</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="18"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
@@ -8995,16 +8952,10 @@
     </row>
     <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <v>3</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="18"/>
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
@@ -9023,16 +8974,10 @@
     </row>
     <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="18"/>
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
@@ -9051,16 +8996,10 @@
     </row>
     <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="18"/>
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
@@ -9077,11 +9016,9 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9101,18 +9038,12 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="18"/>
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
@@ -10250,336 +10181,6 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-    </row>
-    <row r="101" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-    </row>
-    <row r="102" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-    </row>
-    <row r="103" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-    </row>
-    <row r="104" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-    </row>
-    <row r="105" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-    </row>
-    <row r="106" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-    </row>
-    <row r="107" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-    </row>
-    <row r="108" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-    </row>
-    <row r="109" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-    </row>
-    <row r="110" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-    </row>
-    <row r="111" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-    </row>
-    <row r="112" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-    </row>
-    <row r="113" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-    </row>
-    <row r="114" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-    </row>
-    <row r="115" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10604,8 +10205,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10711,11 +10312,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10772,7 +10373,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="45">
         <v>0</v>
@@ -10805,7 +10406,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45">
         <v>0</v>
@@ -10838,10 +10439,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="45">
         <v>0</v>
@@ -10867,14 +10468,16 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="155" t="s">
+        <v>275</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" s="45">
         <v>0</v>
@@ -10900,11 +10503,11 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="45">
         <v>6</v>
@@ -10933,14 +10536,14 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="45">
         <v>0</v>
@@ -10970,10 +10573,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="45">
         <v>0</v>
@@ -11007,7 +10610,7 @@
       </c>
       <c r="E13" s="25">
         <f t="shared" ref="E13:F13" si="0">SUM(E6:E12)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="0"/>
@@ -11061,104 +10664,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="155" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11173,40 +10776,40 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="53" t="s">
         <v>56</v>
       </c>
       <c r="N19" s="32"/>
       <c r="O19" s="33"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63" t="s">
-        <v>102</v>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59" t="s">
+        <v>90</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -11218,36 +10821,36 @@
       <c r="Y19" s="33"/>
     </row>
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="128" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="127">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="122" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="121">
         <v>2</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="121">
         <v>3</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="134">
+      <c r="F20" s="120"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="121">
         <v>2</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="121">
         <v>3</v>
       </c>
-      <c r="M20" s="135"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="29"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="63" t="s">
-        <v>100</v>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -11259,32 +10862,32 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="126" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="126">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="120">
         <v>0.5</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135">
+      <c r="G21" s="52"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="120">
         <v>3</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="63" t="s">
-        <v>101</v>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -11296,25 +10899,25 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="126" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="126">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="120">
         <v>0.5</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="135">
+      <c r="G22" s="52"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="120" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="120">
         <v>1</v>
       </c>
       <c r="N22" s="29"/>
@@ -11331,27 +10934,23 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" s="48" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="126">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="120">
         <v>0.5</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="135" t="s">
-        <v>284</v>
-      </c>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135">
-        <v>2</v>
-      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="76"/>
       <c r="N23" s="29"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
@@ -11366,23 +10965,23 @@
       <c r="Y23" s="49"/>
     </row>
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="126" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="126">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="120">
         <v>1</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="82"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="29"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
@@ -11397,23 +10996,23 @@
       <c r="Y24" s="49"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="126" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="126">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="120">
         <v>1</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="82"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="76"/>
       <c r="N25" s="29"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -11428,29 +11027,29 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="126" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="129">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="123">
         <v>1</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="79" t="s">
-        <v>247</v>
-      </c>
-      <c r="K26" s="80">
+      <c r="G26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="74">
         <v>2</v>
       </c>
-      <c r="L26" s="80">
+      <c r="L26" s="74">
         <v>2</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="75"/>
       <c r="N26" s="29"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -11465,21 +11064,21 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="82">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="76">
         <v>0.5</v>
       </c>
       <c r="N27" s="29"/>
@@ -11496,27 +11095,27 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="127">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="121">
         <v>2</v>
       </c>
-      <c r="E28" s="127">
+      <c r="E28" s="121">
         <v>3</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84">
+      <c r="F28" s="123"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78">
         <v>0.5</v>
       </c>
       <c r="N28" s="29"/>
@@ -11533,25 +11132,25 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="126" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="129">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="123">
         <v>1</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="84">
+      <c r="G29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="78">
         <v>1</v>
       </c>
       <c r="N29" s="29"/>
@@ -11568,25 +11167,25 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="126" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="129">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="123">
         <v>1</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="82">
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="76">
         <v>1.5</v>
       </c>
       <c r="N30" s="29"/>
@@ -11603,23 +11202,23 @@
       <c r="Y30" s="49"/>
     </row>
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="126" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="129">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="123">
         <v>0.5</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="82"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="29"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
@@ -11634,29 +11233,29 @@
       <c r="Y31" s="49"/>
     </row>
     <row r="32" spans="1:25" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="126" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="129">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="123">
         <v>0.5</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="133" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" s="134">
+      <c r="G32" s="52"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="128">
         <v>2</v>
       </c>
-      <c r="L32" s="134">
+      <c r="L32" s="128">
         <v>2</v>
       </c>
-      <c r="M32" s="135"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="29"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
@@ -11671,21 +11270,21 @@
       <c r="Y32" s="49"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="126" t="s">
-        <v>268</v>
-      </c>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="126">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="120">
         <v>0.5</v>
       </c>
       <c r="N33" s="29"/>
@@ -11702,21 +11301,21 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="135" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="134"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="135">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="129" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129">
         <v>1</v>
       </c>
       <c r="N34" s="29"/>
@@ -11733,21 +11332,21 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="135" t="s">
-        <v>269</v>
-      </c>
-      <c r="K35" s="134"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="135">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="129">
         <v>1</v>
       </c>
       <c r="N35" s="29"/>
@@ -11764,21 +11363,21 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" s="48" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="135">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="129">
         <v>1</v>
       </c>
       <c r="N36" s="29"/>
@@ -11795,19 +11394,19 @@
       <c r="Y36" s="49"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="29"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -11822,28 +11421,28 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55">
+      <c r="D38" s="54"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53">
         <f>SUM(F20:F37)</f>
         <v>7.5</v>
       </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55" t="s">
+      <c r="G38" s="52"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="56"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55">
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53">
         <f>SUM(M20:M37)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="1"/>
@@ -11859,19 +11458,19 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="54"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -13425,13 +13024,14 @@
       <c r="Y96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A15:Y17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13439,11 +13039,2739 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D9DDAC-1ED8-4E04-A56A-404025F27D06}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y96"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" style="131" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="32" style="131" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="131" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="131" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="131" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="131" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="131" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="131" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="131" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="131" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="131" customWidth="1"/>
+    <col min="13" max="13" width="13" style="131" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="131" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0</v>
+      </c>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" ref="E13:F13" si="0">SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+    </row>
+    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+    </row>
+    <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+    </row>
+    <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+    </row>
+    <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+    </row>
+    <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+    </row>
+    <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+    </row>
+    <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+    </row>
+    <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+    </row>
+    <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+    </row>
+    <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+    </row>
+    <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+    </row>
+    <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+    </row>
+    <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+    </row>
+    <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+    </row>
+    <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+    </row>
+    <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+    </row>
+    <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+    </row>
+    <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="130"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53">
+        <f>SUM(F20:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53">
+        <f>SUM(M20:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="29"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="130"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="130"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="130"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="130"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="130"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="130"/>
+      <c r="Q44" s="130"/>
+      <c r="R44" s="130"/>
+      <c r="S44" s="130"/>
+      <c r="T44" s="130"/>
+      <c r="U44" s="130"/>
+      <c r="V44" s="130"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="130"/>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="130"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="130"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="130"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="130"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="130"/>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="130"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="130"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="130"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="130"/>
+      <c r="Y48" s="130"/>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="130"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="130"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="130"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="130"/>
+      <c r="T50" s="130"/>
+      <c r="U50" s="130"/>
+      <c r="V50" s="130"/>
+      <c r="W50" s="130"/>
+      <c r="X50" s="130"/>
+      <c r="Y50" s="130"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="130"/>
+      <c r="P51" s="130"/>
+      <c r="Q51" s="130"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="130"/>
+      <c r="T51" s="130"/>
+      <c r="U51" s="130"/>
+      <c r="V51" s="130"/>
+      <c r="W51" s="130"/>
+      <c r="X51" s="130"/>
+      <c r="Y51" s="130"/>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="130"/>
+      <c r="P52" s="130"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="130"/>
+      <c r="T52" s="130"/>
+      <c r="U52" s="130"/>
+      <c r="V52" s="130"/>
+      <c r="W52" s="130"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="130"/>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="130"/>
+      <c r="Y53" s="130"/>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
+      <c r="U54" s="130"/>
+      <c r="V54" s="130"/>
+      <c r="W54" s="130"/>
+      <c r="X54" s="130"/>
+      <c r="Y54" s="130"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="130"/>
+      <c r="W55" s="130"/>
+      <c r="X55" s="130"/>
+      <c r="Y55" s="130"/>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
+      <c r="Q56" s="130"/>
+      <c r="R56" s="130"/>
+      <c r="S56" s="130"/>
+      <c r="T56" s="130"/>
+      <c r="U56" s="130"/>
+      <c r="V56" s="130"/>
+      <c r="W56" s="130"/>
+      <c r="X56" s="130"/>
+      <c r="Y56" s="130"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="130"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="130"/>
+      <c r="U57" s="130"/>
+      <c r="V57" s="130"/>
+      <c r="W57" s="130"/>
+      <c r="X57" s="130"/>
+      <c r="Y57" s="130"/>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
+      <c r="Q58" s="130"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="130"/>
+      <c r="U58" s="130"/>
+      <c r="V58" s="130"/>
+      <c r="W58" s="130"/>
+      <c r="X58" s="130"/>
+      <c r="Y58" s="130"/>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="130"/>
+      <c r="P59" s="130"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="130"/>
+      <c r="U59" s="130"/>
+      <c r="V59" s="130"/>
+      <c r="W59" s="130"/>
+      <c r="X59" s="130"/>
+      <c r="Y59" s="130"/>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="130"/>
+      <c r="O60" s="130"/>
+      <c r="P60" s="130"/>
+      <c r="Q60" s="130"/>
+      <c r="R60" s="130"/>
+      <c r="S60" s="130"/>
+      <c r="T60" s="130"/>
+      <c r="U60" s="130"/>
+      <c r="V60" s="130"/>
+      <c r="W60" s="130"/>
+      <c r="X60" s="130"/>
+      <c r="Y60" s="130"/>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="130"/>
+      <c r="O61" s="130"/>
+      <c r="P61" s="130"/>
+      <c r="Q61" s="130"/>
+      <c r="R61" s="130"/>
+      <c r="S61" s="130"/>
+      <c r="T61" s="130"/>
+      <c r="U61" s="130"/>
+      <c r="V61" s="130"/>
+      <c r="W61" s="130"/>
+      <c r="X61" s="130"/>
+      <c r="Y61" s="130"/>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="130"/>
+      <c r="O62" s="130"/>
+      <c r="P62" s="130"/>
+      <c r="Q62" s="130"/>
+      <c r="R62" s="130"/>
+      <c r="S62" s="130"/>
+      <c r="T62" s="130"/>
+      <c r="U62" s="130"/>
+      <c r="V62" s="130"/>
+      <c r="W62" s="130"/>
+      <c r="X62" s="130"/>
+      <c r="Y62" s="130"/>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="130"/>
+      <c r="P63" s="130"/>
+      <c r="Q63" s="130"/>
+      <c r="R63" s="130"/>
+      <c r="S63" s="130"/>
+      <c r="T63" s="130"/>
+      <c r="U63" s="130"/>
+      <c r="V63" s="130"/>
+      <c r="W63" s="130"/>
+      <c r="X63" s="130"/>
+      <c r="Y63" s="130"/>
+    </row>
+    <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
+      <c r="Q64" s="130"/>
+      <c r="R64" s="130"/>
+      <c r="S64" s="130"/>
+      <c r="T64" s="130"/>
+      <c r="U64" s="130"/>
+      <c r="V64" s="130"/>
+      <c r="W64" s="130"/>
+      <c r="X64" s="130"/>
+      <c r="Y64" s="130"/>
+    </row>
+    <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="130"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="130"/>
+      <c r="O65" s="130"/>
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="130"/>
+      <c r="S65" s="130"/>
+      <c r="T65" s="130"/>
+      <c r="U65" s="130"/>
+      <c r="V65" s="130"/>
+      <c r="W65" s="130"/>
+      <c r="X65" s="130"/>
+      <c r="Y65" s="130"/>
+    </row>
+    <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="130"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
+      <c r="Q66" s="130"/>
+      <c r="R66" s="130"/>
+      <c r="S66" s="130"/>
+      <c r="T66" s="130"/>
+      <c r="U66" s="130"/>
+      <c r="V66" s="130"/>
+      <c r="W66" s="130"/>
+      <c r="X66" s="130"/>
+      <c r="Y66" s="130"/>
+    </row>
+    <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="130"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="130"/>
+      <c r="Q67" s="130"/>
+      <c r="R67" s="130"/>
+      <c r="S67" s="130"/>
+      <c r="T67" s="130"/>
+      <c r="U67" s="130"/>
+      <c r="V67" s="130"/>
+      <c r="W67" s="130"/>
+      <c r="X67" s="130"/>
+      <c r="Y67" s="130"/>
+    </row>
+    <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="130"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="130"/>
+      <c r="Q68" s="130"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="130"/>
+      <c r="T68" s="130"/>
+      <c r="U68" s="130"/>
+      <c r="V68" s="130"/>
+      <c r="W68" s="130"/>
+      <c r="X68" s="130"/>
+      <c r="Y68" s="130"/>
+    </row>
+    <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="130"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="130"/>
+      <c r="P69" s="130"/>
+      <c r="Q69" s="130"/>
+      <c r="R69" s="130"/>
+      <c r="S69" s="130"/>
+      <c r="T69" s="130"/>
+      <c r="U69" s="130"/>
+      <c r="V69" s="130"/>
+      <c r="W69" s="130"/>
+      <c r="X69" s="130"/>
+      <c r="Y69" s="130"/>
+    </row>
+    <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="130"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="130"/>
+      <c r="O70" s="130"/>
+      <c r="P70" s="130"/>
+      <c r="Q70" s="130"/>
+      <c r="R70" s="130"/>
+      <c r="S70" s="130"/>
+      <c r="T70" s="130"/>
+      <c r="U70" s="130"/>
+      <c r="V70" s="130"/>
+      <c r="W70" s="130"/>
+      <c r="X70" s="130"/>
+      <c r="Y70" s="130"/>
+    </row>
+    <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="130"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="130"/>
+      <c r="O71" s="130"/>
+      <c r="P71" s="130"/>
+      <c r="Q71" s="130"/>
+      <c r="R71" s="130"/>
+      <c r="S71" s="130"/>
+      <c r="T71" s="130"/>
+      <c r="U71" s="130"/>
+      <c r="V71" s="130"/>
+      <c r="W71" s="130"/>
+      <c r="X71" s="130"/>
+      <c r="Y71" s="130"/>
+    </row>
+    <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="130"/>
+      <c r="R72" s="130"/>
+      <c r="S72" s="130"/>
+      <c r="T72" s="130"/>
+      <c r="U72" s="130"/>
+      <c r="V72" s="130"/>
+      <c r="W72" s="130"/>
+      <c r="X72" s="130"/>
+      <c r="Y72" s="130"/>
+    </row>
+    <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
+      <c r="T73" s="130"/>
+      <c r="U73" s="130"/>
+      <c r="V73" s="130"/>
+      <c r="W73" s="130"/>
+      <c r="X73" s="130"/>
+      <c r="Y73" s="130"/>
+    </row>
+    <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="130"/>
+      <c r="P74" s="130"/>
+      <c r="Q74" s="130"/>
+      <c r="R74" s="130"/>
+      <c r="S74" s="130"/>
+      <c r="T74" s="130"/>
+      <c r="U74" s="130"/>
+      <c r="V74" s="130"/>
+      <c r="W74" s="130"/>
+      <c r="X74" s="130"/>
+      <c r="Y74" s="130"/>
+    </row>
+    <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="130"/>
+      <c r="Q75" s="130"/>
+      <c r="R75" s="130"/>
+      <c r="S75" s="130"/>
+      <c r="T75" s="130"/>
+      <c r="U75" s="130"/>
+      <c r="V75" s="130"/>
+      <c r="W75" s="130"/>
+      <c r="X75" s="130"/>
+      <c r="Y75" s="130"/>
+    </row>
+    <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="130"/>
+      <c r="K76" s="130"/>
+      <c r="L76" s="130"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="130"/>
+      <c r="Q76" s="130"/>
+      <c r="R76" s="130"/>
+      <c r="S76" s="130"/>
+      <c r="T76" s="130"/>
+      <c r="U76" s="130"/>
+      <c r="V76" s="130"/>
+      <c r="W76" s="130"/>
+      <c r="X76" s="130"/>
+      <c r="Y76" s="130"/>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
+      <c r="G77" s="130"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="130"/>
+      <c r="N77" s="130"/>
+      <c r="O77" s="130"/>
+      <c r="P77" s="130"/>
+      <c r="Q77" s="130"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="130"/>
+      <c r="T77" s="130"/>
+      <c r="U77" s="130"/>
+      <c r="V77" s="130"/>
+      <c r="W77" s="130"/>
+      <c r="X77" s="130"/>
+      <c r="Y77" s="130"/>
+    </row>
+    <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="130"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="130"/>
+      <c r="N78" s="130"/>
+      <c r="O78" s="130"/>
+      <c r="P78" s="130"/>
+      <c r="Q78" s="130"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="130"/>
+      <c r="T78" s="130"/>
+      <c r="U78" s="130"/>
+      <c r="V78" s="130"/>
+      <c r="W78" s="130"/>
+      <c r="X78" s="130"/>
+      <c r="Y78" s="130"/>
+    </row>
+    <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="130"/>
+      <c r="I79" s="130"/>
+      <c r="J79" s="130"/>
+      <c r="K79" s="130"/>
+      <c r="L79" s="130"/>
+      <c r="M79" s="130"/>
+      <c r="N79" s="130"/>
+      <c r="O79" s="130"/>
+      <c r="P79" s="130"/>
+      <c r="Q79" s="130"/>
+      <c r="R79" s="130"/>
+      <c r="S79" s="130"/>
+      <c r="T79" s="130"/>
+      <c r="U79" s="130"/>
+      <c r="V79" s="130"/>
+      <c r="W79" s="130"/>
+      <c r="X79" s="130"/>
+      <c r="Y79" s="130"/>
+    </row>
+    <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="130"/>
+      <c r="G80" s="130"/>
+      <c r="H80" s="130"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="130"/>
+      <c r="K80" s="130"/>
+      <c r="L80" s="130"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130"/>
+      <c r="R80" s="130"/>
+      <c r="S80" s="130"/>
+      <c r="T80" s="130"/>
+      <c r="U80" s="130"/>
+      <c r="V80" s="130"/>
+      <c r="W80" s="130"/>
+      <c r="X80" s="130"/>
+      <c r="Y80" s="130"/>
+    </row>
+    <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="130"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="130"/>
+      <c r="N81" s="130"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="130"/>
+      <c r="T81" s="130"/>
+      <c r="U81" s="130"/>
+      <c r="V81" s="130"/>
+      <c r="W81" s="130"/>
+      <c r="X81" s="130"/>
+      <c r="Y81" s="130"/>
+    </row>
+    <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
+      <c r="L82" s="130"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
+      <c r="Q82" s="130"/>
+      <c r="R82" s="130"/>
+      <c r="S82" s="130"/>
+      <c r="T82" s="130"/>
+      <c r="U82" s="130"/>
+      <c r="V82" s="130"/>
+      <c r="W82" s="130"/>
+      <c r="X82" s="130"/>
+      <c r="Y82" s="130"/>
+    </row>
+    <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="130"/>
+      <c r="G83" s="130"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="130"/>
+      <c r="J83" s="130"/>
+      <c r="K83" s="130"/>
+      <c r="L83" s="130"/>
+      <c r="M83" s="130"/>
+      <c r="N83" s="130"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="130"/>
+      <c r="Q83" s="130"/>
+      <c r="R83" s="130"/>
+      <c r="S83" s="130"/>
+      <c r="T83" s="130"/>
+      <c r="U83" s="130"/>
+      <c r="V83" s="130"/>
+      <c r="W83" s="130"/>
+      <c r="X83" s="130"/>
+      <c r="Y83" s="130"/>
+    </row>
+    <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="130"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
+      <c r="Q84" s="130"/>
+      <c r="R84" s="130"/>
+      <c r="S84" s="130"/>
+      <c r="T84" s="130"/>
+      <c r="U84" s="130"/>
+      <c r="V84" s="130"/>
+      <c r="W84" s="130"/>
+      <c r="X84" s="130"/>
+      <c r="Y84" s="130"/>
+    </row>
+    <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
+      <c r="J85" s="130"/>
+      <c r="K85" s="130"/>
+      <c r="L85" s="130"/>
+      <c r="M85" s="130"/>
+      <c r="N85" s="130"/>
+      <c r="O85" s="130"/>
+      <c r="P85" s="130"/>
+      <c r="Q85" s="130"/>
+      <c r="R85" s="130"/>
+      <c r="S85" s="130"/>
+      <c r="T85" s="130"/>
+      <c r="U85" s="130"/>
+      <c r="V85" s="130"/>
+      <c r="W85" s="130"/>
+      <c r="X85" s="130"/>
+      <c r="Y85" s="130"/>
+    </row>
+    <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="130"/>
+      <c r="J86" s="130"/>
+      <c r="K86" s="130"/>
+      <c r="L86" s="130"/>
+      <c r="M86" s="130"/>
+      <c r="N86" s="130"/>
+      <c r="O86" s="130"/>
+      <c r="P86" s="130"/>
+      <c r="Q86" s="130"/>
+      <c r="R86" s="130"/>
+      <c r="S86" s="130"/>
+      <c r="T86" s="130"/>
+      <c r="U86" s="130"/>
+      <c r="V86" s="130"/>
+      <c r="W86" s="130"/>
+      <c r="X86" s="130"/>
+      <c r="Y86" s="130"/>
+    </row>
+    <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
+      <c r="J87" s="130"/>
+      <c r="K87" s="130"/>
+      <c r="L87" s="130"/>
+      <c r="M87" s="130"/>
+      <c r="N87" s="130"/>
+      <c r="O87" s="130"/>
+      <c r="P87" s="130"/>
+      <c r="Q87" s="130"/>
+      <c r="R87" s="130"/>
+      <c r="S87" s="130"/>
+      <c r="T87" s="130"/>
+      <c r="U87" s="130"/>
+      <c r="V87" s="130"/>
+      <c r="W87" s="130"/>
+      <c r="X87" s="130"/>
+      <c r="Y87" s="130"/>
+    </row>
+    <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="130"/>
+      <c r="J88" s="130"/>
+      <c r="K88" s="130"/>
+      <c r="L88" s="130"/>
+      <c r="M88" s="130"/>
+      <c r="N88" s="130"/>
+      <c r="O88" s="130"/>
+      <c r="P88" s="130"/>
+      <c r="Q88" s="130"/>
+      <c r="R88" s="130"/>
+      <c r="S88" s="130"/>
+      <c r="T88" s="130"/>
+      <c r="U88" s="130"/>
+      <c r="V88" s="130"/>
+      <c r="W88" s="130"/>
+      <c r="X88" s="130"/>
+      <c r="Y88" s="130"/>
+    </row>
+    <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="130"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="130"/>
+      <c r="O89" s="130"/>
+      <c r="P89" s="130"/>
+      <c r="Q89" s="130"/>
+      <c r="R89" s="130"/>
+      <c r="S89" s="130"/>
+      <c r="T89" s="130"/>
+      <c r="U89" s="130"/>
+      <c r="V89" s="130"/>
+      <c r="W89" s="130"/>
+      <c r="X89" s="130"/>
+      <c r="Y89" s="130"/>
+    </row>
+    <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="130"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="130"/>
+      <c r="O90" s="130"/>
+      <c r="P90" s="130"/>
+      <c r="Q90" s="130"/>
+      <c r="R90" s="130"/>
+      <c r="S90" s="130"/>
+      <c r="T90" s="130"/>
+      <c r="U90" s="130"/>
+      <c r="V90" s="130"/>
+      <c r="W90" s="130"/>
+      <c r="X90" s="130"/>
+      <c r="Y90" s="130"/>
+    </row>
+    <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="130"/>
+      <c r="B91" s="130"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="130"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="130"/>
+      <c r="J91" s="130"/>
+      <c r="K91" s="130"/>
+      <c r="L91" s="130"/>
+      <c r="M91" s="130"/>
+      <c r="N91" s="130"/>
+      <c r="O91" s="130"/>
+      <c r="P91" s="130"/>
+      <c r="Q91" s="130"/>
+      <c r="R91" s="130"/>
+      <c r="S91" s="130"/>
+      <c r="T91" s="130"/>
+      <c r="U91" s="130"/>
+      <c r="V91" s="130"/>
+      <c r="W91" s="130"/>
+      <c r="X91" s="130"/>
+      <c r="Y91" s="130"/>
+    </row>
+    <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="130"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="130"/>
+      <c r="O92" s="130"/>
+      <c r="P92" s="130"/>
+      <c r="Q92" s="130"/>
+      <c r="R92" s="130"/>
+      <c r="S92" s="130"/>
+      <c r="T92" s="130"/>
+      <c r="U92" s="130"/>
+      <c r="V92" s="130"/>
+      <c r="W92" s="130"/>
+      <c r="X92" s="130"/>
+      <c r="Y92" s="130"/>
+    </row>
+    <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="130"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="130"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="130"/>
+      <c r="L93" s="130"/>
+      <c r="M93" s="130"/>
+      <c r="N93" s="130"/>
+      <c r="O93" s="130"/>
+      <c r="P93" s="130"/>
+      <c r="Q93" s="130"/>
+      <c r="R93" s="130"/>
+      <c r="S93" s="130"/>
+      <c r="T93" s="130"/>
+      <c r="U93" s="130"/>
+      <c r="V93" s="130"/>
+      <c r="W93" s="130"/>
+      <c r="X93" s="130"/>
+      <c r="Y93" s="130"/>
+    </row>
+    <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="130"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="130"/>
+      <c r="G94" s="130"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="130"/>
+      <c r="J94" s="130"/>
+      <c r="K94" s="130"/>
+      <c r="L94" s="130"/>
+      <c r="M94" s="130"/>
+      <c r="N94" s="130"/>
+      <c r="O94" s="130"/>
+      <c r="P94" s="130"/>
+      <c r="Q94" s="130"/>
+      <c r="R94" s="130"/>
+      <c r="S94" s="130"/>
+      <c r="T94" s="130"/>
+      <c r="U94" s="130"/>
+      <c r="V94" s="130"/>
+      <c r="W94" s="130"/>
+      <c r="X94" s="130"/>
+      <c r="Y94" s="130"/>
+    </row>
+    <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="130"/>
+      <c r="G95" s="130"/>
+      <c r="H95" s="130"/>
+      <c r="I95" s="130"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="130"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="130"/>
+      <c r="N95" s="130"/>
+      <c r="O95" s="130"/>
+      <c r="P95" s="130"/>
+      <c r="Q95" s="130"/>
+      <c r="R95" s="130"/>
+      <c r="S95" s="130"/>
+      <c r="T95" s="130"/>
+      <c r="U95" s="130"/>
+      <c r="V95" s="130"/>
+      <c r="W95" s="130"/>
+      <c r="X95" s="130"/>
+      <c r="Y95" s="130"/>
+    </row>
+    <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
+      <c r="G96" s="130"/>
+      <c r="H96" s="130"/>
+      <c r="I96" s="130"/>
+      <c r="J96" s="130"/>
+      <c r="K96" s="130"/>
+      <c r="L96" s="130"/>
+      <c r="M96" s="130"/>
+      <c r="N96" s="130"/>
+      <c r="O96" s="130"/>
+      <c r="P96" s="130"/>
+      <c r="Q96" s="130"/>
+      <c r="R96" s="130"/>
+      <c r="S96" s="130"/>
+      <c r="T96" s="130"/>
+      <c r="U96" s="130"/>
+      <c r="V96" s="130"/>
+      <c r="W96" s="130"/>
+      <c r="X96" s="130"/>
+      <c r="Y96" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A15:Y17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8D8907-0AAF-43DC-974C-6E5C5191C407}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13461,642 +15789,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="62"/>
+      <c r="B13" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67" t="s">
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="B15" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="68" t="s">
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="68" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="154" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="66"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="69" t="s">
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="66"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="68" t="s">
+      <c r="G29" s="62"/>
+      <c r="H29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" style="76" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="78" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="88" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="96" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="125" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="D9" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="124" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="D10" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="125" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="124" t="s">
-        <v>262</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="125" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="I12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J12" s="96" t="s">
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F32" s="158" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D13" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -14106,10 +16241,227 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" style="70" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="D7" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D8" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="119" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="D10" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="119" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -14123,528 +16475,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
+      <c r="A1" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="B8" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="C8" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106" t="s">
+      <c r="C9" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="108" t="s">
+      <c r="B12" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="109" t="s">
+      <c r="C12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="98"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="104"/>
-    </row>
-    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="111" t="s">
+      <c r="B13" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="C13" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+      <c r="B17" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="B18" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="C18" s="99"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-    </row>
-    <row r="10" spans="1:13" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+      <c r="B19" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+    </row>
+    <row r="22" spans="1:5" s="126" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="106" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="105" t="s">
+      <c r="C22" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="104"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="104" t="s">
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="B23" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
+      <c r="C23" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
+      <c r="B24" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="C24" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+    </row>
+    <row r="25" spans="1:5" s="126" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="106" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="106"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B28" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="s">
+      <c r="C28" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="107"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="B31" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="s">
+      <c r="B32" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="105" t="s">
+      <c r="C32" s="99"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
+      <c r="B33" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-    </row>
-    <row r="22" spans="1:5" s="132" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B34" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C34" s="99"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B37" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-    </row>
-    <row r="25" spans="1:5" s="132" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="113" t="s">
+      <c r="C37" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="112" t="s">
+      <c r="C38" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+    </row>
+    <row r="39" spans="1:5" s="89" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+    </row>
+    <row r="40" spans="1:5" s="89" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B41" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="114" t="s">
+      <c r="C41" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="112" t="s">
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="112" t="s">
+      <c r="B42" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="C42" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="112" t="s">
+      <c r="B43" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="C43" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="112" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B46" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="113" t="s">
+      <c r="C46" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B37" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-    </row>
-    <row r="39" spans="1:5" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="112" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-    </row>
-    <row r="40" spans="1:5" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="113" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="104" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB43287-646A-4174-9A93-4BBA1EDCA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01B2C1-F982-4373-84E4-3BA135C5733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="254">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -784,6 +784,24 @@
   </si>
   <si>
     <t>The controls aare visible on the menu</t>
+  </si>
+  <si>
+    <t>button_exit.png</t>
+  </si>
+  <si>
+    <t>Settings close button</t>
+  </si>
+  <si>
+    <t>SceneDataTransfer</t>
+  </si>
+  <si>
+    <t>The system remembers the volume you used and saves it</t>
+  </si>
+  <si>
+    <t>apply ternaries</t>
+  </si>
+  <si>
+    <t>Make the character change z-axis size when it strafe animates</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1594,16 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1637,6 +1646,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,10 +1723,31 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7667,10 +7706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7751,7 +7790,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="138"/>
-      <c r="G3" s="122"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="58"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7816,17 +7855,17 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
-      <c r="B6" s="77" t="s">
-        <v>76</v>
+      <c r="B6" s="47" t="s">
+        <v>240</v>
       </c>
       <c r="C6" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="47"/>
@@ -7844,17 +7883,17 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="47"/>
@@ -7872,126 +7911,126 @@
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
     </row>
-    <row r="8" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
-      <c r="B8" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="B8" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="121">
         <v>3</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
+      <c r="D8" s="121"/>
+      <c r="E8" s="121">
         <v>1</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+    </row>
+    <row r="9" spans="1:20" s="108" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="124">
-        <v>3</v>
-      </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124">
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="C9" s="107">
+        <v>2</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107">
+        <v>2</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-    </row>
-    <row r="10" spans="1:20" s="108" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+    </row>
+    <row r="10" spans="1:20" s="122" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="107">
+        <v>243</v>
+      </c>
+      <c r="C10" s="121">
         <v>2</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107">
-        <v>2</v>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121">
+        <v>1</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-    </row>
-    <row r="11" spans="1:20" s="125" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="124">
-        <v>2</v>
-      </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124">
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+    </row>
+    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="18"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -8008,154 +8047,150 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="13" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" s="112" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
-      <c r="B14" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="111">
-        <v>1</v>
-      </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111">
+      <c r="B14" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="114">
+        <v>3</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+    </row>
+    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" s="122" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="121">
         <v>2</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-    </row>
-    <row r="15" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="49">
-        <v>1</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-    </row>
-    <row r="16" spans="1:20" s="118" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="117">
-        <v>3</v>
-      </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117">
-        <v>3</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121">
+        <v>2</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+    </row>
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="1"/>
@@ -8172,37 +8207,37 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" s="125" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="124">
-        <v>2</v>
-      </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124">
-        <v>2</v>
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>3</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8225,9 +8260,9 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -8236,25 +8271,25 @@
       <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8276,42 +8311,46 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="1">
+    <row r="23" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="121">
+        <v>2</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="20"/>
       <c r="H24" s="1"/>
@@ -8328,45 +8367,45 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="124">
-        <v>2</v>
-      </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124">
+    <row r="25" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="20"/>
@@ -8384,18 +8423,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
       <c r="H27" s="1"/>
@@ -8412,18 +8445,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
       <c r="H28" s="1"/>
@@ -8440,18 +8467,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="18"/>
       <c r="G29" s="20"/>
       <c r="H29" s="1"/>
@@ -9853,72 +9874,6 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-    </row>
-    <row r="93" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-    </row>
-    <row r="94" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-    </row>
-    <row r="95" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9943,8 +9898,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10147,7 +10102,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
@@ -10281,7 +10236,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="45">
         <v>0</v>
@@ -10561,16 +10516,16 @@
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="152" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="153">
         <v>1</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="153">
         <v>1</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="154">
         <v>2</v>
       </c>
       <c r="G20" s="52"/>
@@ -10598,16 +10553,16 @@
     <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="152" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="153">
         <v>1</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="153">
         <v>2</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="155">
         <v>2</v>
       </c>
       <c r="G21" s="52"/>
@@ -10670,16 +10625,16 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="153">
         <v>2</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="153">
         <v>1</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="155">
         <v>1</v>
       </c>
       <c r="G23" s="52"/>
@@ -10705,7 +10660,7 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="124" t="s">
         <v>236</v>
       </c>
       <c r="D24" s="72">
@@ -10740,7 +10695,7 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="124" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="72">
@@ -10775,7 +10730,7 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="52"/>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="124" t="s">
         <v>239</v>
       </c>
       <c r="D26" s="72">
@@ -10810,7 +10765,7 @@
     <row r="27" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="124" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="72">
@@ -10845,7 +10800,7 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="124" t="s">
         <v>235</v>
       </c>
       <c r="D28" s="72">
@@ -10880,7 +10835,7 @@
     <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="124" t="s">
         <v>244</v>
       </c>
       <c r="D29" s="72">
@@ -10942,7 +10897,7 @@
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="52"/>
-      <c r="C31" s="148"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
@@ -11023,7 +10978,7 @@
     <row r="34" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="52"/>
-      <c r="C34" s="148"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="F34" s="73"/>
@@ -12759,137 +12714,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="118" customWidth="1"/>
-    <col min="2" max="2" width="0.42578125" style="118" customWidth="1"/>
-    <col min="3" max="3" width="32" style="118" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="118" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="118" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="118" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="118" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="118" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="118" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="118" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="118" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="118" customWidth="1"/>
-    <col min="13" max="13" width="13" style="118" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="118" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="118"/>
+    <col min="1" max="1" width="34" style="115" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="115" customWidth="1"/>
+    <col min="3" max="3" width="32" style="115" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="115" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="115" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="115" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="115" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="115" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="115" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="13" style="115" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="115" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="127"/>
       <c r="F4" s="127"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="45"/>
       <c r="E5" s="26" t="s">
         <v>44</v>
@@ -12897,30 +12852,30 @@
       <c r="F5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="45" t="s">
         <v>49</v>
       </c>
@@ -12930,30 +12885,30 @@
       <c r="F6" s="45">
         <v>0</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="45" t="s">
         <v>50</v>
       </c>
@@ -12963,30 +12918,30 @@
       <c r="F7" s="45">
         <v>0</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="45" t="s">
         <v>51</v>
       </c>
@@ -12996,30 +12951,30 @@
       <c r="F8" s="45">
         <v>0</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="45" t="s">
         <v>52</v>
       </c>
@@ -13029,30 +12984,30 @@
       <c r="F9" s="45">
         <v>0</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="45" t="s">
         <v>46</v>
       </c>
@@ -13062,30 +13017,30 @@
       <c r="F10" s="45">
         <v>0</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="45" t="s">
         <v>47</v>
       </c>
@@ -13095,30 +13050,30 @@
       <c r="F11" s="45">
         <v>0</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="45" t="s">
         <v>48</v>
       </c>
@@ -13128,30 +13083,30 @@
       <c r="F12" s="45">
         <v>0</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="45" t="s">
         <v>53</v>
       </c>
@@ -13163,52 +13118,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126"/>
@@ -13310,17 +13265,17 @@
       <c r="L18" s="144"/>
       <c r="M18" s="144"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -13382,19 +13337,19 @@
       <c r="L20" s="72"/>
       <c r="M20" s="74"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="117"/>
+      <c r="O20" s="114"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
@@ -13411,19 +13366,19 @@
       <c r="L21" s="72"/>
       <c r="M21" s="74"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="117"/>
+      <c r="O21" s="114"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
@@ -13440,17 +13395,17 @@
       <c r="L22" s="72"/>
       <c r="M22" s="74"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
     </row>
     <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
@@ -13467,17 +13422,17 @@
       <c r="L23" s="72"/>
       <c r="M23" s="74"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
@@ -13494,17 +13449,17 @@
       <c r="L24" s="72"/>
       <c r="M24" s="74"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
@@ -13521,17 +13476,17 @@
       <c r="L25" s="72"/>
       <c r="M25" s="74"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="114"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
@@ -13548,17 +13503,17 @@
       <c r="L26" s="72"/>
       <c r="M26" s="73"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
@@ -13575,17 +13530,17 @@
       <c r="L27" s="72"/>
       <c r="M27" s="74"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="114"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
@@ -13602,17 +13557,17 @@
       <c r="L28" s="75"/>
       <c r="M28" s="76"/>
       <c r="N28" s="29"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
@@ -13629,17 +13584,17 @@
       <c r="L29" s="75"/>
       <c r="M29" s="76"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
     </row>
     <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
@@ -13656,17 +13611,17 @@
       <c r="L30" s="78"/>
       <c r="M30" s="74"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
     </row>
     <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
@@ -13683,17 +13638,17 @@
       <c r="L31" s="72"/>
       <c r="M31" s="74"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
@@ -13710,17 +13665,17 @@
       <c r="L32" s="72"/>
       <c r="M32" s="74"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
@@ -13737,17 +13692,17 @@
       <c r="L33" s="72"/>
       <c r="M33" s="74"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
@@ -13764,17 +13719,17 @@
       <c r="L34" s="72"/>
       <c r="M34" s="74"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
@@ -13791,17 +13746,17 @@
       <c r="L35" s="72"/>
       <c r="M35" s="74"/>
       <c r="N35" s="29"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
     </row>
     <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
@@ -13818,17 +13773,17 @@
       <c r="L36" s="72"/>
       <c r="M36" s="74"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="117"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="117"/>
-      <c r="Y36" s="117"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
@@ -13845,17 +13800,17 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
@@ -13882,17 +13837,17 @@
         <v>0</v>
       </c>
       <c r="N38" s="29"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="114"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
@@ -13909,1556 +13864,1556 @@
       <c r="L39" s="144"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="117"/>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="117"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="117"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="117"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="114"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="117"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="117"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="114"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="117"/>
-      <c r="X47" s="117"/>
-      <c r="Y47" s="117"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="114"/>
+      <c r="Y47" s="114"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="117"/>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="117"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="117"/>
-      <c r="X48" s="117"/>
-      <c r="Y48" s="117"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="114"/>
+      <c r="Y48" s="114"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="117"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="117"/>
-      <c r="P49" s="117"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="117"/>
-      <c r="T49" s="117"/>
-      <c r="U49" s="117"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="117"/>
-      <c r="X49" s="117"/>
-      <c r="Y49" s="117"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="117"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="117"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="117"/>
-      <c r="P50" s="117"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="117"/>
-      <c r="T50" s="117"/>
-      <c r="U50" s="117"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="117"/>
-      <c r="X50" s="117"/>
-      <c r="Y50" s="117"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="117"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="117"/>
-      <c r="O51" s="117"/>
-      <c r="P51" s="117"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="117"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="117"/>
-      <c r="U51" s="117"/>
-      <c r="V51" s="117"/>
-      <c r="W51" s="117"/>
-      <c r="X51" s="117"/>
-      <c r="Y51" s="117"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
     </row>
     <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="117"/>
-      <c r="P52" s="117"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="117"/>
-      <c r="S52" s="117"/>
-      <c r="T52" s="117"/>
-      <c r="U52" s="117"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117"/>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="117"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="117"/>
-      <c r="O53" s="117"/>
-      <c r="P53" s="117"/>
-      <c r="Q53" s="117"/>
-      <c r="R53" s="117"/>
-      <c r="S53" s="117"/>
-      <c r="T53" s="117"/>
-      <c r="U53" s="117"/>
-      <c r="V53" s="117"/>
-      <c r="W53" s="117"/>
-      <c r="X53" s="117"/>
-      <c r="Y53" s="117"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+      <c r="U53" s="114"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="114"/>
+      <c r="Y53" s="114"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="117"/>
-      <c r="P54" s="117"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="117"/>
-      <c r="S54" s="117"/>
-      <c r="T54" s="117"/>
-      <c r="U54" s="117"/>
-      <c r="V54" s="117"/>
-      <c r="W54" s="117"/>
-      <c r="X54" s="117"/>
-      <c r="Y54" s="117"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="114"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+      <c r="U54" s="114"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="114"/>
+      <c r="Y54" s="114"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="117"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
-      <c r="O55" s="117"/>
-      <c r="P55" s="117"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="117"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="117"/>
-      <c r="U55" s="117"/>
-      <c r="V55" s="117"/>
-      <c r="W55" s="117"/>
-      <c r="X55" s="117"/>
-      <c r="Y55" s="117"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="114"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="114"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="114"/>
+      <c r="Y55" s="114"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="117"/>
-      <c r="S56" s="117"/>
-      <c r="T56" s="117"/>
-      <c r="U56" s="117"/>
-      <c r="V56" s="117"/>
-      <c r="W56" s="117"/>
-      <c r="X56" s="117"/>
-      <c r="Y56" s="117"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
+      <c r="O56" s="114"/>
+      <c r="P56" s="114"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="114"/>
+      <c r="U56" s="114"/>
+      <c r="V56" s="114"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="114"/>
+      <c r="Y56" s="114"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="117"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="117"/>
-      <c r="S57" s="117"/>
-      <c r="T57" s="117"/>
-      <c r="U57" s="117"/>
-      <c r="V57" s="117"/>
-      <c r="W57" s="117"/>
-      <c r="X57" s="117"/>
-      <c r="Y57" s="117"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="114"/>
+      <c r="O57" s="114"/>
+      <c r="P57" s="114"/>
+      <c r="Q57" s="114"/>
+      <c r="R57" s="114"/>
+      <c r="S57" s="114"/>
+      <c r="T57" s="114"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="114"/>
+      <c r="Y57" s="114"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="117"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="117"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
+      <c r="O58" s="114"/>
+      <c r="P58" s="114"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="114"/>
+      <c r="T58" s="114"/>
+      <c r="U58" s="114"/>
+      <c r="V58" s="114"/>
+      <c r="W58" s="114"/>
+      <c r="X58" s="114"/>
+      <c r="Y58" s="114"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="117"/>
-      <c r="R59" s="117"/>
-      <c r="S59" s="117"/>
-      <c r="T59" s="117"/>
-      <c r="U59" s="117"/>
-      <c r="V59" s="117"/>
-      <c r="W59" s="117"/>
-      <c r="X59" s="117"/>
-      <c r="Y59" s="117"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="114"/>
+      <c r="R59" s="114"/>
+      <c r="S59" s="114"/>
+      <c r="T59" s="114"/>
+      <c r="U59" s="114"/>
+      <c r="V59" s="114"/>
+      <c r="W59" s="114"/>
+      <c r="X59" s="114"/>
+      <c r="Y59" s="114"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="117"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="117"/>
-      <c r="U60" s="117"/>
-      <c r="V60" s="117"/>
-      <c r="W60" s="117"/>
-      <c r="X60" s="117"/>
-      <c r="Y60" s="117"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="114"/>
+      <c r="R60" s="114"/>
+      <c r="S60" s="114"/>
+      <c r="T60" s="114"/>
+      <c r="U60" s="114"/>
+      <c r="V60" s="114"/>
+      <c r="W60" s="114"/>
+      <c r="X60" s="114"/>
+      <c r="Y60" s="114"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="117"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
-      <c r="V61" s="117"/>
-      <c r="W61" s="117"/>
-      <c r="X61" s="117"/>
-      <c r="Y61" s="117"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
+      <c r="O61" s="114"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="114"/>
+      <c r="R61" s="114"/>
+      <c r="S61" s="114"/>
+      <c r="T61" s="114"/>
+      <c r="U61" s="114"/>
+      <c r="V61" s="114"/>
+      <c r="W61" s="114"/>
+      <c r="X61" s="114"/>
+      <c r="Y61" s="114"/>
     </row>
     <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="117"/>
-      <c r="U62" s="117"/>
-      <c r="V62" s="117"/>
-      <c r="W62" s="117"/>
-      <c r="X62" s="117"/>
-      <c r="Y62" s="117"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="114"/>
+      <c r="R62" s="114"/>
+      <c r="S62" s="114"/>
+      <c r="T62" s="114"/>
+      <c r="U62" s="114"/>
+      <c r="V62" s="114"/>
+      <c r="W62" s="114"/>
+      <c r="X62" s="114"/>
+      <c r="Y62" s="114"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="117"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
-      <c r="S63" s="117"/>
-      <c r="T63" s="117"/>
-      <c r="U63" s="117"/>
-      <c r="V63" s="117"/>
-      <c r="W63" s="117"/>
-      <c r="X63" s="117"/>
-      <c r="Y63" s="117"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="114"/>
+      <c r="U63" s="114"/>
+      <c r="V63" s="114"/>
+      <c r="W63" s="114"/>
+      <c r="X63" s="114"/>
+      <c r="Y63" s="114"/>
     </row>
     <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="117"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
+      <c r="O64" s="114"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="114"/>
+      <c r="S64" s="114"/>
+      <c r="T64" s="114"/>
+      <c r="U64" s="114"/>
+      <c r="V64" s="114"/>
+      <c r="W64" s="114"/>
+      <c r="X64" s="114"/>
+      <c r="Y64" s="114"/>
     </row>
     <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="117"/>
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="117"/>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="117"/>
-      <c r="S65" s="117"/>
-      <c r="T65" s="117"/>
-      <c r="U65" s="117"/>
-      <c r="V65" s="117"/>
-      <c r="W65" s="117"/>
-      <c r="X65" s="117"/>
-      <c r="Y65" s="117"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="114"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="114"/>
+      <c r="R65" s="114"/>
+      <c r="S65" s="114"/>
+      <c r="T65" s="114"/>
+      <c r="U65" s="114"/>
+      <c r="V65" s="114"/>
+      <c r="W65" s="114"/>
+      <c r="X65" s="114"/>
+      <c r="Y65" s="114"/>
     </row>
     <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="117"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="117"/>
-      <c r="U66" s="117"/>
-      <c r="V66" s="117"/>
-      <c r="W66" s="117"/>
-      <c r="X66" s="117"/>
-      <c r="Y66" s="117"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+      <c r="T66" s="114"/>
+      <c r="U66" s="114"/>
+      <c r="V66" s="114"/>
+      <c r="W66" s="114"/>
+      <c r="X66" s="114"/>
+      <c r="Y66" s="114"/>
     </row>
     <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="117"/>
-      <c r="B67" s="117"/>
-      <c r="C67" s="117"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="117"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="117"/>
-      <c r="U67" s="117"/>
-      <c r="V67" s="117"/>
-      <c r="W67" s="117"/>
-      <c r="X67" s="117"/>
-      <c r="Y67" s="117"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="114"/>
+      <c r="S67" s="114"/>
+      <c r="T67" s="114"/>
+      <c r="U67" s="114"/>
+      <c r="V67" s="114"/>
+      <c r="W67" s="114"/>
+      <c r="X67" s="114"/>
+      <c r="Y67" s="114"/>
     </row>
     <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="117"/>
-      <c r="B68" s="117"/>
-      <c r="C68" s="117"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="117"/>
-      <c r="R68" s="117"/>
-      <c r="S68" s="117"/>
-      <c r="T68" s="117"/>
-      <c r="U68" s="117"/>
-      <c r="V68" s="117"/>
-      <c r="W68" s="117"/>
-      <c r="X68" s="117"/>
-      <c r="Y68" s="117"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
+      <c r="O68" s="114"/>
+      <c r="P68" s="114"/>
+      <c r="Q68" s="114"/>
+      <c r="R68" s="114"/>
+      <c r="S68" s="114"/>
+      <c r="T68" s="114"/>
+      <c r="U68" s="114"/>
+      <c r="V68" s="114"/>
+      <c r="W68" s="114"/>
+      <c r="X68" s="114"/>
+      <c r="Y68" s="114"/>
     </row>
     <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="117"/>
-      <c r="R69" s="117"/>
-      <c r="S69" s="117"/>
-      <c r="T69" s="117"/>
-      <c r="U69" s="117"/>
-      <c r="V69" s="117"/>
-      <c r="W69" s="117"/>
-      <c r="X69" s="117"/>
-      <c r="Y69" s="117"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="114"/>
+      <c r="U69" s="114"/>
+      <c r="V69" s="114"/>
+      <c r="W69" s="114"/>
+      <c r="X69" s="114"/>
+      <c r="Y69" s="114"/>
     </row>
     <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="117"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="117"/>
-      <c r="L70" s="117"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="117"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="117"/>
-      <c r="U70" s="117"/>
-      <c r="V70" s="117"/>
-      <c r="W70" s="117"/>
-      <c r="X70" s="117"/>
-      <c r="Y70" s="117"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="114"/>
+      <c r="R70" s="114"/>
+      <c r="S70" s="114"/>
+      <c r="T70" s="114"/>
+      <c r="U70" s="114"/>
+      <c r="V70" s="114"/>
+      <c r="W70" s="114"/>
+      <c r="X70" s="114"/>
+      <c r="Y70" s="114"/>
     </row>
     <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="117"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="34"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="117"/>
-      <c r="L71" s="117"/>
-      <c r="M71" s="117"/>
-      <c r="N71" s="117"/>
-      <c r="O71" s="117"/>
-      <c r="P71" s="117"/>
-      <c r="Q71" s="117"/>
-      <c r="R71" s="117"/>
-      <c r="S71" s="117"/>
-      <c r="T71" s="117"/>
-      <c r="U71" s="117"/>
-      <c r="V71" s="117"/>
-      <c r="W71" s="117"/>
-      <c r="X71" s="117"/>
-      <c r="Y71" s="117"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="114"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="114"/>
+      <c r="O71" s="114"/>
+      <c r="P71" s="114"/>
+      <c r="Q71" s="114"/>
+      <c r="R71" s="114"/>
+      <c r="S71" s="114"/>
+      <c r="T71" s="114"/>
+      <c r="U71" s="114"/>
+      <c r="V71" s="114"/>
+      <c r="W71" s="114"/>
+      <c r="X71" s="114"/>
+      <c r="Y71" s="114"/>
     </row>
     <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="117"/>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="117"/>
-      <c r="L72" s="117"/>
-      <c r="M72" s="117"/>
-      <c r="N72" s="117"/>
-      <c r="O72" s="117"/>
-      <c r="P72" s="117"/>
-      <c r="Q72" s="117"/>
-      <c r="R72" s="117"/>
-      <c r="S72" s="117"/>
-      <c r="T72" s="117"/>
-      <c r="U72" s="117"/>
-      <c r="V72" s="117"/>
-      <c r="W72" s="117"/>
-      <c r="X72" s="117"/>
-      <c r="Y72" s="117"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
+      <c r="L72" s="114"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="114"/>
+      <c r="U72" s="114"/>
+      <c r="V72" s="114"/>
+      <c r="W72" s="114"/>
+      <c r="X72" s="114"/>
+      <c r="Y72" s="114"/>
     </row>
     <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="117"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
-      <c r="S73" s="117"/>
-      <c r="T73" s="117"/>
-      <c r="U73" s="117"/>
-      <c r="V73" s="117"/>
-      <c r="W73" s="117"/>
-      <c r="X73" s="117"/>
-      <c r="Y73" s="117"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="114"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="114"/>
+      <c r="O73" s="114"/>
+      <c r="P73" s="114"/>
+      <c r="Q73" s="114"/>
+      <c r="R73" s="114"/>
+      <c r="S73" s="114"/>
+      <c r="T73" s="114"/>
+      <c r="U73" s="114"/>
+      <c r="V73" s="114"/>
+      <c r="W73" s="114"/>
+      <c r="X73" s="114"/>
+      <c r="Y73" s="114"/>
     </row>
     <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="117"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="34"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="117"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="117"/>
-      <c r="P74" s="117"/>
-      <c r="Q74" s="117"/>
-      <c r="R74" s="117"/>
-      <c r="S74" s="117"/>
-      <c r="T74" s="117"/>
-      <c r="U74" s="117"/>
-      <c r="V74" s="117"/>
-      <c r="W74" s="117"/>
-      <c r="X74" s="117"/>
-      <c r="Y74" s="117"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="114"/>
+      <c r="Q74" s="114"/>
+      <c r="R74" s="114"/>
+      <c r="S74" s="114"/>
+      <c r="T74" s="114"/>
+      <c r="U74" s="114"/>
+      <c r="V74" s="114"/>
+      <c r="W74" s="114"/>
+      <c r="X74" s="114"/>
+      <c r="Y74" s="114"/>
     </row>
     <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="117"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="117"/>
-      <c r="P75" s="117"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="117"/>
-      <c r="S75" s="117"/>
-      <c r="T75" s="117"/>
-      <c r="U75" s="117"/>
-      <c r="V75" s="117"/>
-      <c r="W75" s="117"/>
-      <c r="X75" s="117"/>
-      <c r="Y75" s="117"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="114"/>
+      <c r="P75" s="114"/>
+      <c r="Q75" s="114"/>
+      <c r="R75" s="114"/>
+      <c r="S75" s="114"/>
+      <c r="T75" s="114"/>
+      <c r="U75" s="114"/>
+      <c r="V75" s="114"/>
+      <c r="W75" s="114"/>
+      <c r="X75" s="114"/>
+      <c r="Y75" s="114"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="117"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="114"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="117"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="117"/>
-      <c r="S76" s="117"/>
-      <c r="T76" s="117"/>
-      <c r="U76" s="117"/>
-      <c r="V76" s="117"/>
-      <c r="W76" s="117"/>
-      <c r="X76" s="117"/>
-      <c r="Y76" s="117"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114"/>
+      <c r="P76" s="114"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="114"/>
+      <c r="S76" s="114"/>
+      <c r="T76" s="114"/>
+      <c r="U76" s="114"/>
+      <c r="V76" s="114"/>
+      <c r="W76" s="114"/>
+      <c r="X76" s="114"/>
+      <c r="Y76" s="114"/>
     </row>
     <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="114"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="117"/>
-      <c r="P77" s="117"/>
-      <c r="Q77" s="117"/>
-      <c r="R77" s="117"/>
-      <c r="S77" s="117"/>
-      <c r="T77" s="117"/>
-      <c r="U77" s="117"/>
-      <c r="V77" s="117"/>
-      <c r="W77" s="117"/>
-      <c r="X77" s="117"/>
-      <c r="Y77" s="117"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
+      <c r="R77" s="114"/>
+      <c r="S77" s="114"/>
+      <c r="T77" s="114"/>
+      <c r="U77" s="114"/>
+      <c r="V77" s="114"/>
+      <c r="W77" s="114"/>
+      <c r="X77" s="114"/>
+      <c r="Y77" s="114"/>
     </row>
     <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="117"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="117"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="117"/>
-      <c r="O78" s="117"/>
-      <c r="P78" s="117"/>
-      <c r="Q78" s="117"/>
-      <c r="R78" s="117"/>
-      <c r="S78" s="117"/>
-      <c r="T78" s="117"/>
-      <c r="U78" s="117"/>
-      <c r="V78" s="117"/>
-      <c r="W78" s="117"/>
-      <c r="X78" s="117"/>
-      <c r="Y78" s="117"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="114"/>
+      <c r="S78" s="114"/>
+      <c r="T78" s="114"/>
+      <c r="U78" s="114"/>
+      <c r="V78" s="114"/>
+      <c r="W78" s="114"/>
+      <c r="X78" s="114"/>
+      <c r="Y78" s="114"/>
     </row>
     <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="117"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="117"/>
-      <c r="I79" s="117"/>
-      <c r="J79" s="117"/>
-      <c r="K79" s="117"/>
-      <c r="L79" s="117"/>
-      <c r="M79" s="117"/>
-      <c r="N79" s="117"/>
-      <c r="O79" s="117"/>
-      <c r="P79" s="117"/>
-      <c r="Q79" s="117"/>
-      <c r="R79" s="117"/>
-      <c r="S79" s="117"/>
-      <c r="T79" s="117"/>
-      <c r="U79" s="117"/>
-      <c r="V79" s="117"/>
-      <c r="W79" s="117"/>
-      <c r="X79" s="117"/>
-      <c r="Y79" s="117"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="114"/>
+      <c r="T79" s="114"/>
+      <c r="U79" s="114"/>
+      <c r="V79" s="114"/>
+      <c r="W79" s="114"/>
+      <c r="X79" s="114"/>
+      <c r="Y79" s="114"/>
     </row>
     <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="117"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="117"/>
-      <c r="I80" s="117"/>
-      <c r="J80" s="117"/>
-      <c r="K80" s="117"/>
-      <c r="L80" s="117"/>
-      <c r="M80" s="117"/>
-      <c r="N80" s="117"/>
-      <c r="O80" s="117"/>
-      <c r="P80" s="117"/>
-      <c r="Q80" s="117"/>
-      <c r="R80" s="117"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="117"/>
-      <c r="U80" s="117"/>
-      <c r="V80" s="117"/>
-      <c r="W80" s="117"/>
-      <c r="X80" s="117"/>
-      <c r="Y80" s="117"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="114"/>
+      <c r="S80" s="114"/>
+      <c r="T80" s="114"/>
+      <c r="U80" s="114"/>
+      <c r="V80" s="114"/>
+      <c r="W80" s="114"/>
+      <c r="X80" s="114"/>
+      <c r="Y80" s="114"/>
     </row>
     <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="117"/>
-      <c r="I81" s="117"/>
-      <c r="J81" s="117"/>
-      <c r="K81" s="117"/>
-      <c r="L81" s="117"/>
-      <c r="M81" s="117"/>
-      <c r="N81" s="117"/>
-      <c r="O81" s="117"/>
-      <c r="P81" s="117"/>
-      <c r="Q81" s="117"/>
-      <c r="R81" s="117"/>
-      <c r="S81" s="117"/>
-      <c r="T81" s="117"/>
-      <c r="U81" s="117"/>
-      <c r="V81" s="117"/>
-      <c r="W81" s="117"/>
-      <c r="X81" s="117"/>
-      <c r="Y81" s="117"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+      <c r="S81" s="114"/>
+      <c r="T81" s="114"/>
+      <c r="U81" s="114"/>
+      <c r="V81" s="114"/>
+      <c r="W81" s="114"/>
+      <c r="X81" s="114"/>
+      <c r="Y81" s="114"/>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="117"/>
-      <c r="B82" s="117"/>
-      <c r="C82" s="117"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="117"/>
-      <c r="K82" s="117"/>
-      <c r="L82" s="117"/>
-      <c r="M82" s="117"/>
-      <c r="N82" s="117"/>
-      <c r="O82" s="117"/>
-      <c r="P82" s="117"/>
-      <c r="Q82" s="117"/>
-      <c r="R82" s="117"/>
-      <c r="S82" s="117"/>
-      <c r="T82" s="117"/>
-      <c r="U82" s="117"/>
-      <c r="V82" s="117"/>
-      <c r="W82" s="117"/>
-      <c r="X82" s="117"/>
-      <c r="Y82" s="117"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="114"/>
+      <c r="S82" s="114"/>
+      <c r="T82" s="114"/>
+      <c r="U82" s="114"/>
+      <c r="V82" s="114"/>
+      <c r="W82" s="114"/>
+      <c r="X82" s="114"/>
+      <c r="Y82" s="114"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="117"/>
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
       <c r="D83" s="34"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="117"/>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
-      <c r="M83" s="117"/>
-      <c r="N83" s="117"/>
-      <c r="O83" s="117"/>
-      <c r="P83" s="117"/>
-      <c r="Q83" s="117"/>
-      <c r="R83" s="117"/>
-      <c r="S83" s="117"/>
-      <c r="T83" s="117"/>
-      <c r="U83" s="117"/>
-      <c r="V83" s="117"/>
-      <c r="W83" s="117"/>
-      <c r="X83" s="117"/>
-      <c r="Y83" s="117"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="114"/>
+      <c r="O83" s="114"/>
+      <c r="P83" s="114"/>
+      <c r="Q83" s="114"/>
+      <c r="R83" s="114"/>
+      <c r="S83" s="114"/>
+      <c r="T83" s="114"/>
+      <c r="U83" s="114"/>
+      <c r="V83" s="114"/>
+      <c r="W83" s="114"/>
+      <c r="X83" s="114"/>
+      <c r="Y83" s="114"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="117"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="117"/>
-      <c r="J84" s="117"/>
-      <c r="K84" s="117"/>
-      <c r="L84" s="117"/>
-      <c r="M84" s="117"/>
-      <c r="N84" s="117"/>
-      <c r="O84" s="117"/>
-      <c r="P84" s="117"/>
-      <c r="Q84" s="117"/>
-      <c r="R84" s="117"/>
-      <c r="S84" s="117"/>
-      <c r="T84" s="117"/>
-      <c r="U84" s="117"/>
-      <c r="V84" s="117"/>
-      <c r="W84" s="117"/>
-      <c r="X84" s="117"/>
-      <c r="Y84" s="117"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="114"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="114"/>
+      <c r="Q84" s="114"/>
+      <c r="R84" s="114"/>
+      <c r="S84" s="114"/>
+      <c r="T84" s="114"/>
+      <c r="U84" s="114"/>
+      <c r="V84" s="114"/>
+      <c r="W84" s="114"/>
+      <c r="X84" s="114"/>
+      <c r="Y84" s="114"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="117"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="117"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="117"/>
-      <c r="K85" s="117"/>
-      <c r="L85" s="117"/>
-      <c r="M85" s="117"/>
-      <c r="N85" s="117"/>
-      <c r="O85" s="117"/>
-      <c r="P85" s="117"/>
-      <c r="Q85" s="117"/>
-      <c r="R85" s="117"/>
-      <c r="S85" s="117"/>
-      <c r="T85" s="117"/>
-      <c r="U85" s="117"/>
-      <c r="V85" s="117"/>
-      <c r="W85" s="117"/>
-      <c r="X85" s="117"/>
-      <c r="Y85" s="117"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="114"/>
+      <c r="S85" s="114"/>
+      <c r="T85" s="114"/>
+      <c r="U85" s="114"/>
+      <c r="V85" s="114"/>
+      <c r="W85" s="114"/>
+      <c r="X85" s="114"/>
+      <c r="Y85" s="114"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="117"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="117"/>
-      <c r="K86" s="117"/>
-      <c r="L86" s="117"/>
-      <c r="M86" s="117"/>
-      <c r="N86" s="117"/>
-      <c r="O86" s="117"/>
-      <c r="P86" s="117"/>
-      <c r="Q86" s="117"/>
-      <c r="R86" s="117"/>
-      <c r="S86" s="117"/>
-      <c r="T86" s="117"/>
-      <c r="U86" s="117"/>
-      <c r="V86" s="117"/>
-      <c r="W86" s="117"/>
-      <c r="X86" s="117"/>
-      <c r="Y86" s="117"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="114"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="114"/>
+      <c r="S86" s="114"/>
+      <c r="T86" s="114"/>
+      <c r="U86" s="114"/>
+      <c r="V86" s="114"/>
+      <c r="W86" s="114"/>
+      <c r="X86" s="114"/>
+      <c r="Y86" s="114"/>
     </row>
     <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
-      <c r="J87" s="117"/>
-      <c r="K87" s="117"/>
-      <c r="L87" s="117"/>
-      <c r="M87" s="117"/>
-      <c r="N87" s="117"/>
-      <c r="O87" s="117"/>
-      <c r="P87" s="117"/>
-      <c r="Q87" s="117"/>
-      <c r="R87" s="117"/>
-      <c r="S87" s="117"/>
-      <c r="T87" s="117"/>
-      <c r="U87" s="117"/>
-      <c r="V87" s="117"/>
-      <c r="W87" s="117"/>
-      <c r="X87" s="117"/>
-      <c r="Y87" s="117"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="114"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
+      <c r="R87" s="114"/>
+      <c r="S87" s="114"/>
+      <c r="T87" s="114"/>
+      <c r="U87" s="114"/>
+      <c r="V87" s="114"/>
+      <c r="W87" s="114"/>
+      <c r="X87" s="114"/>
+      <c r="Y87" s="114"/>
     </row>
     <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="117"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="117"/>
-      <c r="I88" s="117"/>
-      <c r="J88" s="117"/>
-      <c r="K88" s="117"/>
-      <c r="L88" s="117"/>
-      <c r="M88" s="117"/>
-      <c r="N88" s="117"/>
-      <c r="O88" s="117"/>
-      <c r="P88" s="117"/>
-      <c r="Q88" s="117"/>
-      <c r="R88" s="117"/>
-      <c r="S88" s="117"/>
-      <c r="T88" s="117"/>
-      <c r="U88" s="117"/>
-      <c r="V88" s="117"/>
-      <c r="W88" s="117"/>
-      <c r="X88" s="117"/>
-      <c r="Y88" s="117"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+      <c r="S88" s="114"/>
+      <c r="T88" s="114"/>
+      <c r="U88" s="114"/>
+      <c r="V88" s="114"/>
+      <c r="W88" s="114"/>
+      <c r="X88" s="114"/>
+      <c r="Y88" s="114"/>
     </row>
     <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="117"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="117"/>
-      <c r="L89" s="117"/>
-      <c r="M89" s="117"/>
-      <c r="N89" s="117"/>
-      <c r="O89" s="117"/>
-      <c r="P89" s="117"/>
-      <c r="Q89" s="117"/>
-      <c r="R89" s="117"/>
-      <c r="S89" s="117"/>
-      <c r="T89" s="117"/>
-      <c r="U89" s="117"/>
-      <c r="V89" s="117"/>
-      <c r="W89" s="117"/>
-      <c r="X89" s="117"/>
-      <c r="Y89" s="117"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
+      <c r="R89" s="114"/>
+      <c r="S89" s="114"/>
+      <c r="T89" s="114"/>
+      <c r="U89" s="114"/>
+      <c r="V89" s="114"/>
+      <c r="W89" s="114"/>
+      <c r="X89" s="114"/>
+      <c r="Y89" s="114"/>
     </row>
     <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="117"/>
-      <c r="B90" s="117"/>
-      <c r="C90" s="117"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="117"/>
-      <c r="L90" s="117"/>
-      <c r="M90" s="117"/>
-      <c r="N90" s="117"/>
-      <c r="O90" s="117"/>
-      <c r="P90" s="117"/>
-      <c r="Q90" s="117"/>
-      <c r="R90" s="117"/>
-      <c r="S90" s="117"/>
-      <c r="T90" s="117"/>
-      <c r="U90" s="117"/>
-      <c r="V90" s="117"/>
-      <c r="W90" s="117"/>
-      <c r="X90" s="117"/>
-      <c r="Y90" s="117"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="114"/>
+      <c r="J90" s="114"/>
+      <c r="K90" s="114"/>
+      <c r="L90" s="114"/>
+      <c r="M90" s="114"/>
+      <c r="N90" s="114"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
+      <c r="Q90" s="114"/>
+      <c r="R90" s="114"/>
+      <c r="S90" s="114"/>
+      <c r="T90" s="114"/>
+      <c r="U90" s="114"/>
+      <c r="V90" s="114"/>
+      <c r="W90" s="114"/>
+      <c r="X90" s="114"/>
+      <c r="Y90" s="114"/>
     </row>
     <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="117"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="117"/>
-      <c r="H91" s="117"/>
-      <c r="I91" s="117"/>
-      <c r="J91" s="117"/>
-      <c r="K91" s="117"/>
-      <c r="L91" s="117"/>
-      <c r="M91" s="117"/>
-      <c r="N91" s="117"/>
-      <c r="O91" s="117"/>
-      <c r="P91" s="117"/>
-      <c r="Q91" s="117"/>
-      <c r="R91" s="117"/>
-      <c r="S91" s="117"/>
-      <c r="T91" s="117"/>
-      <c r="U91" s="117"/>
-      <c r="V91" s="117"/>
-      <c r="W91" s="117"/>
-      <c r="X91" s="117"/>
-      <c r="Y91" s="117"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="114"/>
+      <c r="J91" s="114"/>
+      <c r="K91" s="114"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="114"/>
+      <c r="Q91" s="114"/>
+      <c r="R91" s="114"/>
+      <c r="S91" s="114"/>
+      <c r="T91" s="114"/>
+      <c r="U91" s="114"/>
+      <c r="V91" s="114"/>
+      <c r="W91" s="114"/>
+      <c r="X91" s="114"/>
+      <c r="Y91" s="114"/>
     </row>
     <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="117"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="114"/>
       <c r="D92" s="34"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="117"/>
-      <c r="H92" s="117"/>
-      <c r="I92" s="117"/>
-      <c r="J92" s="117"/>
-      <c r="K92" s="117"/>
-      <c r="L92" s="117"/>
-      <c r="M92" s="117"/>
-      <c r="N92" s="117"/>
-      <c r="O92" s="117"/>
-      <c r="P92" s="117"/>
-      <c r="Q92" s="117"/>
-      <c r="R92" s="117"/>
-      <c r="S92" s="117"/>
-      <c r="T92" s="117"/>
-      <c r="U92" s="117"/>
-      <c r="V92" s="117"/>
-      <c r="W92" s="117"/>
-      <c r="X92" s="117"/>
-      <c r="Y92" s="117"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="114"/>
+      <c r="M92" s="114"/>
+      <c r="N92" s="114"/>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114"/>
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+      <c r="S92" s="114"/>
+      <c r="T92" s="114"/>
+      <c r="U92" s="114"/>
+      <c r="V92" s="114"/>
+      <c r="W92" s="114"/>
+      <c r="X92" s="114"/>
+      <c r="Y92" s="114"/>
     </row>
     <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117"/>
-      <c r="B93" s="117"/>
-      <c r="C93" s="117"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="114"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-      <c r="G93" s="117"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="117"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="117"/>
-      <c r="M93" s="117"/>
-      <c r="N93" s="117"/>
-      <c r="O93" s="117"/>
-      <c r="P93" s="117"/>
-      <c r="Q93" s="117"/>
-      <c r="R93" s="117"/>
-      <c r="S93" s="117"/>
-      <c r="T93" s="117"/>
-      <c r="U93" s="117"/>
-      <c r="V93" s="117"/>
-      <c r="W93" s="117"/>
-      <c r="X93" s="117"/>
-      <c r="Y93" s="117"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="114"/>
+      <c r="N93" s="114"/>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114"/>
+      <c r="Q93" s="114"/>
+      <c r="R93" s="114"/>
+      <c r="S93" s="114"/>
+      <c r="T93" s="114"/>
+      <c r="U93" s="114"/>
+      <c r="V93" s="114"/>
+      <c r="W93" s="114"/>
+      <c r="X93" s="114"/>
+      <c r="Y93" s="114"/>
     </row>
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="117"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="117"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="117"/>
-      <c r="I94" s="117"/>
-      <c r="J94" s="117"/>
-      <c r="K94" s="117"/>
-      <c r="L94" s="117"/>
-      <c r="M94" s="117"/>
-      <c r="N94" s="117"/>
-      <c r="O94" s="117"/>
-      <c r="P94" s="117"/>
-      <c r="Q94" s="117"/>
-      <c r="R94" s="117"/>
-      <c r="S94" s="117"/>
-      <c r="T94" s="117"/>
-      <c r="U94" s="117"/>
-      <c r="V94" s="117"/>
-      <c r="W94" s="117"/>
-      <c r="X94" s="117"/>
-      <c r="Y94" s="117"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="114"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="114"/>
+      <c r="J94" s="114"/>
+      <c r="K94" s="114"/>
+      <c r="L94" s="114"/>
+      <c r="M94" s="114"/>
+      <c r="N94" s="114"/>
+      <c r="O94" s="114"/>
+      <c r="P94" s="114"/>
+      <c r="Q94" s="114"/>
+      <c r="R94" s="114"/>
+      <c r="S94" s="114"/>
+      <c r="T94" s="114"/>
+      <c r="U94" s="114"/>
+      <c r="V94" s="114"/>
+      <c r="W94" s="114"/>
+      <c r="X94" s="114"/>
+      <c r="Y94" s="114"/>
     </row>
     <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="117"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="117"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="114"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-      <c r="G95" s="117"/>
-      <c r="H95" s="117"/>
-      <c r="I95" s="117"/>
-      <c r="J95" s="117"/>
-      <c r="K95" s="117"/>
-      <c r="L95" s="117"/>
-      <c r="M95" s="117"/>
-      <c r="N95" s="117"/>
-      <c r="O95" s="117"/>
-      <c r="P95" s="117"/>
-      <c r="Q95" s="117"/>
-      <c r="R95" s="117"/>
-      <c r="S95" s="117"/>
-      <c r="T95" s="117"/>
-      <c r="U95" s="117"/>
-      <c r="V95" s="117"/>
-      <c r="W95" s="117"/>
-      <c r="X95" s="117"/>
-      <c r="Y95" s="117"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="114"/>
+      <c r="K95" s="114"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="114"/>
+      <c r="Q95" s="114"/>
+      <c r="R95" s="114"/>
+      <c r="S95" s="114"/>
+      <c r="T95" s="114"/>
+      <c r="U95" s="114"/>
+      <c r="V95" s="114"/>
+      <c r="W95" s="114"/>
+      <c r="X95" s="114"/>
+      <c r="Y95" s="114"/>
     </row>
     <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="117"/>
-      <c r="B96" s="117"/>
-      <c r="C96" s="117"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="114"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="117"/>
-      <c r="I96" s="117"/>
-      <c r="J96" s="117"/>
-      <c r="K96" s="117"/>
-      <c r="L96" s="117"/>
-      <c r="M96" s="117"/>
-      <c r="N96" s="117"/>
-      <c r="O96" s="117"/>
-      <c r="P96" s="117"/>
-      <c r="Q96" s="117"/>
-      <c r="R96" s="117"/>
-      <c r="S96" s="117"/>
-      <c r="T96" s="117"/>
-      <c r="U96" s="117"/>
-      <c r="V96" s="117"/>
-      <c r="W96" s="117"/>
-      <c r="X96" s="117"/>
-      <c r="Y96" s="117"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="114"/>
+      <c r="J96" s="114"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="114"/>
+      <c r="M96" s="114"/>
+      <c r="N96" s="114"/>
+      <c r="O96" s="114"/>
+      <c r="P96" s="114"/>
+      <c r="Q96" s="114"/>
+      <c r="R96" s="114"/>
+      <c r="S96" s="114"/>
+      <c r="T96" s="114"/>
+      <c r="U96" s="114"/>
+      <c r="V96" s="114"/>
+      <c r="W96" s="114"/>
+      <c r="X96" s="114"/>
+      <c r="Y96" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15476,10 +15431,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8D8907-0AAF-43DC-974C-6E5C5191C407}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15696,12 +15651,15 @@
       </c>
       <c r="I14" s="61"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="63" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="61"/>
+      <c r="D15" s="149" t="s">
+        <v>250</v>
+      </c>
       <c r="E15" s="61"/>
       <c r="F15" s="63" t="s">
         <v>107</v>
@@ -15718,6 +15676,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="61"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="61"/>
       <c r="F16" s="68" t="s">
         <v>114</v>
@@ -15730,7 +15689,9 @@
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="65"/>
+      <c r="B17" s="68" t="s">
+        <v>128</v>
+      </c>
       <c r="C17" s="61"/>
       <c r="E17" s="61"/>
       <c r="F17" s="64" t="s">
@@ -15742,7 +15703,9 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="B18" s="67" t="s">
+        <v>250</v>
+      </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -15807,8 +15770,8 @@
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="67" t="s">
-        <v>113</v>
+      <c r="F22" s="68" t="s">
+        <v>250</v>
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="67"/>
@@ -15820,7 +15783,9 @@
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
       <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="67" t="s">
+        <v>113</v>
+      </c>
       <c r="G23" s="61"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -15830,25 +15795,23 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="E24" s="61"/>
-      <c r="F24" s="62" t="s">
-        <v>25</v>
-      </c>
+      <c r="F24" s="61"/>
       <c r="G24" s="61"/>
       <c r="H24" s="62" t="s">
         <v>91</v>
       </c>
       <c r="I24" s="61"/>
-      <c r="J24" s="120" t="s">
+      <c r="J24" s="117" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="66" t="s">
-        <v>78</v>
+      <c r="F25" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="G25" s="61"/>
       <c r="H25" s="66" t="s">
@@ -15864,8 +15827,8 @@
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="63" t="s">
-        <v>109</v>
+      <c r="F26" s="66" t="s">
+        <v>78</v>
       </c>
       <c r="G26" s="61"/>
       <c r="H26" s="63" t="s">
@@ -15880,14 +15843,14 @@
       <c r="C27" s="61"/>
       <c r="E27" s="61"/>
       <c r="F27" s="63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="63" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="121" t="s">
+      <c r="J27" s="118" t="s">
         <v>222</v>
       </c>
     </row>
@@ -15897,7 +15860,7 @@
       <c r="C28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="64" t="s">
@@ -15906,14 +15869,14 @@
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
     </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
-      <c r="F29" s="64" t="s">
-        <v>112</v>
+      <c r="F29" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="67" t="s">
@@ -15921,24 +15884,28 @@
       </c>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
-      <c r="F30" s="65" t="s">
-        <v>90</v>
+      <c r="F30" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="G30" s="61"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="61"/>
       <c r="D31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F32" s="123" t="s">
+      <c r="F31" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="120" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15952,8 +15919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16029,7 +15996,7 @@
       <c r="E7" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="122" t="s">
         <v>124</v>
       </c>
       <c r="H7" s="110" t="s">
@@ -16042,22 +16009,27 @@
         <v>245</v>
       </c>
       <c r="K7" s="79"/>
-      <c r="L7" s="149"/>
-    </row>
-    <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L7" s="125"/>
+    </row>
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="122" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="I8" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="150" t="s">
+        <v>251</v>
+      </c>
       <c r="K8" s="79"/>
       <c r="L8" s="76"/>
     </row>
@@ -16068,13 +16040,18 @@
       <c r="E9" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="G9" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="I9" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="151" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D10" s="79" t="s">
@@ -16083,13 +16060,18 @@
       <c r="E10" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="122" t="s">
         <v>216</v>
       </c>
       <c r="H10" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="76"/>
+      <c r="I10" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="156" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D11" s="79" t="s">
@@ -16113,7 +16095,7 @@
       <c r="E12" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="122" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="83" t="s">
@@ -16123,7 +16105,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="79"/>
-      <c r="E13" s="149"/>
+      <c r="E13" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16133,10 +16115,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16265,128 +16247,130 @@
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:13" s="113" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="103" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="96" t="s">
+        <v>151</v>
+      </c>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
+    <row r="11" spans="1:13" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>151</v>
+      </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="101"/>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="95"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B14" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C14" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
       <c r="D14" s="95"/>
       <c r="E14" s="95"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
-        <v>163</v>
-      </c>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="95"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="95"/>
       <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="105" t="s">
-        <v>164</v>
+      <c r="A16" s="99" t="s">
+        <v>163</v>
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="95"/>
       <c r="E16" s="95"/>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>166</v>
-      </c>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="95"/>
       <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
-        <v>167</v>
+      <c r="A18" s="102" t="s">
+        <v>165</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="96"/>
       <c r="D18" s="95"/>
       <c r="E18" s="95"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="103" t="s">
-        <v>169</v>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="94" t="s">
+        <v>167</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>171</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C19" s="96"/>
       <c r="D19" s="95"/>
       <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D20" s="95"/>
       <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>170</v>
@@ -16397,12 +16381,12 @@
       <c r="D21" s="95"/>
       <c r="E21" s="95"/>
     </row>
-    <row r="22" spans="1:5" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="103" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C22" s="96" t="s">
         <v>173</v>
@@ -16410,105 +16394,107 @@
       <c r="D22" s="95"/>
       <c r="E22" s="95"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="103" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D23" s="95"/>
       <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D24" s="95"/>
       <c r="E24" s="95"/>
     </row>
-    <row r="25" spans="1:5" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="103" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="96"/>
+        <v>179</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>162</v>
+      </c>
       <c r="D25" s="95"/>
       <c r="E25" s="95"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="95"/>
+    <row r="26" spans="1:5" s="113" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>219</v>
+      </c>
       <c r="C26" s="96"/>
       <c r="D26" s="95"/>
       <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="104" t="s">
-        <v>180</v>
-      </c>
+      <c r="A27" s="103"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="95"/>
       <c r="E27" s="95"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>151</v>
-      </c>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="95"/>
       <c r="E28" s="95"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>151</v>
+      </c>
       <c r="D29" s="95"/>
       <c r="E29" s="95"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="105" t="s">
-        <v>183</v>
-      </c>
+      <c r="A30" s="104"/>
       <c r="B30" s="95"/>
       <c r="C30" s="96"/>
       <c r="D30" s="95"/>
       <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>25</v>
-      </c>
+      <c r="A31" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="95"/>
       <c r="C31" s="96"/>
       <c r="D31" s="95"/>
       <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="C32" s="96"/>
       <c r="D32" s="95"/>
@@ -16516,10 +16502,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="96"/>
       <c r="D33" s="95"/>
@@ -16527,60 +16513,58 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="95"/>
       <c r="E34" s="95"/>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>190</v>
+      </c>
       <c r="C35" s="96"/>
       <c r="D35" s="95"/>
       <c r="E35" s="95"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
-        <v>191</v>
-      </c>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="96"/>
       <c r="D36" s="95"/>
       <c r="E36" s="95"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>159</v>
-      </c>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="95"/>
       <c r="E37" s="95"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="103" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D38" s="95"/>
       <c r="E38" s="95"/>
     </row>
-    <row r="39" spans="1:5" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>194</v>
@@ -16593,7 +16577,7 @@
     </row>
     <row r="40" spans="1:5" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="95" t="s">
         <v>194</v>
@@ -16604,38 +16588,38 @@
       <c r="D40" s="95"/>
       <c r="E40" s="95"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="103" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B41" s="95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C42" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>197</v>
@@ -16643,34 +16627,47 @@
       <c r="D43" s="95"/>
       <c r="E43" s="95"/>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="96"/>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>197</v>
+      </c>
       <c r="D44" s="95"/>
       <c r="E44" s="95"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="104" t="s">
-        <v>202</v>
-      </c>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="95"/>
       <c r="B45" s="95"/>
       <c r="C45" s="96"/>
       <c r="D45" s="95"/>
       <c r="E45" s="95"/>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="96" t="s">
-        <v>205</v>
-      </c>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="95"/>
       <c r="E46" s="95"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01B2C1-F982-4373-84E4-3BA135C5733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E1170-6D2F-4F66-B0EF-3FCEDEB5CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="256">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>Make the character change z-axis size when it strafe animates</t>
+  </si>
+  <si>
+    <t>Add control over SFX to sound control</t>
+  </si>
+  <si>
+    <t>Visual indicator for Iframes</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1663,6 +1669,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1721,33 +1760,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2082,316 +2094,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="126"/>
-      <c r="B1" s="128" t="s">
+      <c r="A1" s="137"/>
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="129" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="138"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="129" t="s">
+      <c r="A7" s="138"/>
+      <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="127"/>
+      <c r="D8" s="138"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="129" t="s">
+      <c r="A9" s="138"/>
+      <c r="B9" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="127"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="138"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="129" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="127"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="138"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="129" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="138"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="127"/>
+      <c r="A40" s="138"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="127"/>
+      <c r="D40" s="138"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="127"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="127"/>
+      <c r="D41" s="138"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="127"/>
+      <c r="A42" s="138"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="127"/>
+      <c r="A43" s="138"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="127"/>
+      <c r="A44" s="138"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="127"/>
+      <c r="A45" s="138"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="127"/>
+      <c r="A46" s="138"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="127"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="127"/>
+      <c r="A48" s="138"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="127"/>
+      <c r="A49" s="138"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2457,15 +2469,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -2508,14 +2520,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="146"/>
+      <c r="E4" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2534,14 +2546,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="138"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2560,14 +2572,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="138"/>
+      <c r="E6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2586,14 +2598,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="130" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5009,11 +5021,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5359,104 +5371,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="140" t="s">
+      <c r="J18" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6126,15 +6138,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="127"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="127"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="138"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -7706,10 +7718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7728,14 +7740,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="138"/>
+      <c r="E1" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="138"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7754,14 +7766,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="137" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="138"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="59"/>
       <c r="H2" s="58" t="s">
         <v>125</v>
@@ -7782,14 +7794,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="137" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="138"/>
+      <c r="F3" s="149"/>
       <c r="G3" s="119"/>
       <c r="H3" s="58"/>
       <c r="I3" s="1"/>
@@ -7808,14 +7820,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7995,42 +8007,42 @@
       <c r="S10" s="121"/>
       <c r="T10" s="121"/>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:20" s="127" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="126">
+        <v>3</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+    </row>
+    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="18"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -8047,98 +8059,98 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="77" t="s">
+    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C14" s="49">
         <v>1</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-    </row>
-    <row r="14" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="89" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+    </row>
+    <row r="15" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="114">
+      <c r="C15" s="114">
         <v>3</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114">
         <v>3</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-    </row>
-    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+    </row>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
       <c r="H16" s="1"/>
@@ -8155,70 +8167,70 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" s="122" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="121">
-        <v>2</v>
-      </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121">
-        <v>2</v>
+    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>3</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" s="122" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="121">
+        <v>2</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121">
+        <v>2</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+    </row>
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>3</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="18"/>
       <c r="G19" s="20"/>
       <c r="H19" s="1"/>
@@ -8235,14 +8247,18 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="20"/>
       <c r="H20" s="1"/>
@@ -8259,98 +8275,94 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="1:20" s="127" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="126">
+        <v>3</v>
+      </c>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="121">
-        <v>2</v>
-      </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121">
-        <v>2</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-    </row>
-    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="18"/>
       <c r="G24" s="20"/>
       <c r="H24" s="1"/>
@@ -8367,45 +8379,45 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
+    <row r="25" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="121">
+        <v>2</v>
+      </c>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121">
         <v>2</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
     </row>
     <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="77" t="s">
-        <v>235</v>
+      <c r="B26" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="20"/>
@@ -8423,12 +8435,18 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
       <c r="H27" s="1"/>
@@ -8445,12 +8463,18 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
       <c r="H28" s="1"/>
@@ -9874,6 +9898,50 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9898,8 +9966,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10005,11 +10073,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10161,7 +10229,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="157" t="s">
         <v>224</v>
       </c>
       <c r="B9" s="1"/>
@@ -10196,7 +10264,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="45" t="s">
@@ -10229,7 +10297,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="45" t="s">
@@ -10357,104 +10425,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="145" t="s">
+      <c r="J18" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -10516,16 +10584,16 @@
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="133">
         <v>1</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="133">
         <v>1</v>
       </c>
-      <c r="F20" s="154">
+      <c r="F20" s="134">
         <v>2</v>
       </c>
       <c r="G20" s="52"/>
@@ -10553,16 +10621,16 @@
     <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="153">
+      <c r="D21" s="133">
         <v>1</v>
       </c>
-      <c r="E21" s="153">
+      <c r="E21" s="133">
         <v>2</v>
       </c>
-      <c r="F21" s="155">
+      <c r="F21" s="135">
         <v>2</v>
       </c>
       <c r="G21" s="52"/>
@@ -10625,16 +10693,16 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="133">
         <v>2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="133">
         <v>1</v>
       </c>
-      <c r="F23" s="155">
+      <c r="F23" s="135">
         <v>1</v>
       </c>
       <c r="G23" s="52"/>
@@ -10695,16 +10763,16 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="124" t="s">
+      <c r="C25" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="133">
         <v>2</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="133">
         <v>1</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="135">
         <v>1</v>
       </c>
       <c r="G25" s="52"/>
@@ -11124,15 +11192,15 @@
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="155"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="51"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="144"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="155"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -12816,11 +12884,11 @@
       <c r="A4" s="114"/>
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="114"/>
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
@@ -13166,104 +13234,104 @@
       <c r="Y14" s="114"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="145" t="s">
+      <c r="J18" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
       <c r="N18" s="29"/>
       <c r="O18" s="114"/>
       <c r="P18" s="114"/>
@@ -13853,15 +13921,15 @@
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="155"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="51"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="144"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="155"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
       <c r="O39" s="114"/>
@@ -15657,7 +15725,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="149" t="s">
+      <c r="D15" s="129" t="s">
         <v>250</v>
       </c>
       <c r="E15" s="61"/>
@@ -15676,7 +15744,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="61"/>
-      <c r="D16" s="148"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="61"/>
       <c r="F16" s="68" t="s">
         <v>114</v>
@@ -15919,7 +15987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -16027,7 +16095,7 @@
       <c r="I8" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="150" t="s">
+      <c r="J8" s="130" t="s">
         <v>251</v>
       </c>
       <c r="K8" s="79"/>
@@ -16049,7 +16117,7 @@
       <c r="I9" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="131" t="s">
         <v>252</v>
       </c>
     </row>
@@ -16069,7 +16137,7 @@
       <c r="I10" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="136" t="s">
         <v>253</v>
       </c>
     </row>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E1170-6D2F-4F66-B0EF-3FCEDEB5CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39215036-7758-40FD-8B48-ED18A0C40B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="257">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>Visual indicator for Iframes</t>
+  </si>
+  <si>
+    <t>Make Big Red charge rotation based instead of transform based</t>
   </si>
 </sst>
 </file>
@@ -9967,7 +9970,7 @@
   <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10728,16 +10731,16 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="133">
         <v>2</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="133">
         <v>2</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="135">
         <v>2</v>
       </c>
       <c r="G24" s="52"/>
@@ -15988,7 +15991,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16141,7 +16144,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D11" s="79" t="s">
         <v>72</v>
       </c>
@@ -16154,7 +16157,12 @@
       <c r="H11" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D12" s="79" t="s">

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39215036-7758-40FD-8B48-ED18A0C40B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278A4D3-C0FD-4979-A030-4F5DF59A7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1765,6 +1765,15 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9969,8 +9978,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10836,16 +10845,16 @@
     <row r="27" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="124" t="s">
+      <c r="C27" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="160">
         <v>2</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="160">
         <v>1</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="161">
         <v>1</v>
       </c>
       <c r="G27" s="52"/>
@@ -10871,16 +10880,16 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="133">
         <v>2</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="133">
         <v>3</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="135">
         <v>4</v>
       </c>
       <c r="G28" s="52"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278A4D3-C0FD-4979-A030-4F5DF59A7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE70BB5-7CC5-45C6-AF08-35C357299C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="262">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -666,12 +666,6 @@
     <t>monster_mini_cutie_attack_long_6.wav</t>
   </si>
   <si>
-    <t>monster_mini_cutie_attack_fast_5</t>
-  </si>
-  <si>
-    <t>monster_mini_cutie_attack_long_1</t>
-  </si>
-  <si>
     <t>Add some variance to spawn timing</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
     <t>The controls are visible on the menu</t>
   </si>
   <si>
-    <t>The controls aare visible on the menu</t>
-  </si>
-  <si>
     <t>button_exit.png</t>
   </si>
   <si>
@@ -807,10 +798,34 @@
     <t>Add control over SFX to sound control</t>
   </si>
   <si>
-    <t>Visual indicator for Iframes</t>
-  </si>
-  <si>
     <t>Make Big Red charge rotation based instead of transform based</t>
+  </si>
+  <si>
+    <t>Flying Pink moves its' eyes when it pauses</t>
+  </si>
+  <si>
+    <t>The big Red enemy's bubble grows and shrinks while its' sleeping</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_attack_fast_5.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_attack_long_1.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_damage_4.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_damage_5.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_damage_9.wav</t>
+  </si>
+  <si>
+    <t>Player health loss SFX</t>
+  </si>
+  <si>
+    <t>When the player dies, a menu appears to take them back to the main menu</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1609,12 +1624,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1705,6 +1714,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1765,14 +1780,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7730,10 +7739,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7814,7 +7823,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="149"/>
-      <c r="G3" s="119"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="58"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7882,7 +7891,7 @@
     <row r="6" spans="1:20" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="47">
         <v>3</v>
@@ -7910,7 +7919,7 @@
     <row r="7" spans="1:20" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -7935,314 +7944,310 @@
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
     </row>
-    <row r="8" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="120" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="121">
+        <v>242</v>
+      </c>
+      <c r="C8" s="119">
         <v>3</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121">
+      <c r="D8" s="119"/>
+      <c r="E8" s="119">
         <v>1</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-    </row>
-    <row r="9" spans="1:20" s="108" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="107">
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="135">
         <v>2</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-    </row>
-    <row r="10" spans="1:20" s="122" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="121">
-        <v>2</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121">
+      <c r="D11" s="135"/>
+      <c r="E11" s="135">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+    </row>
+    <row r="12" spans="1:20" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="135">
+        <v>3</v>
+      </c>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135">
         <v>1</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-    </row>
-    <row r="11" spans="1:20" s="127" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="126">
+      <c r="F12" s="18"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+    </row>
+    <row r="13" spans="1:20" s="113" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="112">
         <v>3</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126">
+      <c r="D13" s="112"/>
+      <c r="E13" s="112">
         <v>3</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="F13" s="18"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+    </row>
+    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="49">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-    </row>
-    <row r="15" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="114">
-        <v>3</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114">
-        <v>3</v>
-      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>3</v>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+    </row>
+    <row r="17" spans="1:20" s="120" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="119">
+        <v>2</v>
+      </c>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119">
+        <v>2</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" s="122" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="121">
-        <v>2</v>
-      </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121">
-        <v>2</v>
-      </c>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+    </row>
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="20"/>
       <c r="H19" s="1"/>
@@ -8259,18 +8264,14 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
+    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="18"/>
       <c r="G20" s="20"/>
       <c r="H20" s="1"/>
@@ -8287,40 +8288,44 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
-      <c r="B22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="124">
         <v>3</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="D22" s="124"/>
+      <c r="E22" s="124">
         <v>3</v>
       </c>
       <c r="F22" s="22"/>
@@ -8339,42 +8344,42 @@
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" spans="1:20" s="127" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="126">
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126">
-        <v>3</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="20"/>
       <c r="H24" s="1"/>
@@ -8391,46 +8396,40 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="121">
-        <v>2</v>
-      </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121">
+    <row r="25" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-    </row>
-    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="18"/>
       <c r="G26" s="20"/>
       <c r="H26" s="1"/>
@@ -8447,18 +8446,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
       <c r="H27" s="1"/>
@@ -8475,18 +8468,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="18"/>
       <c r="G28" s="20"/>
       <c r="H28" s="1"/>
@@ -9888,72 +9875,6 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-    </row>
-    <row r="92" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-    </row>
-    <row r="93" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-    </row>
-    <row r="94" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9978,8 +9899,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10242,7 +10163,7 @@
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="157" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10596,16 +10517,16 @@
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="132" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="133">
+      <c r="C20" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="131">
         <v>1</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="131">
         <v>1</v>
       </c>
-      <c r="F20" s="134">
+      <c r="F20" s="132">
         <v>2</v>
       </c>
       <c r="G20" s="52"/>
@@ -10633,16 +10554,16 @@
     <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="133">
+      <c r="C21" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="131">
         <v>1</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="131">
         <v>2</v>
       </c>
-      <c r="F21" s="135">
+      <c r="F21" s="133">
         <v>2</v>
       </c>
       <c r="G21" s="52"/>
@@ -10670,16 +10591,16 @@
     <row r="22" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="72">
+      <c r="C22" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="131">
         <v>1</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="131">
         <v>3</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="133">
         <v>4</v>
       </c>
       <c r="G22" s="52"/>
@@ -10705,16 +10626,16 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="131">
         <v>2</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="131">
         <v>1</v>
       </c>
-      <c r="F23" s="135">
+      <c r="F23" s="133">
         <v>1</v>
       </c>
       <c r="G23" s="52"/>
@@ -10740,16 +10661,16 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="133">
+      <c r="C24" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="131">
         <v>2</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="131">
         <v>2</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="133">
         <v>2</v>
       </c>
       <c r="G24" s="52"/>
@@ -10775,16 +10696,16 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="132" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="133">
+      <c r="C25" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="131">
         <v>2</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="131">
         <v>1</v>
       </c>
-      <c r="F25" s="135">
+      <c r="F25" s="133">
         <v>1</v>
       </c>
       <c r="G25" s="52"/>
@@ -10810,8 +10731,8 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="52"/>
-      <c r="C26" s="124" t="s">
-        <v>239</v>
+      <c r="C26" s="122" t="s">
+        <v>237</v>
       </c>
       <c r="D26" s="72">
         <v>2</v>
@@ -10845,16 +10766,16 @@
     <row r="27" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="159" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="160">
+      <c r="C27" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="131">
         <v>2</v>
       </c>
-      <c r="E27" s="160">
+      <c r="E27" s="131">
         <v>1</v>
       </c>
-      <c r="F27" s="161">
+      <c r="F27" s="133">
         <v>1</v>
       </c>
       <c r="G27" s="52"/>
@@ -10880,16 +10801,16 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="132" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="133">
+      <c r="C28" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="131">
         <v>2</v>
       </c>
-      <c r="E28" s="133">
+      <c r="E28" s="131">
         <v>3</v>
       </c>
-      <c r="F28" s="135">
+      <c r="F28" s="133">
         <v>4</v>
       </c>
       <c r="G28" s="52"/>
@@ -10915,8 +10836,8 @@
     <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
-      <c r="C29" s="124" t="s">
-        <v>244</v>
+      <c r="C29" s="122" t="s">
+        <v>242</v>
       </c>
       <c r="D29" s="72">
         <v>3</v>
@@ -10977,7 +10898,7 @@
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="52"/>
-      <c r="C31" s="124"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
@@ -11058,7 +10979,7 @@
     <row r="34" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="52"/>
-      <c r="C34" s="124"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="F34" s="73"/>
@@ -12794,137 +12715,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="115" customWidth="1"/>
-    <col min="2" max="2" width="0.42578125" style="115" customWidth="1"/>
-    <col min="3" max="3" width="32" style="115" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="115" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="115" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="115" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="115" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="115" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="115" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="115" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="115" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="115" customWidth="1"/>
-    <col min="13" max="13" width="13" style="115" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="115" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="115"/>
+    <col min="1" max="1" width="34" style="113" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="32" style="113" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="113" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="113" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="113" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="113" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="113" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="113" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="113" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="113" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="113" customWidth="1"/>
+    <col min="13" max="13" width="13" style="113" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="113" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="116"/>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
+      <c r="A1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="150" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="138"/>
       <c r="F4" s="138"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="45"/>
       <c r="E5" s="26" t="s">
         <v>44</v>
@@ -12932,30 +12853,30 @@
       <c r="F5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="45" t="s">
         <v>49</v>
       </c>
@@ -12965,30 +12886,30 @@
       <c r="F6" s="45">
         <v>0</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="45" t="s">
         <v>50</v>
       </c>
@@ -12998,30 +12919,30 @@
       <c r="F7" s="45">
         <v>0</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="45" t="s">
         <v>51</v>
       </c>
@@ -13031,30 +12952,30 @@
       <c r="F8" s="45">
         <v>0</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="45" t="s">
         <v>52</v>
       </c>
@@ -13064,30 +12985,30 @@
       <c r="F9" s="45">
         <v>0</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="45" t="s">
         <v>46</v>
       </c>
@@ -13097,30 +13018,30 @@
       <c r="F10" s="45">
         <v>0</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="45" t="s">
         <v>47</v>
       </c>
@@ -13130,30 +13051,30 @@
       <c r="F11" s="45">
         <v>0</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="45" t="s">
         <v>48</v>
       </c>
@@ -13163,30 +13084,30 @@
       <c r="F12" s="45">
         <v>0</v>
       </c>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="45" t="s">
         <v>53</v>
       </c>
@@ -13198,52 +13119,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="137"/>
@@ -13345,17 +13266,17 @@
       <c r="L18" s="155"/>
       <c r="M18" s="155"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -13417,19 +13338,19 @@
       <c r="L20" s="72"/>
       <c r="M20" s="74"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="114"/>
+      <c r="O20" s="112"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
@@ -13446,19 +13367,19 @@
       <c r="L21" s="72"/>
       <c r="M21" s="74"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="114"/>
+      <c r="O21" s="112"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
@@ -13475,17 +13396,17 @@
       <c r="L22" s="72"/>
       <c r="M22" s="74"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
     </row>
     <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
@@ -13502,17 +13423,17 @@
       <c r="L23" s="72"/>
       <c r="M23" s="74"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="114"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
@@ -13529,17 +13450,17 @@
       <c r="L24" s="72"/>
       <c r="M24" s="74"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="114"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
@@ -13556,17 +13477,17 @@
       <c r="L25" s="72"/>
       <c r="M25" s="74"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
@@ -13583,17 +13504,17 @@
       <c r="L26" s="72"/>
       <c r="M26" s="73"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="114"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
@@ -13610,17 +13531,17 @@
       <c r="L27" s="72"/>
       <c r="M27" s="74"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
@@ -13637,17 +13558,17 @@
       <c r="L28" s="75"/>
       <c r="M28" s="76"/>
       <c r="N28" s="29"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="114"/>
-      <c r="Y28" s="114"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
@@ -13664,17 +13585,17 @@
       <c r="L29" s="75"/>
       <c r="M29" s="76"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
     </row>
     <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
@@ -13691,17 +13612,17 @@
       <c r="L30" s="78"/>
       <c r="M30" s="74"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
     </row>
     <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
@@ -13718,17 +13639,17 @@
       <c r="L31" s="72"/>
       <c r="M31" s="74"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
@@ -13745,17 +13666,17 @@
       <c r="L32" s="72"/>
       <c r="M32" s="74"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
@@ -13772,17 +13693,17 @@
       <c r="L33" s="72"/>
       <c r="M33" s="74"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
@@ -13799,17 +13720,17 @@
       <c r="L34" s="72"/>
       <c r="M34" s="74"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
@@ -13826,17 +13747,17 @@
       <c r="L35" s="72"/>
       <c r="M35" s="74"/>
       <c r="N35" s="29"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
     </row>
     <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
@@ -13853,17 +13774,17 @@
       <c r="L36" s="72"/>
       <c r="M36" s="74"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
@@ -13880,17 +13801,17 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="112"/>
+      <c r="Y37" s="112"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
@@ -13917,17 +13838,17 @@
         <v>0</v>
       </c>
       <c r="N38" s="29"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="112"/>
+      <c r="X38" s="112"/>
+      <c r="Y38" s="112"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
@@ -13944,1556 +13865,1556 @@
       <c r="L39" s="155"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="112"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="112"/>
+      <c r="W39" s="112"/>
+      <c r="X39" s="112"/>
+      <c r="Y39" s="112"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="112"/>
+      <c r="Y42" s="112"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="112"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
-      <c r="Y44" s="114"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="112"/>
+      <c r="T44" s="112"/>
+      <c r="U44" s="112"/>
+      <c r="V44" s="112"/>
+      <c r="W44" s="112"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="112"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="114"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="112"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="114"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="114"/>
-      <c r="Y46" s="114"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="112"/>
+      <c r="T46" s="112"/>
+      <c r="U46" s="112"/>
+      <c r="V46" s="112"/>
+      <c r="W46" s="112"/>
+      <c r="X46" s="112"/>
+      <c r="Y46" s="112"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
+      <c r="W47" s="112"/>
+      <c r="X47" s="112"/>
+      <c r="Y47" s="112"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="112"/>
+      <c r="T48" s="112"/>
+      <c r="U48" s="112"/>
+      <c r="V48" s="112"/>
+      <c r="W48" s="112"/>
+      <c r="X48" s="112"/>
+      <c r="Y48" s="112"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="114"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
-      <c r="Y49" s="114"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
+      <c r="S49" s="112"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="112"/>
+      <c r="W49" s="112"/>
+      <c r="X49" s="112"/>
+      <c r="Y49" s="112"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="114"/>
-      <c r="T50" s="114"/>
-      <c r="U50" s="114"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="114"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="112"/>
+      <c r="T50" s="112"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="112"/>
+      <c r="X50" s="112"/>
+      <c r="Y50" s="112"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="114"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="112"/>
+      <c r="T51" s="112"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="112"/>
+      <c r="X51" s="112"/>
+      <c r="Y51" s="112"/>
     </row>
     <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="114"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="114"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="112"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="112"/>
+      <c r="Q52" s="112"/>
+      <c r="R52" s="112"/>
+      <c r="S52" s="112"/>
+      <c r="T52" s="112"/>
+      <c r="U52" s="112"/>
+      <c r="V52" s="112"/>
+      <c r="W52" s="112"/>
+      <c r="X52" s="112"/>
+      <c r="Y52" s="112"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="114"/>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="114"/>
-      <c r="S53" s="114"/>
-      <c r="T53" s="114"/>
-      <c r="U53" s="114"/>
-      <c r="V53" s="114"/>
-      <c r="W53" s="114"/>
-      <c r="X53" s="114"/>
-      <c r="Y53" s="114"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="112"/>
+      <c r="R53" s="112"/>
+      <c r="S53" s="112"/>
+      <c r="T53" s="112"/>
+      <c r="U53" s="112"/>
+      <c r="V53" s="112"/>
+      <c r="W53" s="112"/>
+      <c r="X53" s="112"/>
+      <c r="Y53" s="112"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="114"/>
-      <c r="S54" s="114"/>
-      <c r="T54" s="114"/>
-      <c r="U54" s="114"/>
-      <c r="V54" s="114"/>
-      <c r="W54" s="114"/>
-      <c r="X54" s="114"/>
-      <c r="Y54" s="114"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="112"/>
+      <c r="Q54" s="112"/>
+      <c r="R54" s="112"/>
+      <c r="S54" s="112"/>
+      <c r="T54" s="112"/>
+      <c r="U54" s="112"/>
+      <c r="V54" s="112"/>
+      <c r="W54" s="112"/>
+      <c r="X54" s="112"/>
+      <c r="Y54" s="112"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="114"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="114"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="114"/>
-      <c r="X55" s="114"/>
-      <c r="Y55" s="114"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="112"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="112"/>
+      <c r="X55" s="112"/>
+      <c r="Y55" s="112"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
-      <c r="Q56" s="114"/>
-      <c r="R56" s="114"/>
-      <c r="S56" s="114"/>
-      <c r="T56" s="114"/>
-      <c r="U56" s="114"/>
-      <c r="V56" s="114"/>
-      <c r="W56" s="114"/>
-      <c r="X56" s="114"/>
-      <c r="Y56" s="114"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="112"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
-      <c r="Q57" s="114"/>
-      <c r="R57" s="114"/>
-      <c r="S57" s="114"/>
-      <c r="T57" s="114"/>
-      <c r="U57" s="114"/>
-      <c r="V57" s="114"/>
-      <c r="W57" s="114"/>
-      <c r="X57" s="114"/>
-      <c r="Y57" s="114"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="112"/>
+      <c r="Y57" s="112"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="114"/>
-      <c r="S58" s="114"/>
-      <c r="T58" s="114"/>
-      <c r="U58" s="114"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
-      <c r="X58" s="114"/>
-      <c r="Y58" s="114"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="112"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
+      <c r="U58" s="112"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
+      <c r="X58" s="112"/>
+      <c r="Y58" s="112"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="114"/>
-      <c r="R59" s="114"/>
-      <c r="S59" s="114"/>
-      <c r="T59" s="114"/>
-      <c r="U59" s="114"/>
-      <c r="V59" s="114"/>
-      <c r="W59" s="114"/>
-      <c r="X59" s="114"/>
-      <c r="Y59" s="114"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
+      <c r="Q59" s="112"/>
+      <c r="R59" s="112"/>
+      <c r="S59" s="112"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
+      <c r="V59" s="112"/>
+      <c r="W59" s="112"/>
+      <c r="X59" s="112"/>
+      <c r="Y59" s="112"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
-      <c r="Q60" s="114"/>
-      <c r="R60" s="114"/>
-      <c r="S60" s="114"/>
-      <c r="T60" s="114"/>
-      <c r="U60" s="114"/>
-      <c r="V60" s="114"/>
-      <c r="W60" s="114"/>
-      <c r="X60" s="114"/>
-      <c r="Y60" s="114"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="112"/>
+      <c r="R60" s="112"/>
+      <c r="S60" s="112"/>
+      <c r="T60" s="112"/>
+      <c r="U60" s="112"/>
+      <c r="V60" s="112"/>
+      <c r="W60" s="112"/>
+      <c r="X60" s="112"/>
+      <c r="Y60" s="112"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="114"/>
-      <c r="R61" s="114"/>
-      <c r="S61" s="114"/>
-      <c r="T61" s="114"/>
-      <c r="U61" s="114"/>
-      <c r="V61" s="114"/>
-      <c r="W61" s="114"/>
-      <c r="X61" s="114"/>
-      <c r="Y61" s="114"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="112"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="112"/>
+      <c r="P61" s="112"/>
+      <c r="Q61" s="112"/>
+      <c r="R61" s="112"/>
+      <c r="S61" s="112"/>
+      <c r="T61" s="112"/>
+      <c r="U61" s="112"/>
+      <c r="V61" s="112"/>
+      <c r="W61" s="112"/>
+      <c r="X61" s="112"/>
+      <c r="Y61" s="112"/>
     </row>
     <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="114"/>
-      <c r="S62" s="114"/>
-      <c r="T62" s="114"/>
-      <c r="U62" s="114"/>
-      <c r="V62" s="114"/>
-      <c r="W62" s="114"/>
-      <c r="X62" s="114"/>
-      <c r="Y62" s="114"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="112"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="112"/>
+      <c r="Q62" s="112"/>
+      <c r="R62" s="112"/>
+      <c r="S62" s="112"/>
+      <c r="T62" s="112"/>
+      <c r="U62" s="112"/>
+      <c r="V62" s="112"/>
+      <c r="W62" s="112"/>
+      <c r="X62" s="112"/>
+      <c r="Y62" s="112"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
-      <c r="T63" s="114"/>
-      <c r="U63" s="114"/>
-      <c r="V63" s="114"/>
-      <c r="W63" s="114"/>
-      <c r="X63" s="114"/>
-      <c r="Y63" s="114"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="112"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="112"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="112"/>
+      <c r="R63" s="112"/>
+      <c r="S63" s="112"/>
+      <c r="T63" s="112"/>
+      <c r="U63" s="112"/>
+      <c r="V63" s="112"/>
+      <c r="W63" s="112"/>
+      <c r="X63" s="112"/>
+      <c r="Y63" s="112"/>
     </row>
     <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="114"/>
-      <c r="R64" s="114"/>
-      <c r="S64" s="114"/>
-      <c r="T64" s="114"/>
-      <c r="U64" s="114"/>
-      <c r="V64" s="114"/>
-      <c r="W64" s="114"/>
-      <c r="X64" s="114"/>
-      <c r="Y64" s="114"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="112"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="112"/>
+      <c r="R64" s="112"/>
+      <c r="S64" s="112"/>
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="112"/>
+      <c r="W64" s="112"/>
+      <c r="X64" s="112"/>
+      <c r="Y64" s="112"/>
     </row>
     <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="114"/>
-      <c r="N65" s="114"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="114"/>
-      <c r="Q65" s="114"/>
-      <c r="R65" s="114"/>
-      <c r="S65" s="114"/>
-      <c r="T65" s="114"/>
-      <c r="U65" s="114"/>
-      <c r="V65" s="114"/>
-      <c r="W65" s="114"/>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="112"/>
+      <c r="Y65" s="112"/>
     </row>
     <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="114"/>
-      <c r="R66" s="114"/>
-      <c r="S66" s="114"/>
-      <c r="T66" s="114"/>
-      <c r="U66" s="114"/>
-      <c r="V66" s="114"/>
-      <c r="W66" s="114"/>
-      <c r="X66" s="114"/>
-      <c r="Y66" s="114"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="112"/>
+      <c r="R66" s="112"/>
+      <c r="S66" s="112"/>
+      <c r="T66" s="112"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="112"/>
+      <c r="X66" s="112"/>
+      <c r="Y66" s="112"/>
     </row>
     <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="114"/>
-      <c r="Q67" s="114"/>
-      <c r="R67" s="114"/>
-      <c r="S67" s="114"/>
-      <c r="T67" s="114"/>
-      <c r="U67" s="114"/>
-      <c r="V67" s="114"/>
-      <c r="W67" s="114"/>
-      <c r="X67" s="114"/>
-      <c r="Y67" s="114"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="112"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="112"/>
+      <c r="R67" s="112"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="112"/>
+      <c r="U67" s="112"/>
+      <c r="V67" s="112"/>
+      <c r="W67" s="112"/>
+      <c r="X67" s="112"/>
+      <c r="Y67" s="112"/>
     </row>
     <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
-      <c r="O68" s="114"/>
-      <c r="P68" s="114"/>
-      <c r="Q68" s="114"/>
-      <c r="R68" s="114"/>
-      <c r="S68" s="114"/>
-      <c r="T68" s="114"/>
-      <c r="U68" s="114"/>
-      <c r="V68" s="114"/>
-      <c r="W68" s="114"/>
-      <c r="X68" s="114"/>
-      <c r="Y68" s="114"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="112"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="112"/>
+      <c r="P68" s="112"/>
+      <c r="Q68" s="112"/>
+      <c r="R68" s="112"/>
+      <c r="S68" s="112"/>
+      <c r="T68" s="112"/>
+      <c r="U68" s="112"/>
+      <c r="V68" s="112"/>
+      <c r="W68" s="112"/>
+      <c r="X68" s="112"/>
+      <c r="Y68" s="112"/>
     </row>
     <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="114"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="114"/>
-      <c r="S69" s="114"/>
-      <c r="T69" s="114"/>
-      <c r="U69" s="114"/>
-      <c r="V69" s="114"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="114"/>
-      <c r="Y69" s="114"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="112"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="112"/>
+      <c r="Q69" s="112"/>
+      <c r="R69" s="112"/>
+      <c r="S69" s="112"/>
+      <c r="T69" s="112"/>
+      <c r="U69" s="112"/>
+      <c r="V69" s="112"/>
+      <c r="W69" s="112"/>
+      <c r="X69" s="112"/>
+      <c r="Y69" s="112"/>
     </row>
     <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="114"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="114"/>
-      <c r="R70" s="114"/>
-      <c r="S70" s="114"/>
-      <c r="T70" s="114"/>
-      <c r="U70" s="114"/>
-      <c r="V70" s="114"/>
-      <c r="W70" s="114"/>
-      <c r="X70" s="114"/>
-      <c r="Y70" s="114"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="112"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="S70" s="112"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="112"/>
+      <c r="Y70" s="112"/>
     </row>
     <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="34"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="114"/>
-      <c r="K71" s="114"/>
-      <c r="L71" s="114"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="114"/>
-      <c r="Q71" s="114"/>
-      <c r="R71" s="114"/>
-      <c r="S71" s="114"/>
-      <c r="T71" s="114"/>
-      <c r="U71" s="114"/>
-      <c r="V71" s="114"/>
-      <c r="W71" s="114"/>
-      <c r="X71" s="114"/>
-      <c r="Y71" s="114"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="112"/>
+      <c r="Y71" s="112"/>
     </row>
     <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="114"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="114"/>
-      <c r="L72" s="114"/>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
-      <c r="S72" s="114"/>
-      <c r="T72" s="114"/>
-      <c r="U72" s="114"/>
-      <c r="V72" s="114"/>
-      <c r="W72" s="114"/>
-      <c r="X72" s="114"/>
-      <c r="Y72" s="114"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="112"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="112"/>
+      <c r="L72" s="112"/>
+      <c r="M72" s="112"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="112"/>
+      <c r="R72" s="112"/>
+      <c r="S72" s="112"/>
+      <c r="T72" s="112"/>
+      <c r="U72" s="112"/>
+      <c r="V72" s="112"/>
+      <c r="W72" s="112"/>
+      <c r="X72" s="112"/>
+      <c r="Y72" s="112"/>
     </row>
     <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="114"/>
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="114"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="114"/>
-      <c r="Q73" s="114"/>
-      <c r="R73" s="114"/>
-      <c r="S73" s="114"/>
-      <c r="T73" s="114"/>
-      <c r="U73" s="114"/>
-      <c r="V73" s="114"/>
-      <c r="W73" s="114"/>
-      <c r="X73" s="114"/>
-      <c r="Y73" s="114"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="112"/>
+      <c r="S73" s="112"/>
+      <c r="T73" s="112"/>
+      <c r="U73" s="112"/>
+      <c r="V73" s="112"/>
+      <c r="W73" s="112"/>
+      <c r="X73" s="112"/>
+      <c r="Y73" s="112"/>
     </row>
     <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="114"/>
-      <c r="B74" s="114"/>
-      <c r="C74" s="114"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="34"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="114"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="114"/>
-      <c r="Q74" s="114"/>
-      <c r="R74" s="114"/>
-      <c r="S74" s="114"/>
-      <c r="T74" s="114"/>
-      <c r="U74" s="114"/>
-      <c r="V74" s="114"/>
-      <c r="W74" s="114"/>
-      <c r="X74" s="114"/>
-      <c r="Y74" s="114"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="112"/>
+      <c r="M74" s="112"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="112"/>
+      <c r="Q74" s="112"/>
+      <c r="R74" s="112"/>
+      <c r="S74" s="112"/>
+      <c r="T74" s="112"/>
+      <c r="U74" s="112"/>
+      <c r="V74" s="112"/>
+      <c r="W74" s="112"/>
+      <c r="X74" s="112"/>
+      <c r="Y74" s="112"/>
     </row>
     <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="114"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="114"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="114"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="114"/>
-      <c r="Q75" s="114"/>
-      <c r="R75" s="114"/>
-      <c r="S75" s="114"/>
-      <c r="T75" s="114"/>
-      <c r="U75" s="114"/>
-      <c r="V75" s="114"/>
-      <c r="W75" s="114"/>
-      <c r="X75" s="114"/>
-      <c r="Y75" s="114"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="112"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="112"/>
+      <c r="R75" s="112"/>
+      <c r="S75" s="112"/>
+      <c r="T75" s="112"/>
+      <c r="U75" s="112"/>
+      <c r="V75" s="112"/>
+      <c r="W75" s="112"/>
+      <c r="X75" s="112"/>
+      <c r="Y75" s="112"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114"/>
-      <c r="B76" s="114"/>
-      <c r="C76" s="114"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
-      <c r="L76" s="114"/>
-      <c r="M76" s="114"/>
-      <c r="N76" s="114"/>
-      <c r="O76" s="114"/>
-      <c r="P76" s="114"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="114"/>
-      <c r="S76" s="114"/>
-      <c r="T76" s="114"/>
-      <c r="U76" s="114"/>
-      <c r="V76" s="114"/>
-      <c r="W76" s="114"/>
-      <c r="X76" s="114"/>
-      <c r="Y76" s="114"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="112"/>
+      <c r="N76" s="112"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="112"/>
+      <c r="Q76" s="112"/>
+      <c r="R76" s="112"/>
+      <c r="S76" s="112"/>
+      <c r="T76" s="112"/>
+      <c r="U76" s="112"/>
+      <c r="V76" s="112"/>
+      <c r="W76" s="112"/>
+      <c r="X76" s="112"/>
+      <c r="Y76" s="112"/>
     </row>
     <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
-      <c r="B77" s="114"/>
-      <c r="C77" s="114"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="114"/>
-      <c r="Q77" s="114"/>
-      <c r="R77" s="114"/>
-      <c r="S77" s="114"/>
-      <c r="T77" s="114"/>
-      <c r="U77" s="114"/>
-      <c r="V77" s="114"/>
-      <c r="W77" s="114"/>
-      <c r="X77" s="114"/>
-      <c r="Y77" s="114"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="112"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="112"/>
+      <c r="T77" s="112"/>
+      <c r="U77" s="112"/>
+      <c r="V77" s="112"/>
+      <c r="W77" s="112"/>
+      <c r="X77" s="112"/>
+      <c r="Y77" s="112"/>
     </row>
     <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="114"/>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="114"/>
-      <c r="Q78" s="114"/>
-      <c r="R78" s="114"/>
-      <c r="S78" s="114"/>
-      <c r="T78" s="114"/>
-      <c r="U78" s="114"/>
-      <c r="V78" s="114"/>
-      <c r="W78" s="114"/>
-      <c r="X78" s="114"/>
-      <c r="Y78" s="114"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="112"/>
+      <c r="K78" s="112"/>
+      <c r="L78" s="112"/>
+      <c r="M78" s="112"/>
+      <c r="N78" s="112"/>
+      <c r="O78" s="112"/>
+      <c r="P78" s="112"/>
+      <c r="Q78" s="112"/>
+      <c r="R78" s="112"/>
+      <c r="S78" s="112"/>
+      <c r="T78" s="112"/>
+      <c r="U78" s="112"/>
+      <c r="V78" s="112"/>
+      <c r="W78" s="112"/>
+      <c r="X78" s="112"/>
+      <c r="Y78" s="112"/>
     </row>
     <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="114"/>
-      <c r="B79" s="114"/>
-      <c r="C79" s="114"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
-      <c r="S79" s="114"/>
-      <c r="T79" s="114"/>
-      <c r="U79" s="114"/>
-      <c r="V79" s="114"/>
-      <c r="W79" s="114"/>
-      <c r="X79" s="114"/>
-      <c r="Y79" s="114"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="112"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="112"/>
+      <c r="R79" s="112"/>
+      <c r="S79" s="112"/>
+      <c r="T79" s="112"/>
+      <c r="U79" s="112"/>
+      <c r="V79" s="112"/>
+      <c r="W79" s="112"/>
+      <c r="X79" s="112"/>
+      <c r="Y79" s="112"/>
     </row>
     <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
-      <c r="B80" s="114"/>
-      <c r="C80" s="114"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="114"/>
-      <c r="K80" s="114"/>
-      <c r="L80" s="114"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="114"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
-      <c r="R80" s="114"/>
-      <c r="S80" s="114"/>
-      <c r="T80" s="114"/>
-      <c r="U80" s="114"/>
-      <c r="V80" s="114"/>
-      <c r="W80" s="114"/>
-      <c r="X80" s="114"/>
-      <c r="Y80" s="114"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
+      <c r="M80" s="112"/>
+      <c r="N80" s="112"/>
+      <c r="O80" s="112"/>
+      <c r="P80" s="112"/>
+      <c r="Q80" s="112"/>
+      <c r="R80" s="112"/>
+      <c r="S80" s="112"/>
+      <c r="T80" s="112"/>
+      <c r="U80" s="112"/>
+      <c r="V80" s="112"/>
+      <c r="W80" s="112"/>
+      <c r="X80" s="112"/>
+      <c r="Y80" s="112"/>
     </row>
     <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="114"/>
-      <c r="B81" s="114"/>
-      <c r="C81" s="114"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="114"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
-      <c r="S81" s="114"/>
-      <c r="T81" s="114"/>
-      <c r="U81" s="114"/>
-      <c r="V81" s="114"/>
-      <c r="W81" s="114"/>
-      <c r="X81" s="114"/>
-      <c r="Y81" s="114"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="112"/>
+      <c r="K81" s="112"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="112"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
+      <c r="T81" s="112"/>
+      <c r="U81" s="112"/>
+      <c r="V81" s="112"/>
+      <c r="W81" s="112"/>
+      <c r="X81" s="112"/>
+      <c r="Y81" s="112"/>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="114"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
-      <c r="R82" s="114"/>
-      <c r="S82" s="114"/>
-      <c r="T82" s="114"/>
-      <c r="U82" s="114"/>
-      <c r="V82" s="114"/>
-      <c r="W82" s="114"/>
-      <c r="X82" s="114"/>
-      <c r="Y82" s="114"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="112"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="112"/>
+      <c r="L82" s="112"/>
+      <c r="M82" s="112"/>
+      <c r="N82" s="112"/>
+      <c r="O82" s="112"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="112"/>
+      <c r="R82" s="112"/>
+      <c r="S82" s="112"/>
+      <c r="T82" s="112"/>
+      <c r="U82" s="112"/>
+      <c r="V82" s="112"/>
+      <c r="W82" s="112"/>
+      <c r="X82" s="112"/>
+      <c r="Y82" s="112"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="34"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="114"/>
-      <c r="M83" s="114"/>
-      <c r="N83" s="114"/>
-      <c r="O83" s="114"/>
-      <c r="P83" s="114"/>
-      <c r="Q83" s="114"/>
-      <c r="R83" s="114"/>
-      <c r="S83" s="114"/>
-      <c r="T83" s="114"/>
-      <c r="U83" s="114"/>
-      <c r="V83" s="114"/>
-      <c r="W83" s="114"/>
-      <c r="X83" s="114"/>
-      <c r="Y83" s="114"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="112"/>
+      <c r="M83" s="112"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="112"/>
+      <c r="Q83" s="112"/>
+      <c r="R83" s="112"/>
+      <c r="S83" s="112"/>
+      <c r="T83" s="112"/>
+      <c r="U83" s="112"/>
+      <c r="V83" s="112"/>
+      <c r="W83" s="112"/>
+      <c r="X83" s="112"/>
+      <c r="Y83" s="112"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="114"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
+      <c r="A84" s="112"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="114"/>
-      <c r="M84" s="114"/>
-      <c r="N84" s="114"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="114"/>
-      <c r="R84" s="114"/>
-      <c r="S84" s="114"/>
-      <c r="T84" s="114"/>
-      <c r="U84" s="114"/>
-      <c r="V84" s="114"/>
-      <c r="W84" s="114"/>
-      <c r="X84" s="114"/>
-      <c r="Y84" s="114"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="112"/>
+      <c r="L84" s="112"/>
+      <c r="M84" s="112"/>
+      <c r="N84" s="112"/>
+      <c r="O84" s="112"/>
+      <c r="P84" s="112"/>
+      <c r="Q84" s="112"/>
+      <c r="R84" s="112"/>
+      <c r="S84" s="112"/>
+      <c r="T84" s="112"/>
+      <c r="U84" s="112"/>
+      <c r="V84" s="112"/>
+      <c r="W84" s="112"/>
+      <c r="X84" s="112"/>
+      <c r="Y84" s="112"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114"/>
-      <c r="B85" s="114"/>
-      <c r="C85" s="114"/>
+      <c r="A85" s="112"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
-      <c r="R85" s="114"/>
-      <c r="S85" s="114"/>
-      <c r="T85" s="114"/>
-      <c r="U85" s="114"/>
-      <c r="V85" s="114"/>
-      <c r="W85" s="114"/>
-      <c r="X85" s="114"/>
-      <c r="Y85" s="114"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="112"/>
+      <c r="R85" s="112"/>
+      <c r="S85" s="112"/>
+      <c r="T85" s="112"/>
+      <c r="U85" s="112"/>
+      <c r="V85" s="112"/>
+      <c r="W85" s="112"/>
+      <c r="X85" s="112"/>
+      <c r="Y85" s="112"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
+      <c r="A86" s="112"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114"/>
-      <c r="K86" s="114"/>
-      <c r="L86" s="114"/>
-      <c r="M86" s="114"/>
-      <c r="N86" s="114"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="114"/>
-      <c r="R86" s="114"/>
-      <c r="S86" s="114"/>
-      <c r="T86" s="114"/>
-      <c r="U86" s="114"/>
-      <c r="V86" s="114"/>
-      <c r="W86" s="114"/>
-      <c r="X86" s="114"/>
-      <c r="Y86" s="114"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="112"/>
+      <c r="M86" s="112"/>
+      <c r="N86" s="112"/>
+      <c r="O86" s="112"/>
+      <c r="P86" s="112"/>
+      <c r="Q86" s="112"/>
+      <c r="R86" s="112"/>
+      <c r="S86" s="112"/>
+      <c r="T86" s="112"/>
+      <c r="U86" s="112"/>
+      <c r="V86" s="112"/>
+      <c r="W86" s="112"/>
+      <c r="X86" s="112"/>
+      <c r="Y86" s="112"/>
     </row>
     <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="114"/>
-      <c r="R87" s="114"/>
-      <c r="S87" s="114"/>
-      <c r="T87" s="114"/>
-      <c r="U87" s="114"/>
-      <c r="V87" s="114"/>
-      <c r="W87" s="114"/>
-      <c r="X87" s="114"/>
-      <c r="Y87" s="114"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="112"/>
+      <c r="R87" s="112"/>
+      <c r="S87" s="112"/>
+      <c r="T87" s="112"/>
+      <c r="U87" s="112"/>
+      <c r="V87" s="112"/>
+      <c r="W87" s="112"/>
+      <c r="X87" s="112"/>
+      <c r="Y87" s="112"/>
     </row>
     <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114"/>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
+      <c r="A88" s="112"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
-      <c r="R88" s="114"/>
-      <c r="S88" s="114"/>
-      <c r="T88" s="114"/>
-      <c r="U88" s="114"/>
-      <c r="V88" s="114"/>
-      <c r="W88" s="114"/>
-      <c r="X88" s="114"/>
-      <c r="Y88" s="114"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="112"/>
+      <c r="M88" s="112"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="112"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="112"/>
+      <c r="R88" s="112"/>
+      <c r="S88" s="112"/>
+      <c r="T88" s="112"/>
+      <c r="U88" s="112"/>
+      <c r="V88" s="112"/>
+      <c r="W88" s="112"/>
+      <c r="X88" s="112"/>
+      <c r="Y88" s="112"/>
     </row>
     <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114"/>
-      <c r="B89" s="114"/>
-      <c r="C89" s="114"/>
+      <c r="A89" s="112"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="114"/>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="114"/>
-      <c r="O89" s="114"/>
-      <c r="P89" s="114"/>
-      <c r="Q89" s="114"/>
-      <c r="R89" s="114"/>
-      <c r="S89" s="114"/>
-      <c r="T89" s="114"/>
-      <c r="U89" s="114"/>
-      <c r="V89" s="114"/>
-      <c r="W89" s="114"/>
-      <c r="X89" s="114"/>
-      <c r="Y89" s="114"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="112"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="112"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="112"/>
+      <c r="N89" s="112"/>
+      <c r="O89" s="112"/>
+      <c r="P89" s="112"/>
+      <c r="Q89" s="112"/>
+      <c r="R89" s="112"/>
+      <c r="S89" s="112"/>
+      <c r="T89" s="112"/>
+      <c r="U89" s="112"/>
+      <c r="V89" s="112"/>
+      <c r="W89" s="112"/>
+      <c r="X89" s="112"/>
+      <c r="Y89" s="112"/>
     </row>
     <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114"/>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
+      <c r="A90" s="112"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="114"/>
-      <c r="J90" s="114"/>
-      <c r="K90" s="114"/>
-      <c r="L90" s="114"/>
-      <c r="M90" s="114"/>
-      <c r="N90" s="114"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
-      <c r="Q90" s="114"/>
-      <c r="R90" s="114"/>
-      <c r="S90" s="114"/>
-      <c r="T90" s="114"/>
-      <c r="U90" s="114"/>
-      <c r="V90" s="114"/>
-      <c r="W90" s="114"/>
-      <c r="X90" s="114"/>
-      <c r="Y90" s="114"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="112"/>
+      <c r="N90" s="112"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="112"/>
+      <c r="R90" s="112"/>
+      <c r="S90" s="112"/>
+      <c r="T90" s="112"/>
+      <c r="U90" s="112"/>
+      <c r="V90" s="112"/>
+      <c r="W90" s="112"/>
+      <c r="X90" s="112"/>
+      <c r="Y90" s="112"/>
     </row>
     <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="114"/>
-      <c r="I91" s="114"/>
-      <c r="J91" s="114"/>
-      <c r="K91" s="114"/>
-      <c r="L91" s="114"/>
-      <c r="M91" s="114"/>
-      <c r="N91" s="114"/>
-      <c r="O91" s="114"/>
-      <c r="P91" s="114"/>
-      <c r="Q91" s="114"/>
-      <c r="R91" s="114"/>
-      <c r="S91" s="114"/>
-      <c r="T91" s="114"/>
-      <c r="U91" s="114"/>
-      <c r="V91" s="114"/>
-      <c r="W91" s="114"/>
-      <c r="X91" s="114"/>
-      <c r="Y91" s="114"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="112"/>
+      <c r="M91" s="112"/>
+      <c r="N91" s="112"/>
+      <c r="O91" s="112"/>
+      <c r="P91" s="112"/>
+      <c r="Q91" s="112"/>
+      <c r="R91" s="112"/>
+      <c r="S91" s="112"/>
+      <c r="T91" s="112"/>
+      <c r="U91" s="112"/>
+      <c r="V91" s="112"/>
+      <c r="W91" s="112"/>
+      <c r="X91" s="112"/>
+      <c r="Y91" s="112"/>
     </row>
     <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114"/>
-      <c r="B92" s="114"/>
-      <c r="C92" s="114"/>
+      <c r="A92" s="112"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="34"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="114"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="114"/>
-      <c r="K92" s="114"/>
-      <c r="L92" s="114"/>
-      <c r="M92" s="114"/>
-      <c r="N92" s="114"/>
-      <c r="O92" s="114"/>
-      <c r="P92" s="114"/>
-      <c r="Q92" s="114"/>
-      <c r="R92" s="114"/>
-      <c r="S92" s="114"/>
-      <c r="T92" s="114"/>
-      <c r="U92" s="114"/>
-      <c r="V92" s="114"/>
-      <c r="W92" s="114"/>
-      <c r="X92" s="114"/>
-      <c r="Y92" s="114"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="112"/>
+      <c r="G92" s="112"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="112"/>
+      <c r="M92" s="112"/>
+      <c r="N92" s="112"/>
+      <c r="O92" s="112"/>
+      <c r="P92" s="112"/>
+      <c r="Q92" s="112"/>
+      <c r="R92" s="112"/>
+      <c r="S92" s="112"/>
+      <c r="T92" s="112"/>
+      <c r="U92" s="112"/>
+      <c r="V92" s="112"/>
+      <c r="W92" s="112"/>
+      <c r="X92" s="112"/>
+      <c r="Y92" s="112"/>
     </row>
     <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="114"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="114"/>
+      <c r="A93" s="112"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
-      <c r="G93" s="114"/>
-      <c r="H93" s="114"/>
-      <c r="I93" s="114"/>
-      <c r="J93" s="114"/>
-      <c r="K93" s="114"/>
-      <c r="L93" s="114"/>
-      <c r="M93" s="114"/>
-      <c r="N93" s="114"/>
-      <c r="O93" s="114"/>
-      <c r="P93" s="114"/>
-      <c r="Q93" s="114"/>
-      <c r="R93" s="114"/>
-      <c r="S93" s="114"/>
-      <c r="T93" s="114"/>
-      <c r="U93" s="114"/>
-      <c r="V93" s="114"/>
-      <c r="W93" s="114"/>
-      <c r="X93" s="114"/>
-      <c r="Y93" s="114"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="112"/>
+      <c r="G93" s="112"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="112"/>
+      <c r="N93" s="112"/>
+      <c r="O93" s="112"/>
+      <c r="P93" s="112"/>
+      <c r="Q93" s="112"/>
+      <c r="R93" s="112"/>
+      <c r="S93" s="112"/>
+      <c r="T93" s="112"/>
+      <c r="U93" s="112"/>
+      <c r="V93" s="112"/>
+      <c r="W93" s="112"/>
+      <c r="X93" s="112"/>
+      <c r="Y93" s="112"/>
     </row>
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="114"/>
-      <c r="I94" s="114"/>
-      <c r="J94" s="114"/>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="114"/>
-      <c r="O94" s="114"/>
-      <c r="P94" s="114"/>
-      <c r="Q94" s="114"/>
-      <c r="R94" s="114"/>
-      <c r="S94" s="114"/>
-      <c r="T94" s="114"/>
-      <c r="U94" s="114"/>
-      <c r="V94" s="114"/>
-      <c r="W94" s="114"/>
-      <c r="X94" s="114"/>
-      <c r="Y94" s="114"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="112"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="112"/>
+      <c r="N94" s="112"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="112"/>
+      <c r="Q94" s="112"/>
+      <c r="R94" s="112"/>
+      <c r="S94" s="112"/>
+      <c r="T94" s="112"/>
+      <c r="U94" s="112"/>
+      <c r="V94" s="112"/>
+      <c r="W94" s="112"/>
+      <c r="X94" s="112"/>
+      <c r="Y94" s="112"/>
     </row>
     <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="114"/>
-      <c r="B95" s="114"/>
-      <c r="C95" s="114"/>
+      <c r="A95" s="112"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="114"/>
-      <c r="J95" s="114"/>
-      <c r="K95" s="114"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="114"/>
-      <c r="Q95" s="114"/>
-      <c r="R95" s="114"/>
-      <c r="S95" s="114"/>
-      <c r="T95" s="114"/>
-      <c r="U95" s="114"/>
-      <c r="V95" s="114"/>
-      <c r="W95" s="114"/>
-      <c r="X95" s="114"/>
-      <c r="Y95" s="114"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="112"/>
+      <c r="G95" s="112"/>
+      <c r="H95" s="112"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="112"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="112"/>
+      <c r="N95" s="112"/>
+      <c r="O95" s="112"/>
+      <c r="P95" s="112"/>
+      <c r="Q95" s="112"/>
+      <c r="R95" s="112"/>
+      <c r="S95" s="112"/>
+      <c r="T95" s="112"/>
+      <c r="U95" s="112"/>
+      <c r="V95" s="112"/>
+      <c r="W95" s="112"/>
+      <c r="X95" s="112"/>
+      <c r="Y95" s="112"/>
     </row>
     <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="114"/>
-      <c r="B96" s="114"/>
-      <c r="C96" s="114"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="114"/>
-      <c r="O96" s="114"/>
-      <c r="P96" s="114"/>
-      <c r="Q96" s="114"/>
-      <c r="R96" s="114"/>
-      <c r="S96" s="114"/>
-      <c r="T96" s="114"/>
-      <c r="U96" s="114"/>
-      <c r="V96" s="114"/>
-      <c r="W96" s="114"/>
-      <c r="X96" s="114"/>
-      <c r="Y96" s="114"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="112"/>
+      <c r="G96" s="112"/>
+      <c r="H96" s="112"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="112"/>
+      <c r="K96" s="112"/>
+      <c r="L96" s="112"/>
+      <c r="M96" s="112"/>
+      <c r="N96" s="112"/>
+      <c r="O96" s="112"/>
+      <c r="P96" s="112"/>
+      <c r="Q96" s="112"/>
+      <c r="R96" s="112"/>
+      <c r="S96" s="112"/>
+      <c r="T96" s="112"/>
+      <c r="U96" s="112"/>
+      <c r="V96" s="112"/>
+      <c r="W96" s="112"/>
+      <c r="X96" s="112"/>
+      <c r="Y96" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15737,8 +15658,8 @@
         <v>102</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="129" t="s">
-        <v>250</v>
+      <c r="D15" s="127" t="s">
+        <v>247</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="63" t="s">
@@ -15756,7 +15677,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="61"/>
-      <c r="D16" s="128"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="61"/>
       <c r="F16" s="68" t="s">
         <v>114</v>
@@ -15784,7 +15705,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="61"/>
       <c r="B18" s="67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -15851,7 +15772,7 @@
       <c r="C22" s="61"/>
       <c r="E22" s="61"/>
       <c r="F22" s="68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="67"/>
@@ -15881,8 +15802,8 @@
         <v>91</v>
       </c>
       <c r="I24" s="61"/>
-      <c r="J24" s="117" t="s">
-        <v>223</v>
+      <c r="J24" s="115" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -15930,8 +15851,8 @@
         <v>104</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="118" t="s">
-        <v>222</v>
+      <c r="J27" s="116" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15985,8 +15906,8 @@
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="120" t="s">
-        <v>227</v>
+      <c r="F33" s="118" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -16076,39 +15997,39 @@
       <c r="E7" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="110" t="s">
-        <v>213</v>
+      <c r="H7" s="108" t="s">
+        <v>211</v>
       </c>
       <c r="I7" s="79" t="s">
         <v>124</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" s="79"/>
-      <c r="L7" s="125"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="120" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="130" t="s">
-        <v>251</v>
+      <c r="J8" s="128" t="s">
+        <v>248</v>
       </c>
       <c r="K8" s="79"/>
       <c r="L8" s="76"/>
@@ -16120,17 +16041,17 @@
       <c r="E9" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="112" t="s">
-        <v>215</v>
+      <c r="H9" s="110" t="s">
+        <v>213</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="131" t="s">
-        <v>252</v>
+      <c r="J9" s="129" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16140,17 +16061,17 @@
       <c r="E10" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="122" t="s">
-        <v>216</v>
+      <c r="G10" s="120" t="s">
+        <v>214</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="136" t="s">
-        <v>253</v>
+      <c r="J10" s="134" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16161,16 +16082,16 @@
         <v>134</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I11" t="s">
         <v>126</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -16180,17 +16101,17 @@
       <c r="E12" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="120" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="79"/>
-      <c r="E13" s="125"/>
+      <c r="E13" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16200,10 +16121,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16216,21 +16137,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
@@ -16332,12 +16253,12 @@
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:13" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="109" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="96" t="s">
         <v>151</v>
@@ -16345,12 +16266,12 @@
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
     </row>
-    <row r="11" spans="1:13" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="103" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>151</v>
@@ -16479,12 +16400,12 @@
       <c r="D22" s="95"/>
       <c r="E22" s="95"/>
     </row>
-    <row r="23" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="96" t="s">
         <v>173</v>
@@ -16518,12 +16439,12 @@
       <c r="D25" s="95"/>
       <c r="E25" s="95"/>
     </row>
-    <row r="26" spans="1:5" s="113" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" s="96"/>
       <c r="D26" s="95"/>
@@ -16662,7 +16583,7 @@
     </row>
     <row r="40" spans="1:5" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="103" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="B40" s="95" t="s">
         <v>194</v>
@@ -16675,7 +16596,7 @@
     </row>
     <row r="41" spans="1:5" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="103" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="B41" s="95" t="s">
         <v>194</v>
@@ -16686,25 +16607,25 @@
       <c r="D41" s="95"/>
       <c r="E41" s="95"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>196</v>
+        <v>257</v>
+      </c>
+      <c r="B42" s="159" t="s">
+        <v>260</v>
       </c>
       <c r="C42" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-    </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+    </row>
+    <row r="43" spans="1:5" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>199</v>
+        <v>258</v>
+      </c>
+      <c r="B43" s="159" t="s">
+        <v>260</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>197</v>
@@ -16712,12 +16633,12 @@
       <c r="D43" s="95"/>
       <c r="E43" s="95"/>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="103" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>201</v>
+        <v>259</v>
+      </c>
+      <c r="B44" s="159" t="s">
+        <v>260</v>
       </c>
       <c r="C44" s="96" t="s">
         <v>197</v>
@@ -16725,34 +16646,73 @@
       <c r="D44" s="95"/>
       <c r="E44" s="95"/>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="96" t="s">
+        <v>197</v>
+      </c>
       <c r="D46" s="95"/>
       <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D47" s="95"/>
       <c r="E47" s="95"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A87D2A1-BB35-4DA0-87B2-C8AD0B59E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77534D70-AA31-4396-A9ED-3A824BEB882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="264">
   <si>
     <t>Weekly Planning Process</t>
   </si>
@@ -1325,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1663,9 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2246,316 +2243,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="143"/>
-      <c r="B1" s="145" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
-      <c r="B5" s="146" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="144"/>
+      <c r="D6" s="143"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
-      <c r="B7" s="146" t="s">
+      <c r="A7" s="143"/>
+      <c r="B7" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
     </row>
     <row r="8" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="144"/>
+      <c r="D8" s="143"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="144"/>
-      <c r="B9" s="146" t="s">
+      <c r="A9" s="143"/>
+      <c r="B9" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="144"/>
+      <c r="A10" s="143"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="143"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
-      <c r="B11" s="146" t="s">
+      <c r="A11" s="143"/>
+      <c r="B11" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="144"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="143"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="146" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="144"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="143"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="146" t="s">
+      <c r="A15" s="143"/>
+      <c r="B15" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
     </row>
     <row r="16" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="144"/>
+      <c r="D16" s="143"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="144"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="144"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="144"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="144"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="144"/>
+      <c r="D40" s="143"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="144"/>
+      <c r="A41" s="143"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="144"/>
+      <c r="D41" s="143"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="144"/>
+      <c r="A42" s="143"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
+      <c r="A43" s="143"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="144"/>
+      <c r="A44" s="143"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="144"/>
+      <c r="A45" s="143"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="144"/>
+      <c r="A46" s="143"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="144"/>
+      <c r="A47" s="143"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="144"/>
+      <c r="A48" s="143"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="144"/>
+      <c r="A49" s="143"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
@@ -2724,7 +2721,7 @@
       <c r="D10" s="94"/>
       <c r="E10" s="94"/>
     </row>
-    <row r="11" spans="1:13" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="119" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
         <v>242</v>
       </c>
@@ -2950,7 +2947,7 @@
       <c r="D30" s="94"/>
       <c r="E30" s="94"/>
     </row>
-    <row r="31" spans="1:5" s="137" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="136" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="102"/>
       <c r="B31" s="94"/>
       <c r="C31" s="95"/>
@@ -3078,11 +3075,11 @@
       <c r="D42" s="94"/>
       <c r="E42" s="94"/>
     </row>
-    <row r="43" spans="1:5" s="135" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="135" t="s">
         <v>257</v>
       </c>
       <c r="C43" s="95" t="s">
@@ -3091,11 +3088,11 @@
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
     </row>
-    <row r="44" spans="1:5" s="135" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="135" t="s">
         <v>257</v>
       </c>
       <c r="C44" s="95" t="s">
@@ -3104,11 +3101,11 @@
       <c r="D44" s="94"/>
       <c r="E44" s="94"/>
     </row>
-    <row r="45" spans="1:5" s="135" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="135" t="s">
         <v>257</v>
       </c>
       <c r="C45" s="95" t="s">
@@ -3235,15 +3232,15 @@
     </row>
     <row r="2" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -3286,14 +3283,14 @@
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="151" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3312,14 +3309,14 @@
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="154" t="s">
+      <c r="D5" s="143"/>
+      <c r="E5" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="155"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3338,14 +3335,14 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="154" t="s">
+      <c r="D6" s="143"/>
+      <c r="E6" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="154"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3364,14 +3361,14 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="147" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5787,11 +5784,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -6137,104 +6134,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="29"/>
       <c r="H18" s="1"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="157" t="s">
+      <c r="J18" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6904,15 +6901,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="1"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="144"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="143"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="12"/>
@@ -8484,10 +8481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8506,14 +8503,14 @@
       <c r="B1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="159" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="155"/>
+      <c r="F1" s="154"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8532,14 +8529,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="154" t="s">
+      <c r="D2" s="143"/>
+      <c r="E2" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="155"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="59"/>
       <c r="H2" s="58" t="s">
         <v>124</v>
@@ -8560,14 +8557,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="154" t="s">
+      <c r="D3" s="143"/>
+      <c r="E3" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="155"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="116"/>
       <c r="H3" s="58"/>
       <c r="I3" s="1"/>
@@ -8586,14 +8583,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="147" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -8689,42 +8686,42 @@
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
     </row>
-    <row r="8" spans="1:20" s="119" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="118">
+    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="18"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8741,126 +8738,126 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:20" s="134" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="133">
+        <v>2</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="F10" s="18"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+    </row>
+    <row r="11" spans="1:20" s="134" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="133">
+        <v>3</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133">
         <v>1</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" s="135" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="134" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="134">
-        <v>2</v>
-      </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134">
+      <c r="F11" s="18"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+    </row>
+    <row r="12" spans="1:20" s="112" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="111">
         <v>3</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-    </row>
-    <row r="12" spans="1:20" s="135" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="134" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="134">
+      <c r="D12" s="111"/>
+      <c r="E12" s="111">
         <v>3</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134">
-        <v>1</v>
-      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-    </row>
-    <row r="13" spans="1:20" s="112" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="111">
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-    </row>
-    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
       <c r="F14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="1"/>
@@ -8877,66 +8874,66 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
+    <row r="15" spans="1:20" s="134" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="18"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" s="135" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="134" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+    </row>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
       <c r="H17" s="1"/>
@@ -8953,18 +8950,14 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="1"/>
@@ -8981,40 +8974,44 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" s="123" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="122">
         <v>3</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="D20" s="122"/>
+      <c r="E20" s="122">
         <v>3</v>
       </c>
       <c r="F20" s="22"/>
@@ -9033,42 +9030,42 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="1:20" s="124" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="123" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="123">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123">
-        <v>3</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="20"/>
       <c r="H22" s="1"/>
@@ -9088,7 +9085,7 @@
     <row r="23" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -9113,18 +9110,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="18"/>
       <c r="G24" s="20"/>
       <c r="H24" s="1"/>
@@ -10570,28 +10561,6 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-    </row>
-    <row r="90" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10616,8 +10585,8 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10723,11 +10692,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10879,7 +10848,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="162" t="s">
         <v>220</v>
       </c>
       <c r="B9" s="1"/>
@@ -10914,7 +10883,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="45" t="s">
@@ -10947,7 +10916,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="45" t="s">
@@ -11075,104 +11044,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="162" t="s">
+      <c r="J18" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
       <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -11234,16 +11203,16 @@
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="129">
         <v>1</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="129">
         <v>1</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="130">
         <v>2</v>
       </c>
       <c r="G20" s="52"/>
@@ -11271,16 +11240,16 @@
     <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="130">
+      <c r="D21" s="129">
         <v>1</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="129">
         <v>2</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="131">
         <v>2</v>
       </c>
       <c r="G21" s="52"/>
@@ -11308,16 +11277,16 @@
     <row r="22" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="128" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="129">
         <v>1</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="129">
         <v>3</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="131">
         <v>4</v>
       </c>
       <c r="G22" s="52"/>
@@ -11343,16 +11312,16 @@
     <row r="23" spans="1:25" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="129">
         <v>2</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="129">
         <v>1</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="131">
         <v>1</v>
       </c>
       <c r="G23" s="52"/>
@@ -11378,16 +11347,16 @@
     <row r="24" spans="1:25" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="129">
         <v>2</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="129">
         <v>2</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="131">
         <v>2</v>
       </c>
       <c r="G24" s="52"/>
@@ -11413,16 +11382,16 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="128" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="129">
         <v>2</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="129">
         <v>1</v>
       </c>
-      <c r="F25" s="132">
+      <c r="F25" s="131">
         <v>1</v>
       </c>
       <c r="G25" s="52"/>
@@ -11448,16 +11417,16 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="52"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="128" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="129">
         <v>2</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="129">
         <v>2</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="131">
         <v>4</v>
       </c>
       <c r="G26" s="52"/>
@@ -11483,16 +11452,16 @@
     <row r="27" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="130">
+      <c r="D27" s="129">
         <v>2</v>
       </c>
-      <c r="E27" s="130">
+      <c r="E27" s="129">
         <v>1</v>
       </c>
-      <c r="F27" s="132">
+      <c r="F27" s="131">
         <v>1</v>
       </c>
       <c r="G27" s="52"/>
@@ -11518,16 +11487,16 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="130">
+      <c r="D28" s="129">
         <v>2</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E28" s="129">
         <v>3</v>
       </c>
-      <c r="F28" s="132">
+      <c r="F28" s="131">
         <v>4</v>
       </c>
       <c r="G28" s="52"/>
@@ -11553,16 +11522,16 @@
     <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="128" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="129">
         <v>3</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="129">
         <v>1</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="131">
         <v>2</v>
       </c>
       <c r="G29" s="52"/>
@@ -11615,7 +11584,7 @@
     <row r="31" spans="1:25" s="48" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="52"/>
-      <c r="C31" s="121"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
@@ -11696,7 +11665,7 @@
     <row r="34" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="52"/>
-      <c r="C34" s="121"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="F34" s="73"/>
@@ -11842,15 +11811,15 @@
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="161"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="51"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="161"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="160"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
       <c r="O39" s="1"/>
@@ -13534,11 +13503,11 @@
       <c r="A4" s="111"/>
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="111"/>
       <c r="H4" s="111"/>
       <c r="I4" s="111"/>
@@ -13833,7 +13802,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="45">
-        <f t="shared" ref="E13:F13" si="1">SUM(F6:F12)</f>
+        <f t="shared" ref="F13" si="1">SUM(F6:F12)</f>
         <v>0</v>
       </c>
       <c r="G13" s="111"/>
@@ -13884,104 +13853,104 @@
       <c r="Y14" s="111"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="162" t="s">
+      <c r="J18" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
       <c r="N18" s="29"/>
       <c r="O18" s="111"/>
       <c r="P18" s="111"/>
@@ -14571,15 +14540,15 @@
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="161"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="51"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="161"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="160"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
       <c r="O39" s="111"/>
@@ -16154,143 +16123,143 @@
   </sheetPr>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="139" customWidth="1"/>
-    <col min="2" max="2" width="0.42578125" style="139" customWidth="1"/>
-    <col min="3" max="3" width="32" style="139" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="139" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="139" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="139" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="139" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="139" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="139" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="139" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="139" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="139" customWidth="1"/>
-    <col min="13" max="13" width="13" style="139" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="139" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="139"/>
+    <col min="1" max="1" width="34" style="138" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="138" customWidth="1"/>
+    <col min="3" max="3" width="32" style="138" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="138" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="138" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="138" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="138" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="138" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="138" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="138" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="138" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="138" customWidth="1"/>
+    <col min="13" max="13" width="13" style="138" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="138" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
+      <c r="A1" s="139"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="156" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="45"/>
       <c r="E5" s="26" t="s">
         <v>44</v>
@@ -16298,30 +16267,30 @@
       <c r="F5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="45" t="s">
         <v>46</v>
       </c>
@@ -16331,30 +16300,30 @@
       <c r="F6" s="45">
         <v>0</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="137"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="45" t="s">
         <v>47</v>
       </c>
@@ -16364,30 +16333,30 @@
       <c r="F7" s="45">
         <v>0</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="137"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="45" t="s">
         <v>48</v>
       </c>
@@ -16397,30 +16366,30 @@
       <c r="F8" s="45">
         <v>0</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
       <c r="D9" s="45" t="s">
         <v>49</v>
       </c>
@@ -16430,30 +16399,30 @@
       <c r="F9" s="45">
         <v>0</v>
       </c>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="45" t="s">
         <v>50</v>
       </c>
@@ -16463,30 +16432,30 @@
       <c r="F10" s="45">
         <v>0</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="45" t="s">
         <v>51</v>
       </c>
@@ -16496,30 +16465,30 @@
       <c r="F11" s="45">
         <v>0</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="45" t="s">
         <v>52</v>
       </c>
@@ -16529,30 +16498,30 @@
       <c r="F12" s="45">
         <v>0</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="45" t="s">
         <v>53</v>
       </c>
@@ -16564,164 +16533,164 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="162" t="s">
+      <c r="J18" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -16783,19 +16752,19 @@
       <c r="L20" s="72"/>
       <c r="M20" s="74"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="138"/>
+      <c r="O20" s="137"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
@@ -16812,19 +16781,19 @@
       <c r="L21" s="72"/>
       <c r="M21" s="74"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="138"/>
+      <c r="O21" s="137"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
@@ -16841,17 +16810,17 @@
       <c r="L22" s="72"/>
       <c r="M22" s="74"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
     </row>
     <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
@@ -16868,17 +16837,17 @@
       <c r="L23" s="72"/>
       <c r="M23" s="74"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
@@ -16895,17 +16864,17 @@
       <c r="L24" s="72"/>
       <c r="M24" s="74"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
@@ -16922,17 +16891,17 @@
       <c r="L25" s="72"/>
       <c r="M25" s="74"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
@@ -16949,17 +16918,17 @@
       <c r="L26" s="72"/>
       <c r="M26" s="73"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
@@ -16976,17 +16945,17 @@
       <c r="L27" s="72"/>
       <c r="M27" s="74"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
@@ -17003,17 +16972,17 @@
       <c r="L28" s="75"/>
       <c r="M28" s="76"/>
       <c r="N28" s="29"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
@@ -17030,17 +16999,17 @@
       <c r="L29" s="75"/>
       <c r="M29" s="76"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
     </row>
     <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
@@ -17057,17 +17026,17 @@
       <c r="L30" s="77"/>
       <c r="M30" s="74"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
     </row>
     <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
@@ -17084,17 +17053,17 @@
       <c r="L31" s="72"/>
       <c r="M31" s="74"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
@@ -17111,17 +17080,17 @@
       <c r="L32" s="72"/>
       <c r="M32" s="74"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
@@ -17138,17 +17107,17 @@
       <c r="L33" s="72"/>
       <c r="M33" s="74"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="138"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
@@ -17165,17 +17134,17 @@
       <c r="L34" s="72"/>
       <c r="M34" s="74"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="138"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="138"/>
-      <c r="W34" s="138"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="138"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="137"/>
+      <c r="S34" s="137"/>
+      <c r="T34" s="137"/>
+      <c r="U34" s="137"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
@@ -17192,17 +17161,17 @@
       <c r="L35" s="72"/>
       <c r="M35" s="74"/>
       <c r="N35" s="29"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="138"/>
-      <c r="R35" s="138"/>
-      <c r="S35" s="138"/>
-      <c r="T35" s="138"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="138"/>
+      <c r="O35" s="137"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
     </row>
     <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
@@ -17219,17 +17188,17 @@
       <c r="L36" s="72"/>
       <c r="M36" s="74"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="138"/>
-      <c r="Q36" s="138"/>
-      <c r="R36" s="138"/>
-      <c r="S36" s="138"/>
-      <c r="T36" s="138"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
@@ -17246,17 +17215,17 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
-      <c r="Q37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="138"/>
-      <c r="T37" s="138"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="Y37" s="138"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
@@ -17283,1583 +17252,1583 @@
         <v>0</v>
       </c>
       <c r="N38" s="29"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="137"/>
+      <c r="U38" s="137"/>
+      <c r="V38" s="137"/>
+      <c r="W38" s="137"/>
+      <c r="X38" s="137"/>
+      <c r="Y38" s="137"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="161"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="51"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="161"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="160"/>
       <c r="M39" s="52"/>
       <c r="N39" s="29"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="S39" s="138"/>
-      <c r="T39" s="138"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="Y39" s="138"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
-      <c r="P40" s="138"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="138"/>
-      <c r="S40" s="138"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="137"/>
+      <c r="X40" s="137"/>
+      <c r="Y40" s="137"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
-      <c r="P41" s="138"/>
-      <c r="Q41" s="138"/>
-      <c r="R41" s="138"/>
-      <c r="S41" s="138"/>
-      <c r="T41" s="138"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="Y41" s="138"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="A42" s="137"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="138"/>
-      <c r="Q42" s="138"/>
-      <c r="R42" s="138"/>
-      <c r="S42" s="138"/>
-      <c r="T42" s="138"/>
-      <c r="U42" s="138"/>
-      <c r="V42" s="138"/>
-      <c r="W42" s="138"/>
-      <c r="X42" s="138"/>
-      <c r="Y42" s="138"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="138"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+      <c r="Y43" s="137"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="138"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="Y44" s="138"/>
+      <c r="A44" s="137"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="137"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="137"/>
+      <c r="P44" s="137"/>
+      <c r="Q44" s="137"/>
+      <c r="R44" s="137"/>
+      <c r="S44" s="137"/>
+      <c r="T44" s="137"/>
+      <c r="U44" s="137"/>
+      <c r="V44" s="137"/>
+      <c r="W44" s="137"/>
+      <c r="X44" s="137"/>
+      <c r="Y44" s="137"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="138"/>
-      <c r="W45" s="138"/>
-      <c r="X45" s="138"/>
-      <c r="Y45" s="138"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="137"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="138"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+      <c r="S46" s="137"/>
+      <c r="T46" s="137"/>
+      <c r="U46" s="137"/>
+      <c r="V46" s="137"/>
+      <c r="W46" s="137"/>
+      <c r="X46" s="137"/>
+      <c r="Y46" s="137"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="138"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="138"/>
-      <c r="W47" s="138"/>
-      <c r="X47" s="138"/>
-      <c r="Y47" s="138"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="137"/>
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="137"/>
+      <c r="S47" s="137"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="137"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="138"/>
-      <c r="U48" s="138"/>
-      <c r="V48" s="138"/>
-      <c r="W48" s="138"/>
-      <c r="X48" s="138"/>
-      <c r="Y48" s="138"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137"/>
+      <c r="R48" s="137"/>
+      <c r="S48" s="137"/>
+      <c r="T48" s="137"/>
+      <c r="U48" s="137"/>
+      <c r="V48" s="137"/>
+      <c r="W48" s="137"/>
+      <c r="X48" s="137"/>
+      <c r="Y48" s="137"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="138"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="138"/>
-      <c r="P49" s="138"/>
-      <c r="Q49" s="138"/>
-      <c r="R49" s="138"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="138"/>
-      <c r="U49" s="138"/>
-      <c r="V49" s="138"/>
-      <c r="W49" s="138"/>
-      <c r="X49" s="138"/>
-      <c r="Y49" s="138"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="137"/>
+      <c r="P49" s="137"/>
+      <c r="Q49" s="137"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="137"/>
+      <c r="T49" s="137"/>
+      <c r="U49" s="137"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="137"/>
+      <c r="X49" s="137"/>
+      <c r="Y49" s="137"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="138"/>
-      <c r="X50" s="138"/>
-      <c r="Y50" s="138"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="137"/>
+      <c r="T50" s="137"/>
+      <c r="U50" s="137"/>
+      <c r="V50" s="137"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="137"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="138"/>
-      <c r="U51" s="138"/>
-      <c r="V51" s="138"/>
-      <c r="W51" s="138"/>
-      <c r="X51" s="138"/>
-      <c r="Y51" s="138"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="137"/>
+      <c r="P51" s="137"/>
+      <c r="Q51" s="137"/>
+      <c r="R51" s="137"/>
+      <c r="S51" s="137"/>
+      <c r="T51" s="137"/>
+      <c r="U51" s="137"/>
+      <c r="V51" s="137"/>
+      <c r="W51" s="137"/>
+      <c r="X51" s="137"/>
+      <c r="Y51" s="137"/>
     </row>
     <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="138"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="138"/>
-      <c r="S52" s="138"/>
-      <c r="T52" s="138"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="138"/>
-      <c r="X52" s="138"/>
-      <c r="Y52" s="138"/>
+      <c r="A52" s="137"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="137"/>
+      <c r="P52" s="137"/>
+      <c r="Q52" s="137"/>
+      <c r="R52" s="137"/>
+      <c r="S52" s="137"/>
+      <c r="T52" s="137"/>
+      <c r="U52" s="137"/>
+      <c r="V52" s="137"/>
+      <c r="W52" s="137"/>
+      <c r="X52" s="137"/>
+      <c r="Y52" s="137"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="138"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="138"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="138"/>
-      <c r="X53" s="138"/>
-      <c r="Y53" s="138"/>
+      <c r="A53" s="137"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="137"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="137"/>
+      <c r="W53" s="137"/>
+      <c r="X53" s="137"/>
+      <c r="Y53" s="137"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="138"/>
-      <c r="N54" s="138"/>
-      <c r="O54" s="138"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="138"/>
-      <c r="S54" s="138"/>
-      <c r="T54" s="138"/>
-      <c r="U54" s="138"/>
-      <c r="V54" s="138"/>
-      <c r="W54" s="138"/>
-      <c r="X54" s="138"/>
-      <c r="Y54" s="138"/>
+      <c r="A54" s="137"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
+      <c r="O54" s="137"/>
+      <c r="P54" s="137"/>
+      <c r="Q54" s="137"/>
+      <c r="R54" s="137"/>
+      <c r="S54" s="137"/>
+      <c r="T54" s="137"/>
+      <c r="U54" s="137"/>
+      <c r="V54" s="137"/>
+      <c r="W54" s="137"/>
+      <c r="X54" s="137"/>
+      <c r="Y54" s="137"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="138"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="138"/>
-      <c r="M55" s="138"/>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138"/>
-      <c r="P55" s="138"/>
-      <c r="Q55" s="138"/>
-      <c r="R55" s="138"/>
-      <c r="S55" s="138"/>
-      <c r="T55" s="138"/>
-      <c r="U55" s="138"/>
-      <c r="V55" s="138"/>
-      <c r="W55" s="138"/>
-      <c r="X55" s="138"/>
-      <c r="Y55" s="138"/>
+      <c r="A55" s="137"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="137"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="137"/>
+      <c r="R55" s="137"/>
+      <c r="S55" s="137"/>
+      <c r="T55" s="137"/>
+      <c r="U55" s="137"/>
+      <c r="V55" s="137"/>
+      <c r="W55" s="137"/>
+      <c r="X55" s="137"/>
+      <c r="Y55" s="137"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="138"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="138"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="S56" s="138"/>
-      <c r="T56" s="138"/>
-      <c r="U56" s="138"/>
-      <c r="V56" s="138"/>
-      <c r="W56" s="138"/>
-      <c r="X56" s="138"/>
-      <c r="Y56" s="138"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="137"/>
+      <c r="P56" s="137"/>
+      <c r="Q56" s="137"/>
+      <c r="R56" s="137"/>
+      <c r="S56" s="137"/>
+      <c r="T56" s="137"/>
+      <c r="U56" s="137"/>
+      <c r="V56" s="137"/>
+      <c r="W56" s="137"/>
+      <c r="X56" s="137"/>
+      <c r="Y56" s="137"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="138"/>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="138"/>
-      <c r="R57" s="138"/>
-      <c r="S57" s="138"/>
-      <c r="T57" s="138"/>
-      <c r="U57" s="138"/>
-      <c r="V57" s="138"/>
-      <c r="W57" s="138"/>
-      <c r="X57" s="138"/>
-      <c r="Y57" s="138"/>
+      <c r="A57" s="137"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="137"/>
+      <c r="P57" s="137"/>
+      <c r="Q57" s="137"/>
+      <c r="R57" s="137"/>
+      <c r="S57" s="137"/>
+      <c r="T57" s="137"/>
+      <c r="U57" s="137"/>
+      <c r="V57" s="137"/>
+      <c r="W57" s="137"/>
+      <c r="X57" s="137"/>
+      <c r="Y57" s="137"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="138"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="138"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="138"/>
-      <c r="P58" s="138"/>
-      <c r="Q58" s="138"/>
-      <c r="R58" s="138"/>
-      <c r="S58" s="138"/>
-      <c r="T58" s="138"/>
-      <c r="U58" s="138"/>
-      <c r="V58" s="138"/>
-      <c r="W58" s="138"/>
-      <c r="X58" s="138"/>
-      <c r="Y58" s="138"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="137"/>
+      <c r="O58" s="137"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="137"/>
+      <c r="R58" s="137"/>
+      <c r="S58" s="137"/>
+      <c r="T58" s="137"/>
+      <c r="U58" s="137"/>
+      <c r="V58" s="137"/>
+      <c r="W58" s="137"/>
+      <c r="X58" s="137"/>
+      <c r="Y58" s="137"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="138"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="138"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="138"/>
-      <c r="Q59" s="138"/>
-      <c r="R59" s="138"/>
-      <c r="S59" s="138"/>
-      <c r="T59" s="138"/>
-      <c r="U59" s="138"/>
-      <c r="V59" s="138"/>
-      <c r="W59" s="138"/>
-      <c r="X59" s="138"/>
-      <c r="Y59" s="138"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137"/>
+      <c r="T59" s="137"/>
+      <c r="U59" s="137"/>
+      <c r="V59" s="137"/>
+      <c r="W59" s="137"/>
+      <c r="X59" s="137"/>
+      <c r="Y59" s="137"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="138"/>
-      <c r="L60" s="138"/>
-      <c r="M60" s="138"/>
-      <c r="N60" s="138"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="138"/>
-      <c r="Q60" s="138"/>
-      <c r="R60" s="138"/>
-      <c r="S60" s="138"/>
-      <c r="T60" s="138"/>
-      <c r="U60" s="138"/>
-      <c r="V60" s="138"/>
-      <c r="W60" s="138"/>
-      <c r="X60" s="138"/>
-      <c r="Y60" s="138"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="137"/>
+      <c r="R60" s="137"/>
+      <c r="S60" s="137"/>
+      <c r="T60" s="137"/>
+      <c r="U60" s="137"/>
+      <c r="V60" s="137"/>
+      <c r="W60" s="137"/>
+      <c r="X60" s="137"/>
+      <c r="Y60" s="137"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="138"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="138"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="138"/>
-      <c r="P61" s="138"/>
-      <c r="Q61" s="138"/>
-      <c r="R61" s="138"/>
-      <c r="S61" s="138"/>
-      <c r="T61" s="138"/>
-      <c r="U61" s="138"/>
-      <c r="V61" s="138"/>
-      <c r="W61" s="138"/>
-      <c r="X61" s="138"/>
-      <c r="Y61" s="138"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="137"/>
+      <c r="Q61" s="137"/>
+      <c r="R61" s="137"/>
+      <c r="S61" s="137"/>
+      <c r="T61" s="137"/>
+      <c r="U61" s="137"/>
+      <c r="V61" s="137"/>
+      <c r="W61" s="137"/>
+      <c r="X61" s="137"/>
+      <c r="Y61" s="137"/>
     </row>
     <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="138"/>
-      <c r="L62" s="138"/>
-      <c r="M62" s="138"/>
-      <c r="N62" s="138"/>
-      <c r="O62" s="138"/>
-      <c r="P62" s="138"/>
-      <c r="Q62" s="138"/>
-      <c r="R62" s="138"/>
-      <c r="S62" s="138"/>
-      <c r="T62" s="138"/>
-      <c r="U62" s="138"/>
-      <c r="V62" s="138"/>
-      <c r="W62" s="138"/>
-      <c r="X62" s="138"/>
-      <c r="Y62" s="138"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="137"/>
+      <c r="P62" s="137"/>
+      <c r="Q62" s="137"/>
+      <c r="R62" s="137"/>
+      <c r="S62" s="137"/>
+      <c r="T62" s="137"/>
+      <c r="U62" s="137"/>
+      <c r="V62" s="137"/>
+      <c r="W62" s="137"/>
+      <c r="X62" s="137"/>
+      <c r="Y62" s="137"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="138"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="138"/>
-      <c r="J63" s="138"/>
-      <c r="K63" s="138"/>
-      <c r="L63" s="138"/>
-      <c r="M63" s="138"/>
-      <c r="N63" s="138"/>
-      <c r="O63" s="138"/>
-      <c r="P63" s="138"/>
-      <c r="Q63" s="138"/>
-      <c r="R63" s="138"/>
-      <c r="S63" s="138"/>
-      <c r="T63" s="138"/>
-      <c r="U63" s="138"/>
-      <c r="V63" s="138"/>
-      <c r="W63" s="138"/>
-      <c r="X63" s="138"/>
-      <c r="Y63" s="138"/>
+      <c r="A63" s="137"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="137"/>
+      <c r="O63" s="137"/>
+      <c r="P63" s="137"/>
+      <c r="Q63" s="137"/>
+      <c r="R63" s="137"/>
+      <c r="S63" s="137"/>
+      <c r="T63" s="137"/>
+      <c r="U63" s="137"/>
+      <c r="V63" s="137"/>
+      <c r="W63" s="137"/>
+      <c r="X63" s="137"/>
+      <c r="Y63" s="137"/>
     </row>
     <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="138"/>
-      <c r="F64" s="138"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="138"/>
-      <c r="J64" s="138"/>
-      <c r="K64" s="138"/>
-      <c r="L64" s="138"/>
-      <c r="M64" s="138"/>
-      <c r="N64" s="138"/>
-      <c r="O64" s="138"/>
-      <c r="P64" s="138"/>
-      <c r="Q64" s="138"/>
-      <c r="R64" s="138"/>
-      <c r="S64" s="138"/>
-      <c r="T64" s="138"/>
-      <c r="U64" s="138"/>
-      <c r="V64" s="138"/>
-      <c r="W64" s="138"/>
-      <c r="X64" s="138"/>
-      <c r="Y64" s="138"/>
+      <c r="A64" s="137"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="137"/>
+      <c r="P64" s="137"/>
+      <c r="Q64" s="137"/>
+      <c r="R64" s="137"/>
+      <c r="S64" s="137"/>
+      <c r="T64" s="137"/>
+      <c r="U64" s="137"/>
+      <c r="V64" s="137"/>
+      <c r="W64" s="137"/>
+      <c r="X64" s="137"/>
+      <c r="Y64" s="137"/>
     </row>
     <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="138"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="138"/>
-      <c r="L65" s="138"/>
-      <c r="M65" s="138"/>
-      <c r="N65" s="138"/>
-      <c r="O65" s="138"/>
-      <c r="P65" s="138"/>
-      <c r="Q65" s="138"/>
-      <c r="R65" s="138"/>
-      <c r="S65" s="138"/>
-      <c r="T65" s="138"/>
-      <c r="U65" s="138"/>
-      <c r="V65" s="138"/>
-      <c r="W65" s="138"/>
-      <c r="X65" s="138"/>
-      <c r="Y65" s="138"/>
+      <c r="A65" s="137"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="137"/>
+      <c r="O65" s="137"/>
+      <c r="P65" s="137"/>
+      <c r="Q65" s="137"/>
+      <c r="R65" s="137"/>
+      <c r="S65" s="137"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="137"/>
+      <c r="V65" s="137"/>
+      <c r="W65" s="137"/>
+      <c r="X65" s="137"/>
+      <c r="Y65" s="137"/>
     </row>
     <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="138"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="138"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="138"/>
-      <c r="L66" s="138"/>
-      <c r="M66" s="138"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="138"/>
-      <c r="P66" s="138"/>
-      <c r="Q66" s="138"/>
-      <c r="R66" s="138"/>
-      <c r="S66" s="138"/>
-      <c r="T66" s="138"/>
-      <c r="U66" s="138"/>
-      <c r="V66" s="138"/>
-      <c r="W66" s="138"/>
-      <c r="X66" s="138"/>
-      <c r="Y66" s="138"/>
+      <c r="A66" s="137"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="137"/>
+      <c r="O66" s="137"/>
+      <c r="P66" s="137"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="137"/>
+      <c r="S66" s="137"/>
+      <c r="T66" s="137"/>
+      <c r="U66" s="137"/>
+      <c r="V66" s="137"/>
+      <c r="W66" s="137"/>
+      <c r="X66" s="137"/>
+      <c r="Y66" s="137"/>
     </row>
     <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="138"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
-      <c r="G67" s="138"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="138"/>
-      <c r="J67" s="138"/>
-      <c r="K67" s="138"/>
-      <c r="L67" s="138"/>
-      <c r="M67" s="138"/>
-      <c r="N67" s="138"/>
-      <c r="O67" s="138"/>
-      <c r="P67" s="138"/>
-      <c r="Q67" s="138"/>
-      <c r="R67" s="138"/>
-      <c r="S67" s="138"/>
-      <c r="T67" s="138"/>
-      <c r="U67" s="138"/>
-      <c r="V67" s="138"/>
-      <c r="W67" s="138"/>
-      <c r="X67" s="138"/>
-      <c r="Y67" s="138"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="137"/>
+      <c r="P67" s="137"/>
+      <c r="Q67" s="137"/>
+      <c r="R67" s="137"/>
+      <c r="S67" s="137"/>
+      <c r="T67" s="137"/>
+      <c r="U67" s="137"/>
+      <c r="V67" s="137"/>
+      <c r="W67" s="137"/>
+      <c r="X67" s="137"/>
+      <c r="Y67" s="137"/>
     </row>
     <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="138"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
+      <c r="A68" s="137"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="138"/>
-      <c r="H68" s="138"/>
-      <c r="I68" s="138"/>
-      <c r="J68" s="138"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="138"/>
-      <c r="N68" s="138"/>
-      <c r="O68" s="138"/>
-      <c r="P68" s="138"/>
-      <c r="Q68" s="138"/>
-      <c r="R68" s="138"/>
-      <c r="S68" s="138"/>
-      <c r="T68" s="138"/>
-      <c r="U68" s="138"/>
-      <c r="V68" s="138"/>
-      <c r="W68" s="138"/>
-      <c r="X68" s="138"/>
-      <c r="Y68" s="138"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="137"/>
+      <c r="Q68" s="137"/>
+      <c r="R68" s="137"/>
+      <c r="S68" s="137"/>
+      <c r="T68" s="137"/>
+      <c r="U68" s="137"/>
+      <c r="V68" s="137"/>
+      <c r="W68" s="137"/>
+      <c r="X68" s="137"/>
+      <c r="Y68" s="137"/>
     </row>
     <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="138"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="137"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="138"/>
-      <c r="G69" s="138"/>
-      <c r="H69" s="138"/>
-      <c r="I69" s="138"/>
-      <c r="J69" s="138"/>
-      <c r="K69" s="138"/>
-      <c r="L69" s="138"/>
-      <c r="M69" s="138"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="138"/>
-      <c r="P69" s="138"/>
-      <c r="Q69" s="138"/>
-      <c r="R69" s="138"/>
-      <c r="S69" s="138"/>
-      <c r="T69" s="138"/>
-      <c r="U69" s="138"/>
-      <c r="V69" s="138"/>
-      <c r="W69" s="138"/>
-      <c r="X69" s="138"/>
-      <c r="Y69" s="138"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="137"/>
+      <c r="O69" s="137"/>
+      <c r="P69" s="137"/>
+      <c r="Q69" s="137"/>
+      <c r="R69" s="137"/>
+      <c r="S69" s="137"/>
+      <c r="T69" s="137"/>
+      <c r="U69" s="137"/>
+      <c r="V69" s="137"/>
+      <c r="W69" s="137"/>
+      <c r="X69" s="137"/>
+      <c r="Y69" s="137"/>
     </row>
     <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="138"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="138"/>
+      <c r="A70" s="137"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="137"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="138"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="138"/>
-      <c r="H70" s="138"/>
-      <c r="I70" s="138"/>
-      <c r="J70" s="138"/>
-      <c r="K70" s="138"/>
-      <c r="L70" s="138"/>
-      <c r="M70" s="138"/>
-      <c r="N70" s="138"/>
-      <c r="O70" s="138"/>
-      <c r="P70" s="138"/>
-      <c r="Q70" s="138"/>
-      <c r="R70" s="138"/>
-      <c r="S70" s="138"/>
-      <c r="T70" s="138"/>
-      <c r="U70" s="138"/>
-      <c r="V70" s="138"/>
-      <c r="W70" s="138"/>
-      <c r="X70" s="138"/>
-      <c r="Y70" s="138"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="137"/>
+      <c r="O70" s="137"/>
+      <c r="P70" s="137"/>
+      <c r="Q70" s="137"/>
+      <c r="R70" s="137"/>
+      <c r="S70" s="137"/>
+      <c r="T70" s="137"/>
+      <c r="U70" s="137"/>
+      <c r="V70" s="137"/>
+      <c r="W70" s="137"/>
+      <c r="X70" s="137"/>
+      <c r="Y70" s="137"/>
     </row>
     <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="138"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="138"/>
+      <c r="A71" s="137"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="137"/>
       <c r="D71" s="34"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="138"/>
-      <c r="G71" s="138"/>
-      <c r="H71" s="138"/>
-      <c r="I71" s="138"/>
-      <c r="J71" s="138"/>
-      <c r="K71" s="138"/>
-      <c r="L71" s="138"/>
-      <c r="M71" s="138"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="138"/>
-      <c r="P71" s="138"/>
-      <c r="Q71" s="138"/>
-      <c r="R71" s="138"/>
-      <c r="S71" s="138"/>
-      <c r="T71" s="138"/>
-      <c r="U71" s="138"/>
-      <c r="V71" s="138"/>
-      <c r="W71" s="138"/>
-      <c r="X71" s="138"/>
-      <c r="Y71" s="138"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="137"/>
+      <c r="O71" s="137"/>
+      <c r="P71" s="137"/>
+      <c r="Q71" s="137"/>
+      <c r="R71" s="137"/>
+      <c r="S71" s="137"/>
+      <c r="T71" s="137"/>
+      <c r="U71" s="137"/>
+      <c r="V71" s="137"/>
+      <c r="W71" s="137"/>
+      <c r="X71" s="137"/>
+      <c r="Y71" s="137"/>
     </row>
     <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="138"/>
-      <c r="B72" s="138"/>
-      <c r="C72" s="138"/>
+      <c r="A72" s="137"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="137"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="138"/>
-      <c r="J72" s="138"/>
-      <c r="K72" s="138"/>
-      <c r="L72" s="138"/>
-      <c r="M72" s="138"/>
-      <c r="N72" s="138"/>
-      <c r="O72" s="138"/>
-      <c r="P72" s="138"/>
-      <c r="Q72" s="138"/>
-      <c r="R72" s="138"/>
-      <c r="S72" s="138"/>
-      <c r="T72" s="138"/>
-      <c r="U72" s="138"/>
-      <c r="V72" s="138"/>
-      <c r="W72" s="138"/>
-      <c r="X72" s="138"/>
-      <c r="Y72" s="138"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="137"/>
+      <c r="L72" s="137"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="137"/>
+      <c r="O72" s="137"/>
+      <c r="P72" s="137"/>
+      <c r="Q72" s="137"/>
+      <c r="R72" s="137"/>
+      <c r="S72" s="137"/>
+      <c r="T72" s="137"/>
+      <c r="U72" s="137"/>
+      <c r="V72" s="137"/>
+      <c r="W72" s="137"/>
+      <c r="X72" s="137"/>
+      <c r="Y72" s="137"/>
     </row>
     <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="138"/>
-      <c r="B73" s="138"/>
-      <c r="C73" s="138"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="138"/>
-      <c r="I73" s="138"/>
-      <c r="J73" s="138"/>
-      <c r="K73" s="138"/>
-      <c r="L73" s="138"/>
-      <c r="M73" s="138"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="138"/>
-      <c r="P73" s="138"/>
-      <c r="Q73" s="138"/>
-      <c r="R73" s="138"/>
-      <c r="S73" s="138"/>
-      <c r="T73" s="138"/>
-      <c r="U73" s="138"/>
-      <c r="V73" s="138"/>
-      <c r="W73" s="138"/>
-      <c r="X73" s="138"/>
-      <c r="Y73" s="138"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="137"/>
+      <c r="Q73" s="137"/>
+      <c r="R73" s="137"/>
+      <c r="S73" s="137"/>
+      <c r="T73" s="137"/>
+      <c r="U73" s="137"/>
+      <c r="V73" s="137"/>
+      <c r="W73" s="137"/>
+      <c r="X73" s="137"/>
+      <c r="Y73" s="137"/>
     </row>
     <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="138"/>
-      <c r="B74" s="138"/>
-      <c r="C74" s="138"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="137"/>
       <c r="D74" s="34"/>
-      <c r="E74" s="138"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="138"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="138"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="138"/>
-      <c r="L74" s="138"/>
-      <c r="M74" s="138"/>
-      <c r="N74" s="138"/>
-      <c r="O74" s="138"/>
-      <c r="P74" s="138"/>
-      <c r="Q74" s="138"/>
-      <c r="R74" s="138"/>
-      <c r="S74" s="138"/>
-      <c r="T74" s="138"/>
-      <c r="U74" s="138"/>
-      <c r="V74" s="138"/>
-      <c r="W74" s="138"/>
-      <c r="X74" s="138"/>
-      <c r="Y74" s="138"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="137"/>
+      <c r="O74" s="137"/>
+      <c r="P74" s="137"/>
+      <c r="Q74" s="137"/>
+      <c r="R74" s="137"/>
+      <c r="S74" s="137"/>
+      <c r="T74" s="137"/>
+      <c r="U74" s="137"/>
+      <c r="V74" s="137"/>
+      <c r="W74" s="137"/>
+      <c r="X74" s="137"/>
+      <c r="Y74" s="137"/>
     </row>
     <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="138"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="138"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="138"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="138"/>
-      <c r="J75" s="138"/>
-      <c r="K75" s="138"/>
-      <c r="L75" s="138"/>
-      <c r="M75" s="138"/>
-      <c r="N75" s="138"/>
-      <c r="O75" s="138"/>
-      <c r="P75" s="138"/>
-      <c r="Q75" s="138"/>
-      <c r="R75" s="138"/>
-      <c r="S75" s="138"/>
-      <c r="T75" s="138"/>
-      <c r="U75" s="138"/>
-      <c r="V75" s="138"/>
-      <c r="W75" s="138"/>
-      <c r="X75" s="138"/>
-      <c r="Y75" s="138"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="137"/>
+      <c r="O75" s="137"/>
+      <c r="P75" s="137"/>
+      <c r="Q75" s="137"/>
+      <c r="R75" s="137"/>
+      <c r="S75" s="137"/>
+      <c r="T75" s="137"/>
+      <c r="U75" s="137"/>
+      <c r="V75" s="137"/>
+      <c r="W75" s="137"/>
+      <c r="X75" s="137"/>
+      <c r="Y75" s="137"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="138"/>
-      <c r="B76" s="138"/>
-      <c r="C76" s="138"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="137"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="138"/>
-      <c r="F76" s="138"/>
-      <c r="G76" s="138"/>
-      <c r="H76" s="138"/>
-      <c r="I76" s="138"/>
-      <c r="J76" s="138"/>
-      <c r="K76" s="138"/>
-      <c r="L76" s="138"/>
-      <c r="M76" s="138"/>
-      <c r="N76" s="138"/>
-      <c r="O76" s="138"/>
-      <c r="P76" s="138"/>
-      <c r="Q76" s="138"/>
-      <c r="R76" s="138"/>
-      <c r="S76" s="138"/>
-      <c r="T76" s="138"/>
-      <c r="U76" s="138"/>
-      <c r="V76" s="138"/>
-      <c r="W76" s="138"/>
-      <c r="X76" s="138"/>
-      <c r="Y76" s="138"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="137"/>
+      <c r="O76" s="137"/>
+      <c r="P76" s="137"/>
+      <c r="Q76" s="137"/>
+      <c r="R76" s="137"/>
+      <c r="S76" s="137"/>
+      <c r="T76" s="137"/>
+      <c r="U76" s="137"/>
+      <c r="V76" s="137"/>
+      <c r="W76" s="137"/>
+      <c r="X76" s="137"/>
+      <c r="Y76" s="137"/>
     </row>
     <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="138"/>
-      <c r="B77" s="138"/>
-      <c r="C77" s="138"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="138"/>
-      <c r="F77" s="138"/>
-      <c r="G77" s="138"/>
-      <c r="H77" s="138"/>
-      <c r="I77" s="138"/>
-      <c r="J77" s="138"/>
-      <c r="K77" s="138"/>
-      <c r="L77" s="138"/>
-      <c r="M77" s="138"/>
-      <c r="N77" s="138"/>
-      <c r="O77" s="138"/>
-      <c r="P77" s="138"/>
-      <c r="Q77" s="138"/>
-      <c r="R77" s="138"/>
-      <c r="S77" s="138"/>
-      <c r="T77" s="138"/>
-      <c r="U77" s="138"/>
-      <c r="V77" s="138"/>
-      <c r="W77" s="138"/>
-      <c r="X77" s="138"/>
-      <c r="Y77" s="138"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="137"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="137"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="137"/>
+      <c r="O77" s="137"/>
+      <c r="P77" s="137"/>
+      <c r="Q77" s="137"/>
+      <c r="R77" s="137"/>
+      <c r="S77" s="137"/>
+      <c r="T77" s="137"/>
+      <c r="U77" s="137"/>
+      <c r="V77" s="137"/>
+      <c r="W77" s="137"/>
+      <c r="X77" s="137"/>
+      <c r="Y77" s="137"/>
     </row>
     <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="138"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="138"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="137"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="138"/>
-      <c r="F78" s="138"/>
-      <c r="G78" s="138"/>
-      <c r="H78" s="138"/>
-      <c r="I78" s="138"/>
-      <c r="J78" s="138"/>
-      <c r="K78" s="138"/>
-      <c r="L78" s="138"/>
-      <c r="M78" s="138"/>
-      <c r="N78" s="138"/>
-      <c r="O78" s="138"/>
-      <c r="P78" s="138"/>
-      <c r="Q78" s="138"/>
-      <c r="R78" s="138"/>
-      <c r="S78" s="138"/>
-      <c r="T78" s="138"/>
-      <c r="U78" s="138"/>
-      <c r="V78" s="138"/>
-      <c r="W78" s="138"/>
-      <c r="X78" s="138"/>
-      <c r="Y78" s="138"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
+      <c r="O78" s="137"/>
+      <c r="P78" s="137"/>
+      <c r="Q78" s="137"/>
+      <c r="R78" s="137"/>
+      <c r="S78" s="137"/>
+      <c r="T78" s="137"/>
+      <c r="U78" s="137"/>
+      <c r="V78" s="137"/>
+      <c r="W78" s="137"/>
+      <c r="X78" s="137"/>
+      <c r="Y78" s="137"/>
     </row>
     <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="138"/>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
+      <c r="A79" s="137"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="137"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
-      <c r="G79" s="138"/>
-      <c r="H79" s="138"/>
-      <c r="I79" s="138"/>
-      <c r="J79" s="138"/>
-      <c r="K79" s="138"/>
-      <c r="L79" s="138"/>
-      <c r="M79" s="138"/>
-      <c r="N79" s="138"/>
-      <c r="O79" s="138"/>
-      <c r="P79" s="138"/>
-      <c r="Q79" s="138"/>
-      <c r="R79" s="138"/>
-      <c r="S79" s="138"/>
-      <c r="T79" s="138"/>
-      <c r="U79" s="138"/>
-      <c r="V79" s="138"/>
-      <c r="W79" s="138"/>
-      <c r="X79" s="138"/>
-      <c r="Y79" s="138"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="137"/>
+      <c r="K79" s="137"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="137"/>
+      <c r="O79" s="137"/>
+      <c r="P79" s="137"/>
+      <c r="Q79" s="137"/>
+      <c r="R79" s="137"/>
+      <c r="S79" s="137"/>
+      <c r="T79" s="137"/>
+      <c r="U79" s="137"/>
+      <c r="V79" s="137"/>
+      <c r="W79" s="137"/>
+      <c r="X79" s="137"/>
+      <c r="Y79" s="137"/>
     </row>
     <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="138"/>
-      <c r="B80" s="138"/>
-      <c r="C80" s="138"/>
+      <c r="A80" s="137"/>
+      <c r="B80" s="137"/>
+      <c r="C80" s="137"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138"/>
-      <c r="G80" s="138"/>
-      <c r="H80" s="138"/>
-      <c r="I80" s="138"/>
-      <c r="J80" s="138"/>
-      <c r="K80" s="138"/>
-      <c r="L80" s="138"/>
-      <c r="M80" s="138"/>
-      <c r="N80" s="138"/>
-      <c r="O80" s="138"/>
-      <c r="P80" s="138"/>
-      <c r="Q80" s="138"/>
-      <c r="R80" s="138"/>
-      <c r="S80" s="138"/>
-      <c r="T80" s="138"/>
-      <c r="U80" s="138"/>
-      <c r="V80" s="138"/>
-      <c r="W80" s="138"/>
-      <c r="X80" s="138"/>
-      <c r="Y80" s="138"/>
+      <c r="E80" s="137"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="137"/>
+      <c r="K80" s="137"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="137"/>
+      <c r="N80" s="137"/>
+      <c r="O80" s="137"/>
+      <c r="P80" s="137"/>
+      <c r="Q80" s="137"/>
+      <c r="R80" s="137"/>
+      <c r="S80" s="137"/>
+      <c r="T80" s="137"/>
+      <c r="U80" s="137"/>
+      <c r="V80" s="137"/>
+      <c r="W80" s="137"/>
+      <c r="X80" s="137"/>
+      <c r="Y80" s="137"/>
     </row>
     <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="138"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="138"/>
+      <c r="A81" s="137"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="137"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="138"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="138"/>
-      <c r="H81" s="138"/>
-      <c r="I81" s="138"/>
-      <c r="J81" s="138"/>
-      <c r="K81" s="138"/>
-      <c r="L81" s="138"/>
-      <c r="M81" s="138"/>
-      <c r="N81" s="138"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="138"/>
-      <c r="Q81" s="138"/>
-      <c r="R81" s="138"/>
-      <c r="S81" s="138"/>
-      <c r="T81" s="138"/>
-      <c r="U81" s="138"/>
-      <c r="V81" s="138"/>
-      <c r="W81" s="138"/>
-      <c r="X81" s="138"/>
-      <c r="Y81" s="138"/>
+      <c r="E81" s="137"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="137"/>
+      <c r="K81" s="137"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="137"/>
+      <c r="N81" s="137"/>
+      <c r="O81" s="137"/>
+      <c r="P81" s="137"/>
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137"/>
+      <c r="S81" s="137"/>
+      <c r="T81" s="137"/>
+      <c r="U81" s="137"/>
+      <c r="V81" s="137"/>
+      <c r="W81" s="137"/>
+      <c r="X81" s="137"/>
+      <c r="Y81" s="137"/>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="138"/>
-      <c r="B82" s="138"/>
-      <c r="C82" s="138"/>
+      <c r="A82" s="137"/>
+      <c r="B82" s="137"/>
+      <c r="C82" s="137"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="138"/>
-      <c r="F82" s="138"/>
-      <c r="G82" s="138"/>
-      <c r="H82" s="138"/>
-      <c r="I82" s="138"/>
-      <c r="J82" s="138"/>
-      <c r="K82" s="138"/>
-      <c r="L82" s="138"/>
-      <c r="M82" s="138"/>
-      <c r="N82" s="138"/>
-      <c r="O82" s="138"/>
-      <c r="P82" s="138"/>
-      <c r="Q82" s="138"/>
-      <c r="R82" s="138"/>
-      <c r="S82" s="138"/>
-      <c r="T82" s="138"/>
-      <c r="U82" s="138"/>
-      <c r="V82" s="138"/>
-      <c r="W82" s="138"/>
-      <c r="X82" s="138"/>
-      <c r="Y82" s="138"/>
+      <c r="E82" s="137"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="137"/>
+      <c r="K82" s="137"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="137"/>
+      <c r="N82" s="137"/>
+      <c r="O82" s="137"/>
+      <c r="P82" s="137"/>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137"/>
+      <c r="S82" s="137"/>
+      <c r="T82" s="137"/>
+      <c r="U82" s="137"/>
+      <c r="V82" s="137"/>
+      <c r="W82" s="137"/>
+      <c r="X82" s="137"/>
+      <c r="Y82" s="137"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="138"/>
-      <c r="B83" s="138"/>
-      <c r="C83" s="138"/>
+      <c r="A83" s="137"/>
+      <c r="B83" s="137"/>
+      <c r="C83" s="137"/>
       <c r="D83" s="34"/>
-      <c r="E83" s="138"/>
-      <c r="F83" s="138"/>
-      <c r="G83" s="138"/>
-      <c r="H83" s="138"/>
-      <c r="I83" s="138"/>
-      <c r="J83" s="138"/>
-      <c r="K83" s="138"/>
-      <c r="L83" s="138"/>
-      <c r="M83" s="138"/>
-      <c r="N83" s="138"/>
-      <c r="O83" s="138"/>
-      <c r="P83" s="138"/>
-      <c r="Q83" s="138"/>
-      <c r="R83" s="138"/>
-      <c r="S83" s="138"/>
-      <c r="T83" s="138"/>
-      <c r="U83" s="138"/>
-      <c r="V83" s="138"/>
-      <c r="W83" s="138"/>
-      <c r="X83" s="138"/>
-      <c r="Y83" s="138"/>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="137"/>
+      <c r="K83" s="137"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="137"/>
+      <c r="N83" s="137"/>
+      <c r="O83" s="137"/>
+      <c r="P83" s="137"/>
+      <c r="Q83" s="137"/>
+      <c r="R83" s="137"/>
+      <c r="S83" s="137"/>
+      <c r="T83" s="137"/>
+      <c r="U83" s="137"/>
+      <c r="V83" s="137"/>
+      <c r="W83" s="137"/>
+      <c r="X83" s="137"/>
+      <c r="Y83" s="137"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="138"/>
-      <c r="B84" s="138"/>
-      <c r="C84" s="138"/>
+      <c r="A84" s="137"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="137"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="138"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="138"/>
-      <c r="H84" s="138"/>
-      <c r="I84" s="138"/>
-      <c r="J84" s="138"/>
-      <c r="K84" s="138"/>
-      <c r="L84" s="138"/>
-      <c r="M84" s="138"/>
-      <c r="N84" s="138"/>
-      <c r="O84" s="138"/>
-      <c r="P84" s="138"/>
-      <c r="Q84" s="138"/>
-      <c r="R84" s="138"/>
-      <c r="S84" s="138"/>
-      <c r="T84" s="138"/>
-      <c r="U84" s="138"/>
-      <c r="V84" s="138"/>
-      <c r="W84" s="138"/>
-      <c r="X84" s="138"/>
-      <c r="Y84" s="138"/>
+      <c r="E84" s="137"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="137"/>
+      <c r="K84" s="137"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="137"/>
+      <c r="O84" s="137"/>
+      <c r="P84" s="137"/>
+      <c r="Q84" s="137"/>
+      <c r="R84" s="137"/>
+      <c r="S84" s="137"/>
+      <c r="T84" s="137"/>
+      <c r="U84" s="137"/>
+      <c r="V84" s="137"/>
+      <c r="W84" s="137"/>
+      <c r="X84" s="137"/>
+      <c r="Y84" s="137"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="138"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="138"/>
+      <c r="A85" s="137"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="138"/>
-      <c r="H85" s="138"/>
-      <c r="I85" s="138"/>
-      <c r="J85" s="138"/>
-      <c r="K85" s="138"/>
-      <c r="L85" s="138"/>
-      <c r="M85" s="138"/>
-      <c r="N85" s="138"/>
-      <c r="O85" s="138"/>
-      <c r="P85" s="138"/>
-      <c r="Q85" s="138"/>
-      <c r="R85" s="138"/>
-      <c r="S85" s="138"/>
-      <c r="T85" s="138"/>
-      <c r="U85" s="138"/>
-      <c r="V85" s="138"/>
-      <c r="W85" s="138"/>
-      <c r="X85" s="138"/>
-      <c r="Y85" s="138"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="137"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="137"/>
+      <c r="O85" s="137"/>
+      <c r="P85" s="137"/>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="137"/>
+      <c r="S85" s="137"/>
+      <c r="T85" s="137"/>
+      <c r="U85" s="137"/>
+      <c r="V85" s="137"/>
+      <c r="W85" s="137"/>
+      <c r="X85" s="137"/>
+      <c r="Y85" s="137"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="138"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
+      <c r="A86" s="137"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="138"/>
-      <c r="G86" s="138"/>
-      <c r="H86" s="138"/>
-      <c r="I86" s="138"/>
-      <c r="J86" s="138"/>
-      <c r="K86" s="138"/>
-      <c r="L86" s="138"/>
-      <c r="M86" s="138"/>
-      <c r="N86" s="138"/>
-      <c r="O86" s="138"/>
-      <c r="P86" s="138"/>
-      <c r="Q86" s="138"/>
-      <c r="R86" s="138"/>
-      <c r="S86" s="138"/>
-      <c r="T86" s="138"/>
-      <c r="U86" s="138"/>
-      <c r="V86" s="138"/>
-      <c r="W86" s="138"/>
-      <c r="X86" s="138"/>
-      <c r="Y86" s="138"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="137"/>
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137"/>
+      <c r="S86" s="137"/>
+      <c r="T86" s="137"/>
+      <c r="U86" s="137"/>
+      <c r="V86" s="137"/>
+      <c r="W86" s="137"/>
+      <c r="X86" s="137"/>
+      <c r="Y86" s="137"/>
     </row>
     <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="138"/>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138"/>
+      <c r="A87" s="137"/>
+      <c r="B87" s="137"/>
+      <c r="C87" s="137"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="138"/>
-      <c r="H87" s="138"/>
-      <c r="I87" s="138"/>
-      <c r="J87" s="138"/>
-      <c r="K87" s="138"/>
-      <c r="L87" s="138"/>
-      <c r="M87" s="138"/>
-      <c r="N87" s="138"/>
-      <c r="O87" s="138"/>
-      <c r="P87" s="138"/>
-      <c r="Q87" s="138"/>
-      <c r="R87" s="138"/>
-      <c r="S87" s="138"/>
-      <c r="T87" s="138"/>
-      <c r="U87" s="138"/>
-      <c r="V87" s="138"/>
-      <c r="W87" s="138"/>
-      <c r="X87" s="138"/>
-      <c r="Y87" s="138"/>
+      <c r="E87" s="137"/>
+      <c r="F87" s="137"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="137"/>
+      <c r="J87" s="137"/>
+      <c r="K87" s="137"/>
+      <c r="L87" s="137"/>
+      <c r="M87" s="137"/>
+      <c r="N87" s="137"/>
+      <c r="O87" s="137"/>
+      <c r="P87" s="137"/>
+      <c r="Q87" s="137"/>
+      <c r="R87" s="137"/>
+      <c r="S87" s="137"/>
+      <c r="T87" s="137"/>
+      <c r="U87" s="137"/>
+      <c r="V87" s="137"/>
+      <c r="W87" s="137"/>
+      <c r="X87" s="137"/>
+      <c r="Y87" s="137"/>
     </row>
     <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="138"/>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
+      <c r="A88" s="137"/>
+      <c r="B88" s="137"/>
+      <c r="C88" s="137"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="138"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="138"/>
-      <c r="H88" s="138"/>
-      <c r="I88" s="138"/>
-      <c r="J88" s="138"/>
-      <c r="K88" s="138"/>
-      <c r="L88" s="138"/>
-      <c r="M88" s="138"/>
-      <c r="N88" s="138"/>
-      <c r="O88" s="138"/>
-      <c r="P88" s="138"/>
-      <c r="Q88" s="138"/>
-      <c r="R88" s="138"/>
-      <c r="S88" s="138"/>
-      <c r="T88" s="138"/>
-      <c r="U88" s="138"/>
-      <c r="V88" s="138"/>
-      <c r="W88" s="138"/>
-      <c r="X88" s="138"/>
-      <c r="Y88" s="138"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="137"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="137"/>
+      <c r="L88" s="137"/>
+      <c r="M88" s="137"/>
+      <c r="N88" s="137"/>
+      <c r="O88" s="137"/>
+      <c r="P88" s="137"/>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137"/>
+      <c r="S88" s="137"/>
+      <c r="T88" s="137"/>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137"/>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137"/>
+      <c r="Y88" s="137"/>
     </row>
     <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="138"/>
-      <c r="B89" s="138"/>
-      <c r="C89" s="138"/>
+      <c r="A89" s="137"/>
+      <c r="B89" s="137"/>
+      <c r="C89" s="137"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="138"/>
-      <c r="F89" s="138"/>
-      <c r="G89" s="138"/>
-      <c r="H89" s="138"/>
-      <c r="I89" s="138"/>
-      <c r="J89" s="138"/>
-      <c r="K89" s="138"/>
-      <c r="L89" s="138"/>
-      <c r="M89" s="138"/>
-      <c r="N89" s="138"/>
-      <c r="O89" s="138"/>
-      <c r="P89" s="138"/>
-      <c r="Q89" s="138"/>
-      <c r="R89" s="138"/>
-      <c r="S89" s="138"/>
-      <c r="T89" s="138"/>
-      <c r="U89" s="138"/>
-      <c r="V89" s="138"/>
-      <c r="W89" s="138"/>
-      <c r="X89" s="138"/>
-      <c r="Y89" s="138"/>
+      <c r="E89" s="137"/>
+      <c r="F89" s="137"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="137"/>
+      <c r="O89" s="137"/>
+      <c r="P89" s="137"/>
+      <c r="Q89" s="137"/>
+      <c r="R89" s="137"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
+      <c r="W89" s="137"/>
+      <c r="X89" s="137"/>
+      <c r="Y89" s="137"/>
     </row>
     <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="138"/>
-      <c r="B90" s="138"/>
-      <c r="C90" s="138"/>
+      <c r="A90" s="137"/>
+      <c r="B90" s="137"/>
+      <c r="C90" s="137"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="138"/>
-      <c r="F90" s="138"/>
-      <c r="G90" s="138"/>
-      <c r="H90" s="138"/>
-      <c r="I90" s="138"/>
-      <c r="J90" s="138"/>
-      <c r="K90" s="138"/>
-      <c r="L90" s="138"/>
-      <c r="M90" s="138"/>
-      <c r="N90" s="138"/>
-      <c r="O90" s="138"/>
-      <c r="P90" s="138"/>
-      <c r="Q90" s="138"/>
-      <c r="R90" s="138"/>
-      <c r="S90" s="138"/>
-      <c r="T90" s="138"/>
-      <c r="U90" s="138"/>
-      <c r="V90" s="138"/>
-      <c r="W90" s="138"/>
-      <c r="X90" s="138"/>
-      <c r="Y90" s="138"/>
+      <c r="E90" s="137"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="137"/>
+      <c r="P90" s="137"/>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="137"/>
+      <c r="S90" s="137"/>
+      <c r="T90" s="137"/>
+      <c r="U90" s="137"/>
+      <c r="V90" s="137"/>
+      <c r="W90" s="137"/>
+      <c r="X90" s="137"/>
+      <c r="Y90" s="137"/>
     </row>
     <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="138"/>
-      <c r="B91" s="138"/>
-      <c r="C91" s="138"/>
+      <c r="A91" s="137"/>
+      <c r="B91" s="137"/>
+      <c r="C91" s="137"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="138"/>
-      <c r="F91" s="138"/>
-      <c r="G91" s="138"/>
-      <c r="H91" s="138"/>
-      <c r="I91" s="138"/>
-      <c r="J91" s="138"/>
-      <c r="K91" s="138"/>
-      <c r="L91" s="138"/>
-      <c r="M91" s="138"/>
-      <c r="N91" s="138"/>
-      <c r="O91" s="138"/>
-      <c r="P91" s="138"/>
-      <c r="Q91" s="138"/>
-      <c r="R91" s="138"/>
-      <c r="S91" s="138"/>
-      <c r="T91" s="138"/>
-      <c r="U91" s="138"/>
-      <c r="V91" s="138"/>
-      <c r="W91" s="138"/>
-      <c r="X91" s="138"/>
-      <c r="Y91" s="138"/>
+      <c r="E91" s="137"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="137"/>
+      <c r="J91" s="137"/>
+      <c r="K91" s="137"/>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="137"/>
+      <c r="O91" s="137"/>
+      <c r="P91" s="137"/>
+      <c r="Q91" s="137"/>
+      <c r="R91" s="137"/>
+      <c r="S91" s="137"/>
+      <c r="T91" s="137"/>
+      <c r="U91" s="137"/>
+      <c r="V91" s="137"/>
+      <c r="W91" s="137"/>
+      <c r="X91" s="137"/>
+      <c r="Y91" s="137"/>
     </row>
     <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="138"/>
-      <c r="B92" s="138"/>
-      <c r="C92" s="138"/>
+      <c r="A92" s="137"/>
+      <c r="B92" s="137"/>
+      <c r="C92" s="137"/>
       <c r="D92" s="34"/>
-      <c r="E92" s="138"/>
-      <c r="F92" s="138"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="138"/>
-      <c r="I92" s="138"/>
-      <c r="J92" s="138"/>
-      <c r="K92" s="138"/>
-      <c r="L92" s="138"/>
-      <c r="M92" s="138"/>
-      <c r="N92" s="138"/>
-      <c r="O92" s="138"/>
-      <c r="P92" s="138"/>
-      <c r="Q92" s="138"/>
-      <c r="R92" s="138"/>
-      <c r="S92" s="138"/>
-      <c r="T92" s="138"/>
-      <c r="U92" s="138"/>
-      <c r="V92" s="138"/>
-      <c r="W92" s="138"/>
-      <c r="X92" s="138"/>
-      <c r="Y92" s="138"/>
+      <c r="E92" s="137"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137"/>
+      <c r="L92" s="137"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="137"/>
+      <c r="O92" s="137"/>
+      <c r="P92" s="137"/>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="137"/>
+      <c r="S92" s="137"/>
+      <c r="T92" s="137"/>
+      <c r="U92" s="137"/>
+      <c r="V92" s="137"/>
+      <c r="W92" s="137"/>
+      <c r="X92" s="137"/>
+      <c r="Y92" s="137"/>
     </row>
     <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="138"/>
-      <c r="B93" s="138"/>
-      <c r="C93" s="138"/>
+      <c r="A93" s="137"/>
+      <c r="B93" s="137"/>
+      <c r="C93" s="137"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="138"/>
-      <c r="F93" s="138"/>
-      <c r="G93" s="138"/>
-      <c r="H93" s="138"/>
-      <c r="I93" s="138"/>
-      <c r="J93" s="138"/>
-      <c r="K93" s="138"/>
-      <c r="L93" s="138"/>
-      <c r="M93" s="138"/>
-      <c r="N93" s="138"/>
-      <c r="O93" s="138"/>
-      <c r="P93" s="138"/>
-      <c r="Q93" s="138"/>
-      <c r="R93" s="138"/>
-      <c r="S93" s="138"/>
-      <c r="T93" s="138"/>
-      <c r="U93" s="138"/>
-      <c r="V93" s="138"/>
-      <c r="W93" s="138"/>
-      <c r="X93" s="138"/>
-      <c r="Y93" s="138"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="137"/>
+      <c r="O93" s="137"/>
+      <c r="P93" s="137"/>
+      <c r="Q93" s="137"/>
+      <c r="R93" s="137"/>
+      <c r="S93" s="137"/>
+      <c r="T93" s="137"/>
+      <c r="U93" s="137"/>
+      <c r="V93" s="137"/>
+      <c r="W93" s="137"/>
+      <c r="X93" s="137"/>
+      <c r="Y93" s="137"/>
     </row>
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="138"/>
-      <c r="B94" s="138"/>
-      <c r="C94" s="138"/>
+      <c r="A94" s="137"/>
+      <c r="B94" s="137"/>
+      <c r="C94" s="137"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="138"/>
-      <c r="F94" s="138"/>
-      <c r="G94" s="138"/>
-      <c r="H94" s="138"/>
-      <c r="I94" s="138"/>
-      <c r="J94" s="138"/>
-      <c r="K94" s="138"/>
-      <c r="L94" s="138"/>
-      <c r="M94" s="138"/>
-      <c r="N94" s="138"/>
-      <c r="O94" s="138"/>
-      <c r="P94" s="138"/>
-      <c r="Q94" s="138"/>
-      <c r="R94" s="138"/>
-      <c r="S94" s="138"/>
-      <c r="T94" s="138"/>
-      <c r="U94" s="138"/>
-      <c r="V94" s="138"/>
-      <c r="W94" s="138"/>
-      <c r="X94" s="138"/>
-      <c r="Y94" s="138"/>
+      <c r="E94" s="137"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="137"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="137"/>
+      <c r="O94" s="137"/>
+      <c r="P94" s="137"/>
+      <c r="Q94" s="137"/>
+      <c r="R94" s="137"/>
+      <c r="S94" s="137"/>
+      <c r="T94" s="137"/>
+      <c r="U94" s="137"/>
+      <c r="V94" s="137"/>
+      <c r="W94" s="137"/>
+      <c r="X94" s="137"/>
+      <c r="Y94" s="137"/>
     </row>
     <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="138"/>
-      <c r="B95" s="138"/>
-      <c r="C95" s="138"/>
+      <c r="A95" s="137"/>
+      <c r="B95" s="137"/>
+      <c r="C95" s="137"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="138"/>
-      <c r="F95" s="138"/>
-      <c r="G95" s="138"/>
-      <c r="H95" s="138"/>
-      <c r="I95" s="138"/>
-      <c r="J95" s="138"/>
-      <c r="K95" s="138"/>
-      <c r="L95" s="138"/>
-      <c r="M95" s="138"/>
-      <c r="N95" s="138"/>
-      <c r="O95" s="138"/>
-      <c r="P95" s="138"/>
-      <c r="Q95" s="138"/>
-      <c r="R95" s="138"/>
-      <c r="S95" s="138"/>
-      <c r="T95" s="138"/>
-      <c r="U95" s="138"/>
-      <c r="V95" s="138"/>
-      <c r="W95" s="138"/>
-      <c r="X95" s="138"/>
-      <c r="Y95" s="138"/>
+      <c r="E95" s="137"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="137"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="137"/>
+      <c r="O95" s="137"/>
+      <c r="P95" s="137"/>
+      <c r="Q95" s="137"/>
+      <c r="R95" s="137"/>
+      <c r="S95" s="137"/>
+      <c r="T95" s="137"/>
+      <c r="U95" s="137"/>
+      <c r="V95" s="137"/>
+      <c r="W95" s="137"/>
+      <c r="X95" s="137"/>
+      <c r="Y95" s="137"/>
     </row>
     <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="138"/>
-      <c r="B96" s="138"/>
-      <c r="C96" s="138"/>
+      <c r="A96" s="137"/>
+      <c r="B96" s="137"/>
+      <c r="C96" s="137"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="138"/>
-      <c r="F96" s="138"/>
-      <c r="G96" s="138"/>
-      <c r="H96" s="138"/>
-      <c r="I96" s="138"/>
-      <c r="J96" s="138"/>
-      <c r="K96" s="138"/>
-      <c r="L96" s="138"/>
-      <c r="M96" s="138"/>
-      <c r="N96" s="138"/>
-      <c r="O96" s="138"/>
-      <c r="P96" s="138"/>
-      <c r="Q96" s="138"/>
-      <c r="R96" s="138"/>
-      <c r="S96" s="138"/>
-      <c r="T96" s="138"/>
-      <c r="U96" s="138"/>
-      <c r="V96" s="138"/>
-      <c r="W96" s="138"/>
-      <c r="X96" s="138"/>
-      <c r="Y96" s="138"/>
+      <c r="E96" s="137"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="137"/>
+      <c r="O96" s="137"/>
+      <c r="P96" s="137"/>
+      <c r="Q96" s="137"/>
+      <c r="R96" s="137"/>
+      <c r="S96" s="137"/>
+      <c r="T96" s="137"/>
+      <c r="U96" s="137"/>
+      <c r="V96" s="137"/>
+      <c r="W96" s="137"/>
+      <c r="X96" s="137"/>
+      <c r="Y96" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18947,7 +18916,7 @@
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
-      <c r="F5" s="142"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="61"/>
       <c r="H5" s="62" t="s">
         <v>88</v>
@@ -19078,7 +19047,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="61"/>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="125" t="s">
         <v>244</v>
       </c>
       <c r="E14" s="61"/>
@@ -19097,7 +19066,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="125"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="61"/>
       <c r="F15" s="63" t="s">
         <v>83</v>
@@ -19325,10 +19294,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="137" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="61"/>
       <c r="D32"/>
-      <c r="F32" s="141"/>
+      <c r="F32" s="140"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="117" t="s">
@@ -19417,9 +19386,9 @@
       <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="G7" s="119" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="G7" s="118" t="s">
         <v>123</v>
       </c>
       <c r="H7" s="107" t="s">
@@ -19432,7 +19401,7 @@
         <v>240</v>
       </c>
       <c r="K7" s="78"/>
-      <c r="L7" s="122"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
@@ -19441,7 +19410,7 @@
       <c r="E8" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="82" t="s">
@@ -19450,7 +19419,7 @@
       <c r="I8" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="126" t="s">
         <v>245</v>
       </c>
       <c r="K8" s="78"/>
@@ -19463,7 +19432,7 @@
       <c r="E9" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="118" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="109" t="s">
@@ -19472,7 +19441,7 @@
       <c r="I9" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="128" t="s">
+      <c r="J9" s="127" t="s">
         <v>246</v>
       </c>
     </row>
@@ -19483,7 +19452,7 @@
       <c r="E10" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="118" t="s">
         <v>212</v>
       </c>
       <c r="H10" s="86" t="s">
@@ -19492,7 +19461,7 @@
       <c r="I10" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="133" t="s">
+      <c r="J10" s="132" t="s">
         <v>247</v>
       </c>
     </row>
@@ -19523,7 +19492,7 @@
       <c r="E12" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="118" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="82" t="s">
@@ -19533,7 +19502,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="78"/>
-      <c r="E13" s="122"/>
+      <c r="E13" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B04987A-501B-4408-BF3B-F850E7AD317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0CACF-CB63-4D37-84B0-6C54669C921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
   <si>
     <t>Area</t>
   </si>
@@ -690,9 +690,6 @@
     <t>Broadcast player death and respond to it using receivers in the associated scripts.</t>
   </si>
   <si>
-    <t>Fix Main Menu to accommodate new changes</t>
-  </si>
-  <si>
     <t>A menu pops up when the player dies, allowing them to restart, return to menu, or quit</t>
   </si>
   <si>
@@ -714,7 +711,7 @@
     <t>Spawn Manager Restoration Act</t>
   </si>
   <si>
-    <t>FIX SCENE DATA TRANSFER</t>
+    <t>Resolve Layer transition problem</t>
   </si>
 </sst>
 </file>
@@ -1551,6 +1548,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1591,9 +1591,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2046,14 +2043,14 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="127" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="129"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2072,14 +2069,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="39"/>
       <c r="H2" s="38" t="s">
         <v>75</v>
@@ -2100,14 +2097,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="130" t="s">
+      <c r="D3" s="129"/>
+      <c r="E3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="94"/>
       <c r="H3" s="38"/>
       <c r="I3" s="1"/>
@@ -2126,14 +2123,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="126"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2176,7 +2173,7 @@
     <row r="6" spans="1:20" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="27">
         <v>3</v>
@@ -2203,8 +2200,8 @@
     </row>
     <row r="7" spans="1:20" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
-      <c r="B7" s="138" t="s">
-        <v>220</v>
+      <c r="B7" s="124" t="s">
+        <v>219</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="10" spans="1:20" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="124" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="109">
@@ -2311,7 +2308,7 @@
     </row>
     <row r="11" spans="1:20" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="124" t="s">
         <v>187</v>
       </c>
       <c r="C11" s="109">
@@ -2368,7 +2365,7 @@
     <row r="13" spans="1:20" s="119" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="118">
         <v>2</v>
@@ -2419,7 +2416,7 @@
     </row>
     <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="124" t="s">
         <v>165</v>
       </c>
       <c r="C15" s="1">
@@ -2447,7 +2444,7 @@
     </row>
     <row r="16" spans="1:20" s="119" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="124" t="s">
         <v>171</v>
       </c>
       <c r="C16" s="123">
@@ -2475,8 +2472,8 @@
     </row>
     <row r="17" spans="1:20" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
-      <c r="B17" s="138" t="s">
-        <v>218</v>
+      <c r="B17" s="124" t="s">
+        <v>217</v>
       </c>
       <c r="C17" s="109">
         <v>1</v>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="22" spans="1:20" s="101" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="124" t="s">
         <v>206</v>
       </c>
       <c r="C22" s="100">
@@ -2715,8 +2712,8 @@
     </row>
     <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="138" t="s">
-        <v>222</v>
+      <c r="B26" s="124" t="s">
+        <v>221</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -4279,11 +4276,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4435,7 +4432,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="137" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="1"/>
@@ -4470,7 +4467,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="25" t="s">
@@ -4503,7 +4500,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="25" t="s">
@@ -4631,104 +4628,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="135" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5398,15 +5395,15 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
       <c r="O39" s="1"/>
@@ -7090,11 +7087,11 @@
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
@@ -7440,104 +7437,104 @@
       <c r="Y14" s="89"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="135" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="89"/>
       <c r="P18" s="89"/>
@@ -7666,7 +7663,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="52">
         <v>1</v>
@@ -7771,7 +7768,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="52">
         <v>2</v>
@@ -7876,7 +7873,7 @@
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="52">
         <v>3</v>
@@ -8191,15 +8188,15 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
       <c r="O39" s="89"/>
@@ -9882,11 +9879,11 @@
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
       <c r="C4" s="113"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -10232,104 +10229,104 @@
       <c r="Y14" s="113"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="135" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="113"/>
       <c r="P18" s="113"/>
@@ -10919,15 +10916,15 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
       <c r="O39" s="113"/>
@@ -12967,7 +12964,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13052,7 +13049,7 @@
         <v>209</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J7" s="69" t="s">
         <v>216</v>
@@ -13068,9 +13065,7 @@
       <c r="E8" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>225</v>
-      </c>
+      <c r="I8" s="58"/>
       <c r="J8" s="69" t="s">
         <v>202</v>
       </c>
@@ -13086,7 +13081,7 @@
         <v>184</v>
       </c>
       <c r="J9" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>213</v>
@@ -13136,7 +13131,7 @@
         <v>207</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0CACF-CB63-4D37-84B0-6C54669C921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFC463-C785-43F2-8071-3C34FB07F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="216">
   <si>
     <t>Area</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Planet</t>
   </si>
   <si>
-    <t>Game Manager</t>
-  </si>
-  <si>
     <t>Enemy</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>&gt;&gt;&gt;SFX</t>
   </si>
   <si>
-    <t>DM-CGS-06.wav</t>
-  </si>
-  <si>
     <t>Layer completion SFX</t>
   </si>
   <si>
@@ -627,69 +621,21 @@
     <t>bar_exp.png</t>
   </si>
   <si>
-    <t>JiggleAnimation</t>
-  </si>
-  <si>
-    <t>UI Manager</t>
-  </si>
-  <si>
     <t>Modify Shrink Bar</t>
   </si>
   <si>
-    <t>Check articles saved in favorites for reference</t>
-  </si>
-  <si>
-    <t>Backup in a zip before you start</t>
-  </si>
-  <si>
-    <t>Refactoring Examples" in reference file for examples</t>
-  </si>
-  <si>
-    <t>Separate the score and layer feature from Game Manager</t>
-  </si>
-  <si>
-    <t>For player Movement, get axis in update but perform the movement in fixed update.</t>
-  </si>
-  <si>
-    <t>Refactoring Tasks</t>
-  </si>
-  <si>
     <t>The Earth has more than just grass on it</t>
   </si>
   <si>
     <t>Sound effect volume can be adjusted</t>
   </si>
   <si>
-    <t>Boradcast Changes in music and SFX volume and add listeners to enemies and the player to adjust their volumes accordingly</t>
-  </si>
-  <si>
     <t>The Player has different hats that he can change on the main menu</t>
   </si>
   <si>
     <t>Combine the Earth's surfaces so that it looks smoother</t>
   </si>
   <si>
-    <t>Make individual axes in the repeated scaling animation toggleable on/off.</t>
-  </si>
-  <si>
-    <t>In Player animation, if a value becomes negative set it to 0</t>
-  </si>
-  <si>
-    <t>Make the blink animation a separate script. Use interrupting co-routines method for it.</t>
-  </si>
-  <si>
-    <t>Separate Eye control to external script.</t>
-  </si>
-  <si>
-    <t>Separate shrink power as a scriptable event</t>
-  </si>
-  <si>
-    <t>Remove need for short pause before the player starts the game</t>
-  </si>
-  <si>
-    <t>Broadcast player death and respond to it using receivers in the associated scripts.</t>
-  </si>
-  <si>
     <t>A menu pops up when the player dies, allowing them to restart, return to menu, or quit</t>
   </si>
   <si>
@@ -705,13 +651,40 @@
     <t>Volume settings from the last time played are the same after coming back</t>
   </si>
   <si>
-    <t>Implement Quit menu and separate ''Quit Game' from main menu and game manager to become its' own class</t>
-  </si>
-  <si>
-    <t>Spawn Manager Restoration Act</t>
-  </si>
-  <si>
-    <t>Resolve Layer transition problem</t>
+    <t>Player Death SFX</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_dead_6.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_dead_7.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_dead_8.wav</t>
+  </si>
+  <si>
+    <t>In game but haven't applied yet</t>
+  </si>
+  <si>
+    <t>Haven't laoded in yet but going to use</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_attack_long_8.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_battle_4.wav</t>
+  </si>
+  <si>
+    <t>monster_mini_cutie_battle_6.wav</t>
+  </si>
+  <si>
+    <t>Enemies make nosie after they kill the player</t>
+  </si>
+  <si>
+    <t>There's a popup when the Layer Transitions</t>
+  </si>
+  <si>
+    <t>Facts about Coren appear on the menu occasionally</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1189,11 +1162,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1463,9 +1451,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1476,12 +1461,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,10 +1524,13 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,6 +1574,16 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,10 +2013,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2043,14 +2035,14 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="128" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="130"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2069,17 +2061,17 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="131" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="39"/>
       <c r="H2" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2097,14 +2089,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="131" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="94"/>
       <c r="H3" s="38"/>
       <c r="I3" s="1"/>
@@ -2123,14 +2115,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="127"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2173,7 +2165,7 @@
     <row r="6" spans="1:20" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="27" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C6" s="27">
         <v>3</v>
@@ -2198,42 +2190,42 @@
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="124" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+    <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2250,149 +2242,149 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="9" spans="1:20" s="107" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="106">
+        <v>2</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="F9" s="8"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+    </row>
+    <row r="10" spans="1:20" s="107" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="106">
+        <v>3</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106">
         <v>1</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="109">
+      <c r="F10" s="8"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+    </row>
+    <row r="11" spans="1:20" s="90" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="89">
         <v>2</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109">
+      <c r="D11" s="89"/>
+      <c r="E11" s="89">
         <v>3</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-    </row>
-    <row r="11" spans="1:20" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="109">
-        <v>3</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109">
-        <v>1</v>
-      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-    </row>
-    <row r="12" spans="1:20" s="90" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+    </row>
+    <row r="12" spans="1:20" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="89">
+        <v>202</v>
+      </c>
+      <c r="C12" s="115">
         <v>2</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89">
+      <c r="D12" s="115"/>
+      <c r="E12" s="115">
         <v>3</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-    </row>
-    <row r="13" spans="1:20" s="119" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+    </row>
+    <row r="13" spans="1:20" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="118">
-        <v>2</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118">
+        <v>213</v>
+      </c>
+      <c r="C13" s="122">
         <v>3</v>
       </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122">
+        <v>3</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2414,93 +2406,89 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="15" spans="1:20" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="122">
+        <v>3</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122">
         <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>1</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" s="119" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="124" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="123">
-        <v>2</v>
-      </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123">
-        <v>2</v>
-      </c>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+    </row>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-    </row>
-    <row r="17" spans="1:20" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="109">
-        <v>1</v>
-      </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" s="116" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="115">
         <v>2</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115">
+        <v>3</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
     </row>
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2522,37 +2510,37 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" s="119" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="118">
-        <v>2</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118">
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2575,69 +2563,73 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" s="101" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="100">
-        <v>1</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
@@ -2654,18 +2646,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -2682,18 +2668,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
@@ -2710,18 +2690,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="124" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
@@ -4057,94 +4031,6 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-    </row>
-    <row r="87" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-    </row>
-    <row r="88" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-    </row>
-    <row r="89" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-    </row>
-    <row r="90" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4170,7 +4056,7 @@
   <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4276,11 +4162,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4432,8 +4318,8 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
-        <v>164</v>
+      <c r="A9" s="135" t="s">
+        <v>162</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4467,7 +4353,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="25" t="s">
@@ -4500,7 +4386,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="25" t="s">
@@ -4628,104 +4514,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="16"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -4787,16 +4673,16 @@
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="106">
+      <c r="C20" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="103">
         <v>1</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="103">
         <v>1</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="104">
         <v>2</v>
       </c>
       <c r="G20" s="32"/>
@@ -4824,16 +4710,16 @@
     <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="106">
+      <c r="C21" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="103">
         <v>1</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="103">
         <v>2</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="105">
         <v>2</v>
       </c>
       <c r="G21" s="32"/>
@@ -4861,16 +4747,16 @@
     <row r="22" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="106">
+      <c r="C22" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="103">
         <v>1</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="103">
         <v>3</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="105">
         <v>4</v>
       </c>
       <c r="G22" s="32"/>
@@ -4896,16 +4782,16 @@
     <row r="23" spans="1:25" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D23" s="103">
         <v>2</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="103">
         <v>1</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="105">
         <v>1</v>
       </c>
       <c r="G23" s="32"/>
@@ -4931,16 +4817,16 @@
     <row r="24" spans="1:25" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="106">
+      <c r="C24" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="103">
         <v>2</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="103">
         <v>2</v>
       </c>
-      <c r="F24" s="108">
+      <c r="F24" s="105">
         <v>2</v>
       </c>
       <c r="G24" s="32"/>
@@ -4966,16 +4852,16 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="106">
+      <c r="C25" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="103">
         <v>2</v>
       </c>
-      <c r="E25" s="106">
+      <c r="E25" s="103">
         <v>1</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="105">
         <v>1</v>
       </c>
       <c r="G25" s="32"/>
@@ -5001,16 +4887,16 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="106">
+      <c r="C26" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="103">
         <v>2</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="103">
         <v>2</v>
       </c>
-      <c r="F26" s="108">
+      <c r="F26" s="105">
         <v>4</v>
       </c>
       <c r="G26" s="32"/>
@@ -5036,16 +4922,16 @@
     <row r="27" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="106">
+      <c r="C27" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="103">
         <v>2</v>
       </c>
-      <c r="E27" s="106">
+      <c r="E27" s="103">
         <v>1</v>
       </c>
-      <c r="F27" s="108">
+      <c r="F27" s="105">
         <v>1</v>
       </c>
       <c r="G27" s="32"/>
@@ -5071,16 +4957,16 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="106">
+      <c r="C28" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="103">
         <v>2</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="103">
         <v>3</v>
       </c>
-      <c r="F28" s="108">
+      <c r="F28" s="105">
         <v>4</v>
       </c>
       <c r="G28" s="32"/>
@@ -5106,16 +4992,16 @@
     <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="106">
+      <c r="C29" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="103">
         <v>3</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="103">
         <v>1</v>
       </c>
-      <c r="F29" s="108">
+      <c r="F29" s="105">
         <v>2</v>
       </c>
       <c r="G29" s="32"/>
@@ -5168,7 +5054,7 @@
     <row r="31" spans="1:25" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="98"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
       <c r="F31" s="53"/>
@@ -5249,7 +5135,7 @@
     <row r="34" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="98"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
       <c r="F34" s="53"/>
@@ -5395,15 +5281,15 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="131"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
       <c r="O39" s="1"/>
@@ -6980,7 +6866,7 @@
   <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7087,11 +6973,11 @@
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
@@ -7437,104 +7323,104 @@
       <c r="Y14" s="89"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="16"/>
       <c r="O18" s="89"/>
       <c r="P18" s="89"/>
@@ -7625,16 +7511,16 @@
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="52">
+      <c r="C21" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="103">
         <v>1</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="103">
         <v>3</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="104">
         <v>2</v>
       </c>
       <c r="G21" s="32"/>
@@ -7662,16 +7548,16 @@
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="52">
+      <c r="C22" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="103">
         <v>1</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="103">
         <v>2</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="104">
         <v>2</v>
       </c>
       <c r="G22" s="32"/>
@@ -7697,16 +7583,16 @@
     <row r="23" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="52">
+      <c r="C23" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="103">
         <v>2</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="103">
         <v>2</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="104">
         <v>2</v>
       </c>
       <c r="G23" s="32"/>
@@ -7732,16 +7618,16 @@
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="52">
+      <c r="C24" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="103">
         <v>2</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="103">
         <v>1</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="104">
         <v>1</v>
       </c>
       <c r="G24" s="32"/>
@@ -7767,16 +7653,16 @@
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="52">
+      <c r="C25" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="103">
         <v>2</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="103">
         <v>1</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="104">
         <v>2</v>
       </c>
       <c r="G25" s="32"/>
@@ -7802,8 +7688,8 @@
     <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="23" t="s">
-        <v>186</v>
+      <c r="C26" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="D26" s="52">
         <v>2</v>
@@ -7837,8 +7723,8 @@
     <row r="27" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="23" t="s">
-        <v>187</v>
+      <c r="C27" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="D27" s="52">
         <v>3</v>
@@ -7872,16 +7758,16 @@
     <row r="28" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="C28" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="103">
         <v>3</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="103">
         <v>2</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="105">
         <v>2</v>
       </c>
       <c r="G28" s="32"/>
@@ -8188,15 +8074,15 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="131"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
       <c r="O39" s="89"/>
@@ -9777,137 +9663,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="114" customWidth="1"/>
-    <col min="2" max="2" width="0.42578125" style="114" customWidth="1"/>
-    <col min="3" max="3" width="32" style="114" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="114" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="114" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="114" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="114" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="114" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="114" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="114" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="114" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="114" customWidth="1"/>
-    <col min="13" max="13" width="13" style="114" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="114" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="114"/>
+    <col min="1" max="1" width="34" style="111" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="111" customWidth="1"/>
+    <col min="3" max="3" width="32" style="111" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="111" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="111" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="111" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="111" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="111" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="111" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="111" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="111" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="111" customWidth="1"/>
+    <col min="13" max="13" width="13" style="111" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="111" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="115"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="134" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="25"/>
       <c r="E5" s="14" t="s">
         <v>12</v>
@@ -9915,30 +9801,30 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="25" t="s">
         <v>14</v>
       </c>
@@ -9948,30 +9834,30 @@
       <c r="F6" s="25">
         <v>0</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -9981,30 +9867,30 @@
       <c r="F7" s="25">
         <v>0</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
@@ -10014,30 +9900,30 @@
       <c r="F8" s="25">
         <v>0</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="25" t="s">
         <v>17</v>
       </c>
@@ -10047,30 +9933,30 @@
       <c r="F9" s="25">
         <v>0</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
@@ -10080,30 +9966,30 @@
       <c r="F10" s="25">
         <v>0</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="25" t="s">
         <v>19</v>
       </c>
@@ -10113,30 +9999,30 @@
       <c r="F11" s="25">
         <v>0</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
@@ -10146,30 +10032,30 @@
       <c r="F12" s="25">
         <v>0</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="25" t="s">
         <v>21</v>
       </c>
@@ -10181,164 +10067,164 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
@@ -10400,19 +10286,19 @@
       <c r="L20" s="52"/>
       <c r="M20" s="54"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="113"/>
+      <c r="O20" s="110"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
@@ -10429,19 +10315,19 @@
       <c r="L21" s="52"/>
       <c r="M21" s="54"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="113"/>
+      <c r="O21" s="110"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
@@ -10458,17 +10344,17 @@
       <c r="L22" s="52"/>
       <c r="M22" s="54"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
     </row>
     <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
@@ -10485,17 +10371,17 @@
       <c r="L23" s="52"/>
       <c r="M23" s="54"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
@@ -10512,17 +10398,17 @@
       <c r="L24" s="52"/>
       <c r="M24" s="54"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
@@ -10539,17 +10425,17 @@
       <c r="L25" s="52"/>
       <c r="M25" s="54"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
@@ -10566,17 +10452,17 @@
       <c r="L26" s="52"/>
       <c r="M26" s="53"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
@@ -10593,17 +10479,17 @@
       <c r="L27" s="52"/>
       <c r="M27" s="54"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
@@ -10620,17 +10506,17 @@
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
@@ -10647,17 +10533,17 @@
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
     </row>
     <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
@@ -10674,17 +10560,17 @@
       <c r="L30" s="57"/>
       <c r="M30" s="54"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
     </row>
     <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
@@ -10701,17 +10587,17 @@
       <c r="L31" s="52"/>
       <c r="M31" s="54"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
@@ -10728,17 +10614,17 @@
       <c r="L32" s="52"/>
       <c r="M32" s="54"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
@@ -10755,17 +10641,17 @@
       <c r="L33" s="52"/>
       <c r="M33" s="54"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
@@ -10782,17 +10668,17 @@
       <c r="L34" s="52"/>
       <c r="M34" s="54"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
@@ -10809,17 +10695,17 @@
       <c r="L35" s="52"/>
       <c r="M35" s="54"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
     </row>
     <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
@@ -10836,17 +10722,17 @@
       <c r="L36" s="52"/>
       <c r="M36" s="54"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
@@ -10863,17 +10749,17 @@
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
@@ -10900,1583 +10786,1583 @@
         <v>0</v>
       </c>
       <c r="N38" s="16"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="110"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="131"/>
       <c r="M39" s="32"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
+      <c r="T39" s="110"/>
+      <c r="U39" s="110"/>
+      <c r="V39" s="110"/>
+      <c r="W39" s="110"/>
+      <c r="X39" s="110"/>
+      <c r="Y39" s="110"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="110"/>
+      <c r="T40" s="110"/>
+      <c r="U40" s="110"/>
+      <c r="V40" s="110"/>
+      <c r="W40" s="110"/>
+      <c r="X40" s="110"/>
+      <c r="Y40" s="110"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="110"/>
+      <c r="U42" s="110"/>
+      <c r="V42" s="110"/>
+      <c r="W42" s="110"/>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="110"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="110"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="110"/>
+      <c r="V43" s="110"/>
+      <c r="W43" s="110"/>
+      <c r="X43" s="110"/>
+      <c r="Y43" s="110"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="110"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="110"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="110"/>
+      <c r="V44" s="110"/>
+      <c r="W44" s="110"/>
+      <c r="X44" s="110"/>
+      <c r="Y44" s="110"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
+      <c r="A45" s="110"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="113"/>
-      <c r="W46" s="113"/>
-      <c r="X46" s="113"/>
-      <c r="Y46" s="113"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="113"/>
-      <c r="T47" s="113"/>
-      <c r="U47" s="113"/>
-      <c r="V47" s="113"/>
-      <c r="W47" s="113"/>
-      <c r="X47" s="113"/>
-      <c r="Y47" s="113"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="110"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="113"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="113"/>
-      <c r="X48" s="113"/>
-      <c r="Y48" s="113"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
+      <c r="T48" s="110"/>
+      <c r="U48" s="110"/>
+      <c r="V48" s="110"/>
+      <c r="W48" s="110"/>
+      <c r="X48" s="110"/>
+      <c r="Y48" s="110"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="113"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="113"/>
-      <c r="W49" s="113"/>
-      <c r="X49" s="113"/>
-      <c r="Y49" s="113"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="110"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="110"/>
+      <c r="W49" s="110"/>
+      <c r="X49" s="110"/>
+      <c r="Y49" s="110"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113"/>
-      <c r="Q50" s="113"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="113"/>
-      <c r="T50" s="113"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="113"/>
-      <c r="W50" s="113"/>
-      <c r="X50" s="113"/>
-      <c r="Y50" s="113"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="110"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="110"/>
+      <c r="X50" s="110"/>
+      <c r="Y50" s="110"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="113"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113"/>
-      <c r="Q51" s="113"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="113"/>
-      <c r="T51" s="113"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="113"/>
-      <c r="W51" s="113"/>
-      <c r="X51" s="113"/>
-      <c r="Y51" s="113"/>
+      <c r="A51" s="110"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="110"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="110"/>
+      <c r="W51" s="110"/>
+      <c r="X51" s="110"/>
+      <c r="Y51" s="110"/>
     </row>
     <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="113"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="113"/>
-      <c r="U52" s="113"/>
-      <c r="V52" s="113"/>
-      <c r="W52" s="113"/>
-      <c r="X52" s="113"/>
-      <c r="Y52" s="113"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
+      <c r="S52" s="110"/>
+      <c r="T52" s="110"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="110"/>
+      <c r="W52" s="110"/>
+      <c r="X52" s="110"/>
+      <c r="Y52" s="110"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="113"/>
-      <c r="T53" s="113"/>
-      <c r="U53" s="113"/>
-      <c r="V53" s="113"/>
-      <c r="W53" s="113"/>
-      <c r="X53" s="113"/>
-      <c r="Y53" s="113"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="110"/>
+      <c r="W53" s="110"/>
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="113"/>
-      <c r="T54" s="113"/>
-      <c r="U54" s="113"/>
-      <c r="V54" s="113"/>
-      <c r="W54" s="113"/>
-      <c r="X54" s="113"/>
-      <c r="Y54" s="113"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="110"/>
+      <c r="N54" s="110"/>
+      <c r="O54" s="110"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="110"/>
+      <c r="S54" s="110"/>
+      <c r="T54" s="110"/>
+      <c r="U54" s="110"/>
+      <c r="V54" s="110"/>
+      <c r="W54" s="110"/>
+      <c r="X54" s="110"/>
+      <c r="Y54" s="110"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="113"/>
-      <c r="T55" s="113"/>
-      <c r="U55" s="113"/>
-      <c r="V55" s="113"/>
-      <c r="W55" s="113"/>
-      <c r="X55" s="113"/>
-      <c r="Y55" s="113"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="110"/>
+      <c r="V55" s="110"/>
+      <c r="W55" s="110"/>
+      <c r="X55" s="110"/>
+      <c r="Y55" s="110"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="113"/>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="113"/>
-      <c r="T56" s="113"/>
-      <c r="U56" s="113"/>
-      <c r="V56" s="113"/>
-      <c r="W56" s="113"/>
-      <c r="X56" s="113"/>
-      <c r="Y56" s="113"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="110"/>
+      <c r="W56" s="110"/>
+      <c r="X56" s="110"/>
+      <c r="Y56" s="110"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="113"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="113"/>
-      <c r="P57" s="113"/>
-      <c r="Q57" s="113"/>
-      <c r="R57" s="113"/>
-      <c r="S57" s="113"/>
-      <c r="T57" s="113"/>
-      <c r="U57" s="113"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
-      <c r="X57" s="113"/>
-      <c r="Y57" s="113"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="110"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="110"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="113"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113"/>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113"/>
-      <c r="S58" s="113"/>
-      <c r="T58" s="113"/>
-      <c r="U58" s="113"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
-      <c r="X58" s="113"/>
-      <c r="Y58" s="113"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
+      <c r="U58" s="110"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
+      <c r="X58" s="110"/>
+      <c r="Y58" s="110"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="113"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="113"/>
-      <c r="U59" s="113"/>
-      <c r="V59" s="113"/>
-      <c r="W59" s="113"/>
-      <c r="X59" s="113"/>
-      <c r="Y59" s="113"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="110"/>
+      <c r="N59" s="110"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="110"/>
+      <c r="T59" s="110"/>
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
+      <c r="W59" s="110"/>
+      <c r="X59" s="110"/>
+      <c r="Y59" s="110"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="113"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="113"/>
-      <c r="N60" s="113"/>
-      <c r="O60" s="113"/>
-      <c r="P60" s="113"/>
-      <c r="Q60" s="113"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="113"/>
-      <c r="T60" s="113"/>
-      <c r="U60" s="113"/>
-      <c r="V60" s="113"/>
-      <c r="W60" s="113"/>
-      <c r="X60" s="113"/>
-      <c r="Y60" s="113"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="110"/>
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="110"/>
+      <c r="T60" s="110"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="110"/>
+      <c r="X60" s="110"/>
+      <c r="Y60" s="110"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="113"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="113"/>
-      <c r="R61" s="113"/>
-      <c r="S61" s="113"/>
-      <c r="T61" s="113"/>
-      <c r="U61" s="113"/>
-      <c r="V61" s="113"/>
-      <c r="W61" s="113"/>
-      <c r="X61" s="113"/>
-      <c r="Y61" s="113"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="110"/>
+      <c r="M61" s="110"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="110"/>
+      <c r="T61" s="110"/>
+      <c r="U61" s="110"/>
+      <c r="V61" s="110"/>
+      <c r="W61" s="110"/>
+      <c r="X61" s="110"/>
+      <c r="Y61" s="110"/>
     </row>
     <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="113"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="113"/>
-      <c r="Q62" s="113"/>
-      <c r="R62" s="113"/>
-      <c r="S62" s="113"/>
-      <c r="T62" s="113"/>
-      <c r="U62" s="113"/>
-      <c r="V62" s="113"/>
-      <c r="W62" s="113"/>
-      <c r="X62" s="113"/>
-      <c r="Y62" s="113"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="110"/>
+      <c r="M62" s="110"/>
+      <c r="N62" s="110"/>
+      <c r="O62" s="110"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
+      <c r="R62" s="110"/>
+      <c r="S62" s="110"/>
+      <c r="T62" s="110"/>
+      <c r="U62" s="110"/>
+      <c r="V62" s="110"/>
+      <c r="W62" s="110"/>
+      <c r="X62" s="110"/>
+      <c r="Y62" s="110"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="113"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="113"/>
-      <c r="T63" s="113"/>
-      <c r="U63" s="113"/>
-      <c r="V63" s="113"/>
-      <c r="W63" s="113"/>
-      <c r="X63" s="113"/>
-      <c r="Y63" s="113"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="110"/>
+      <c r="T63" s="110"/>
+      <c r="U63" s="110"/>
+      <c r="V63" s="110"/>
+      <c r="W63" s="110"/>
+      <c r="X63" s="110"/>
+      <c r="Y63" s="110"/>
     </row>
     <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="113"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="113"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="113"/>
-      <c r="R64" s="113"/>
-      <c r="S64" s="113"/>
-      <c r="T64" s="113"/>
-      <c r="U64" s="113"/>
-      <c r="V64" s="113"/>
-      <c r="W64" s="113"/>
-      <c r="X64" s="113"/>
-      <c r="Y64" s="113"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
+      <c r="K64" s="110"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="110"/>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="110"/>
+      <c r="T64" s="110"/>
+      <c r="U64" s="110"/>
+      <c r="V64" s="110"/>
+      <c r="W64" s="110"/>
+      <c r="X64" s="110"/>
+      <c r="Y64" s="110"/>
     </row>
     <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="113"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="113"/>
-      <c r="T65" s="113"/>
-      <c r="U65" s="113"/>
-      <c r="V65" s="113"/>
-      <c r="W65" s="113"/>
-      <c r="X65" s="113"/>
-      <c r="Y65" s="113"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
+      <c r="U65" s="110"/>
+      <c r="V65" s="110"/>
+      <c r="W65" s="110"/>
+      <c r="X65" s="110"/>
+      <c r="Y65" s="110"/>
     </row>
     <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="113"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="113"/>
-      <c r="Q66" s="113"/>
-      <c r="R66" s="113"/>
-      <c r="S66" s="113"/>
-      <c r="T66" s="113"/>
-      <c r="U66" s="113"/>
-      <c r="V66" s="113"/>
-      <c r="W66" s="113"/>
-      <c r="X66" s="113"/>
-      <c r="Y66" s="113"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+      <c r="S66" s="110"/>
+      <c r="T66" s="110"/>
+      <c r="U66" s="110"/>
+      <c r="V66" s="110"/>
+      <c r="W66" s="110"/>
+      <c r="X66" s="110"/>
+      <c r="Y66" s="110"/>
     </row>
     <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="113"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="113"/>
-      <c r="S67" s="113"/>
-      <c r="T67" s="113"/>
-      <c r="U67" s="113"/>
-      <c r="V67" s="113"/>
-      <c r="W67" s="113"/>
-      <c r="X67" s="113"/>
-      <c r="Y67" s="113"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="110"/>
+      <c r="S67" s="110"/>
+      <c r="T67" s="110"/>
+      <c r="U67" s="110"/>
+      <c r="V67" s="110"/>
+      <c r="W67" s="110"/>
+      <c r="X67" s="110"/>
+      <c r="Y67" s="110"/>
     </row>
     <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="113"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="113"/>
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="113"/>
-      <c r="R68" s="113"/>
-      <c r="S68" s="113"/>
-      <c r="T68" s="113"/>
-      <c r="U68" s="113"/>
-      <c r="V68" s="113"/>
-      <c r="W68" s="113"/>
-      <c r="X68" s="113"/>
-      <c r="Y68" s="113"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
+      <c r="T68" s="110"/>
+      <c r="U68" s="110"/>
+      <c r="V68" s="110"/>
+      <c r="W68" s="110"/>
+      <c r="X68" s="110"/>
+      <c r="Y68" s="110"/>
     </row>
     <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="113"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="113"/>
-      <c r="U69" s="113"/>
-      <c r="V69" s="113"/>
-      <c r="W69" s="113"/>
-      <c r="X69" s="113"/>
-      <c r="Y69" s="113"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
+      <c r="U69" s="110"/>
+      <c r="V69" s="110"/>
+      <c r="W69" s="110"/>
+      <c r="X69" s="110"/>
+      <c r="Y69" s="110"/>
     </row>
     <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="113"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
+      <c r="A70" s="110"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113"/>
-      <c r="P70" s="113"/>
-      <c r="Q70" s="113"/>
-      <c r="R70" s="113"/>
-      <c r="S70" s="113"/>
-      <c r="T70" s="113"/>
-      <c r="U70" s="113"/>
-      <c r="V70" s="113"/>
-      <c r="W70" s="113"/>
-      <c r="X70" s="113"/>
-      <c r="Y70" s="113"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
+      <c r="M70" s="110"/>
+      <c r="N70" s="110"/>
+      <c r="O70" s="110"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="110"/>
+      <c r="S70" s="110"/>
+      <c r="T70" s="110"/>
+      <c r="U70" s="110"/>
+      <c r="V70" s="110"/>
+      <c r="W70" s="110"/>
+      <c r="X70" s="110"/>
+      <c r="Y70" s="110"/>
     </row>
     <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="113"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="113"/>
-      <c r="P71" s="113"/>
-      <c r="Q71" s="113"/>
-      <c r="R71" s="113"/>
-      <c r="S71" s="113"/>
-      <c r="T71" s="113"/>
-      <c r="U71" s="113"/>
-      <c r="V71" s="113"/>
-      <c r="W71" s="113"/>
-      <c r="X71" s="113"/>
-      <c r="Y71" s="113"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="110"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="110"/>
+      <c r="T71" s="110"/>
+      <c r="U71" s="110"/>
+      <c r="V71" s="110"/>
+      <c r="W71" s="110"/>
+      <c r="X71" s="110"/>
+      <c r="Y71" s="110"/>
     </row>
     <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="113"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="113"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="113"/>
-      <c r="P72" s="113"/>
-      <c r="Q72" s="113"/>
-      <c r="R72" s="113"/>
-      <c r="S72" s="113"/>
-      <c r="T72" s="113"/>
-      <c r="U72" s="113"/>
-      <c r="V72" s="113"/>
-      <c r="W72" s="113"/>
-      <c r="X72" s="113"/>
-      <c r="Y72" s="113"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="110"/>
+      <c r="M72" s="110"/>
+      <c r="N72" s="110"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+      <c r="S72" s="110"/>
+      <c r="T72" s="110"/>
+      <c r="U72" s="110"/>
+      <c r="V72" s="110"/>
+      <c r="W72" s="110"/>
+      <c r="X72" s="110"/>
+      <c r="Y72" s="110"/>
     </row>
     <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="113"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="113"/>
-      <c r="S73" s="113"/>
-      <c r="T73" s="113"/>
-      <c r="U73" s="113"/>
-      <c r="V73" s="113"/>
-      <c r="W73" s="113"/>
-      <c r="X73" s="113"/>
-      <c r="Y73" s="113"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="110"/>
+      <c r="S73" s="110"/>
+      <c r="T73" s="110"/>
+      <c r="U73" s="110"/>
+      <c r="V73" s="110"/>
+      <c r="W73" s="110"/>
+      <c r="X73" s="110"/>
+      <c r="Y73" s="110"/>
     </row>
     <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="113"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="113"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="113"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="113"/>
-      <c r="P74" s="113"/>
-      <c r="Q74" s="113"/>
-      <c r="R74" s="113"/>
-      <c r="S74" s="113"/>
-      <c r="T74" s="113"/>
-      <c r="U74" s="113"/>
-      <c r="V74" s="113"/>
-      <c r="W74" s="113"/>
-      <c r="X74" s="113"/>
-      <c r="Y74" s="113"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="110"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
+      <c r="R74" s="110"/>
+      <c r="S74" s="110"/>
+      <c r="T74" s="110"/>
+      <c r="U74" s="110"/>
+      <c r="V74" s="110"/>
+      <c r="W74" s="110"/>
+      <c r="X74" s="110"/>
+      <c r="Y74" s="110"/>
     </row>
     <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="113"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="113"/>
-      <c r="J75" s="113"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="113"/>
-      <c r="M75" s="113"/>
-      <c r="N75" s="113"/>
-      <c r="O75" s="113"/>
-      <c r="P75" s="113"/>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="113"/>
-      <c r="S75" s="113"/>
-      <c r="T75" s="113"/>
-      <c r="U75" s="113"/>
-      <c r="V75" s="113"/>
-      <c r="W75" s="113"/>
-      <c r="X75" s="113"/>
-      <c r="Y75" s="113"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="110"/>
+      <c r="O75" s="110"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="110"/>
+      <c r="R75" s="110"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="110"/>
+      <c r="U75" s="110"/>
+      <c r="V75" s="110"/>
+      <c r="W75" s="110"/>
+      <c r="X75" s="110"/>
+      <c r="Y75" s="110"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="113"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="113"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113"/>
-      <c r="M76" s="113"/>
-      <c r="N76" s="113"/>
-      <c r="O76" s="113"/>
-      <c r="P76" s="113"/>
-      <c r="Q76" s="113"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="113"/>
-      <c r="T76" s="113"/>
-      <c r="U76" s="113"/>
-      <c r="V76" s="113"/>
-      <c r="W76" s="113"/>
-      <c r="X76" s="113"/>
-      <c r="Y76" s="113"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
+      <c r="K76" s="110"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="110"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="110"/>
+      <c r="S76" s="110"/>
+      <c r="T76" s="110"/>
+      <c r="U76" s="110"/>
+      <c r="V76" s="110"/>
+      <c r="W76" s="110"/>
+      <c r="X76" s="110"/>
+      <c r="Y76" s="110"/>
     </row>
     <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="113"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="113"/>
-      <c r="O77" s="113"/>
-      <c r="P77" s="113"/>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="113"/>
-      <c r="S77" s="113"/>
-      <c r="T77" s="113"/>
-      <c r="U77" s="113"/>
-      <c r="V77" s="113"/>
-      <c r="W77" s="113"/>
-      <c r="X77" s="113"/>
-      <c r="Y77" s="113"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="110"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="110"/>
+      <c r="U77" s="110"/>
+      <c r="V77" s="110"/>
+      <c r="W77" s="110"/>
+      <c r="X77" s="110"/>
+      <c r="Y77" s="110"/>
     </row>
     <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="113"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="113"/>
-      <c r="I78" s="113"/>
-      <c r="J78" s="113"/>
-      <c r="K78" s="113"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="113"/>
-      <c r="N78" s="113"/>
-      <c r="O78" s="113"/>
-      <c r="P78" s="113"/>
-      <c r="Q78" s="113"/>
-      <c r="R78" s="113"/>
-      <c r="S78" s="113"/>
-      <c r="T78" s="113"/>
-      <c r="U78" s="113"/>
-      <c r="V78" s="113"/>
-      <c r="W78" s="113"/>
-      <c r="X78" s="113"/>
-      <c r="Y78" s="113"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="110"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="110"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="110"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
+      <c r="R78" s="110"/>
+      <c r="S78" s="110"/>
+      <c r="T78" s="110"/>
+      <c r="U78" s="110"/>
+      <c r="V78" s="110"/>
+      <c r="W78" s="110"/>
+      <c r="X78" s="110"/>
+      <c r="Y78" s="110"/>
     </row>
     <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="113"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="113"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113"/>
-      <c r="O79" s="113"/>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="113"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="113"/>
-      <c r="T79" s="113"/>
-      <c r="U79" s="113"/>
-      <c r="V79" s="113"/>
-      <c r="W79" s="113"/>
-      <c r="X79" s="113"/>
-      <c r="Y79" s="113"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="110"/>
+      <c r="L79" s="110"/>
+      <c r="M79" s="110"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
+      <c r="R79" s="110"/>
+      <c r="S79" s="110"/>
+      <c r="T79" s="110"/>
+      <c r="U79" s="110"/>
+      <c r="V79" s="110"/>
+      <c r="W79" s="110"/>
+      <c r="X79" s="110"/>
+      <c r="Y79" s="110"/>
     </row>
     <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="113"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="113"/>
-      <c r="H80" s="113"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="113"/>
-      <c r="K80" s="113"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="113"/>
-      <c r="N80" s="113"/>
-      <c r="O80" s="113"/>
-      <c r="P80" s="113"/>
-      <c r="Q80" s="113"/>
-      <c r="R80" s="113"/>
-      <c r="S80" s="113"/>
-      <c r="T80" s="113"/>
-      <c r="U80" s="113"/>
-      <c r="V80" s="113"/>
-      <c r="W80" s="113"/>
-      <c r="X80" s="113"/>
-      <c r="Y80" s="113"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
+      <c r="R80" s="110"/>
+      <c r="S80" s="110"/>
+      <c r="T80" s="110"/>
+      <c r="U80" s="110"/>
+      <c r="V80" s="110"/>
+      <c r="W80" s="110"/>
+      <c r="X80" s="110"/>
+      <c r="Y80" s="110"/>
     </row>
     <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="113"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
-      <c r="U81" s="113"/>
-      <c r="V81" s="113"/>
-      <c r="W81" s="113"/>
-      <c r="X81" s="113"/>
-      <c r="Y81" s="113"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
+      <c r="M81" s="110"/>
+      <c r="N81" s="110"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="110"/>
+      <c r="S81" s="110"/>
+      <c r="T81" s="110"/>
+      <c r="U81" s="110"/>
+      <c r="V81" s="110"/>
+      <c r="W81" s="110"/>
+      <c r="X81" s="110"/>
+      <c r="Y81" s="110"/>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="113"/>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="113"/>
-      <c r="K82" s="113"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="113"/>
-      <c r="N82" s="113"/>
-      <c r="O82" s="113"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="113"/>
-      <c r="R82" s="113"/>
-      <c r="S82" s="113"/>
-      <c r="T82" s="113"/>
-      <c r="U82" s="113"/>
-      <c r="V82" s="113"/>
-      <c r="W82" s="113"/>
-      <c r="X82" s="113"/>
-      <c r="Y82" s="113"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="110"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
+      <c r="R82" s="110"/>
+      <c r="S82" s="110"/>
+      <c r="T82" s="110"/>
+      <c r="U82" s="110"/>
+      <c r="V82" s="110"/>
+      <c r="W82" s="110"/>
+      <c r="X82" s="110"/>
+      <c r="Y82" s="110"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="113"/>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
-      <c r="K83" s="113"/>
-      <c r="L83" s="113"/>
-      <c r="M83" s="113"/>
-      <c r="N83" s="113"/>
-      <c r="O83" s="113"/>
-      <c r="P83" s="113"/>
-      <c r="Q83" s="113"/>
-      <c r="R83" s="113"/>
-      <c r="S83" s="113"/>
-      <c r="T83" s="113"/>
-      <c r="U83" s="113"/>
-      <c r="V83" s="113"/>
-      <c r="W83" s="113"/>
-      <c r="X83" s="113"/>
-      <c r="Y83" s="113"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="110"/>
+      <c r="G83" s="110"/>
+      <c r="H83" s="110"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="110"/>
+      <c r="M83" s="110"/>
+      <c r="N83" s="110"/>
+      <c r="O83" s="110"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
+      <c r="R83" s="110"/>
+      <c r="S83" s="110"/>
+      <c r="T83" s="110"/>
+      <c r="U83" s="110"/>
+      <c r="V83" s="110"/>
+      <c r="W83" s="110"/>
+      <c r="X83" s="110"/>
+      <c r="Y83" s="110"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="113"/>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113"/>
-      <c r="G84" s="113"/>
-      <c r="H84" s="113"/>
-      <c r="I84" s="113"/>
-      <c r="J84" s="113"/>
-      <c r="K84" s="113"/>
-      <c r="L84" s="113"/>
-      <c r="M84" s="113"/>
-      <c r="N84" s="113"/>
-      <c r="O84" s="113"/>
-      <c r="P84" s="113"/>
-      <c r="Q84" s="113"/>
-      <c r="R84" s="113"/>
-      <c r="S84" s="113"/>
-      <c r="T84" s="113"/>
-      <c r="U84" s="113"/>
-      <c r="V84" s="113"/>
-      <c r="W84" s="113"/>
-      <c r="X84" s="113"/>
-      <c r="Y84" s="113"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
+      <c r="R84" s="110"/>
+      <c r="S84" s="110"/>
+      <c r="T84" s="110"/>
+      <c r="U84" s="110"/>
+      <c r="V84" s="110"/>
+      <c r="W84" s="110"/>
+      <c r="X84" s="110"/>
+      <c r="Y84" s="110"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="113"/>
-      <c r="B85" s="113"/>
-      <c r="C85" s="113"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="110"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="113"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="113"/>
-      <c r="N85" s="113"/>
-      <c r="O85" s="113"/>
-      <c r="P85" s="113"/>
-      <c r="Q85" s="113"/>
-      <c r="R85" s="113"/>
-      <c r="S85" s="113"/>
-      <c r="T85" s="113"/>
-      <c r="U85" s="113"/>
-      <c r="V85" s="113"/>
-      <c r="W85" s="113"/>
-      <c r="X85" s="113"/>
-      <c r="Y85" s="113"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+      <c r="J85" s="110"/>
+      <c r="K85" s="110"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="110"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="110"/>
+      <c r="U85" s="110"/>
+      <c r="V85" s="110"/>
+      <c r="W85" s="110"/>
+      <c r="X85" s="110"/>
+      <c r="Y85" s="110"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="113"/>
-      <c r="B86" s="113"/>
-      <c r="C86" s="113"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="113"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="113"/>
-      <c r="J86" s="113"/>
-      <c r="K86" s="113"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="113"/>
-      <c r="N86" s="113"/>
-      <c r="O86" s="113"/>
-      <c r="P86" s="113"/>
-      <c r="Q86" s="113"/>
-      <c r="R86" s="113"/>
-      <c r="S86" s="113"/>
-      <c r="T86" s="113"/>
-      <c r="U86" s="113"/>
-      <c r="V86" s="113"/>
-      <c r="W86" s="113"/>
-      <c r="X86" s="113"/>
-      <c r="Y86" s="113"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110"/>
+      <c r="O86" s="110"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="110"/>
+      <c r="S86" s="110"/>
+      <c r="T86" s="110"/>
+      <c r="U86" s="110"/>
+      <c r="V86" s="110"/>
+      <c r="W86" s="110"/>
+      <c r="X86" s="110"/>
+      <c r="Y86" s="110"/>
     </row>
     <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="113"/>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="113"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="113"/>
-      <c r="J87" s="113"/>
-      <c r="K87" s="113"/>
-      <c r="L87" s="113"/>
-      <c r="M87" s="113"/>
-      <c r="N87" s="113"/>
-      <c r="O87" s="113"/>
-      <c r="P87" s="113"/>
-      <c r="Q87" s="113"/>
-      <c r="R87" s="113"/>
-      <c r="S87" s="113"/>
-      <c r="T87" s="113"/>
-      <c r="U87" s="113"/>
-      <c r="V87" s="113"/>
-      <c r="W87" s="113"/>
-      <c r="X87" s="113"/>
-      <c r="Y87" s="113"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="110"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="110"/>
+      <c r="O87" s="110"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
+      <c r="R87" s="110"/>
+      <c r="S87" s="110"/>
+      <c r="T87" s="110"/>
+      <c r="U87" s="110"/>
+      <c r="V87" s="110"/>
+      <c r="W87" s="110"/>
+      <c r="X87" s="110"/>
+      <c r="Y87" s="110"/>
     </row>
     <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="113"/>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
+      <c r="A88" s="110"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="113"/>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="113"/>
-      <c r="K88" s="113"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="113"/>
-      <c r="N88" s="113"/>
-      <c r="O88" s="113"/>
-      <c r="P88" s="113"/>
-      <c r="Q88" s="113"/>
-      <c r="R88" s="113"/>
-      <c r="S88" s="113"/>
-      <c r="T88" s="113"/>
-      <c r="U88" s="113"/>
-      <c r="V88" s="113"/>
-      <c r="W88" s="113"/>
-      <c r="X88" s="113"/>
-      <c r="Y88" s="113"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="110"/>
+      <c r="L88" s="110"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="110"/>
+      <c r="O88" s="110"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="110"/>
+      <c r="S88" s="110"/>
+      <c r="T88" s="110"/>
+      <c r="U88" s="110"/>
+      <c r="V88" s="110"/>
+      <c r="W88" s="110"/>
+      <c r="X88" s="110"/>
+      <c r="Y88" s="110"/>
     </row>
     <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="113"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="113"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
-      <c r="O89" s="113"/>
-      <c r="P89" s="113"/>
-      <c r="Q89" s="113"/>
-      <c r="R89" s="113"/>
-      <c r="S89" s="113"/>
-      <c r="T89" s="113"/>
-      <c r="U89" s="113"/>
-      <c r="V89" s="113"/>
-      <c r="W89" s="113"/>
-      <c r="X89" s="113"/>
-      <c r="Y89" s="113"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="110"/>
+      <c r="M89" s="110"/>
+      <c r="N89" s="110"/>
+      <c r="O89" s="110"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
+      <c r="R89" s="110"/>
+      <c r="S89" s="110"/>
+      <c r="T89" s="110"/>
+      <c r="U89" s="110"/>
+      <c r="V89" s="110"/>
+      <c r="W89" s="110"/>
+      <c r="X89" s="110"/>
+      <c r="Y89" s="110"/>
     </row>
     <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="113"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="113"/>
-      <c r="K90" s="113"/>
-      <c r="L90" s="113"/>
-      <c r="M90" s="113"/>
-      <c r="N90" s="113"/>
-      <c r="O90" s="113"/>
-      <c r="P90" s="113"/>
-      <c r="Q90" s="113"/>
-      <c r="R90" s="113"/>
-      <c r="S90" s="113"/>
-      <c r="T90" s="113"/>
-      <c r="U90" s="113"/>
-      <c r="V90" s="113"/>
-      <c r="W90" s="113"/>
-      <c r="X90" s="113"/>
-      <c r="Y90" s="113"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="110"/>
+      <c r="J90" s="110"/>
+      <c r="K90" s="110"/>
+      <c r="L90" s="110"/>
+      <c r="M90" s="110"/>
+      <c r="N90" s="110"/>
+      <c r="O90" s="110"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
+      <c r="R90" s="110"/>
+      <c r="S90" s="110"/>
+      <c r="T90" s="110"/>
+      <c r="U90" s="110"/>
+      <c r="V90" s="110"/>
+      <c r="W90" s="110"/>
+      <c r="X90" s="110"/>
+      <c r="Y90" s="110"/>
     </row>
     <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="113"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="113"/>
-      <c r="I91" s="113"/>
-      <c r="J91" s="113"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="113"/>
-      <c r="M91" s="113"/>
-      <c r="N91" s="113"/>
-      <c r="O91" s="113"/>
-      <c r="P91" s="113"/>
-      <c r="Q91" s="113"/>
-      <c r="R91" s="113"/>
-      <c r="S91" s="113"/>
-      <c r="T91" s="113"/>
-      <c r="U91" s="113"/>
-      <c r="V91" s="113"/>
-      <c r="W91" s="113"/>
-      <c r="X91" s="113"/>
-      <c r="Y91" s="113"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
+      <c r="I91" s="110"/>
+      <c r="J91" s="110"/>
+      <c r="K91" s="110"/>
+      <c r="L91" s="110"/>
+      <c r="M91" s="110"/>
+      <c r="N91" s="110"/>
+      <c r="O91" s="110"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
+      <c r="R91" s="110"/>
+      <c r="S91" s="110"/>
+      <c r="T91" s="110"/>
+      <c r="U91" s="110"/>
+      <c r="V91" s="110"/>
+      <c r="W91" s="110"/>
+      <c r="X91" s="110"/>
+      <c r="Y91" s="110"/>
     </row>
     <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="113"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="113"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="113"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="113"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="113"/>
-      <c r="J92" s="113"/>
-      <c r="K92" s="113"/>
-      <c r="L92" s="113"/>
-      <c r="M92" s="113"/>
-      <c r="N92" s="113"/>
-      <c r="O92" s="113"/>
-      <c r="P92" s="113"/>
-      <c r="Q92" s="113"/>
-      <c r="R92" s="113"/>
-      <c r="S92" s="113"/>
-      <c r="T92" s="113"/>
-      <c r="U92" s="113"/>
-      <c r="V92" s="113"/>
-      <c r="W92" s="113"/>
-      <c r="X92" s="113"/>
-      <c r="Y92" s="113"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="110"/>
+      <c r="J92" s="110"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="110"/>
+      <c r="M92" s="110"/>
+      <c r="N92" s="110"/>
+      <c r="O92" s="110"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="110"/>
+      <c r="R92" s="110"/>
+      <c r="S92" s="110"/>
+      <c r="T92" s="110"/>
+      <c r="U92" s="110"/>
+      <c r="V92" s="110"/>
+      <c r="W92" s="110"/>
+      <c r="X92" s="110"/>
+      <c r="Y92" s="110"/>
     </row>
     <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="113"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="113"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="113"/>
-      <c r="F93" s="113"/>
-      <c r="G93" s="113"/>
-      <c r="H93" s="113"/>
-      <c r="I93" s="113"/>
-      <c r="J93" s="113"/>
-      <c r="K93" s="113"/>
-      <c r="L93" s="113"/>
-      <c r="M93" s="113"/>
-      <c r="N93" s="113"/>
-      <c r="O93" s="113"/>
-      <c r="P93" s="113"/>
-      <c r="Q93" s="113"/>
-      <c r="R93" s="113"/>
-      <c r="S93" s="113"/>
-      <c r="T93" s="113"/>
-      <c r="U93" s="113"/>
-      <c r="V93" s="113"/>
-      <c r="W93" s="113"/>
-      <c r="X93" s="113"/>
-      <c r="Y93" s="113"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="110"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="110"/>
+      <c r="O93" s="110"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
+      <c r="R93" s="110"/>
+      <c r="S93" s="110"/>
+      <c r="T93" s="110"/>
+      <c r="U93" s="110"/>
+      <c r="V93" s="110"/>
+      <c r="W93" s="110"/>
+      <c r="X93" s="110"/>
+      <c r="Y93" s="110"/>
     </row>
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="113"/>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
+      <c r="A94" s="110"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="113"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="113"/>
-      <c r="H94" s="113"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="113"/>
-      <c r="K94" s="113"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="113"/>
-      <c r="N94" s="113"/>
-      <c r="O94" s="113"/>
-      <c r="P94" s="113"/>
-      <c r="Q94" s="113"/>
-      <c r="R94" s="113"/>
-      <c r="S94" s="113"/>
-      <c r="T94" s="113"/>
-      <c r="U94" s="113"/>
-      <c r="V94" s="113"/>
-      <c r="W94" s="113"/>
-      <c r="X94" s="113"/>
-      <c r="Y94" s="113"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="110"/>
+      <c r="N94" s="110"/>
+      <c r="O94" s="110"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="110"/>
+      <c r="R94" s="110"/>
+      <c r="S94" s="110"/>
+      <c r="T94" s="110"/>
+      <c r="U94" s="110"/>
+      <c r="V94" s="110"/>
+      <c r="W94" s="110"/>
+      <c r="X94" s="110"/>
+      <c r="Y94" s="110"/>
     </row>
     <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="113"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="113"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="113"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="113"/>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="113"/>
-      <c r="K95" s="113"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="113"/>
-      <c r="N95" s="113"/>
-      <c r="O95" s="113"/>
-      <c r="P95" s="113"/>
-      <c r="Q95" s="113"/>
-      <c r="R95" s="113"/>
-      <c r="S95" s="113"/>
-      <c r="T95" s="113"/>
-      <c r="U95" s="113"/>
-      <c r="V95" s="113"/>
-      <c r="W95" s="113"/>
-      <c r="X95" s="113"/>
-      <c r="Y95" s="113"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="110"/>
+      <c r="J95" s="110"/>
+      <c r="K95" s="110"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="110"/>
+      <c r="N95" s="110"/>
+      <c r="O95" s="110"/>
+      <c r="P95" s="110"/>
+      <c r="Q95" s="110"/>
+      <c r="R95" s="110"/>
+      <c r="S95" s="110"/>
+      <c r="T95" s="110"/>
+      <c r="U95" s="110"/>
+      <c r="V95" s="110"/>
+      <c r="W95" s="110"/>
+      <c r="X95" s="110"/>
+      <c r="Y95" s="110"/>
     </row>
     <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="113"/>
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="113"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="113"/>
-      <c r="I96" s="113"/>
-      <c r="J96" s="113"/>
-      <c r="K96" s="113"/>
-      <c r="L96" s="113"/>
-      <c r="M96" s="113"/>
-      <c r="N96" s="113"/>
-      <c r="O96" s="113"/>
-      <c r="P96" s="113"/>
-      <c r="Q96" s="113"/>
-      <c r="R96" s="113"/>
-      <c r="S96" s="113"/>
-      <c r="T96" s="113"/>
-      <c r="U96" s="113"/>
-      <c r="V96" s="113"/>
-      <c r="W96" s="113"/>
-      <c r="X96" s="113"/>
-      <c r="Y96" s="113"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="110"/>
+      <c r="M96" s="110"/>
+      <c r="N96" s="110"/>
+      <c r="O96" s="110"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="110"/>
+      <c r="R96" s="110"/>
+      <c r="S96" s="110"/>
+      <c r="T96" s="110"/>
+      <c r="U96" s="110"/>
+      <c r="V96" s="110"/>
+      <c r="W96" s="110"/>
+      <c r="X96" s="110"/>
+      <c r="Y96" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12494,10 +12380,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8D8907-0AAF-43DC-974C-6E5C5191C407}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12564,7 +12450,7 @@
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="117"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="41"/>
       <c r="H5" s="42" t="s">
         <v>40</v>
@@ -12578,11 +12464,11 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -12593,11 +12479,11 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="41"/>
     </row>
@@ -12608,11 +12494,11 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="41"/>
     </row>
@@ -12623,11 +12509,11 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="41"/>
     </row>
@@ -12638,7 +12524,7 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="45"/>
@@ -12651,7 +12537,7 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -12664,107 +12550,83 @@
       </c>
       <c r="C12" s="41"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="48" t="s">
-        <v>77</v>
-      </c>
+      <c r="F12" s="137"/>
       <c r="G12" s="41"/>
       <c r="H12" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="43" t="s">
-        <v>10</v>
-      </c>
       <c r="G13" s="41"/>
       <c r="H13" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="103" t="s">
-        <v>183</v>
+      <c r="D14" s="100" t="s">
+        <v>181</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="43" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="41"/>
       <c r="H14" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="102"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="43" t="s">
-        <v>35</v>
-      </c>
       <c r="G15" s="41"/>
-      <c r="H15" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="H15" s="43"/>
       <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="48" t="s">
-        <v>183</v>
-      </c>
       <c r="G16" s="41"/>
-      <c r="H16" s="45" t="s">
-        <v>42</v>
-      </c>
+      <c r="H16" s="45"/>
       <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
-      <c r="B17" s="48" t="s">
-        <v>77</v>
-      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="47" t="s">
-        <v>64</v>
-      </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="47" t="s">
-        <v>183</v>
-      </c>
+      <c r="B18" s="47"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="I18" s="41"/>
     </row>
@@ -12776,8 +12638,11 @@
         <v>36</v>
       </c>
       <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="41"/>
     </row>
@@ -12789,8 +12654,11 @@
         <v>37</v>
       </c>
       <c r="E20" s="41"/>
+      <c r="F20" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="G20" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="41"/>
     </row>
@@ -12799,11 +12667,14 @@
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E21" s="41"/>
+      <c r="F21" s="43" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="41"/>
     </row>
@@ -12815,6 +12686,9 @@
         <v>38</v>
       </c>
       <c r="E22" s="41"/>
+      <c r="F22" s="43" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="47"/>
       <c r="I22" s="41"/>
     </row>
@@ -12823,7 +12697,9 @@
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="F23" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="G23" s="41"/>
       <c r="I23" s="41"/>
     </row>
@@ -12832,16 +12708,16 @@
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="42" t="s">
-        <v>10</v>
+      <c r="F24" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -12849,16 +12725,14 @@
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="46" t="s">
-        <v>30</v>
-      </c>
+      <c r="F25" s="137"/>
       <c r="G25" s="41"/>
       <c r="H25" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -12866,12 +12740,10 @@
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="43" t="s">
-        <v>60</v>
-      </c>
+      <c r="F26" s="113"/>
       <c r="G26" s="41"/>
       <c r="H26" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -12881,16 +12753,13 @@
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="43" t="s">
-        <v>61</v>
-      </c>
       <c r="G27" s="41"/>
       <c r="H27" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12899,28 +12768,20 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="G28" s="41"/>
       <c r="H28" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="44" t="s">
-        <v>63</v>
-      </c>
       <c r="G29" s="41"/>
-      <c r="H29" s="47" t="s">
-        <v>10</v>
-      </c>
+      <c r="H29" s="47"/>
       <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -12929,28 +12790,17 @@
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="G30" s="41"/>
       <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="41"/>
       <c r="D31" s="41"/>
-      <c r="F31" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="41"/>
       <c r="D32"/>
-      <c r="F32" s="116"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="95" t="s">
-        <v>196</v>
-      </c>
+      <c r="F32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12963,8 +12813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DF15E-D6FE-485B-8CFA-89EAC1C12B6D}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12984,159 +12834,125 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="J5" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="122" t="s">
-        <v>201</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="D7" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>157</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>212</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I8" s="58"/>
-      <c r="J8" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="69" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D10" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="95" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="96"/>
+        <v>165</v>
+      </c>
+      <c r="G10" s="95"/>
       <c r="H10" s="56"/>
-      <c r="J10" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+    </row>
+    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D11" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="58"/>
-      <c r="H11" s="99"/>
-      <c r="J11" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="69" t="s">
-        <v>215</v>
-      </c>
+      <c r="H11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" s="58"/>
-      <c r="J12" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>223</v>
-      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="58"/>
-      <c r="E13" s="99"/>
+      <c r="E13" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13146,10 +12962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13163,7 +12979,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -13178,21 +12994,27 @@
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="C2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="72" t="s">
-        <v>87</v>
+      <c r="G2" s="139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -13200,20 +13022,20 @@
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
       <c r="D3" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>33</v>
@@ -13221,7 +13043,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="74"/>
@@ -13230,10 +13052,10 @@
     </row>
     <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>94</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="73"/>
@@ -13241,72 +13063,72 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>97</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>101</v>
-      </c>
       <c r="C9" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:13" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
     </row>
-    <row r="11" spans="1:13" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
@@ -13315,26 +13137,26 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>105</v>
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="C14" s="74" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>108</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
@@ -13348,7 +13170,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
@@ -13357,7 +13179,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="73"/>
       <c r="C17" s="74"/>
@@ -13366,10 +13188,10 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="73"/>
@@ -13377,10 +13199,10 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="73" t="s">
         <v>113</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>114</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="73"/>
@@ -13388,88 +13210,88 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="C20" s="74" t="s">
         <v>116</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>117</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="74" t="s">
         <v>118</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>119</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="73"/>
     </row>
     <row r="23" spans="1:5" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="C24" s="74" t="s">
         <v>122</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>123</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="73" t="s">
-        <v>125</v>
-      </c>
       <c r="C25" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
     </row>
     <row r="26" spans="1:5" s="88" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="73"/>
@@ -13484,7 +13306,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
@@ -13493,31 +13315,31 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="73" t="s">
-        <v>128</v>
-      </c>
       <c r="C29" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
     </row>
-    <row r="31" spans="1:5" s="112" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="109" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="81"/>
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
@@ -13526,7 +13348,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
@@ -13535,7 +13357,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="73" t="s">
         <v>10</v>
@@ -13546,10 +13368,10 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="73" t="s">
         <v>131</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>132</v>
       </c>
       <c r="C34" s="74"/>
       <c r="D34" s="73"/>
@@ -13557,10 +13379,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="73" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>134</v>
       </c>
       <c r="C35" s="74"/>
       <c r="D35" s="73"/>
@@ -13568,10 +13390,10 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="73" t="s">
         <v>135</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>136</v>
       </c>
       <c r="C36" s="74"/>
       <c r="D36" s="73"/>
@@ -13586,7 +13408,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
@@ -13594,163 +13416,228 @@
       <c r="E38" s="73"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
-        <v>138</v>
+      <c r="A39" s="140" t="s">
+        <v>210</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
-        <v>153</v>
+    <row r="40" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="140" t="s">
+        <v>211</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
     </row>
-    <row r="41" spans="1:5" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
-        <v>188</v>
+    <row r="41" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="140" t="s">
+        <v>212</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
     </row>
-    <row r="42" spans="1:5" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B42" s="73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
     </row>
-    <row r="43" spans="1:5" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="111" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="B43" s="73" t="s">
+        <v>138</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
     </row>
-    <row r="44" spans="1:5" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="111" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>138</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="73"/>
     </row>
-    <row r="45" spans="1:5" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="111" t="s">
-        <v>193</v>
+    <row r="45" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>204</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="73"/>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+    <row r="46" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="140" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-    </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
-        <v>144</v>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+    </row>
+    <row r="47" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="140" t="s">
+        <v>207</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="73"/>
       <c r="E47" s="73"/>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>147</v>
+        <v>188</v>
+      </c>
+      <c r="B48" s="108" t="s">
+        <v>191</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="73"/>
       <c r="E48" s="73"/>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="74"/>
+    <row r="49" spans="1:5" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" s="73"/>
       <c r="E49" s="73"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
+    <row r="50" spans="1:5" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>141</v>
+      </c>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="81" t="s">
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+    </row>
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315E7C60-1426-424A-85F6-2D6ED5A5C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8D79B-99BA-4DB0-921C-EC4758499900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t>Area</t>
   </si>
@@ -682,10 +682,25 @@
     <t>There's a popup when the Layer Transitions instead of a cave</t>
   </si>
   <si>
-    <t>There is a screen wipe when transitioning between the menu and game</t>
-  </si>
-  <si>
     <t>There is a credits section on the main menu that thanks the different asset providers from the Unity Store</t>
+  </si>
+  <si>
+    <t>ForestFloorGreen.png</t>
+  </si>
+  <si>
+    <t>Tree Texture</t>
+  </si>
+  <si>
+    <t>SmoothSand.png</t>
+  </si>
+  <si>
+    <t>Falling Rectangles Need to speed up their fall as the layer increases</t>
+  </si>
+  <si>
+    <t>There is a loading screen between the Menu and the game</t>
+  </si>
+  <si>
+    <t>There is a loading screen between the menu and the game</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1495,12 +1510,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1539,6 +1548,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2033,14 +2045,14 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="129" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="131"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2059,14 +2071,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="131"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="36"/>
       <c r="H2" s="35" t="s">
         <v>74</v>
@@ -2087,14 +2099,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="132" t="s">
+      <c r="D3" s="129"/>
+      <c r="E3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="131"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="91"/>
       <c r="H3" s="35"/>
       <c r="I3" s="1"/>
@@ -2113,14 +2125,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2184,145 +2196,145 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="113" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="114">
         <v>3</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116">
+      <c r="D7" s="114"/>
+      <c r="E7" s="114">
         <v>3</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-    </row>
-    <row r="8" spans="1:20" s="117" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+    </row>
+    <row r="8" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <v>2</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118">
+      <c r="D8" s="116"/>
+      <c r="E8" s="116">
         <v>2</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-    </row>
-    <row r="9" spans="1:20" s="117" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+    </row>
+    <row r="9" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="116">
         <v>2</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118">
+      <c r="D9" s="116"/>
+      <c r="E9" s="116">
         <v>2</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-    </row>
-    <row r="10" spans="1:20" s="117" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+    </row>
+    <row r="10" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="116">
         <v>1</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118">
+      <c r="D10" s="116"/>
+      <c r="E10" s="116">
         <v>2</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-    </row>
-    <row r="11" spans="1:20" s="123" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+    </row>
+    <row r="11" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="122">
         <v>2</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124">
+      <c r="D11" s="122"/>
+      <c r="E11" s="122">
         <v>2</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
@@ -2348,55 +2360,61 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="113" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="114">
         <v>1</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116">
+      <c r="D13" s="114"/>
+      <c r="E13" s="114">
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-    </row>
-    <row r="14" spans="1:20" s="123" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+    </row>
+    <row r="14" spans="1:20" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="122">
+        <v>2</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122">
+        <v>3</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
@@ -2422,94 +2440,94 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" s="111" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="110">
-        <v>2</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
@@ -2526,45 +2544,45 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" s="123" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="124">
-        <v>2</v>
-      </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124">
-        <v>2</v>
+    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>3</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
@@ -2582,10 +2600,10 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -2610,18 +2628,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
@@ -2638,18 +2650,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -3985,50 +3991,6 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-    </row>
-    <row r="85" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-    </row>
-    <row r="86" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4160,11 +4122,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4316,7 +4278,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="137" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="1"/>
@@ -4351,7 +4313,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="139"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="24" t="s">
@@ -4384,7 +4346,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="24" t="s">
@@ -4512,104 +4474,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5279,15 +5241,15 @@
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
       <c r="O39" s="1"/>
@@ -6971,11 +6933,11 @@
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
@@ -7321,104 +7283,104 @@
       <c r="Y14" s="86"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="86"/>
       <c r="P18" s="86"/>
@@ -8072,15 +8034,15 @@
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
       <c r="O39" s="86"/>
@@ -9655,8 +9617,8 @@
   </sheetPr>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9763,11 +9725,11 @@
       <c r="A4" s="105"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="105"/>
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
@@ -10113,104 +10075,104 @@
       <c r="Y14" s="105"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
       <c r="O18" s="105"/>
       <c r="P18" s="105"/>
@@ -10478,16 +10440,16 @@
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="99">
         <v>2</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="99">
         <v>3</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="101">
         <v>4</v>
       </c>
       <c r="G26" s="29"/>
@@ -10513,8 +10475,8 @@
     <row r="27" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="94" t="s">
-        <v>214</v>
+      <c r="C27" s="48" t="s">
+        <v>220</v>
       </c>
       <c r="D27" s="49">
         <v>2</v>
@@ -10548,7 +10510,7 @@
     <row r="28" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="51"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
@@ -10721,15 +10683,15 @@
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="134"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="28"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="134"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="133"/>
       <c r="M34" s="29"/>
       <c r="N34" s="16"/>
       <c r="O34" s="105"/>
@@ -12310,21 +12272,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="117" customWidth="1"/>
-    <col min="2" max="2" width="0.42578125" style="117" customWidth="1"/>
-    <col min="3" max="3" width="32" style="117" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="117" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="117" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="117" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="117" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="117" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="117" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="117" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="117" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="117" customWidth="1"/>
-    <col min="13" max="13" width="13" style="117" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="117" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="117"/>
+    <col min="1" max="1" width="34" style="115" customWidth="1"/>
+    <col min="2" max="2" width="0.42578125" style="115" customWidth="1"/>
+    <col min="3" max="3" width="32" style="115" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="115" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="115" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="115" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="115" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="115" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="115" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="13" style="115" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" style="115" customWidth="1"/>
+    <col min="15" max="16384" width="17.28515625" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -12340,107 +12302,107 @@
       <c r="J1" s="107"/>
       <c r="K1" s="107"/>
       <c r="L1" s="107"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="135" t="s">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="24"/>
       <c r="E5" s="14" t="s">
         <v>12</v>
@@ -12448,30 +12410,30 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
@@ -12481,30 +12443,30 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="24" t="s">
         <v>15</v>
       </c>
@@ -12514,30 +12476,30 @@
       <c r="F7" s="24">
         <v>0</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="24" t="s">
         <v>16</v>
       </c>
@@ -12547,30 +12509,30 @@
       <c r="F8" s="24">
         <v>0</v>
       </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
@@ -12580,30 +12542,30 @@
       <c r="F9" s="24">
         <v>0</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
@@ -12613,30 +12575,30 @@
       <c r="F10" s="24">
         <v>0</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
@@ -12646,30 +12608,30 @@
       <c r="F11" s="24">
         <v>0</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
@@ -12679,30 +12641,30 @@
       <c r="F12" s="24">
         <v>0</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
@@ -12714,164 +12676,164 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
@@ -12933,19 +12895,19 @@
       <c r="L20" s="49"/>
       <c r="M20" s="51"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="118"/>
+      <c r="O20" s="116"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
@@ -12962,19 +12924,19 @@
       <c r="L21" s="49"/>
       <c r="M21" s="51"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="118"/>
+      <c r="O21" s="116"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
     </row>
     <row r="22" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
@@ -12991,17 +12953,17 @@
       <c r="L22" s="49"/>
       <c r="M22" s="51"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
     </row>
     <row r="23" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
@@ -13018,17 +12980,17 @@
       <c r="L23" s="49"/>
       <c r="M23" s="51"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
@@ -13045,17 +13007,17 @@
       <c r="L24" s="49"/>
       <c r="M24" s="51"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
@@ -13072,17 +13034,17 @@
       <c r="L25" s="49"/>
       <c r="M25" s="51"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
     </row>
     <row r="26" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
@@ -13099,17 +13061,17 @@
       <c r="L26" s="49"/>
       <c r="M26" s="50"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
     </row>
     <row r="27" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
@@ -13126,17 +13088,17 @@
       <c r="L27" s="49"/>
       <c r="M27" s="51"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
@@ -13153,17 +13115,17 @@
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
     </row>
     <row r="29" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
@@ -13180,17 +13142,17 @@
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
     </row>
     <row r="30" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
@@ -13207,17 +13169,17 @@
       <c r="L30" s="54"/>
       <c r="M30" s="51"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
     </row>
     <row r="31" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
@@ -13234,17 +13196,17 @@
       <c r="L31" s="49"/>
       <c r="M31" s="51"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
@@ -13261,17 +13223,17 @@
       <c r="L32" s="49"/>
       <c r="M32" s="51"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
     </row>
     <row r="33" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
@@ -13288,17 +13250,17 @@
       <c r="L33" s="49"/>
       <c r="M33" s="51"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
@@ -13315,17 +13277,17 @@
       <c r="L34" s="49"/>
       <c r="M34" s="51"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
     </row>
     <row r="35" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
@@ -13342,17 +13304,17 @@
       <c r="L35" s="49"/>
       <c r="M35" s="51"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="116"/>
+      <c r="V35" s="116"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="116"/>
     </row>
     <row r="36" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
@@ -13369,17 +13331,17 @@
       <c r="L36" s="49"/>
       <c r="M36" s="51"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
@@ -13396,17 +13358,17 @@
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="118"/>
-      <c r="Y37" s="118"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
@@ -13433,1583 +13395,1583 @@
         <v>0</v>
       </c>
       <c r="N38" s="16"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="116"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="118"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="118"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="116"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="118"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="116"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="118"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="118"/>
-      <c r="X41" s="118"/>
-      <c r="Y41" s="118"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="116"/>
+      <c r="Y41" s="116"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="118"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="116"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="118"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
+      <c r="Y43" s="116"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="118"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-      <c r="U44" s="118"/>
-      <c r="V44" s="118"/>
-      <c r="W44" s="118"/>
-      <c r="X44" s="118"/>
-      <c r="Y44" s="118"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="118"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="118"/>
-      <c r="X45" s="118"/>
-      <c r="Y45" s="118"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="116"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="118"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="118"/>
-      <c r="Y46" s="118"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="118"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="118"/>
-      <c r="X47" s="118"/>
-      <c r="Y47" s="118"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="116"/>
+      <c r="S47" s="116"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="116"/>
+      <c r="V47" s="116"/>
+      <c r="W47" s="116"/>
+      <c r="X47" s="116"/>
+      <c r="Y47" s="116"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="118"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="118"/>
-      <c r="W48" s="118"/>
-      <c r="X48" s="118"/>
-      <c r="Y48" s="118"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="116"/>
+      <c r="S48" s="116"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="116"/>
+      <c r="V48" s="116"/>
+      <c r="W48" s="116"/>
+      <c r="X48" s="116"/>
+      <c r="Y48" s="116"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="118"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="118"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="118"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="116"/>
+      <c r="U49" s="116"/>
+      <c r="V49" s="116"/>
+      <c r="W49" s="116"/>
+      <c r="X49" s="116"/>
+      <c r="Y49" s="116"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="118"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="118"/>
-      <c r="X50" s="118"/>
-      <c r="Y50" s="118"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
+      <c r="U50" s="116"/>
+      <c r="V50" s="116"/>
+      <c r="W50" s="116"/>
+      <c r="X50" s="116"/>
+      <c r="Y50" s="116"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="118"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="118"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="116"/>
+      <c r="T51" s="116"/>
+      <c r="U51" s="116"/>
+      <c r="V51" s="116"/>
+      <c r="W51" s="116"/>
+      <c r="X51" s="116"/>
+      <c r="Y51" s="116"/>
     </row>
     <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="118"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="116"/>
+      <c r="W52" s="116"/>
+      <c r="X52" s="116"/>
+      <c r="Y52" s="116"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="118"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="118"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="118"/>
-      <c r="W53" s="118"/>
-      <c r="X53" s="118"/>
-      <c r="Y53" s="118"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="118"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-      <c r="U54" s="118"/>
-      <c r="V54" s="118"/>
-      <c r="W54" s="118"/>
-      <c r="X54" s="118"/>
-      <c r="Y54" s="118"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="116"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="118"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="118"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="118"/>
-      <c r="U55" s="118"/>
-      <c r="V55" s="118"/>
-      <c r="W55" s="118"/>
-      <c r="X55" s="118"/>
-      <c r="Y55" s="118"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="116"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="116"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
+      <c r="V55" s="116"/>
+      <c r="W55" s="116"/>
+      <c r="X55" s="116"/>
+      <c r="Y55" s="116"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="118"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="118"/>
-      <c r="X56" s="118"/>
-      <c r="Y56" s="118"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="116"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="116"/>
+      <c r="T56" s="116"/>
+      <c r="U56" s="116"/>
+      <c r="V56" s="116"/>
+      <c r="W56" s="116"/>
+      <c r="X56" s="116"/>
+      <c r="Y56" s="116"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="118"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
-      <c r="Y57" s="118"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="116"/>
+      <c r="R57" s="116"/>
+      <c r="S57" s="116"/>
+      <c r="T57" s="116"/>
+      <c r="U57" s="116"/>
+      <c r="V57" s="116"/>
+      <c r="W57" s="116"/>
+      <c r="X57" s="116"/>
+      <c r="Y57" s="116"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="118"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="118"/>
-      <c r="Y58" s="118"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="116"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="116"/>
+      <c r="W58" s="116"/>
+      <c r="X58" s="116"/>
+      <c r="Y58" s="116"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="118"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="118"/>
-      <c r="Y59" s="118"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="116"/>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
+      <c r="V59" s="116"/>
+      <c r="W59" s="116"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="116"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="118"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="118"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="116"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="118"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="118"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
     </row>
     <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="118"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="118"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="118"/>
-      <c r="U62" s="118"/>
-      <c r="V62" s="118"/>
-      <c r="W62" s="118"/>
-      <c r="X62" s="118"/>
-      <c r="Y62" s="118"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="118"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="118"/>
-      <c r="R63" s="118"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="118"/>
-      <c r="U63" s="118"/>
-      <c r="V63" s="118"/>
-      <c r="W63" s="118"/>
-      <c r="X63" s="118"/>
-      <c r="Y63" s="118"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="116"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
     </row>
     <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="118"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="118"/>
-      <c r="T64" s="118"/>
-      <c r="U64" s="118"/>
-      <c r="V64" s="118"/>
-      <c r="W64" s="118"/>
-      <c r="X64" s="118"/>
-      <c r="Y64" s="118"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
     </row>
     <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="118"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="118"/>
-      <c r="Y65" s="118"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="116"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
     </row>
     <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="118"/>
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="118"/>
-      <c r="Y66" s="118"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="116"/>
+      <c r="M66" s="116"/>
+      <c r="N66" s="116"/>
+      <c r="O66" s="116"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="116"/>
+      <c r="R66" s="116"/>
+      <c r="S66" s="116"/>
+      <c r="T66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="116"/>
+      <c r="W66" s="116"/>
+      <c r="X66" s="116"/>
+      <c r="Y66" s="116"/>
     </row>
     <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="118"/>
-      <c r="B67" s="118"/>
-      <c r="C67" s="118"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="118"/>
-      <c r="N67" s="118"/>
-      <c r="O67" s="118"/>
-      <c r="P67" s="118"/>
-      <c r="Q67" s="118"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="118"/>
-      <c r="T67" s="118"/>
-      <c r="U67" s="118"/>
-      <c r="V67" s="118"/>
-      <c r="W67" s="118"/>
-      <c r="X67" s="118"/>
-      <c r="Y67" s="118"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="116"/>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="116"/>
+      <c r="O67" s="116"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="116"/>
+      <c r="R67" s="116"/>
+      <c r="S67" s="116"/>
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="116"/>
+      <c r="W67" s="116"/>
+      <c r="X67" s="116"/>
+      <c r="Y67" s="116"/>
     </row>
     <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="118"/>
-      <c r="B68" s="118"/>
-      <c r="C68" s="118"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="118"/>
-      <c r="N68" s="118"/>
-      <c r="O68" s="118"/>
-      <c r="P68" s="118"/>
-      <c r="Q68" s="118"/>
-      <c r="R68" s="118"/>
-      <c r="S68" s="118"/>
-      <c r="T68" s="118"/>
-      <c r="U68" s="118"/>
-      <c r="V68" s="118"/>
-      <c r="W68" s="118"/>
-      <c r="X68" s="118"/>
-      <c r="Y68" s="118"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116"/>
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="116"/>
     </row>
     <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="118"/>
-      <c r="B69" s="118"/>
-      <c r="C69" s="118"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="116"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="118"/>
-      <c r="R69" s="118"/>
-      <c r="S69" s="118"/>
-      <c r="T69" s="118"/>
-      <c r="U69" s="118"/>
-      <c r="V69" s="118"/>
-      <c r="W69" s="118"/>
-      <c r="X69" s="118"/>
-      <c r="Y69" s="118"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
+      <c r="M69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="116"/>
+      <c r="R69" s="116"/>
+      <c r="S69" s="116"/>
+      <c r="T69" s="116"/>
+      <c r="U69" s="116"/>
+      <c r="V69" s="116"/>
+      <c r="W69" s="116"/>
+      <c r="X69" s="116"/>
+      <c r="Y69" s="116"/>
     </row>
     <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="118"/>
-      <c r="B70" s="118"/>
-      <c r="C70" s="118"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="116"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="118"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="118"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="118"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="118"/>
-      <c r="T70" s="118"/>
-      <c r="U70" s="118"/>
-      <c r="V70" s="118"/>
-      <c r="W70" s="118"/>
-      <c r="X70" s="118"/>
-      <c r="Y70" s="118"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
+      <c r="I70" s="116"/>
+      <c r="J70" s="116"/>
+      <c r="K70" s="116"/>
+      <c r="L70" s="116"/>
+      <c r="M70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="116"/>
+      <c r="R70" s="116"/>
+      <c r="S70" s="116"/>
+      <c r="T70" s="116"/>
+      <c r="U70" s="116"/>
+      <c r="V70" s="116"/>
+      <c r="W70" s="116"/>
+      <c r="X70" s="116"/>
+      <c r="Y70" s="116"/>
     </row>
     <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="118"/>
-      <c r="B71" s="118"/>
-      <c r="C71" s="118"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="116"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="118"/>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
-      <c r="P71" s="118"/>
-      <c r="Q71" s="118"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="118"/>
-      <c r="T71" s="118"/>
-      <c r="U71" s="118"/>
-      <c r="V71" s="118"/>
-      <c r="W71" s="118"/>
-      <c r="X71" s="118"/>
-      <c r="Y71" s="118"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="116"/>
+      <c r="M71" s="116"/>
+      <c r="N71" s="116"/>
+      <c r="O71" s="116"/>
+      <c r="P71" s="116"/>
+      <c r="Q71" s="116"/>
+      <c r="R71" s="116"/>
+      <c r="S71" s="116"/>
+      <c r="T71" s="116"/>
+      <c r="U71" s="116"/>
+      <c r="V71" s="116"/>
+      <c r="W71" s="116"/>
+      <c r="X71" s="116"/>
+      <c r="Y71" s="116"/>
     </row>
     <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="118"/>
-      <c r="B72" s="118"/>
-      <c r="C72" s="118"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="116"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="118"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="118"/>
-      <c r="N72" s="118"/>
-      <c r="O72" s="118"/>
-      <c r="P72" s="118"/>
-      <c r="Q72" s="118"/>
-      <c r="R72" s="118"/>
-      <c r="S72" s="118"/>
-      <c r="T72" s="118"/>
-      <c r="U72" s="118"/>
-      <c r="V72" s="118"/>
-      <c r="W72" s="118"/>
-      <c r="X72" s="118"/>
-      <c r="Y72" s="118"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="116"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="116"/>
+      <c r="N72" s="116"/>
+      <c r="O72" s="116"/>
+      <c r="P72" s="116"/>
+      <c r="Q72" s="116"/>
+      <c r="R72" s="116"/>
+      <c r="S72" s="116"/>
+      <c r="T72" s="116"/>
+      <c r="U72" s="116"/>
+      <c r="V72" s="116"/>
+      <c r="W72" s="116"/>
+      <c r="X72" s="116"/>
+      <c r="Y72" s="116"/>
     </row>
     <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="118"/>
-      <c r="B73" s="118"/>
-      <c r="C73" s="118"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="118"/>
-      <c r="Q73" s="118"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="118"/>
-      <c r="T73" s="118"/>
-      <c r="U73" s="118"/>
-      <c r="V73" s="118"/>
-      <c r="W73" s="118"/>
-      <c r="X73" s="118"/>
-      <c r="Y73" s="118"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
+      <c r="S73" s="116"/>
+      <c r="T73" s="116"/>
+      <c r="U73" s="116"/>
+      <c r="V73" s="116"/>
+      <c r="W73" s="116"/>
+      <c r="X73" s="116"/>
+      <c r="Y73" s="116"/>
     </row>
     <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="118"/>
-      <c r="B74" s="118"/>
-      <c r="C74" s="118"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="118"/>
-      <c r="O74" s="118"/>
-      <c r="P74" s="118"/>
-      <c r="Q74" s="118"/>
-      <c r="R74" s="118"/>
-      <c r="S74" s="118"/>
-      <c r="T74" s="118"/>
-      <c r="U74" s="118"/>
-      <c r="V74" s="118"/>
-      <c r="W74" s="118"/>
-      <c r="X74" s="118"/>
-      <c r="Y74" s="118"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="116"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="116"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="116"/>
+      <c r="L74" s="116"/>
+      <c r="M74" s="116"/>
+      <c r="N74" s="116"/>
+      <c r="O74" s="116"/>
+      <c r="P74" s="116"/>
+      <c r="Q74" s="116"/>
+      <c r="R74" s="116"/>
+      <c r="S74" s="116"/>
+      <c r="T74" s="116"/>
+      <c r="U74" s="116"/>
+      <c r="V74" s="116"/>
+      <c r="W74" s="116"/>
+      <c r="X74" s="116"/>
+      <c r="Y74" s="116"/>
     </row>
     <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="118"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="116"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="118"/>
-      <c r="K75" s="118"/>
-      <c r="L75" s="118"/>
-      <c r="M75" s="118"/>
-      <c r="N75" s="118"/>
-      <c r="O75" s="118"/>
-      <c r="P75" s="118"/>
-      <c r="Q75" s="118"/>
-      <c r="R75" s="118"/>
-      <c r="S75" s="118"/>
-      <c r="T75" s="118"/>
-      <c r="U75" s="118"/>
-      <c r="V75" s="118"/>
-      <c r="W75" s="118"/>
-      <c r="X75" s="118"/>
-      <c r="Y75" s="118"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="116"/>
+      <c r="H75" s="116"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="116"/>
+      <c r="K75" s="116"/>
+      <c r="L75" s="116"/>
+      <c r="M75" s="116"/>
+      <c r="N75" s="116"/>
+      <c r="O75" s="116"/>
+      <c r="P75" s="116"/>
+      <c r="Q75" s="116"/>
+      <c r="R75" s="116"/>
+      <c r="S75" s="116"/>
+      <c r="T75" s="116"/>
+      <c r="U75" s="116"/>
+      <c r="V75" s="116"/>
+      <c r="W75" s="116"/>
+      <c r="X75" s="116"/>
+      <c r="Y75" s="116"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="118"/>
-      <c r="B76" s="118"/>
-      <c r="C76" s="118"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="116"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="118"/>
-      <c r="N76" s="118"/>
-      <c r="O76" s="118"/>
-      <c r="P76" s="118"/>
-      <c r="Q76" s="118"/>
-      <c r="R76" s="118"/>
-      <c r="S76" s="118"/>
-      <c r="T76" s="118"/>
-      <c r="U76" s="118"/>
-      <c r="V76" s="118"/>
-      <c r="W76" s="118"/>
-      <c r="X76" s="118"/>
-      <c r="Y76" s="118"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="116"/>
+      <c r="O76" s="116"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="116"/>
+      <c r="S76" s="116"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="116"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
     </row>
     <row r="77" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="118"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="118"/>
-      <c r="M77" s="118"/>
-      <c r="N77" s="118"/>
-      <c r="O77" s="118"/>
-      <c r="P77" s="118"/>
-      <c r="Q77" s="118"/>
-      <c r="R77" s="118"/>
-      <c r="S77" s="118"/>
-      <c r="T77" s="118"/>
-      <c r="U77" s="118"/>
-      <c r="V77" s="118"/>
-      <c r="W77" s="118"/>
-      <c r="X77" s="118"/>
-      <c r="Y77" s="118"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="116"/>
+      <c r="N77" s="116"/>
+      <c r="O77" s="116"/>
+      <c r="P77" s="116"/>
+      <c r="Q77" s="116"/>
+      <c r="R77" s="116"/>
+      <c r="S77" s="116"/>
+      <c r="T77" s="116"/>
+      <c r="U77" s="116"/>
+      <c r="V77" s="116"/>
+      <c r="W77" s="116"/>
+      <c r="X77" s="116"/>
+      <c r="Y77" s="116"/>
     </row>
     <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="118"/>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
-      <c r="P78" s="118"/>
-      <c r="Q78" s="118"/>
-      <c r="R78" s="118"/>
-      <c r="S78" s="118"/>
-      <c r="T78" s="118"/>
-      <c r="U78" s="118"/>
-      <c r="V78" s="118"/>
-      <c r="W78" s="118"/>
-      <c r="X78" s="118"/>
-      <c r="Y78" s="118"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="116"/>
+      <c r="N78" s="116"/>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116"/>
+      <c r="Q78" s="116"/>
+      <c r="R78" s="116"/>
+      <c r="S78" s="116"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
+      <c r="V78" s="116"/>
+      <c r="W78" s="116"/>
+      <c r="X78" s="116"/>
+      <c r="Y78" s="116"/>
     </row>
     <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="118"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="118"/>
-      <c r="O79" s="118"/>
-      <c r="P79" s="118"/>
-      <c r="Q79" s="118"/>
-      <c r="R79" s="118"/>
-      <c r="S79" s="118"/>
-      <c r="T79" s="118"/>
-      <c r="U79" s="118"/>
-      <c r="V79" s="118"/>
-      <c r="W79" s="118"/>
-      <c r="X79" s="118"/>
-      <c r="Y79" s="118"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
     </row>
     <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="118"/>
-      <c r="B80" s="118"/>
-      <c r="C80" s="118"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="118"/>
-      <c r="N80" s="118"/>
-      <c r="O80" s="118"/>
-      <c r="P80" s="118"/>
-      <c r="Q80" s="118"/>
-      <c r="R80" s="118"/>
-      <c r="S80" s="118"/>
-      <c r="T80" s="118"/>
-      <c r="U80" s="118"/>
-      <c r="V80" s="118"/>
-      <c r="W80" s="118"/>
-      <c r="X80" s="118"/>
-      <c r="Y80" s="118"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="116"/>
+      <c r="O80" s="116"/>
+      <c r="P80" s="116"/>
+      <c r="Q80" s="116"/>
+      <c r="R80" s="116"/>
+      <c r="S80" s="116"/>
+      <c r="T80" s="116"/>
+      <c r="U80" s="116"/>
+      <c r="V80" s="116"/>
+      <c r="W80" s="116"/>
+      <c r="X80" s="116"/>
+      <c r="Y80" s="116"/>
     </row>
     <row r="81" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="118"/>
-      <c r="B81" s="118"/>
-      <c r="C81" s="118"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="116"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
-      <c r="S81" s="118"/>
-      <c r="T81" s="118"/>
-      <c r="U81" s="118"/>
-      <c r="V81" s="118"/>
-      <c r="W81" s="118"/>
-      <c r="X81" s="118"/>
-      <c r="Y81" s="118"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="116"/>
+      <c r="N81" s="116"/>
+      <c r="O81" s="116"/>
+      <c r="P81" s="116"/>
+      <c r="Q81" s="116"/>
+      <c r="R81" s="116"/>
+      <c r="S81" s="116"/>
+      <c r="T81" s="116"/>
+      <c r="U81" s="116"/>
+      <c r="V81" s="116"/>
+      <c r="W81" s="116"/>
+      <c r="X81" s="116"/>
+      <c r="Y81" s="116"/>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="118"/>
-      <c r="B82" s="118"/>
-      <c r="C82" s="118"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="118"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="118"/>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="118"/>
-      <c r="Q82" s="118"/>
-      <c r="R82" s="118"/>
-      <c r="S82" s="118"/>
-      <c r="T82" s="118"/>
-      <c r="U82" s="118"/>
-      <c r="V82" s="118"/>
-      <c r="W82" s="118"/>
-      <c r="X82" s="118"/>
-      <c r="Y82" s="118"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="116"/>
+      <c r="O82" s="116"/>
+      <c r="P82" s="116"/>
+      <c r="Q82" s="116"/>
+      <c r="R82" s="116"/>
+      <c r="S82" s="116"/>
+      <c r="T82" s="116"/>
+      <c r="U82" s="116"/>
+      <c r="V82" s="116"/>
+      <c r="W82" s="116"/>
+      <c r="X82" s="116"/>
+      <c r="Y82" s="116"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="118"/>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="118"/>
-      <c r="J83" s="118"/>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="118"/>
-      <c r="N83" s="118"/>
-      <c r="O83" s="118"/>
-      <c r="P83" s="118"/>
-      <c r="Q83" s="118"/>
-      <c r="R83" s="118"/>
-      <c r="S83" s="118"/>
-      <c r="T83" s="118"/>
-      <c r="U83" s="118"/>
-      <c r="V83" s="118"/>
-      <c r="W83" s="118"/>
-      <c r="X83" s="118"/>
-      <c r="Y83" s="118"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="116"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="116"/>
+      <c r="S83" s="116"/>
+      <c r="T83" s="116"/>
+      <c r="U83" s="116"/>
+      <c r="V83" s="116"/>
+      <c r="W83" s="116"/>
+      <c r="X83" s="116"/>
+      <c r="Y83" s="116"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="118"/>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="116"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118"/>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118"/>
-      <c r="O84" s="118"/>
-      <c r="P84" s="118"/>
-      <c r="Q84" s="118"/>
-      <c r="R84" s="118"/>
-      <c r="S84" s="118"/>
-      <c r="T84" s="118"/>
-      <c r="U84" s="118"/>
-      <c r="V84" s="118"/>
-      <c r="W84" s="118"/>
-      <c r="X84" s="118"/>
-      <c r="Y84" s="118"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="116"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="116"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
+      <c r="M84" s="116"/>
+      <c r="N84" s="116"/>
+      <c r="O84" s="116"/>
+      <c r="P84" s="116"/>
+      <c r="Q84" s="116"/>
+      <c r="R84" s="116"/>
+      <c r="S84" s="116"/>
+      <c r="T84" s="116"/>
+      <c r="U84" s="116"/>
+      <c r="V84" s="116"/>
+      <c r="W84" s="116"/>
+      <c r="X84" s="116"/>
+      <c r="Y84" s="116"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="118"/>
-      <c r="B85" s="118"/>
-      <c r="C85" s="118"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="116"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118"/>
-      <c r="P85" s="118"/>
-      <c r="Q85" s="118"/>
-      <c r="R85" s="118"/>
-      <c r="S85" s="118"/>
-      <c r="T85" s="118"/>
-      <c r="U85" s="118"/>
-      <c r="V85" s="118"/>
-      <c r="W85" s="118"/>
-      <c r="X85" s="118"/>
-      <c r="Y85" s="118"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="116"/>
+      <c r="N85" s="116"/>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="116"/>
+      <c r="S85" s="116"/>
+      <c r="T85" s="116"/>
+      <c r="U85" s="116"/>
+      <c r="V85" s="116"/>
+      <c r="W85" s="116"/>
+      <c r="X85" s="116"/>
+      <c r="Y85" s="116"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="118"/>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="118"/>
-      <c r="M86" s="118"/>
-      <c r="N86" s="118"/>
-      <c r="O86" s="118"/>
-      <c r="P86" s="118"/>
-      <c r="Q86" s="118"/>
-      <c r="R86" s="118"/>
-      <c r="S86" s="118"/>
-      <c r="T86" s="118"/>
-      <c r="U86" s="118"/>
-      <c r="V86" s="118"/>
-      <c r="W86" s="118"/>
-      <c r="X86" s="118"/>
-      <c r="Y86" s="118"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="116"/>
+      <c r="N86" s="116"/>
+      <c r="O86" s="116"/>
+      <c r="P86" s="116"/>
+      <c r="Q86" s="116"/>
+      <c r="R86" s="116"/>
+      <c r="S86" s="116"/>
+      <c r="T86" s="116"/>
+      <c r="U86" s="116"/>
+      <c r="V86" s="116"/>
+      <c r="W86" s="116"/>
+      <c r="X86" s="116"/>
+      <c r="Y86" s="116"/>
     </row>
     <row r="87" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="118"/>
-      <c r="B87" s="118"/>
-      <c r="C87" s="118"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="118"/>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118"/>
-      <c r="M87" s="118"/>
-      <c r="N87" s="118"/>
-      <c r="O87" s="118"/>
-      <c r="P87" s="118"/>
-      <c r="Q87" s="118"/>
-      <c r="R87" s="118"/>
-      <c r="S87" s="118"/>
-      <c r="T87" s="118"/>
-      <c r="U87" s="118"/>
-      <c r="V87" s="118"/>
-      <c r="W87" s="118"/>
-      <c r="X87" s="118"/>
-      <c r="Y87" s="118"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116"/>
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="116"/>
+      <c r="N87" s="116"/>
+      <c r="O87" s="116"/>
+      <c r="P87" s="116"/>
+      <c r="Q87" s="116"/>
+      <c r="R87" s="116"/>
+      <c r="S87" s="116"/>
+      <c r="T87" s="116"/>
+      <c r="U87" s="116"/>
+      <c r="V87" s="116"/>
+      <c r="W87" s="116"/>
+      <c r="X87" s="116"/>
+      <c r="Y87" s="116"/>
     </row>
     <row r="88" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="118"/>
-      <c r="B88" s="118"/>
-      <c r="C88" s="118"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="116"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
-      <c r="M88" s="118"/>
-      <c r="N88" s="118"/>
-      <c r="O88" s="118"/>
-      <c r="P88" s="118"/>
-      <c r="Q88" s="118"/>
-      <c r="R88" s="118"/>
-      <c r="S88" s="118"/>
-      <c r="T88" s="118"/>
-      <c r="U88" s="118"/>
-      <c r="V88" s="118"/>
-      <c r="W88" s="118"/>
-      <c r="X88" s="118"/>
-      <c r="Y88" s="118"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="116"/>
+      <c r="H88" s="116"/>
+      <c r="I88" s="116"/>
+      <c r="J88" s="116"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="116"/>
+      <c r="N88" s="116"/>
+      <c r="O88" s="116"/>
+      <c r="P88" s="116"/>
+      <c r="Q88" s="116"/>
+      <c r="R88" s="116"/>
+      <c r="S88" s="116"/>
+      <c r="T88" s="116"/>
+      <c r="U88" s="116"/>
+      <c r="V88" s="116"/>
+      <c r="W88" s="116"/>
+      <c r="X88" s="116"/>
+      <c r="Y88" s="116"/>
     </row>
     <row r="89" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="118"/>
-      <c r="B89" s="118"/>
-      <c r="C89" s="118"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="116"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
-      <c r="M89" s="118"/>
-      <c r="N89" s="118"/>
-      <c r="O89" s="118"/>
-      <c r="P89" s="118"/>
-      <c r="Q89" s="118"/>
-      <c r="R89" s="118"/>
-      <c r="S89" s="118"/>
-      <c r="T89" s="118"/>
-      <c r="U89" s="118"/>
-      <c r="V89" s="118"/>
-      <c r="W89" s="118"/>
-      <c r="X89" s="118"/>
-      <c r="Y89" s="118"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="116"/>
+      <c r="H89" s="116"/>
+      <c r="I89" s="116"/>
+      <c r="J89" s="116"/>
+      <c r="K89" s="116"/>
+      <c r="L89" s="116"/>
+      <c r="M89" s="116"/>
+      <c r="N89" s="116"/>
+      <c r="O89" s="116"/>
+      <c r="P89" s="116"/>
+      <c r="Q89" s="116"/>
+      <c r="R89" s="116"/>
+      <c r="S89" s="116"/>
+      <c r="T89" s="116"/>
+      <c r="U89" s="116"/>
+      <c r="V89" s="116"/>
+      <c r="W89" s="116"/>
+      <c r="X89" s="116"/>
+      <c r="Y89" s="116"/>
     </row>
     <row r="90" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="118"/>
-      <c r="B90" s="118"/>
-      <c r="C90" s="118"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="116"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="118"/>
-      <c r="N90" s="118"/>
-      <c r="O90" s="118"/>
-      <c r="P90" s="118"/>
-      <c r="Q90" s="118"/>
-      <c r="R90" s="118"/>
-      <c r="S90" s="118"/>
-      <c r="T90" s="118"/>
-      <c r="U90" s="118"/>
-      <c r="V90" s="118"/>
-      <c r="W90" s="118"/>
-      <c r="X90" s="118"/>
-      <c r="Y90" s="118"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="116"/>
+      <c r="P90" s="116"/>
+      <c r="Q90" s="116"/>
+      <c r="R90" s="116"/>
+      <c r="S90" s="116"/>
+      <c r="T90" s="116"/>
+      <c r="U90" s="116"/>
+      <c r="V90" s="116"/>
+      <c r="W90" s="116"/>
+      <c r="X90" s="116"/>
+      <c r="Y90" s="116"/>
     </row>
     <row r="91" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="118"/>
-      <c r="B91" s="118"/>
-      <c r="C91" s="118"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="116"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118"/>
-      <c r="L91" s="118"/>
-      <c r="M91" s="118"/>
-      <c r="N91" s="118"/>
-      <c r="O91" s="118"/>
-      <c r="P91" s="118"/>
-      <c r="Q91" s="118"/>
-      <c r="R91" s="118"/>
-      <c r="S91" s="118"/>
-      <c r="T91" s="118"/>
-      <c r="U91" s="118"/>
-      <c r="V91" s="118"/>
-      <c r="W91" s="118"/>
-      <c r="X91" s="118"/>
-      <c r="Y91" s="118"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
+      <c r="H91" s="116"/>
+      <c r="I91" s="116"/>
+      <c r="J91" s="116"/>
+      <c r="K91" s="116"/>
+      <c r="L91" s="116"/>
+      <c r="M91" s="116"/>
+      <c r="N91" s="116"/>
+      <c r="O91" s="116"/>
+      <c r="P91" s="116"/>
+      <c r="Q91" s="116"/>
+      <c r="R91" s="116"/>
+      <c r="S91" s="116"/>
+      <c r="T91" s="116"/>
+      <c r="U91" s="116"/>
+      <c r="V91" s="116"/>
+      <c r="W91" s="116"/>
+      <c r="X91" s="116"/>
+      <c r="Y91" s="116"/>
     </row>
     <row r="92" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="118"/>
-      <c r="B92" s="118"/>
-      <c r="C92" s="118"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="116"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="118"/>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118"/>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118"/>
-      <c r="M92" s="118"/>
-      <c r="N92" s="118"/>
-      <c r="O92" s="118"/>
-      <c r="P92" s="118"/>
-      <c r="Q92" s="118"/>
-      <c r="R92" s="118"/>
-      <c r="S92" s="118"/>
-      <c r="T92" s="118"/>
-      <c r="U92" s="118"/>
-      <c r="V92" s="118"/>
-      <c r="W92" s="118"/>
-      <c r="X92" s="118"/>
-      <c r="Y92" s="118"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116"/>
+      <c r="I92" s="116"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
+      <c r="M92" s="116"/>
+      <c r="N92" s="116"/>
+      <c r="O92" s="116"/>
+      <c r="P92" s="116"/>
+      <c r="Q92" s="116"/>
+      <c r="R92" s="116"/>
+      <c r="S92" s="116"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
     </row>
     <row r="93" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="118"/>
-      <c r="B93" s="118"/>
-      <c r="C93" s="118"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="116"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="118"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="118"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
-      <c r="K93" s="118"/>
-      <c r="L93" s="118"/>
-      <c r="M93" s="118"/>
-      <c r="N93" s="118"/>
-      <c r="O93" s="118"/>
-      <c r="P93" s="118"/>
-      <c r="Q93" s="118"/>
-      <c r="R93" s="118"/>
-      <c r="S93" s="118"/>
-      <c r="T93" s="118"/>
-      <c r="U93" s="118"/>
-      <c r="V93" s="118"/>
-      <c r="W93" s="118"/>
-      <c r="X93" s="118"/>
-      <c r="Y93" s="118"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
+      <c r="H93" s="116"/>
+      <c r="I93" s="116"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="116"/>
+      <c r="L93" s="116"/>
+      <c r="M93" s="116"/>
+      <c r="N93" s="116"/>
+      <c r="O93" s="116"/>
+      <c r="P93" s="116"/>
+      <c r="Q93" s="116"/>
+      <c r="R93" s="116"/>
+      <c r="S93" s="116"/>
+      <c r="T93" s="116"/>
+      <c r="U93" s="116"/>
+      <c r="V93" s="116"/>
+      <c r="W93" s="116"/>
+      <c r="X93" s="116"/>
+      <c r="Y93" s="116"/>
     </row>
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="118"/>
-      <c r="B94" s="118"/>
-      <c r="C94" s="118"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="116"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="118"/>
-      <c r="N94" s="118"/>
-      <c r="O94" s="118"/>
-      <c r="P94" s="118"/>
-      <c r="Q94" s="118"/>
-      <c r="R94" s="118"/>
-      <c r="S94" s="118"/>
-      <c r="T94" s="118"/>
-      <c r="U94" s="118"/>
-      <c r="V94" s="118"/>
-      <c r="W94" s="118"/>
-      <c r="X94" s="118"/>
-      <c r="Y94" s="118"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="116"/>
+      <c r="H94" s="116"/>
+      <c r="I94" s="116"/>
+      <c r="J94" s="116"/>
+      <c r="K94" s="116"/>
+      <c r="L94" s="116"/>
+      <c r="M94" s="116"/>
+      <c r="N94" s="116"/>
+      <c r="O94" s="116"/>
+      <c r="P94" s="116"/>
+      <c r="Q94" s="116"/>
+      <c r="R94" s="116"/>
+      <c r="S94" s="116"/>
+      <c r="T94" s="116"/>
+      <c r="U94" s="116"/>
+      <c r="V94" s="116"/>
+      <c r="W94" s="116"/>
+      <c r="X94" s="116"/>
+      <c r="Y94" s="116"/>
     </row>
     <row r="95" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="118"/>
-      <c r="B95" s="118"/>
-      <c r="C95" s="118"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="116"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="118"/>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="118"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118"/>
-      <c r="L95" s="118"/>
-      <c r="M95" s="118"/>
-      <c r="N95" s="118"/>
-      <c r="O95" s="118"/>
-      <c r="P95" s="118"/>
-      <c r="Q95" s="118"/>
-      <c r="R95" s="118"/>
-      <c r="S95" s="118"/>
-      <c r="T95" s="118"/>
-      <c r="U95" s="118"/>
-      <c r="V95" s="118"/>
-      <c r="W95" s="118"/>
-      <c r="X95" s="118"/>
-      <c r="Y95" s="118"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
+      <c r="T95" s="116"/>
+      <c r="U95" s="116"/>
+      <c r="V95" s="116"/>
+      <c r="W95" s="116"/>
+      <c r="X95" s="116"/>
+      <c r="Y95" s="116"/>
     </row>
     <row r="96" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="118"/>
-      <c r="B96" s="118"/>
-      <c r="C96" s="118"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="116"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="118"/>
-      <c r="F96" s="118"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="118"/>
-      <c r="I96" s="118"/>
-      <c r="J96" s="118"/>
-      <c r="K96" s="118"/>
-      <c r="L96" s="118"/>
-      <c r="M96" s="118"/>
-      <c r="N96" s="118"/>
-      <c r="O96" s="118"/>
-      <c r="P96" s="118"/>
-      <c r="Q96" s="118"/>
-      <c r="R96" s="118"/>
-      <c r="S96" s="118"/>
-      <c r="T96" s="118"/>
-      <c r="U96" s="118"/>
-      <c r="V96" s="118"/>
-      <c r="W96" s="118"/>
-      <c r="X96" s="118"/>
-      <c r="Y96" s="118"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="116"/>
+      <c r="H96" s="116"/>
+      <c r="I96" s="116"/>
+      <c r="J96" s="116"/>
+      <c r="K96" s="116"/>
+      <c r="L96" s="116"/>
+      <c r="M96" s="116"/>
+      <c r="N96" s="116"/>
+      <c r="O96" s="116"/>
+      <c r="P96" s="116"/>
+      <c r="Q96" s="116"/>
+      <c r="R96" s="116"/>
+      <c r="S96" s="116"/>
+      <c r="T96" s="116"/>
+      <c r="U96" s="116"/>
+      <c r="V96" s="116"/>
+      <c r="W96" s="116"/>
+      <c r="X96" s="116"/>
+      <c r="Y96" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15197,7 +15159,7 @@
       </c>
       <c r="C12" s="38"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="119"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="38"/>
       <c r="H12" s="39" t="s">
         <v>63</v>
@@ -15372,7 +15334,7 @@
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="119"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="38"/>
       <c r="H25" s="43" t="s">
         <v>46</v>
@@ -15461,7 +15423,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15508,9 +15470,9 @@
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="56" t="s">
@@ -15524,20 +15486,18 @@
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="D7" s="92" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="55"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="I7" s="55" t="s">
+        <v>218</v>
+      </c>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
     </row>
@@ -15553,9 +15513,13 @@
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="92"/>
-      <c r="E9" s="53"/>
+    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D9" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>190</v>
+      </c>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
     </row>
@@ -15586,10 +15550,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD8067-A579-4749-B3F6-18055CAB8E07}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15634,7 +15598,7 @@
       <c r="E2" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="119" t="s">
         <v>199</v>
       </c>
       <c r="H2" s="62" t="s">
@@ -15884,142 +15848,146 @@
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" s="70"/>
       <c r="E24" s="70"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="78" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
     </row>
-    <row r="26" spans="1:5" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="71"/>
+        <v>119</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>120</v>
+      </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>105</v>
+      </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="70"/>
+    <row r="28" spans="1:5" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>153</v>
+      </c>
       <c r="C28" s="71"/>
       <c r="D28" s="70"/>
       <c r="E28" s="70"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>94</v>
-      </c>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="78"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="70"/>
       <c r="E29" s="70"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>94</v>
-      </c>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="70"/>
       <c r="E30" s="70"/>
     </row>
-    <row r="31" spans="1:5" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="78" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="D31" s="70"/>
       <c r="E31" s="70"/>
     </row>
-    <row r="32" spans="1:5" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>94</v>
+      </c>
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
+    <row r="33" spans="1:5" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>209</v>
+      </c>
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>10</v>
-      </c>
+    <row r="34" spans="1:5" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="71"/>
       <c r="D34" s="70"/>
       <c r="E34" s="70"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>129</v>
-      </c>
+      <c r="A35" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="70"/>
       <c r="C35" s="71"/>
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="70"/>
@@ -16027,60 +15995,56 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>131</v>
+      </c>
       <c r="C38" s="71"/>
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="70"/>
+      <c r="A39" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>133</v>
+      </c>
       <c r="C39" s="71"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>139</v>
-      </c>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="70"/>
       <c r="E40" s="70"/>
     </row>
-    <row r="41" spans="1:5" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>139</v>
-      </c>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
     </row>
-    <row r="42" spans="1:5" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="s">
-        <v>202</v>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="120" t="s">
+        <v>200</v>
       </c>
       <c r="B42" s="70" t="s">
         <v>135</v>
@@ -16091,12 +16055,12 @@
       <c r="D42" s="70"/>
       <c r="E42" s="70"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="78" t="s">
-        <v>148</v>
+    <row r="43" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="120" t="s">
+        <v>201</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="71" t="s">
         <v>139</v>
@@ -16104,12 +16068,12 @@
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
     </row>
-    <row r="44" spans="1:5" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A44" s="78" t="s">
-        <v>178</v>
+    <row r="44" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="120" t="s">
+        <v>202</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>139</v>
@@ -16117,9 +16081,9 @@
       <c r="D44" s="70"/>
       <c r="E44" s="70"/>
     </row>
-    <row r="45" spans="1:5" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="78" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B45" s="70" t="s">
         <v>136</v>
@@ -16130,12 +16094,12 @@
       <c r="D45" s="70"/>
       <c r="E45" s="70"/>
     </row>
-    <row r="46" spans="1:5" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="122" t="s">
-        <v>195</v>
+    <row r="46" spans="1:5" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="78" t="s">
+        <v>178</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C46" s="71" t="s">
         <v>139</v>
@@ -16143,12 +16107,12 @@
       <c r="D46" s="70"/>
       <c r="E46" s="70"/>
     </row>
-    <row r="47" spans="1:5" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="122" t="s">
-        <v>196</v>
+    <row r="47" spans="1:5" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="78" t="s">
+        <v>179</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>139</v>
@@ -16156,9 +16120,9 @@
       <c r="D47" s="70"/>
       <c r="E47" s="70"/>
     </row>
-    <row r="48" spans="1:5" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="122" t="s">
-        <v>197</v>
+    <row r="48" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="120" t="s">
+        <v>195</v>
       </c>
       <c r="B48" s="70" t="s">
         <v>194</v>
@@ -16169,12 +16133,12 @@
       <c r="D48" s="70"/>
       <c r="E48" s="70"/>
     </row>
-    <row r="49" spans="1:5" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A49" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="103" t="s">
-        <v>183</v>
+    <row r="49" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>194</v>
       </c>
       <c r="C49" s="71" t="s">
         <v>139</v>
@@ -16182,12 +16146,12 @@
       <c r="D49" s="70"/>
       <c r="E49" s="70"/>
     </row>
-    <row r="50" spans="1:5" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A50" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="103" t="s">
-        <v>183</v>
+    <row r="50" spans="1:5" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>194</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>139</v>
@@ -16197,7 +16161,7 @@
     </row>
     <row r="51" spans="1:5" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" s="103" t="s">
         <v>183</v>
@@ -16208,25 +16172,25 @@
       <c r="D51" s="70"/>
       <c r="E51" s="70"/>
     </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>138</v>
+    <row r="52" spans="1:5" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>183</v>
       </c>
       <c r="C52" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-    </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>141</v>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+    </row>
+    <row r="53" spans="1:5" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>183</v>
       </c>
       <c r="C53" s="71" t="s">
         <v>139</v>
@@ -16234,47 +16198,73 @@
       <c r="D53" s="70"/>
       <c r="E53" s="70"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="120" t="s">
-        <v>142</v>
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="118" t="s">
+        <v>137</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C54" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>139</v>
+      </c>
       <c r="D55" s="70"/>
       <c r="E55" s="70"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>139</v>
+      </c>
       <c r="D56" s="70"/>
       <c r="E56" s="70"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>146</v>
-      </c>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="70"/>
       <c r="E57" s="70"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8D79B-99BA-4DB0-921C-EC4758499900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE8B09-D2FB-4C05-A34E-3D5DF1A3479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
   <si>
     <t>Area</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>There is a loading screen between the menu and the game</t>
+  </si>
+  <si>
+    <t>Buttons make a click when pressed</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1594,6 +1597,15 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2025,8 +2037,8 @@
   </sheetPr>
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2630,10 +2642,16 @@
     </row>
     <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
@@ -9617,7 +9635,7 @@
   </sheetPr>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -10475,16 +10493,16 @@
     <row r="27" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="140">
         <v>2</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="140">
         <v>2</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="141">
         <v>4</v>
       </c>
       <c r="G27" s="29"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE8B09-D2FB-4C05-A34E-3D5DF1A3479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770EAC4-FB29-49B0-85CD-BF817EAB85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="45" windowWidth="14355" windowHeight="15495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t>Area</t>
   </si>
@@ -695,9 +695,6 @@
   </si>
   <si>
     <t>Falling Rectangles Need to speed up their fall as the layer increases</t>
-  </si>
-  <si>
-    <t>There is a loading screen between the Menu and the game</t>
   </si>
   <si>
     <t>There is a loading screen between the menu and the game</t>
@@ -1200,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1597,15 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2400,37 +2388,33 @@
       <c r="S13" s="114"/>
       <c r="T13" s="114"/>
     </row>
-    <row r="14" spans="1:20" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="122">
-        <v>2</v>
-      </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122">
-        <v>3</v>
-      </c>
+    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2452,66 +2436,70 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="E16" s="1">
         <v>3</v>
       </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
@@ -2531,14 +2519,14 @@
     <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
@@ -2559,7 +2547,7 @@
     <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2584,10 +2572,10 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -2612,17 +2600,17 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
@@ -2642,16 +2630,10 @@
     </row>
     <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
@@ -3987,28 +3969,6 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-    </row>
-    <row r="84" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9635,8 +9595,8 @@
   </sheetPr>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10493,16 +10453,16 @@
     <row r="27" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="139" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="140">
+      <c r="C27" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="99">
         <v>2</v>
       </c>
-      <c r="E27" s="140">
+      <c r="E27" s="99">
         <v>2</v>
       </c>
-      <c r="F27" s="141">
+      <c r="F27" s="101">
         <v>4</v>
       </c>
       <c r="G27" s="29"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770EAC4-FB29-49B0-85CD-BF817EAB85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73710B7A-F693-42D1-B8C8-D0BF5402F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="45" windowWidth="14355" windowHeight="15495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="45" windowWidth="14355" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="222">
   <si>
     <t>Area</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>Buttons make a click when pressed</t>
+  </si>
+  <si>
+    <t>The sun aniimate on layer completion</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1551,6 +1554,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2045,14 +2054,14 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="128" t="s">
+      <c r="D1" s="131"/>
+      <c r="E1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="130"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2071,14 +2080,14 @@
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="131" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
+      <c r="F2" s="132"/>
       <c r="G2" s="36"/>
       <c r="H2" s="35" t="s">
         <v>74</v>
@@ -2099,14 +2108,14 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="131" t="s">
+      <c r="D3" s="131"/>
+      <c r="E3" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="91"/>
       <c r="H3" s="35"/>
       <c r="I3" s="1"/>
@@ -2125,14 +2134,14 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="127"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2224,121 +2233,113 @@
       <c r="S7" s="114"/>
       <c r="T7" s="114"/>
     </row>
-    <row r="8" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="116">
+        <v>210</v>
+      </c>
+      <c r="C8" s="122">
         <v>2</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116">
+      <c r="D8" s="122"/>
+      <c r="E8" s="122">
         <v>2</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-    </row>
-    <row r="9" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="116">
-        <v>2</v>
-      </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116">
-        <v>2</v>
-      </c>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-    </row>
-    <row r="10" spans="1:20" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="116">
+      <c r="G9" s="9"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="126">
+        <v>3</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-    </row>
-    <row r="11" spans="1:20" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="122">
-        <v>2</v>
-      </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122">
-        <v>2</v>
-      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2360,37 +2361,37 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" s="113" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="114">
-        <v>1</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
+    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2412,14 +2413,18 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
@@ -2437,9 +2442,9 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2448,30 +2453,34 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -2488,17 +2497,17 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -2516,17 +2525,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
@@ -2544,18 +2553,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
@@ -2572,18 +2575,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
@@ -2602,16 +2599,10 @@
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
@@ -3903,72 +3894,6 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-    </row>
-    <row r="81" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-    </row>
-    <row r="82" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-    </row>
-    <row r="83" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4100,11 +4025,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4256,7 +4181,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="139" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="1"/>
@@ -4291,7 +4216,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="24" t="s">
@@ -4324,7 +4249,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="24" t="s">
@@ -4452,104 +4377,104 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18" s="16"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5219,15 +5144,15 @@
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
       <c r="O39" s="1"/>
@@ -6911,11 +6836,11 @@
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
@@ -7261,104 +7186,104 @@
       <c r="Y14" s="86"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18" s="16"/>
       <c r="O18" s="86"/>
       <c r="P18" s="86"/>
@@ -8012,15 +7937,15 @@
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
       <c r="O39" s="86"/>
@@ -9595,7 +9520,7 @@
   </sheetPr>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -9703,11 +9628,11 @@
       <c r="A4" s="105"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="105"/>
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
@@ -10053,104 +9978,104 @@
       <c r="Y14" s="105"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18" s="16"/>
       <c r="O18" s="105"/>
       <c r="P18" s="105"/>
@@ -10241,16 +10166,16 @@
     <row r="21" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="99">
         <v>2</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="99">
         <v>2</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="100">
         <v>2</v>
       </c>
       <c r="G21" s="29"/>
@@ -10278,16 +10203,16 @@
     <row r="22" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="99">
         <v>2</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="99">
         <v>2</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="100">
         <v>4</v>
       </c>
       <c r="G22" s="29"/>
@@ -10313,16 +10238,16 @@
     <row r="23" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="29"/>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="99">
         <v>1</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="99">
         <v>2</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="100">
         <v>1</v>
       </c>
       <c r="G23" s="29"/>
@@ -10383,16 +10308,16 @@
     <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="99">
         <v>1</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="99">
         <v>2</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="100">
         <v>1</v>
       </c>
       <c r="G25" s="29"/>
@@ -10661,15 +10586,15 @@
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="133"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="28"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="133"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="135"/>
       <c r="M34" s="29"/>
       <c r="N34" s="16"/>
       <c r="O34" s="105"/>
@@ -12352,11 +12277,11 @@
       <c r="A4" s="116"/>
       <c r="B4" s="116"/>
       <c r="C4" s="116"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="I4" s="116"/>
@@ -12702,104 +12627,104 @@
       <c r="Y14" s="116"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18" s="16"/>
       <c r="O18" s="116"/>
       <c r="P18" s="116"/>
@@ -13389,15 +13314,15 @@
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="133"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
       <c r="M39" s="29"/>
       <c r="N39" s="16"/>
       <c r="O39" s="116"/>

--- a/BacklogTasks.xlsx
+++ b/BacklogTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\DesignAndPublishUnity\CoreRun\CoreRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73710B7A-F693-42D1-B8C8-D0BF5402F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F0C37-DDAC-4C16-A24D-8271A2C1F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="45" windowWidth="14355" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="220">
   <si>
     <t>Area</t>
   </si>
@@ -694,16 +694,10 @@
     <t>SmoothSand.png</t>
   </si>
   <si>
-    <t>Falling Rectangles Need to speed up their fall as the layer increases</t>
-  </si>
-  <si>
     <t>There is a loading screen between the menu and the game</t>
   </si>
   <si>
     <t>Buttons make a click when pressed</t>
-  </si>
-  <si>
-    <t>The sun aniimate on layer completion</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1547,19 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrap